--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.209055</v>
+        <v>0.215102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193474</v>
+        <v>0.202538</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21011</v>
+        <v>0.226996</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.220148</v>
+        <v>0.219199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.197691</v>
+        <v>0.208326</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214175</v>
+        <v>0.225927</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.220043</v>
+        <v>0.233408</v>
       </c>
       <c r="C4" t="n">
-        <v>0.200806</v>
+        <v>0.220531</v>
       </c>
       <c r="D4" t="n">
-        <v>0.220695</v>
+        <v>0.226778</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229233</v>
+        <v>0.22819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.207866</v>
+        <v>0.215515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.233656</v>
+        <v>0.228682</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225376</v>
+        <v>0.23468</v>
       </c>
       <c r="C6" t="n">
-        <v>0.210056</v>
+        <v>0.226864</v>
       </c>
       <c r="D6" t="n">
-        <v>0.234394</v>
+        <v>0.238698</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.231937</v>
+        <v>0.243094</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182393</v>
+        <v>0.18907</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201508</v>
+        <v>0.207961</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.238564</v>
+        <v>0.243312</v>
       </c>
       <c r="C8" t="n">
-        <v>0.186881</v>
+        <v>0.196369</v>
       </c>
       <c r="D8" t="n">
-        <v>0.203695</v>
+        <v>0.209647</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.24144</v>
+        <v>0.259347</v>
       </c>
       <c r="C9" t="n">
-        <v>0.188264</v>
+        <v>0.208408</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2047</v>
+        <v>0.224775</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.251855</v>
+        <v>0.250955</v>
       </c>
       <c r="C10" t="n">
-        <v>0.188322</v>
+        <v>0.201478</v>
       </c>
       <c r="D10" t="n">
-        <v>0.212127</v>
+        <v>0.216083</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.261229</v>
+        <v>0.266295</v>
       </c>
       <c r="C11" t="n">
-        <v>0.186716</v>
+        <v>0.204693</v>
       </c>
       <c r="D11" t="n">
-        <v>0.211781</v>
+        <v>0.217216</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.260678</v>
+        <v>0.2585</v>
       </c>
       <c r="C12" t="n">
-        <v>0.191975</v>
+        <v>0.214579</v>
       </c>
       <c r="D12" t="n">
-        <v>0.217661</v>
+        <v>0.217216</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222118</v>
+        <v>0.230805</v>
       </c>
       <c r="C13" t="n">
-        <v>0.196635</v>
+        <v>0.20281</v>
       </c>
       <c r="D13" t="n">
-        <v>0.219379</v>
+        <v>0.226772</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220005</v>
+        <v>0.223718</v>
       </c>
       <c r="C14" t="n">
-        <v>0.204612</v>
+        <v>0.21335</v>
       </c>
       <c r="D14" t="n">
-        <v>0.223897</v>
+        <v>0.221587</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.220237</v>
+        <v>0.228137</v>
       </c>
       <c r="C15" t="n">
-        <v>0.206361</v>
+        <v>0.212919</v>
       </c>
       <c r="D15" t="n">
-        <v>0.227039</v>
+        <v>0.23534</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.23398</v>
+        <v>0.23101</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209841</v>
+        <v>0.215706</v>
       </c>
       <c r="D16" t="n">
-        <v>0.237544</v>
+        <v>0.230498</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.233152</v>
+        <v>0.231652</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212063</v>
+        <v>0.227173</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233557</v>
+        <v>0.235968</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.239178</v>
+        <v>0.234869</v>
       </c>
       <c r="C18" t="n">
-        <v>0.220647</v>
+        <v>0.233952</v>
       </c>
       <c r="D18" t="n">
-        <v>0.237412</v>
+        <v>0.243602</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.240622</v>
+        <v>0.243065</v>
       </c>
       <c r="C19" t="n">
-        <v>0.227732</v>
+        <v>0.229607</v>
       </c>
       <c r="D19" t="n">
-        <v>0.241751</v>
+        <v>0.247195</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245309</v>
+        <v>0.240855</v>
       </c>
       <c r="C20" t="n">
-        <v>0.222377</v>
+        <v>0.237945</v>
       </c>
       <c r="D20" t="n">
-        <v>0.252722</v>
+        <v>0.249257</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253868</v>
+        <v>0.246128</v>
       </c>
       <c r="C21" t="n">
-        <v>0.185363</v>
+        <v>0.208402</v>
       </c>
       <c r="D21" t="n">
-        <v>0.212288</v>
+        <v>0.216236</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.259692</v>
+        <v>0.250831</v>
       </c>
       <c r="C22" t="n">
-        <v>0.200482</v>
+        <v>0.206784</v>
       </c>
       <c r="D22" t="n">
-        <v>0.22107</v>
+        <v>0.218343</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.261086</v>
+        <v>0.257541</v>
       </c>
       <c r="C23" t="n">
-        <v>0.192581</v>
+        <v>0.206995</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216685</v>
+        <v>0.227324</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.258398</v>
+        <v>0.263866</v>
       </c>
       <c r="C24" t="n">
-        <v>0.199899</v>
+        <v>0.205182</v>
       </c>
       <c r="D24" t="n">
-        <v>0.233126</v>
+        <v>0.220454</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.269988</v>
+        <v>0.264405</v>
       </c>
       <c r="C25" t="n">
-        <v>0.205846</v>
+        <v>0.208914</v>
       </c>
       <c r="D25" t="n">
-        <v>0.230756</v>
+        <v>0.227394</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.279817</v>
+        <v>0.279418</v>
       </c>
       <c r="C26" t="n">
-        <v>0.205336</v>
+        <v>0.22004</v>
       </c>
       <c r="D26" t="n">
-        <v>0.240519</v>
+        <v>0.228602</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.233229</v>
+        <v>0.234548</v>
       </c>
       <c r="C27" t="n">
-        <v>0.208318</v>
+        <v>0.216978</v>
       </c>
       <c r="D27" t="n">
-        <v>0.231948</v>
+        <v>0.23757</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.237494</v>
+        <v>0.2339</v>
       </c>
       <c r="C28" t="n">
-        <v>0.210374</v>
+        <v>0.230558</v>
       </c>
       <c r="D28" t="n">
-        <v>0.248495</v>
+        <v>0.237678</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.24229</v>
+        <v>0.242075</v>
       </c>
       <c r="C29" t="n">
-        <v>0.212971</v>
+        <v>0.231668</v>
       </c>
       <c r="D29" t="n">
-        <v>0.242221</v>
+        <v>0.246335</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.251936</v>
+        <v>0.256641</v>
       </c>
       <c r="C30" t="n">
-        <v>0.228439</v>
+        <v>0.238499</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247197</v>
+        <v>0.246938</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.252118</v>
+        <v>0.250061</v>
       </c>
       <c r="C31" t="n">
-        <v>0.232184</v>
+        <v>0.238936</v>
       </c>
       <c r="D31" t="n">
-        <v>0.256003</v>
+        <v>0.257369</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.253239</v>
+        <v>0.254816</v>
       </c>
       <c r="C32" t="n">
-        <v>0.241552</v>
+        <v>0.246464</v>
       </c>
       <c r="D32" t="n">
-        <v>0.259474</v>
+        <v>0.261556</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.271478</v>
+        <v>0.263039</v>
       </c>
       <c r="C33" t="n">
-        <v>0.25237</v>
+        <v>0.252827</v>
       </c>
       <c r="D33" t="n">
-        <v>0.265312</v>
+        <v>0.271897</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269222</v>
+        <v>0.260087</v>
       </c>
       <c r="C34" t="n">
-        <v>0.245687</v>
+        <v>0.254243</v>
       </c>
       <c r="D34" t="n">
-        <v>0.266995</v>
+        <v>0.287982</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.281034</v>
+        <v>0.279802</v>
       </c>
       <c r="C35" t="n">
-        <v>0.213044</v>
+        <v>0.223469</v>
       </c>
       <c r="D35" t="n">
-        <v>0.232185</v>
+        <v>0.230686</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.275949</v>
+        <v>0.297573</v>
       </c>
       <c r="C36" t="n">
-        <v>0.221934</v>
+        <v>0.23406</v>
       </c>
       <c r="D36" t="n">
-        <v>0.244752</v>
+        <v>0.24125</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.287289</v>
+        <v>0.286563</v>
       </c>
       <c r="C37" t="n">
-        <v>0.221827</v>
+        <v>0.239323</v>
       </c>
       <c r="D37" t="n">
-        <v>0.238567</v>
+        <v>0.257966</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.300834</v>
+        <v>0.299919</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228613</v>
+        <v>0.248581</v>
       </c>
       <c r="D38" t="n">
-        <v>0.24584</v>
+        <v>0.250283</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.297491</v>
+        <v>0.302375</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230636</v>
+        <v>0.262044</v>
       </c>
       <c r="D39" t="n">
-        <v>0.253868</v>
+        <v>0.256864</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.308936</v>
+        <v>0.31402</v>
       </c>
       <c r="C40" t="n">
-        <v>0.246946</v>
+        <v>0.251581</v>
       </c>
       <c r="D40" t="n">
-        <v>0.269732</v>
+        <v>0.264608</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.310733</v>
+        <v>0.316377</v>
       </c>
       <c r="C41" t="n">
-        <v>0.248102</v>
+        <v>0.255297</v>
       </c>
       <c r="D41" t="n">
-        <v>0.263126</v>
+        <v>0.280529</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.328603</v>
+        <v>0.327562</v>
       </c>
       <c r="C42" t="n">
-        <v>0.252985</v>
+        <v>0.262402</v>
       </c>
       <c r="D42" t="n">
-        <v>0.27217</v>
+        <v>0.275942</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.318206</v>
+        <v>0.345431</v>
       </c>
       <c r="C43" t="n">
-        <v>0.252775</v>
+        <v>0.274383</v>
       </c>
       <c r="D43" t="n">
-        <v>0.289264</v>
+        <v>0.286111</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.324662</v>
+        <v>0.347032</v>
       </c>
       <c r="C44" t="n">
-        <v>0.265269</v>
+        <v>0.282092</v>
       </c>
       <c r="D44" t="n">
-        <v>0.280592</v>
+        <v>0.295819</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.343518</v>
+        <v>0.355293</v>
       </c>
       <c r="C45" t="n">
-        <v>0.279814</v>
+        <v>0.286269</v>
       </c>
       <c r="D45" t="n">
-        <v>0.292347</v>
+        <v>0.304923</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3424</v>
+        <v>0.355108</v>
       </c>
       <c r="C46" t="n">
-        <v>0.285698</v>
+        <v>0.290902</v>
       </c>
       <c r="D46" t="n">
-        <v>0.300407</v>
+        <v>0.300509</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.363824</v>
+        <v>0.381825</v>
       </c>
       <c r="C47" t="n">
-        <v>0.284413</v>
+        <v>0.30137</v>
       </c>
       <c r="D47" t="n">
-        <v>0.305831</v>
+        <v>0.327637</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.358715</v>
+        <v>0.422735</v>
       </c>
       <c r="C48" t="n">
-        <v>0.29577</v>
+        <v>0.324761</v>
       </c>
       <c r="D48" t="n">
-        <v>0.309956</v>
+        <v>0.328271</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.373137</v>
+        <v>0.423135</v>
       </c>
       <c r="C49" t="n">
-        <v>0.292084</v>
+        <v>0.33081</v>
       </c>
       <c r="D49" t="n">
-        <v>0.319065</v>
+        <v>0.345713</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.394916</v>
+        <v>0.45317</v>
       </c>
       <c r="C50" t="n">
-        <v>0.300329</v>
+        <v>0.333547</v>
       </c>
       <c r="D50" t="n">
-        <v>0.30991</v>
+        <v>0.319596</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.404136</v>
+        <v>0.430944</v>
       </c>
       <c r="C51" t="n">
-        <v>0.29666</v>
+        <v>0.335812</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317837</v>
+        <v>0.350047</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.412408</v>
+        <v>0.480645</v>
       </c>
       <c r="C52" t="n">
-        <v>0.308394</v>
+        <v>0.345835</v>
       </c>
       <c r="D52" t="n">
-        <v>0.330696</v>
+        <v>0.33978</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.435799</v>
+        <v>0.474004</v>
       </c>
       <c r="C53" t="n">
-        <v>0.318175</v>
+        <v>0.344698</v>
       </c>
       <c r="D53" t="n">
-        <v>0.326562</v>
+        <v>0.335906</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.453046</v>
+        <v>0.480488</v>
       </c>
       <c r="C54" t="n">
-        <v>0.335098</v>
+        <v>0.359152</v>
       </c>
       <c r="D54" t="n">
-        <v>0.343543</v>
+        <v>0.355691</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.463288</v>
+        <v>0.503495</v>
       </c>
       <c r="C55" t="n">
-        <v>0.340454</v>
+        <v>0.394668</v>
       </c>
       <c r="D55" t="n">
-        <v>0.360394</v>
+        <v>0.378053</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.546525</v>
+        <v>0.563758</v>
       </c>
       <c r="C56" t="n">
-        <v>0.352489</v>
+        <v>0.392041</v>
       </c>
       <c r="D56" t="n">
-        <v>0.380377</v>
+        <v>0.405159</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.558411</v>
+        <v>0.579207</v>
       </c>
       <c r="C57" t="n">
-        <v>0.365129</v>
+        <v>0.402557</v>
       </c>
       <c r="D57" t="n">
-        <v>0.380979</v>
+        <v>0.405252</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.539241</v>
+        <v>0.6336039999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.383725</v>
+        <v>0.425783</v>
       </c>
       <c r="D58" t="n">
-        <v>0.400562</v>
+        <v>0.463629</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.594202</v>
+        <v>0.658037</v>
       </c>
       <c r="C59" t="n">
-        <v>0.389844</v>
+        <v>0.46038</v>
       </c>
       <c r="D59" t="n">
-        <v>0.425335</v>
+        <v>0.459733</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.626016</v>
+        <v>0.653832</v>
       </c>
       <c r="C60" t="n">
-        <v>0.410287</v>
+        <v>0.480976</v>
       </c>
       <c r="D60" t="n">
-        <v>0.420243</v>
+        <v>0.47161</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.598307</v>
+        <v>0.661909</v>
       </c>
       <c r="C61" t="n">
-        <v>0.440603</v>
+        <v>0.479749</v>
       </c>
       <c r="D61" t="n">
-        <v>0.445607</v>
+        <v>0.479098</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6082</v>
+        <v>0.679353</v>
       </c>
       <c r="C62" t="n">
-        <v>0.444964</v>
+        <v>0.483493</v>
       </c>
       <c r="D62" t="n">
-        <v>0.47107</v>
+        <v>0.506235</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.636163</v>
+        <v>0.674497</v>
       </c>
       <c r="C63" t="n">
-        <v>0.44719</v>
+        <v>0.516587</v>
       </c>
       <c r="D63" t="n">
-        <v>0.476918</v>
+        <v>0.517162</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.66412</v>
+        <v>0.719844</v>
       </c>
       <c r="C64" t="n">
-        <v>0.498886</v>
+        <v>0.543494</v>
       </c>
       <c r="D64" t="n">
-        <v>0.512863</v>
+        <v>0.5584249999999999</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.659731</v>
+        <v>0.727237</v>
       </c>
       <c r="C65" t="n">
-        <v>0.542946</v>
+        <v>0.588295</v>
       </c>
       <c r="D65" t="n">
-        <v>0.530613</v>
+        <v>0.59743</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.69951</v>
+        <v>0.766529</v>
       </c>
       <c r="C66" t="n">
-        <v>0.507592</v>
+        <v>0.6132030000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.533948</v>
+        <v>0.652873</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.71023</v>
+        <v>0.790926</v>
       </c>
       <c r="C67" t="n">
-        <v>0.534018</v>
+        <v>0.617378</v>
       </c>
       <c r="D67" t="n">
-        <v>0.548818</v>
+        <v>0.632526</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.731108</v>
+        <v>0.779228</v>
       </c>
       <c r="C68" t="n">
-        <v>0.555328</v>
+        <v>0.656228</v>
       </c>
       <c r="D68" t="n">
-        <v>0.563508</v>
+        <v>0.636423</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.761018</v>
+        <v>0.831066</v>
       </c>
       <c r="C69" t="n">
-        <v>0.55905</v>
+        <v>0.670574</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5826519999999999</v>
+        <v>0.681501</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.747424</v>
+        <v>0.840861</v>
       </c>
       <c r="C70" t="n">
-        <v>0.610461</v>
+        <v>0.643141</v>
       </c>
       <c r="D70" t="n">
-        <v>0.632131</v>
+        <v>0.676915</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.781579</v>
+        <v>0.817132</v>
       </c>
       <c r="C71" t="n">
-        <v>0.592156</v>
+        <v>0.679623</v>
       </c>
       <c r="D71" t="n">
-        <v>0.636543</v>
+        <v>0.663529</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.792731</v>
+        <v>0.872273</v>
       </c>
       <c r="C72" t="n">
-        <v>0.656534</v>
+        <v>0.694981</v>
       </c>
       <c r="D72" t="n">
-        <v>0.689103</v>
+        <v>0.727321</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.819565</v>
+        <v>0.830055</v>
       </c>
       <c r="C73" t="n">
-        <v>0.638841</v>
+        <v>0.716387</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6694</v>
+        <v>0.70764</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.830576</v>
+        <v>0.869776</v>
       </c>
       <c r="C74" t="n">
-        <v>0.686786</v>
+        <v>0.708678</v>
       </c>
       <c r="D74" t="n">
-        <v>0.703403</v>
+        <v>0.734196</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.871812</v>
+        <v>0.894993</v>
       </c>
       <c r="C75" t="n">
-        <v>0.658342</v>
+        <v>0.76696</v>
       </c>
       <c r="D75" t="n">
-        <v>0.722045</v>
+        <v>0.782022</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.847198</v>
+        <v>0.907548</v>
       </c>
       <c r="C76" t="n">
-        <v>0.732679</v>
+        <v>0.787005</v>
       </c>
       <c r="D76" t="n">
-        <v>0.735889</v>
+        <v>0.8007</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.866777</v>
+        <v>0.942808</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7496930000000001</v>
+        <v>0.78528</v>
       </c>
       <c r="D77" t="n">
-        <v>0.770053</v>
+        <v>0.815354</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.884695</v>
+        <v>0.942352</v>
       </c>
       <c r="C78" t="n">
-        <v>0.730325</v>
+        <v>0.771595</v>
       </c>
       <c r="D78" t="n">
-        <v>0.756783</v>
+        <v>0.815688</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.924435</v>
+        <v>0.990771</v>
       </c>
       <c r="C79" t="n">
-        <v>0.746314</v>
+        <v>0.824489</v>
       </c>
       <c r="D79" t="n">
-        <v>0.778434</v>
+        <v>0.81669</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.927474</v>
+        <v>0.97806</v>
       </c>
       <c r="C80" t="n">
-        <v>0.757651</v>
+        <v>0.81133</v>
       </c>
       <c r="D80" t="n">
-        <v>0.784592</v>
+        <v>0.816894</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.959741</v>
+        <v>0.979039</v>
       </c>
       <c r="C81" t="n">
-        <v>0.757275</v>
+        <v>0.848649</v>
       </c>
       <c r="D81" t="n">
-        <v>0.787044</v>
+        <v>0.8208530000000001</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.961551</v>
+        <v>1.00943</v>
       </c>
       <c r="C82" t="n">
-        <v>0.776211</v>
+        <v>0.830384</v>
       </c>
       <c r="D82" t="n">
-        <v>0.833055</v>
+        <v>0.852523</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9881799999999999</v>
+        <v>1.01091</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7949079999999999</v>
+        <v>0.8769</v>
       </c>
       <c r="D83" t="n">
-        <v>0.820286</v>
+        <v>0.870785</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.914278</v>
+        <v>0.9494050000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.807863</v>
+        <v>0.865927</v>
       </c>
       <c r="D84" t="n">
-        <v>0.84527</v>
+        <v>0.904058</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.928786</v>
+        <v>0.9698870000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.82032</v>
+        <v>0.881233</v>
       </c>
       <c r="D85" t="n">
-        <v>0.878889</v>
+        <v>0.88557</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.936272</v>
+        <v>0.989476</v>
       </c>
       <c r="C86" t="n">
-        <v>0.852538</v>
+        <v>0.880525</v>
       </c>
       <c r="D86" t="n">
-        <v>0.896297</v>
+        <v>0.910293</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.966194</v>
+        <v>0.987594</v>
       </c>
       <c r="C87" t="n">
-        <v>0.842831</v>
+        <v>0.917145</v>
       </c>
       <c r="D87" t="n">
-        <v>0.885585</v>
+        <v>0.934195</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9758289999999999</v>
+        <v>1.03446</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8767779999999999</v>
+        <v>0.926494</v>
       </c>
       <c r="D88" t="n">
-        <v>0.926507</v>
+        <v>0.971282</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.996027</v>
+        <v>1.03078</v>
       </c>
       <c r="C89" t="n">
-        <v>0.899494</v>
+        <v>0.926847</v>
       </c>
       <c r="D89" t="n">
-        <v>0.932716</v>
+        <v>0.964303</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.01365</v>
+        <v>1.00899</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9280929999999999</v>
+        <v>0.959214</v>
       </c>
       <c r="D90" t="n">
-        <v>0.94451</v>
+        <v>1.00113</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.01535</v>
+        <v>1.05839</v>
       </c>
       <c r="C91" t="n">
-        <v>0.927637</v>
+        <v>0.97451</v>
       </c>
       <c r="D91" t="n">
-        <v>0.974781</v>
+        <v>1.03817</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.05728</v>
+        <v>1.04711</v>
       </c>
       <c r="C92" t="n">
-        <v>0.859649</v>
+        <v>0.917622</v>
       </c>
       <c r="D92" t="n">
-        <v>0.917122</v>
+        <v>0.936696</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.03721</v>
+        <v>1.11175</v>
       </c>
       <c r="C93" t="n">
-        <v>0.90013</v>
+        <v>0.918036</v>
       </c>
       <c r="D93" t="n">
-        <v>0.916371</v>
+        <v>0.940225</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.06456</v>
+        <v>1.09269</v>
       </c>
       <c r="C94" t="n">
-        <v>0.904501</v>
+        <v>0.9351739999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.921265</v>
+        <v>0.950756</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.07605</v>
+        <v>1.13761</v>
       </c>
       <c r="C95" t="n">
-        <v>0.898629</v>
+        <v>0.954244</v>
       </c>
       <c r="D95" t="n">
-        <v>0.93228</v>
+        <v>0.965326</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.09403</v>
+        <v>1.13515</v>
       </c>
       <c r="C96" t="n">
-        <v>0.908093</v>
+        <v>0.950648</v>
       </c>
       <c r="D96" t="n">
-        <v>0.944234</v>
+        <v>1.00785</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.10973</v>
+        <v>1.11359</v>
       </c>
       <c r="C97" t="n">
-        <v>0.925435</v>
+        <v>0.989675</v>
       </c>
       <c r="D97" t="n">
-        <v>0.972718</v>
+        <v>1.00796</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01664</v>
+        <v>1.01832</v>
       </c>
       <c r="C98" t="n">
-        <v>0.962476</v>
+        <v>0.973055</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9763579999999999</v>
+        <v>1.01453</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02247</v>
+        <v>1.04203</v>
       </c>
       <c r="C99" t="n">
-        <v>0.988001</v>
+        <v>1.02476</v>
       </c>
       <c r="D99" t="n">
-        <v>0.993185</v>
+        <v>1.01661</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.05276</v>
+        <v>1.06073</v>
       </c>
       <c r="C100" t="n">
-        <v>0.995884</v>
+        <v>0.987689</v>
       </c>
       <c r="D100" t="n">
-        <v>1.024</v>
+        <v>1.03322</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.0352</v>
+        <v>1.0734</v>
       </c>
       <c r="C101" t="n">
-        <v>0.998398</v>
+        <v>1.03159</v>
       </c>
       <c r="D101" t="n">
-        <v>1.04008</v>
+        <v>1.06529</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.06356</v>
+        <v>1.07862</v>
       </c>
       <c r="C102" t="n">
-        <v>1.00676</v>
+        <v>1.06054</v>
       </c>
       <c r="D102" t="n">
-        <v>1.09575</v>
+        <v>1.07313</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.07153</v>
+        <v>1.08723</v>
       </c>
       <c r="C103" t="n">
-        <v>1.04238</v>
+        <v>1.07378</v>
       </c>
       <c r="D103" t="n">
-        <v>1.08862</v>
+        <v>1.09018</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08147</v>
+        <v>1.13355</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06205</v>
+        <v>1.07221</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09944</v>
+        <v>1.09042</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.10207</v>
+        <v>1.13519</v>
       </c>
       <c r="C105" t="n">
-        <v>1.05859</v>
+        <v>1.11091</v>
       </c>
       <c r="D105" t="n">
-        <v>1.11335</v>
+        <v>1.12466</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.1235</v>
+        <v>1.16306</v>
       </c>
       <c r="C106" t="n">
-        <v>1.12239</v>
+        <v>1.12993</v>
       </c>
       <c r="D106" t="n">
-        <v>1.14713</v>
+        <v>1.13659</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.17477</v>
+        <v>1.1794</v>
       </c>
       <c r="C107" t="n">
-        <v>0.986746</v>
+        <v>1.01971</v>
       </c>
       <c r="D107" t="n">
-        <v>1.01436</v>
+        <v>1.04729</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.16437</v>
+        <v>1.2234</v>
       </c>
       <c r="C108" t="n">
-        <v>0.977209</v>
+        <v>1.05779</v>
       </c>
       <c r="D108" t="n">
-        <v>1.03342</v>
+        <v>1.0889</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.20045</v>
+        <v>1.26505</v>
       </c>
       <c r="C109" t="n">
-        <v>1.00249</v>
+        <v>1.05619</v>
       </c>
       <c r="D109" t="n">
-        <v>1.07048</v>
+        <v>1.11288</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.20592</v>
+        <v>1.24888</v>
       </c>
       <c r="C110" t="n">
-        <v>1.02445</v>
+        <v>1.0715</v>
       </c>
       <c r="D110" t="n">
-        <v>1.05512</v>
+        <v>1.08715</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.22433</v>
+        <v>1.26739</v>
       </c>
       <c r="C111" t="n">
-        <v>1.06552</v>
+        <v>1.06965</v>
       </c>
       <c r="D111" t="n">
-        <v>1.07116</v>
+        <v>1.09636</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.11375</v>
+        <v>1.15096</v>
       </c>
       <c r="C112" t="n">
-        <v>1.06418</v>
+        <v>1.0786</v>
       </c>
       <c r="D112" t="n">
-        <v>1.08549</v>
+        <v>1.10203</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.08625</v>
+        <v>1.16778</v>
       </c>
       <c r="C113" t="n">
-        <v>1.07332</v>
+        <v>1.14097</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11041</v>
+        <v>1.14037</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1249</v>
+        <v>1.20513</v>
       </c>
       <c r="C114" t="n">
-        <v>1.10391</v>
+        <v>1.12998</v>
       </c>
       <c r="D114" t="n">
-        <v>1.15177</v>
+        <v>1.1684</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13861</v>
+        <v>1.18147</v>
       </c>
       <c r="C115" t="n">
-        <v>1.10144</v>
+        <v>1.16654</v>
       </c>
       <c r="D115" t="n">
-        <v>1.14014</v>
+        <v>1.16259</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13849</v>
+        <v>1.18993</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14997</v>
+        <v>1.18648</v>
       </c>
       <c r="D116" t="n">
-        <v>1.18742</v>
+        <v>1.20697</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.14778</v>
+        <v>1.23976</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1296</v>
+        <v>1.17079</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17222</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.17623</v>
+        <v>1.21864</v>
       </c>
       <c r="C118" t="n">
-        <v>1.16874</v>
+        <v>1.20835</v>
       </c>
       <c r="D118" t="n">
-        <v>1.20818</v>
+        <v>1.23682</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.20113</v>
+        <v>1.21826</v>
       </c>
       <c r="C119" t="n">
-        <v>1.17404</v>
+        <v>1.25094</v>
       </c>
       <c r="D119" t="n">
-        <v>1.20045</v>
+        <v>1.29053</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.234269</v>
+        <v>0.237864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.200064</v>
+        <v>0.187847</v>
       </c>
       <c r="D2" t="n">
-        <v>0.200049</v>
+        <v>0.188782</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245008</v>
+        <v>0.240371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195882</v>
+        <v>0.190377</v>
       </c>
       <c r="D3" t="n">
-        <v>0.195698</v>
+        <v>0.188954</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.237623</v>
+        <v>0.238406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.20006</v>
+        <v>0.213812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.199682</v>
+        <v>0.213493</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.239405</v>
+        <v>0.251503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.203612</v>
+        <v>0.207833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.194219</v>
+        <v>0.198225</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25292</v>
+        <v>0.25479</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206176</v>
+        <v>0.218761</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199819</v>
+        <v>0.208575</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.249589</v>
+        <v>0.246123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191145</v>
+        <v>0.194349</v>
       </c>
       <c r="D7" t="n">
-        <v>0.208358</v>
+        <v>0.207737</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.243607</v>
+        <v>0.253074</v>
       </c>
       <c r="C8" t="n">
-        <v>0.200152</v>
+        <v>0.198533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.206876</v>
+        <v>0.20214</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.257273</v>
+        <v>0.26227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197661</v>
+        <v>0.203665</v>
       </c>
       <c r="D9" t="n">
-        <v>0.204703</v>
+        <v>0.211199</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.265517</v>
+        <v>0.262458</v>
       </c>
       <c r="C10" t="n">
-        <v>0.208155</v>
+        <v>0.206376</v>
       </c>
       <c r="D10" t="n">
-        <v>0.204132</v>
+        <v>0.214993</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.262158</v>
+        <v>0.276856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.19921</v>
+        <v>0.203979</v>
       </c>
       <c r="D11" t="n">
-        <v>0.211207</v>
+        <v>0.204646</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.281808</v>
+        <v>0.271179</v>
       </c>
       <c r="C12" t="n">
-        <v>0.212218</v>
+        <v>0.21243</v>
       </c>
       <c r="D12" t="n">
-        <v>0.219395</v>
+        <v>0.214461</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.248232</v>
+        <v>0.241556</v>
       </c>
       <c r="C13" t="n">
-        <v>0.201366</v>
+        <v>0.220788</v>
       </c>
       <c r="D13" t="n">
-        <v>0.222589</v>
+        <v>0.214888</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.253106</v>
+        <v>0.246844</v>
       </c>
       <c r="C14" t="n">
-        <v>0.211799</v>
+        <v>0.208241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.223738</v>
+        <v>0.22185</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.255381</v>
+        <v>0.245499</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210424</v>
+        <v>0.215897</v>
       </c>
       <c r="D15" t="n">
-        <v>0.215906</v>
+        <v>0.220239</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.260508</v>
+        <v>0.257651</v>
       </c>
       <c r="C16" t="n">
-        <v>0.225034</v>
+        <v>0.229545</v>
       </c>
       <c r="D16" t="n">
-        <v>0.226157</v>
+        <v>0.220204</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260507</v>
+        <v>0.26088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.223818</v>
+        <v>0.220831</v>
       </c>
       <c r="D17" t="n">
-        <v>0.225716</v>
+        <v>0.222914</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.269998</v>
+        <v>0.272247</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232322</v>
+        <v>0.22734</v>
       </c>
       <c r="D18" t="n">
-        <v>0.227348</v>
+        <v>0.222557</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.268</v>
+        <v>0.263906</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238396</v>
+        <v>0.240885</v>
       </c>
       <c r="D19" t="n">
-        <v>0.233191</v>
+        <v>0.23414</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.284824</v>
+        <v>0.285623</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238313</v>
+        <v>0.240612</v>
       </c>
       <c r="D20" t="n">
-        <v>0.229522</v>
+        <v>0.241517</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.279691</v>
+        <v>0.270712</v>
       </c>
       <c r="C21" t="n">
-        <v>0.218095</v>
+        <v>0.219509</v>
       </c>
       <c r="D21" t="n">
-        <v>0.22788</v>
+        <v>0.222107</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.272946</v>
+        <v>0.28513</v>
       </c>
       <c r="C22" t="n">
-        <v>0.218754</v>
+        <v>0.236821</v>
       </c>
       <c r="D22" t="n">
-        <v>0.22943</v>
+        <v>0.228588</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.275647</v>
+        <v>0.289473</v>
       </c>
       <c r="C23" t="n">
-        <v>0.226807</v>
+        <v>0.229118</v>
       </c>
       <c r="D23" t="n">
-        <v>0.237734</v>
+        <v>0.229628</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.279826</v>
+        <v>0.305263</v>
       </c>
       <c r="C24" t="n">
-        <v>0.229873</v>
+        <v>0.238597</v>
       </c>
       <c r="D24" t="n">
-        <v>0.237288</v>
+        <v>0.247572</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.299248</v>
+        <v>0.318173</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245135</v>
+        <v>0.263653</v>
       </c>
       <c r="D25" t="n">
-        <v>0.241229</v>
+        <v>0.246856</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.302561</v>
+        <v>0.309913</v>
       </c>
       <c r="C26" t="n">
-        <v>0.246528</v>
+        <v>0.24869</v>
       </c>
       <c r="D26" t="n">
-        <v>0.246912</v>
+        <v>0.242276</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.285291</v>
+        <v>0.296127</v>
       </c>
       <c r="C27" t="n">
-        <v>0.24406</v>
+        <v>0.252182</v>
       </c>
       <c r="D27" t="n">
-        <v>0.246851</v>
+        <v>0.249582</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278215</v>
+        <v>0.294576</v>
       </c>
       <c r="C28" t="n">
-        <v>0.252881</v>
+        <v>0.251953</v>
       </c>
       <c r="D28" t="n">
-        <v>0.24495</v>
+        <v>0.242397</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280819</v>
+        <v>0.296353</v>
       </c>
       <c r="C29" t="n">
-        <v>0.257164</v>
+        <v>0.273546</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247995</v>
+        <v>0.256038</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.296677</v>
+        <v>0.315777</v>
       </c>
       <c r="C30" t="n">
-        <v>0.263372</v>
+        <v>0.265131</v>
       </c>
       <c r="D30" t="n">
-        <v>0.255978</v>
+        <v>0.256939</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.304377</v>
+        <v>0.309652</v>
       </c>
       <c r="C31" t="n">
-        <v>0.266592</v>
+        <v>0.275396</v>
       </c>
       <c r="D31" t="n">
-        <v>0.248585</v>
+        <v>0.261557</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.318693</v>
+        <v>0.33566</v>
       </c>
       <c r="C32" t="n">
-        <v>0.274623</v>
+        <v>0.275272</v>
       </c>
       <c r="D32" t="n">
-        <v>0.253447</v>
+        <v>0.267395</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.325009</v>
+        <v>0.322043</v>
       </c>
       <c r="C33" t="n">
-        <v>0.278961</v>
+        <v>0.281963</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263936</v>
+        <v>0.264586</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.32413</v>
+        <v>0.337684</v>
       </c>
       <c r="C34" t="n">
-        <v>0.295239</v>
+        <v>0.300667</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270008</v>
+        <v>0.26878</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.340308</v>
+        <v>0.341182</v>
       </c>
       <c r="C35" t="n">
-        <v>0.239378</v>
+        <v>0.254936</v>
       </c>
       <c r="D35" t="n">
-        <v>0.247963</v>
+        <v>0.252346</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.347493</v>
+        <v>0.351518</v>
       </c>
       <c r="C36" t="n">
-        <v>0.26017</v>
+        <v>0.268583</v>
       </c>
       <c r="D36" t="n">
-        <v>0.254598</v>
+        <v>0.265906</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.354099</v>
+        <v>0.372307</v>
       </c>
       <c r="C37" t="n">
-        <v>0.268189</v>
+        <v>0.269025</v>
       </c>
       <c r="D37" t="n">
-        <v>0.259924</v>
+        <v>0.257242</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.374064</v>
+        <v>0.39115</v>
       </c>
       <c r="C38" t="n">
-        <v>0.276929</v>
+        <v>0.288132</v>
       </c>
       <c r="D38" t="n">
-        <v>0.262009</v>
+        <v>0.264271</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3802</v>
+        <v>0.383951</v>
       </c>
       <c r="C39" t="n">
-        <v>0.281453</v>
+        <v>0.28768</v>
       </c>
       <c r="D39" t="n">
-        <v>0.272371</v>
+        <v>0.27385</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.392563</v>
+        <v>0.398695</v>
       </c>
       <c r="C40" t="n">
-        <v>0.298043</v>
+        <v>0.290425</v>
       </c>
       <c r="D40" t="n">
-        <v>0.277051</v>
+        <v>0.282014</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.387168</v>
+        <v>0.394657</v>
       </c>
       <c r="C41" t="n">
-        <v>0.30098</v>
+        <v>0.298845</v>
       </c>
       <c r="D41" t="n">
-        <v>0.276938</v>
+        <v>0.291793</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.40284</v>
+        <v>0.394211</v>
       </c>
       <c r="C42" t="n">
-        <v>0.307438</v>
+        <v>0.302336</v>
       </c>
       <c r="D42" t="n">
-        <v>0.271005</v>
+        <v>0.286407</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.414398</v>
+        <v>0.412148</v>
       </c>
       <c r="C43" t="n">
-        <v>0.31523</v>
+        <v>0.338102</v>
       </c>
       <c r="D43" t="n">
-        <v>0.278888</v>
+        <v>0.305545</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.425257</v>
+        <v>0.415135</v>
       </c>
       <c r="C44" t="n">
-        <v>0.330368</v>
+        <v>0.344611</v>
       </c>
       <c r="D44" t="n">
-        <v>0.287749</v>
+        <v>0.300094</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.432583</v>
+        <v>0.435547</v>
       </c>
       <c r="C45" t="n">
-        <v>0.343926</v>
+        <v>0.339168</v>
       </c>
       <c r="D45" t="n">
-        <v>0.290813</v>
+        <v>0.299877</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.434435</v>
+        <v>0.465334</v>
       </c>
       <c r="C46" t="n">
-        <v>0.350636</v>
+        <v>0.353131</v>
       </c>
       <c r="D46" t="n">
-        <v>0.297775</v>
+        <v>0.325961</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.442123</v>
+        <v>0.461787</v>
       </c>
       <c r="C47" t="n">
-        <v>0.347108</v>
+        <v>0.360823</v>
       </c>
       <c r="D47" t="n">
-        <v>0.304802</v>
+        <v>0.325368</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.456401</v>
+        <v>0.459253</v>
       </c>
       <c r="C48" t="n">
-        <v>0.368433</v>
+        <v>0.372479</v>
       </c>
       <c r="D48" t="n">
-        <v>0.309611</v>
+        <v>0.323704</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.468278</v>
+        <v>0.479959</v>
       </c>
       <c r="C49" t="n">
-        <v>0.375914</v>
+        <v>0.383021</v>
       </c>
       <c r="D49" t="n">
-        <v>0.335384</v>
+        <v>0.335339</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.473632</v>
+        <v>0.505037</v>
       </c>
       <c r="C50" t="n">
-        <v>0.374354</v>
+        <v>0.386388</v>
       </c>
       <c r="D50" t="n">
-        <v>0.347839</v>
+        <v>0.35841</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.491884</v>
+        <v>0.507952</v>
       </c>
       <c r="C51" t="n">
-        <v>0.394022</v>
+        <v>0.398059</v>
       </c>
       <c r="D51" t="n">
-        <v>0.342957</v>
+        <v>0.338135</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.513865</v>
+        <v>0.530443</v>
       </c>
       <c r="C52" t="n">
-        <v>0.400466</v>
+        <v>0.408642</v>
       </c>
       <c r="D52" t="n">
-        <v>0.353131</v>
+        <v>0.35179</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.520082</v>
+        <v>0.525942</v>
       </c>
       <c r="C53" t="n">
-        <v>0.414279</v>
+        <v>0.422381</v>
       </c>
       <c r="D53" t="n">
-        <v>0.37368</v>
+        <v>0.362178</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5392130000000001</v>
+        <v>0.545957</v>
       </c>
       <c r="C54" t="n">
-        <v>0.437883</v>
+        <v>0.43609</v>
       </c>
       <c r="D54" t="n">
-        <v>0.368273</v>
+        <v>0.368072</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.548863</v>
+        <v>0.549581</v>
       </c>
       <c r="C55" t="n">
-        <v>0.44125</v>
+        <v>0.452103</v>
       </c>
       <c r="D55" t="n">
-        <v>0.378902</v>
+        <v>0.384591</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.506289</v>
+        <v>0.524587</v>
       </c>
       <c r="C56" t="n">
-        <v>0.439927</v>
+        <v>0.45565</v>
       </c>
       <c r="D56" t="n">
-        <v>0.379779</v>
+        <v>0.396999</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.520355</v>
+        <v>0.5278040000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.454308</v>
+        <v>0.483909</v>
       </c>
       <c r="D57" t="n">
-        <v>0.383252</v>
+        <v>0.380673</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5453710000000001</v>
+        <v>0.549918</v>
       </c>
       <c r="C58" t="n">
-        <v>0.476889</v>
+        <v>0.487626</v>
       </c>
       <c r="D58" t="n">
-        <v>0.411466</v>
+        <v>0.41667</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.555817</v>
+        <v>0.570398</v>
       </c>
       <c r="C59" t="n">
-        <v>0.484962</v>
+        <v>0.536283</v>
       </c>
       <c r="D59" t="n">
-        <v>0.41377</v>
+        <v>0.416698</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5529809999999999</v>
+        <v>0.590307</v>
       </c>
       <c r="C60" t="n">
-        <v>0.513981</v>
+        <v>0.529681</v>
       </c>
       <c r="D60" t="n">
-        <v>0.430275</v>
+        <v>0.430077</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5597569999999999</v>
+        <v>0.610163</v>
       </c>
       <c r="C61" t="n">
-        <v>0.522038</v>
+        <v>0.542767</v>
       </c>
       <c r="D61" t="n">
-        <v>0.434785</v>
+        <v>0.445009</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.576758</v>
+        <v>0.6193419999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.53715</v>
+        <v>0.562469</v>
       </c>
       <c r="D62" t="n">
-        <v>0.443146</v>
+        <v>0.450119</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.608815</v>
+        <v>0.634845</v>
       </c>
       <c r="C63" t="n">
-        <v>0.571006</v>
+        <v>0.584806</v>
       </c>
       <c r="D63" t="n">
-        <v>0.449221</v>
+        <v>0.481564</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.631198</v>
+        <v>0.672019</v>
       </c>
       <c r="C64" t="n">
-        <v>0.540421</v>
+        <v>0.571905</v>
       </c>
       <c r="D64" t="n">
-        <v>0.463832</v>
+        <v>0.49034</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6195929999999999</v>
+        <v>0.7098449999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5361860000000001</v>
+        <v>0.582725</v>
       </c>
       <c r="D65" t="n">
-        <v>0.47417</v>
+        <v>0.5048899999999999</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.651514</v>
+        <v>0.716866</v>
       </c>
       <c r="C66" t="n">
-        <v>0.552657</v>
+        <v>0.623851</v>
       </c>
       <c r="D66" t="n">
-        <v>0.481959</v>
+        <v>0.496528</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.690995</v>
+        <v>0.730904</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5688839999999999</v>
+        <v>0.639037</v>
       </c>
       <c r="D67" t="n">
-        <v>0.48793</v>
+        <v>0.535059</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.701137</v>
+        <v>0.772514</v>
       </c>
       <c r="C68" t="n">
-        <v>0.585015</v>
+        <v>0.626573</v>
       </c>
       <c r="D68" t="n">
-        <v>0.513935</v>
+        <v>0.529708</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.745055</v>
+        <v>0.827982</v>
       </c>
       <c r="C69" t="n">
-        <v>0.585421</v>
+        <v>0.651122</v>
       </c>
       <c r="D69" t="n">
-        <v>0.501817</v>
+        <v>0.559742</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.685306</v>
+        <v>0.731621</v>
       </c>
       <c r="C70" t="n">
-        <v>0.63323</v>
+        <v>0.665144</v>
       </c>
       <c r="D70" t="n">
-        <v>0.529456</v>
+        <v>0.584221</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.701425</v>
+        <v>0.772691</v>
       </c>
       <c r="C71" t="n">
-        <v>0.643776</v>
+        <v>0.689025</v>
       </c>
       <c r="D71" t="n">
-        <v>0.530133</v>
+        <v>0.569771</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.732195</v>
+        <v>0.812017</v>
       </c>
       <c r="C72" t="n">
-        <v>0.679244</v>
+        <v>0.752552</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5560389999999999</v>
+        <v>0.589527</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.75617</v>
+        <v>0.825735</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7094279999999999</v>
+        <v>0.799434</v>
       </c>
       <c r="D73" t="n">
-        <v>0.562907</v>
+        <v>0.642103</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.768099</v>
+        <v>0.858524</v>
       </c>
       <c r="C74" t="n">
-        <v>0.722707</v>
+        <v>0.82657</v>
       </c>
       <c r="D74" t="n">
-        <v>0.590444</v>
+        <v>0.639995</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.810476</v>
+        <v>0.878904</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7619320000000001</v>
+        <v>0.836651</v>
       </c>
       <c r="D75" t="n">
-        <v>0.588487</v>
+        <v>0.661614</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8149960000000001</v>
+        <v>0.930075</v>
       </c>
       <c r="C76" t="n">
-        <v>0.795627</v>
+        <v>0.901757</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6243649999999999</v>
+        <v>0.710677</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.847429</v>
+        <v>0.935468</v>
       </c>
       <c r="C77" t="n">
-        <v>0.807991</v>
+        <v>0.954575</v>
       </c>
       <c r="D77" t="n">
-        <v>0.639726</v>
+        <v>0.713798</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.876497</v>
+        <v>0.992765</v>
       </c>
       <c r="C78" t="n">
-        <v>0.743012</v>
+        <v>0.854025</v>
       </c>
       <c r="D78" t="n">
-        <v>0.672367</v>
+        <v>0.756306</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9428299999999999</v>
+        <v>1.00388</v>
       </c>
       <c r="C79" t="n">
-        <v>0.773444</v>
+        <v>0.866727</v>
       </c>
       <c r="D79" t="n">
-        <v>0.720386</v>
+        <v>0.777612</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.966831</v>
+        <v>1.04764</v>
       </c>
       <c r="C80" t="n">
-        <v>0.80863</v>
+        <v>0.8933680000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7299949999999999</v>
+        <v>0.799102</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.01674</v>
+        <v>1.10188</v>
       </c>
       <c r="C81" t="n">
-        <v>0.831247</v>
+        <v>0.938354</v>
       </c>
       <c r="D81" t="n">
-        <v>0.726946</v>
+        <v>0.818257</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.02096</v>
+        <v>1.09229</v>
       </c>
       <c r="C82" t="n">
-        <v>0.88948</v>
+        <v>0.939987</v>
       </c>
       <c r="D82" t="n">
-        <v>0.768478</v>
+        <v>0.824379</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.07984</v>
+        <v>1.14568</v>
       </c>
       <c r="C83" t="n">
-        <v>0.885296</v>
+        <v>1.02331</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8039190000000001</v>
+        <v>0.857367</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.985352</v>
+        <v>1.05658</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9115529999999999</v>
+        <v>1.00589</v>
       </c>
       <c r="D84" t="n">
-        <v>0.792803</v>
+        <v>0.871132</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.998928</v>
+        <v>1.04685</v>
       </c>
       <c r="C85" t="n">
-        <v>0.95821</v>
+        <v>1.06269</v>
       </c>
       <c r="D85" t="n">
-        <v>0.838349</v>
+        <v>0.914469</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.08778</v>
+        <v>1.10629</v>
       </c>
       <c r="C86" t="n">
-        <v>0.984922</v>
+        <v>1.04091</v>
       </c>
       <c r="D86" t="n">
-        <v>0.835672</v>
+        <v>0.933852</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.0672</v>
+        <v>1.1422</v>
       </c>
       <c r="C87" t="n">
-        <v>1.03922</v>
+        <v>1.10762</v>
       </c>
       <c r="D87" t="n">
-        <v>0.861897</v>
+        <v>0.914839</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.0881</v>
+        <v>1.1335</v>
       </c>
       <c r="C88" t="n">
-        <v>1.03909</v>
+        <v>1.09511</v>
       </c>
       <c r="D88" t="n">
-        <v>0.875668</v>
+        <v>0.936934</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.13945</v>
+        <v>1.20337</v>
       </c>
       <c r="C89" t="n">
-        <v>1.06363</v>
+        <v>1.17086</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9161629999999999</v>
+        <v>0.9646439999999999</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.15898</v>
+        <v>1.23333</v>
       </c>
       <c r="C90" t="n">
-        <v>1.10031</v>
+        <v>1.17613</v>
       </c>
       <c r="D90" t="n">
-        <v>0.939694</v>
+        <v>0.970227</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.1798</v>
+        <v>1.24577</v>
       </c>
       <c r="C91" t="n">
-        <v>1.13468</v>
+        <v>1.28532</v>
       </c>
       <c r="D91" t="n">
-        <v>0.971789</v>
+        <v>1.02071</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.2249</v>
+        <v>1.31068</v>
       </c>
       <c r="C92" t="n">
-        <v>1.03294</v>
+        <v>1.08474</v>
       </c>
       <c r="D92" t="n">
-        <v>0.962198</v>
+        <v>1.02615</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.26034</v>
+        <v>1.32602</v>
       </c>
       <c r="C93" t="n">
-        <v>1.07226</v>
+        <v>1.12718</v>
       </c>
       <c r="D93" t="n">
-        <v>0.996886</v>
+        <v>1.01068</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.30002</v>
+        <v>1.29406</v>
       </c>
       <c r="C94" t="n">
-        <v>1.12995</v>
+        <v>1.14658</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9963689999999999</v>
+        <v>1.02232</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.29461</v>
+        <v>1.33226</v>
       </c>
       <c r="C95" t="n">
-        <v>1.10188</v>
+        <v>1.15419</v>
       </c>
       <c r="D95" t="n">
-        <v>1.02848</v>
+        <v>1.03734</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.31053</v>
+        <v>1.40401</v>
       </c>
       <c r="C96" t="n">
-        <v>1.13525</v>
+        <v>1.22659</v>
       </c>
       <c r="D96" t="n">
-        <v>1.02232</v>
+        <v>1.08145</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.39366</v>
+        <v>1.41738</v>
       </c>
       <c r="C97" t="n">
-        <v>1.17322</v>
+        <v>1.19075</v>
       </c>
       <c r="D97" t="n">
-        <v>1.07731</v>
+        <v>1.0843</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.26415</v>
+        <v>1.30952</v>
       </c>
       <c r="C98" t="n">
-        <v>1.17735</v>
+        <v>1.24253</v>
       </c>
       <c r="D98" t="n">
-        <v>1.09764</v>
+        <v>1.10681</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.27475</v>
+        <v>1.27654</v>
       </c>
       <c r="C99" t="n">
-        <v>1.23797</v>
+        <v>1.24668</v>
       </c>
       <c r="D99" t="n">
-        <v>1.07248</v>
+        <v>1.10828</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.29493</v>
+        <v>1.29475</v>
       </c>
       <c r="C100" t="n">
-        <v>1.24855</v>
+        <v>1.27154</v>
       </c>
       <c r="D100" t="n">
-        <v>1.12442</v>
+        <v>1.1554</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.31637</v>
+        <v>1.35536</v>
       </c>
       <c r="C101" t="n">
-        <v>1.26923</v>
+        <v>1.32629</v>
       </c>
       <c r="D101" t="n">
-        <v>1.13691</v>
+        <v>1.15669</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.35482</v>
+        <v>1.37184</v>
       </c>
       <c r="C102" t="n">
-        <v>1.32775</v>
+        <v>1.37639</v>
       </c>
       <c r="D102" t="n">
-        <v>1.15277</v>
+        <v>1.20372</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.34877</v>
+        <v>1.41947</v>
       </c>
       <c r="C103" t="n">
-        <v>1.32352</v>
+        <v>1.3803</v>
       </c>
       <c r="D103" t="n">
-        <v>1.18195</v>
+        <v>1.23635</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.42817</v>
+        <v>1.44174</v>
       </c>
       <c r="C104" t="n">
-        <v>1.37182</v>
+        <v>1.43072</v>
       </c>
       <c r="D104" t="n">
-        <v>1.17934</v>
+        <v>1.22731</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.44897</v>
+        <v>1.46136</v>
       </c>
       <c r="C105" t="n">
-        <v>1.4225</v>
+        <v>1.42811</v>
       </c>
       <c r="D105" t="n">
-        <v>1.2127</v>
+        <v>1.26359</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.42192</v>
+        <v>1.49906</v>
       </c>
       <c r="C106" t="n">
-        <v>1.4384</v>
+        <v>1.45637</v>
       </c>
       <c r="D106" t="n">
-        <v>1.23355</v>
+        <v>1.2619</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.51664</v>
+        <v>1.52128</v>
       </c>
       <c r="C107" t="n">
-        <v>1.32077</v>
+        <v>1.31257</v>
       </c>
       <c r="D107" t="n">
-        <v>1.18323</v>
+        <v>1.2019</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.53791</v>
+        <v>1.57678</v>
       </c>
       <c r="C108" t="n">
-        <v>1.31875</v>
+        <v>1.34504</v>
       </c>
       <c r="D108" t="n">
-        <v>1.20237</v>
+        <v>1.19444</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.59643</v>
+        <v>1.59314</v>
       </c>
       <c r="C109" t="n">
-        <v>1.32797</v>
+        <v>1.34176</v>
       </c>
       <c r="D109" t="n">
-        <v>1.24526</v>
+        <v>1.21025</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.58174</v>
+        <v>1.61866</v>
       </c>
       <c r="C110" t="n">
-        <v>1.36805</v>
+        <v>1.39856</v>
       </c>
       <c r="D110" t="n">
-        <v>1.244</v>
+        <v>1.27842</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.621</v>
+        <v>1.65398</v>
       </c>
       <c r="C111" t="n">
-        <v>1.35365</v>
+        <v>1.41635</v>
       </c>
       <c r="D111" t="n">
-        <v>1.24327</v>
+        <v>1.26874</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.46846</v>
+        <v>1.47937</v>
       </c>
       <c r="C112" t="n">
-        <v>1.42183</v>
+        <v>1.46307</v>
       </c>
       <c r="D112" t="n">
-        <v>1.27398</v>
+        <v>1.28569</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.5225</v>
+        <v>1.49187</v>
       </c>
       <c r="C113" t="n">
-        <v>1.4411</v>
+        <v>1.46817</v>
       </c>
       <c r="D113" t="n">
-        <v>1.27566</v>
+        <v>1.32583</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.53156</v>
+        <v>1.51483</v>
       </c>
       <c r="C114" t="n">
-        <v>1.46219</v>
+        <v>1.53069</v>
       </c>
       <c r="D114" t="n">
-        <v>1.32248</v>
+        <v>1.33811</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.5839</v>
+        <v>1.61598</v>
       </c>
       <c r="C115" t="n">
-        <v>1.48668</v>
+        <v>1.53491</v>
       </c>
       <c r="D115" t="n">
-        <v>1.33645</v>
+        <v>1.34715</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.55343</v>
+        <v>1.54409</v>
       </c>
       <c r="C116" t="n">
-        <v>1.50676</v>
+        <v>1.51641</v>
       </c>
       <c r="D116" t="n">
-        <v>1.33808</v>
+        <v>1.37846</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.55478</v>
+        <v>1.57259</v>
       </c>
       <c r="C117" t="n">
-        <v>1.54949</v>
+        <v>1.57366</v>
       </c>
       <c r="D117" t="n">
-        <v>1.36269</v>
+        <v>1.40264</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.59453</v>
+        <v>1.61629</v>
       </c>
       <c r="C118" t="n">
-        <v>1.5708</v>
+        <v>1.60845</v>
       </c>
       <c r="D118" t="n">
-        <v>1.39547</v>
+        <v>1.41029</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.65791</v>
+        <v>1.63408</v>
       </c>
       <c r="C119" t="n">
-        <v>1.63216</v>
+        <v>1.60429</v>
       </c>
       <c r="D119" t="n">
-        <v>1.43004</v>
+        <v>1.44361</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.562805</v>
+        <v>0.572805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.304685</v>
+        <v>0.31443</v>
       </c>
       <c r="D2" t="n">
-        <v>0.245426</v>
+        <v>0.241058</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.37845</v>
+        <v>0.393432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.314993</v>
+        <v>0.311831</v>
       </c>
       <c r="D3" t="n">
-        <v>0.245962</v>
+        <v>0.261635</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.401729</v>
+        <v>0.394755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.321315</v>
+        <v>0.332433</v>
       </c>
       <c r="D4" t="n">
-        <v>0.253287</v>
+        <v>0.258561</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.392145</v>
+        <v>0.399408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.332085</v>
+        <v>0.341027</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26353</v>
+        <v>0.256952</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.427848</v>
+        <v>0.435131</v>
       </c>
       <c r="C6" t="n">
-        <v>0.332891</v>
+        <v>0.353696</v>
       </c>
       <c r="D6" t="n">
-        <v>0.273786</v>
+        <v>0.26378</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.434401</v>
+        <v>0.447966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.352881</v>
+        <v>0.376841</v>
       </c>
       <c r="D7" t="n">
-        <v>0.273246</v>
+        <v>0.267751</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.441556</v>
+        <v>0.441795</v>
       </c>
       <c r="C8" t="n">
-        <v>0.390619</v>
+        <v>0.376036</v>
       </c>
       <c r="D8" t="n">
-        <v>0.280546</v>
+        <v>0.277512</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.465605</v>
+        <v>0.478866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.405515</v>
+        <v>0.412867</v>
       </c>
       <c r="D9" t="n">
-        <v>0.294845</v>
+        <v>0.292151</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.476509</v>
+        <v>0.481116</v>
       </c>
       <c r="C10" t="n">
-        <v>0.436521</v>
+        <v>0.420076</v>
       </c>
       <c r="D10" t="n">
-        <v>0.306604</v>
+        <v>0.313148</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.493252</v>
+        <v>0.490024</v>
       </c>
       <c r="C11" t="n">
-        <v>0.320201</v>
+        <v>0.327058</v>
       </c>
       <c r="D11" t="n">
-        <v>0.244532</v>
+        <v>0.246936</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.525905</v>
+        <v>0.513356</v>
       </c>
       <c r="C12" t="n">
-        <v>0.325773</v>
+        <v>0.325835</v>
       </c>
       <c r="D12" t="n">
-        <v>0.266929</v>
+        <v>0.253167</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.556723</v>
+        <v>0.55965</v>
       </c>
       <c r="C13" t="n">
-        <v>0.335327</v>
+        <v>0.329765</v>
       </c>
       <c r="D13" t="n">
-        <v>0.263687</v>
+        <v>0.261183</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.559442</v>
+        <v>0.578392</v>
       </c>
       <c r="C14" t="n">
-        <v>0.346503</v>
+        <v>0.356014</v>
       </c>
       <c r="D14" t="n">
-        <v>0.261867</v>
+        <v>0.265285</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.580466</v>
+        <v>0.583337</v>
       </c>
       <c r="C15" t="n">
-        <v>0.360365</v>
+        <v>0.365482</v>
       </c>
       <c r="D15" t="n">
-        <v>0.278553</v>
+        <v>0.272255</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.602701</v>
+        <v>0.611835</v>
       </c>
       <c r="C16" t="n">
-        <v>0.370712</v>
+        <v>0.387489</v>
       </c>
       <c r="D16" t="n">
-        <v>0.294838</v>
+        <v>0.281311</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.391724</v>
+        <v>0.388239</v>
       </c>
       <c r="C17" t="n">
-        <v>0.388459</v>
+        <v>0.4113</v>
       </c>
       <c r="D17" t="n">
-        <v>0.281504</v>
+        <v>0.291977</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.396297</v>
+        <v>0.405747</v>
       </c>
       <c r="C18" t="n">
-        <v>0.410203</v>
+        <v>0.399247</v>
       </c>
       <c r="D18" t="n">
-        <v>0.297128</v>
+        <v>0.291856</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.409158</v>
+        <v>0.409531</v>
       </c>
       <c r="C19" t="n">
-        <v>0.428879</v>
+        <v>0.452777</v>
       </c>
       <c r="D19" t="n">
-        <v>0.304383</v>
+        <v>0.311403</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.442307</v>
+        <v>0.429197</v>
       </c>
       <c r="C20" t="n">
-        <v>0.47346</v>
+        <v>0.447242</v>
       </c>
       <c r="D20" t="n">
-        <v>0.31348</v>
+        <v>0.307967</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.467136</v>
+        <v>0.431028</v>
       </c>
       <c r="C21" t="n">
-        <v>0.453604</v>
+        <v>0.456076</v>
       </c>
       <c r="D21" t="n">
-        <v>0.328159</v>
+        <v>0.335288</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.447043</v>
+        <v>0.44825</v>
       </c>
       <c r="C22" t="n">
-        <v>0.476505</v>
+        <v>0.487289</v>
       </c>
       <c r="D22" t="n">
-        <v>0.343285</v>
+        <v>0.339753</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.465623</v>
+        <v>0.480447</v>
       </c>
       <c r="C23" t="n">
-        <v>0.512927</v>
+        <v>0.501116</v>
       </c>
       <c r="D23" t="n">
-        <v>0.350442</v>
+        <v>0.342802</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.490471</v>
+        <v>0.494475</v>
       </c>
       <c r="C24" t="n">
-        <v>0.537147</v>
+        <v>0.5054959999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.373401</v>
+        <v>0.369247</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.521113</v>
+        <v>0.507675</v>
       </c>
       <c r="C25" t="n">
-        <v>0.537278</v>
+        <v>0.5282480000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.387059</v>
+        <v>0.377405</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.524506</v>
+        <v>0.529815</v>
       </c>
       <c r="C26" t="n">
-        <v>0.355558</v>
+        <v>0.353726</v>
       </c>
       <c r="D26" t="n">
-        <v>0.276578</v>
+        <v>0.270545</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.540945</v>
+        <v>0.570775</v>
       </c>
       <c r="C27" t="n">
-        <v>0.348191</v>
+        <v>0.3689</v>
       </c>
       <c r="D27" t="n">
-        <v>0.276395</v>
+        <v>0.278224</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.567371</v>
+        <v>0.5683009999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.373521</v>
+        <v>0.390341</v>
       </c>
       <c r="D28" t="n">
-        <v>0.287566</v>
+        <v>0.290585</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.589333</v>
+        <v>0.596781</v>
       </c>
       <c r="C29" t="n">
-        <v>0.358734</v>
+        <v>0.379586</v>
       </c>
       <c r="D29" t="n">
-        <v>0.283628</v>
+        <v>0.28263</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.601137</v>
+        <v>0.590801</v>
       </c>
       <c r="C30" t="n">
-        <v>0.382452</v>
+        <v>0.384993</v>
       </c>
       <c r="D30" t="n">
-        <v>0.291409</v>
+        <v>0.316313</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6156779999999999</v>
+        <v>0.6422369999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.393997</v>
+        <v>0.406495</v>
       </c>
       <c r="D31" t="n">
-        <v>0.305578</v>
+        <v>0.314203</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.455823</v>
+        <v>0.453033</v>
       </c>
       <c r="C32" t="n">
-        <v>0.424934</v>
+        <v>0.418012</v>
       </c>
       <c r="D32" t="n">
-        <v>0.304684</v>
+        <v>0.310829</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.467729</v>
+        <v>0.485203</v>
       </c>
       <c r="C33" t="n">
-        <v>0.457306</v>
+        <v>0.435712</v>
       </c>
       <c r="D33" t="n">
-        <v>0.329296</v>
+        <v>0.327968</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4992</v>
+        <v>0.506929</v>
       </c>
       <c r="C34" t="n">
-        <v>0.489506</v>
+        <v>0.462799</v>
       </c>
       <c r="D34" t="n">
-        <v>0.328462</v>
+        <v>0.335386</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.510538</v>
+        <v>0.5494019999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.476845</v>
+        <v>0.493825</v>
       </c>
       <c r="D35" t="n">
-        <v>0.340653</v>
+        <v>0.353181</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.531514</v>
+        <v>0.537893</v>
       </c>
       <c r="C36" t="n">
-        <v>0.501425</v>
+        <v>0.513868</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378894</v>
+        <v>0.37111</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.546085</v>
+        <v>0.557781</v>
       </c>
       <c r="C37" t="n">
-        <v>0.53374</v>
+        <v>0.544584</v>
       </c>
       <c r="D37" t="n">
-        <v>0.387924</v>
+        <v>0.379355</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.574788</v>
+        <v>0.599567</v>
       </c>
       <c r="C38" t="n">
-        <v>0.572998</v>
+        <v>0.5788720000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.406101</v>
+        <v>0.404604</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.618982</v>
+        <v>0.628406</v>
       </c>
       <c r="C39" t="n">
-        <v>0.605576</v>
+        <v>0.581978</v>
       </c>
       <c r="D39" t="n">
-        <v>0.421769</v>
+        <v>0.411099</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.633246</v>
+        <v>0.649611</v>
       </c>
       <c r="C40" t="n">
-        <v>0.442652</v>
+        <v>0.430861</v>
       </c>
       <c r="D40" t="n">
-        <v>0.33457</v>
+        <v>0.334292</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6740699999999999</v>
+        <v>0.721727</v>
       </c>
       <c r="C41" t="n">
-        <v>0.457375</v>
+        <v>0.452107</v>
       </c>
       <c r="D41" t="n">
-        <v>0.342166</v>
+        <v>0.340494</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7309059999999999</v>
+        <v>0.7227479999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.488608</v>
+        <v>0.485319</v>
       </c>
       <c r="D42" t="n">
-        <v>0.362488</v>
+        <v>0.349152</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.747779</v>
+        <v>0.76605</v>
       </c>
       <c r="C43" t="n">
-        <v>0.513914</v>
+        <v>0.498599</v>
       </c>
       <c r="D43" t="n">
-        <v>0.376423</v>
+        <v>0.372827</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.786348</v>
+        <v>0.80409</v>
       </c>
       <c r="C44" t="n">
-        <v>0.527516</v>
+        <v>0.5530350000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.384876</v>
+        <v>0.394187</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.818373</v>
+        <v>0.844516</v>
       </c>
       <c r="C45" t="n">
-        <v>0.570659</v>
+        <v>0.55744</v>
       </c>
       <c r="D45" t="n">
-        <v>0.393203</v>
+        <v>0.397753</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.59832</v>
+        <v>0.6383760000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.585676</v>
+        <v>0.587405</v>
       </c>
       <c r="D46" t="n">
-        <v>0.407488</v>
+        <v>0.412059</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6329360000000001</v>
+        <v>0.641414</v>
       </c>
       <c r="C47" t="n">
-        <v>0.624546</v>
+        <v>0.6440630000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.437032</v>
+        <v>0.450737</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6782319999999999</v>
+        <v>0.703863</v>
       </c>
       <c r="C48" t="n">
-        <v>0.641889</v>
+        <v>0.677273</v>
       </c>
       <c r="D48" t="n">
-        <v>0.451844</v>
+        <v>0.462096</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.707236</v>
+        <v>0.723866</v>
       </c>
       <c r="C49" t="n">
-        <v>0.694983</v>
+        <v>0.703989</v>
       </c>
       <c r="D49" t="n">
-        <v>0.466918</v>
+        <v>0.477782</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.768892</v>
+        <v>0.73483</v>
       </c>
       <c r="C50" t="n">
-        <v>0.770384</v>
+        <v>0.749987</v>
       </c>
       <c r="D50" t="n">
-        <v>0.510907</v>
+        <v>0.493923</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.788207</v>
+        <v>0.80471</v>
       </c>
       <c r="C51" t="n">
-        <v>0.770633</v>
+        <v>0.810663</v>
       </c>
       <c r="D51" t="n">
-        <v>0.514108</v>
+        <v>0.546542</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.815715</v>
+        <v>0.829407</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8567979999999999</v>
+        <v>0.827113</v>
       </c>
       <c r="D52" t="n">
-        <v>0.533535</v>
+        <v>0.536588</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.874484</v>
+        <v>0.901513</v>
       </c>
       <c r="C53" t="n">
-        <v>0.900688</v>
+        <v>0.895112</v>
       </c>
       <c r="D53" t="n">
-        <v>0.576066</v>
+        <v>0.573269</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.919496</v>
+        <v>0.914546</v>
       </c>
       <c r="C54" t="n">
-        <v>0.636041</v>
+        <v>0.656733</v>
       </c>
       <c r="D54" t="n">
-        <v>0.450515</v>
+        <v>0.470174</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.985833</v>
+        <v>0.985583</v>
       </c>
       <c r="C55" t="n">
-        <v>0.647445</v>
+        <v>0.665096</v>
       </c>
       <c r="D55" t="n">
-        <v>0.466137</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.07757</v>
+        <v>1.04277</v>
       </c>
       <c r="C56" t="n">
-        <v>0.681243</v>
+        <v>0.727201</v>
       </c>
       <c r="D56" t="n">
-        <v>0.487842</v>
+        <v>0.508366</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.05471</v>
+        <v>1.0693</v>
       </c>
       <c r="C57" t="n">
-        <v>0.736747</v>
+        <v>0.743126</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5015810000000001</v>
+        <v>0.532521</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.11756</v>
+        <v>1.14693</v>
       </c>
       <c r="C58" t="n">
-        <v>0.764827</v>
+        <v>0.792436</v>
       </c>
       <c r="D58" t="n">
-        <v>0.51509</v>
+        <v>0.543623</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.19104</v>
+        <v>1.22319</v>
       </c>
       <c r="C59" t="n">
-        <v>0.805802</v>
+        <v>0.827919</v>
       </c>
       <c r="D59" t="n">
-        <v>0.566401</v>
+        <v>0.56756</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.854197</v>
+        <v>0.841741</v>
       </c>
       <c r="C60" t="n">
-        <v>0.845653</v>
+        <v>0.88502</v>
       </c>
       <c r="D60" t="n">
-        <v>0.563562</v>
+        <v>0.569088</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.888207</v>
+        <v>0.910954</v>
       </c>
       <c r="C61" t="n">
-        <v>0.890656</v>
+        <v>0.890296</v>
       </c>
       <c r="D61" t="n">
-        <v>0.583601</v>
+        <v>0.611158</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.928939</v>
+        <v>0.945632</v>
       </c>
       <c r="C62" t="n">
-        <v>0.954741</v>
+        <v>0.955688</v>
       </c>
       <c r="D62" t="n">
-        <v>0.609311</v>
+        <v>0.604831</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.997219</v>
+        <v>0.979792</v>
       </c>
       <c r="C63" t="n">
-        <v>0.98356</v>
+        <v>1.04546</v>
       </c>
       <c r="D63" t="n">
-        <v>0.621811</v>
+        <v>0.640994</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.0387</v>
+        <v>1.05029</v>
       </c>
       <c r="C64" t="n">
-        <v>1.05343</v>
+        <v>1.0965</v>
       </c>
       <c r="D64" t="n">
-        <v>0.66542</v>
+        <v>0.664085</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.07267</v>
+        <v>1.12314</v>
       </c>
       <c r="C65" t="n">
-        <v>1.10448</v>
+        <v>1.13264</v>
       </c>
       <c r="D65" t="n">
-        <v>0.706184</v>
+        <v>0.698106</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.14247</v>
+        <v>1.22039</v>
       </c>
       <c r="C66" t="n">
-        <v>1.22323</v>
+        <v>1.26341</v>
       </c>
       <c r="D66" t="n">
-        <v>0.718788</v>
+        <v>0.7264890000000001</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.23555</v>
+        <v>1.28614</v>
       </c>
       <c r="C67" t="n">
-        <v>1.31074</v>
+        <v>1.31527</v>
       </c>
       <c r="D67" t="n">
-        <v>0.757945</v>
+        <v>0.785486</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.28431</v>
+        <v>1.34913</v>
       </c>
       <c r="C68" t="n">
-        <v>0.836496</v>
+        <v>0.851227</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5776</v>
+        <v>0.592676</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.40922</v>
+        <v>1.45334</v>
       </c>
       <c r="C69" t="n">
-        <v>0.883899</v>
+        <v>0.885897</v>
       </c>
       <c r="D69" t="n">
-        <v>0.579404</v>
+        <v>0.590089</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.47564</v>
+        <v>1.57803</v>
       </c>
       <c r="C70" t="n">
-        <v>0.979648</v>
+        <v>0.961601</v>
       </c>
       <c r="D70" t="n">
-        <v>0.60685</v>
+        <v>0.630267</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.60263</v>
+        <v>1.67556</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9754969999999999</v>
+        <v>1.0272</v>
       </c>
       <c r="D71" t="n">
-        <v>0.659779</v>
+        <v>0.670844</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.7541</v>
+        <v>1.76905</v>
       </c>
       <c r="C72" t="n">
-        <v>1.08216</v>
+        <v>1.08423</v>
       </c>
       <c r="D72" t="n">
-        <v>0.67386</v>
+        <v>0.694453</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.87802</v>
+        <v>1.90088</v>
       </c>
       <c r="C73" t="n">
-        <v>1.13511</v>
+        <v>1.14341</v>
       </c>
       <c r="D73" t="n">
-        <v>0.706022</v>
+        <v>0.731967</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.29019</v>
+        <v>1.30559</v>
       </c>
       <c r="C74" t="n">
-        <v>1.2126</v>
+        <v>1.2385</v>
       </c>
       <c r="D74" t="n">
-        <v>0.735982</v>
+        <v>0.772865</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.31806</v>
+        <v>1.35359</v>
       </c>
       <c r="C75" t="n">
-        <v>1.32023</v>
+        <v>1.31186</v>
       </c>
       <c r="D75" t="n">
-        <v>0.769397</v>
+        <v>0.798377</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.46613</v>
+        <v>1.44558</v>
       </c>
       <c r="C76" t="n">
-        <v>1.41254</v>
+        <v>1.49978</v>
       </c>
       <c r="D76" t="n">
-        <v>0.809379</v>
+        <v>0.842315</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.51134</v>
+        <v>1.51505</v>
       </c>
       <c r="C77" t="n">
-        <v>1.53977</v>
+        <v>1.52815</v>
       </c>
       <c r="D77" t="n">
-        <v>0.864413</v>
+        <v>0.891417</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.61186</v>
+        <v>1.63181</v>
       </c>
       <c r="C78" t="n">
-        <v>1.6207</v>
+        <v>1.64257</v>
       </c>
       <c r="D78" t="n">
-        <v>0.907148</v>
+        <v>0.9236220000000001</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.65701</v>
+        <v>1.73524</v>
       </c>
       <c r="C79" t="n">
-        <v>1.71126</v>
+        <v>1.74955</v>
       </c>
       <c r="D79" t="n">
-        <v>0.962087</v>
+        <v>1.0024</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.80457</v>
+        <v>1.87664</v>
       </c>
       <c r="C80" t="n">
-        <v>1.83736</v>
+        <v>1.89464</v>
       </c>
       <c r="D80" t="n">
-        <v>1.04684</v>
+        <v>1.03452</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.88139</v>
+        <v>1.90624</v>
       </c>
       <c r="C81" t="n">
-        <v>2.01037</v>
+        <v>2.04574</v>
       </c>
       <c r="D81" t="n">
-        <v>1.09853</v>
+        <v>1.11053</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.06646</v>
+        <v>2.05585</v>
       </c>
       <c r="C82" t="n">
-        <v>2.08832</v>
+        <v>2.14731</v>
       </c>
       <c r="D82" t="n">
-        <v>1.19384</v>
+        <v>1.16123</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.08742</v>
+        <v>2.11629</v>
       </c>
       <c r="C83" t="n">
-        <v>1.50258</v>
+        <v>1.58223</v>
       </c>
       <c r="D83" t="n">
-        <v>0.968147</v>
+        <v>0.992571</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.22907</v>
+        <v>2.23612</v>
       </c>
       <c r="C84" t="n">
-        <v>1.64631</v>
+        <v>1.642</v>
       </c>
       <c r="D84" t="n">
-        <v>1.00621</v>
+        <v>1.02646</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.36147</v>
+        <v>2.37335</v>
       </c>
       <c r="C85" t="n">
-        <v>1.71341</v>
+        <v>1.73513</v>
       </c>
       <c r="D85" t="n">
-        <v>1.05391</v>
+        <v>1.03462</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.53207</v>
+        <v>2.56233</v>
       </c>
       <c r="C86" t="n">
-        <v>1.79919</v>
+        <v>1.78379</v>
       </c>
       <c r="D86" t="n">
-        <v>1.08299</v>
+        <v>1.16326</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.62297</v>
+        <v>2.68076</v>
       </c>
       <c r="C87" t="n">
-        <v>1.85493</v>
+        <v>1.92995</v>
       </c>
       <c r="D87" t="n">
-        <v>1.13773</v>
+        <v>1.13459</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.78326</v>
+        <v>2.82852</v>
       </c>
       <c r="C88" t="n">
-        <v>1.99008</v>
+        <v>2.00764</v>
       </c>
       <c r="D88" t="n">
-        <v>1.1856</v>
+        <v>1.24329</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.89856</v>
+        <v>1.92581</v>
       </c>
       <c r="C89" t="n">
-        <v>2.11338</v>
+        <v>2.11242</v>
       </c>
       <c r="D89" t="n">
-        <v>1.27321</v>
+        <v>1.29939</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.00879</v>
+        <v>1.98416</v>
       </c>
       <c r="C90" t="n">
-        <v>2.25125</v>
+        <v>2.29611</v>
       </c>
       <c r="D90" t="n">
-        <v>1.32714</v>
+        <v>1.39167</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.0672</v>
+        <v>2.0922</v>
       </c>
       <c r="C91" t="n">
-        <v>2.4098</v>
+        <v>2.34422</v>
       </c>
       <c r="D91" t="n">
-        <v>1.37182</v>
+        <v>1.3902</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.18917</v>
+        <v>2.12669</v>
       </c>
       <c r="C92" t="n">
-        <v>2.50403</v>
+        <v>2.51747</v>
       </c>
       <c r="D92" t="n">
-        <v>1.42531</v>
+        <v>1.50491</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.26809</v>
+        <v>2.26295</v>
       </c>
       <c r="C93" t="n">
-        <v>2.63542</v>
+        <v>2.61482</v>
       </c>
       <c r="D93" t="n">
-        <v>1.5104</v>
+        <v>1.53807</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.40448</v>
+        <v>2.36534</v>
       </c>
       <c r="C94" t="n">
-        <v>2.74556</v>
+        <v>2.74214</v>
       </c>
       <c r="D94" t="n">
-        <v>1.60394</v>
+        <v>1.62555</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.4547</v>
+        <v>2.48451</v>
       </c>
       <c r="C95" t="n">
-        <v>2.93237</v>
+        <v>2.86475</v>
       </c>
       <c r="D95" t="n">
-        <v>1.64608</v>
+        <v>1.67028</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.58334</v>
+        <v>2.57698</v>
       </c>
       <c r="C96" t="n">
-        <v>3.07847</v>
+        <v>3.07373</v>
       </c>
       <c r="D96" t="n">
-        <v>1.75558</v>
+        <v>1.77321</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.68583</v>
+        <v>2.6941</v>
       </c>
       <c r="C97" t="n">
-        <v>1.97791</v>
+        <v>1.94421</v>
       </c>
       <c r="D97" t="n">
-        <v>1.33027</v>
+        <v>1.36631</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.88195</v>
+        <v>2.75055</v>
       </c>
       <c r="C98" t="n">
-        <v>2.03931</v>
+        <v>2.02065</v>
       </c>
       <c r="D98" t="n">
-        <v>1.38792</v>
+        <v>1.38702</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.0317</v>
+        <v>2.93901</v>
       </c>
       <c r="C99" t="n">
-        <v>2.17066</v>
+        <v>2.06292</v>
       </c>
       <c r="D99" t="n">
-        <v>1.40682</v>
+        <v>1.39327</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.08728</v>
+        <v>3.03805</v>
       </c>
       <c r="C100" t="n">
-        <v>2.2709</v>
+        <v>2.18152</v>
       </c>
       <c r="D100" t="n">
-        <v>1.45952</v>
+        <v>1.45399</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.23521</v>
+        <v>3.16829</v>
       </c>
       <c r="C101" t="n">
-        <v>2.31213</v>
+        <v>2.25259</v>
       </c>
       <c r="D101" t="n">
-        <v>1.54227</v>
+        <v>1.48806</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.42384</v>
+        <v>3.35534</v>
       </c>
       <c r="C102" t="n">
-        <v>2.37087</v>
+        <v>2.34723</v>
       </c>
       <c r="D102" t="n">
-        <v>1.58644</v>
+        <v>1.55161</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.21099</v>
+        <v>2.22868</v>
       </c>
       <c r="C103" t="n">
-        <v>2.48628</v>
+        <v>2.44801</v>
       </c>
       <c r="D103" t="n">
-        <v>1.624</v>
+        <v>1.63085</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.33899</v>
+        <v>2.30696</v>
       </c>
       <c r="C104" t="n">
-        <v>2.63121</v>
+        <v>2.57415</v>
       </c>
       <c r="D104" t="n">
-        <v>1.68576</v>
+        <v>1.72406</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.49684</v>
+        <v>2.42277</v>
       </c>
       <c r="C105" t="n">
-        <v>2.71477</v>
+        <v>2.65581</v>
       </c>
       <c r="D105" t="n">
-        <v>1.74385</v>
+        <v>1.72592</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.52072</v>
+        <v>2.52988</v>
       </c>
       <c r="C106" t="n">
-        <v>2.79575</v>
+        <v>2.81903</v>
       </c>
       <c r="D106" t="n">
-        <v>1.82728</v>
+        <v>1.76488</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.61181</v>
+        <v>2.57429</v>
       </c>
       <c r="C107" t="n">
-        <v>2.92836</v>
+        <v>2.92889</v>
       </c>
       <c r="D107" t="n">
-        <v>1.86234</v>
+        <v>1.8436</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.713</v>
+        <v>2.68921</v>
       </c>
       <c r="C108" t="n">
-        <v>3.09137</v>
+        <v>2.98792</v>
       </c>
       <c r="D108" t="n">
-        <v>1.88325</v>
+        <v>1.89383</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.78343</v>
+        <v>2.81301</v>
       </c>
       <c r="C109" t="n">
-        <v>3.20472</v>
+        <v>3.16698</v>
       </c>
       <c r="D109" t="n">
-        <v>2.00311</v>
+        <v>1.95924</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.90424</v>
+        <v>2.95938</v>
       </c>
       <c r="C110" t="n">
-        <v>3.38945</v>
+        <v>3.31745</v>
       </c>
       <c r="D110" t="n">
-        <v>2.08761</v>
+        <v>2.02708</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.99981</v>
+        <v>2.98883</v>
       </c>
       <c r="C111" t="n">
-        <v>2.22382</v>
+        <v>2.17059</v>
       </c>
       <c r="D111" t="n">
-        <v>1.60065</v>
+        <v>1.63103</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.1568</v>
+        <v>3.158</v>
       </c>
       <c r="C112" t="n">
-        <v>2.28622</v>
+        <v>2.26094</v>
       </c>
       <c r="D112" t="n">
-        <v>1.66144</v>
+        <v>1.62284</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.2495</v>
+        <v>3.258</v>
       </c>
       <c r="C113" t="n">
-        <v>2.38686</v>
+        <v>2.43286</v>
       </c>
       <c r="D113" t="n">
-        <v>1.69225</v>
+        <v>1.7124</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.45038</v>
+        <v>3.35797</v>
       </c>
       <c r="C114" t="n">
-        <v>2.45167</v>
+        <v>2.42824</v>
       </c>
       <c r="D114" t="n">
-        <v>1.74042</v>
+        <v>1.76821</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.54663</v>
+        <v>3.54852</v>
       </c>
       <c r="C115" t="n">
-        <v>2.53698</v>
+        <v>2.5575</v>
       </c>
       <c r="D115" t="n">
-        <v>1.75234</v>
+        <v>1.79386</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.70566</v>
+        <v>3.68715</v>
       </c>
       <c r="C116" t="n">
-        <v>2.67597</v>
+        <v>2.67843</v>
       </c>
       <c r="D116" t="n">
-        <v>1.83064</v>
+        <v>1.82018</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.50462</v>
+        <v>2.53297</v>
       </c>
       <c r="C117" t="n">
-        <v>2.72906</v>
+        <v>2.7975</v>
       </c>
       <c r="D117" t="n">
-        <v>1.90548</v>
+        <v>1.91858</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.59506</v>
+        <v>2.56502</v>
       </c>
       <c r="C118" t="n">
-        <v>2.83921</v>
+        <v>2.85976</v>
       </c>
       <c r="D118" t="n">
-        <v>1.98883</v>
+        <v>1.92707</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.64017</v>
+        <v>2.64085</v>
       </c>
       <c r="C119" t="n">
-        <v>3.0216</v>
+        <v>3.02307</v>
       </c>
       <c r="D119" t="n">
-        <v>2.02971</v>
+        <v>2.07058</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.215102</v>
+        <v>0.212852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.202538</v>
+        <v>0.200427</v>
       </c>
       <c r="D2" t="n">
-        <v>0.226996</v>
+        <v>0.207525</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.219199</v>
+        <v>0.213238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.208326</v>
+        <v>0.200089</v>
       </c>
       <c r="D3" t="n">
-        <v>0.225927</v>
+        <v>0.214132</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233408</v>
+        <v>0.214669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.220531</v>
+        <v>0.203604</v>
       </c>
       <c r="D4" t="n">
-        <v>0.226778</v>
+        <v>0.217134</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.22819</v>
+        <v>0.222543</v>
       </c>
       <c r="C5" t="n">
-        <v>0.215515</v>
+        <v>0.209759</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228682</v>
+        <v>0.232955</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.23468</v>
+        <v>0.253816</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226864</v>
+        <v>0.226441</v>
       </c>
       <c r="D6" t="n">
-        <v>0.238698</v>
+        <v>0.240699</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243094</v>
+        <v>0.234879</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18907</v>
+        <v>0.188763</v>
       </c>
       <c r="D7" t="n">
-        <v>0.207961</v>
+        <v>0.207622</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.243312</v>
+        <v>0.245507</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196369</v>
+        <v>0.190318</v>
       </c>
       <c r="D8" t="n">
-        <v>0.209647</v>
+        <v>0.206763</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259347</v>
+        <v>0.248608</v>
       </c>
       <c r="C9" t="n">
-        <v>0.208408</v>
+        <v>0.199396</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224775</v>
+        <v>0.216786</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.250955</v>
+        <v>0.25224</v>
       </c>
       <c r="C10" t="n">
-        <v>0.201478</v>
+        <v>0.201869</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216083</v>
+        <v>0.225142</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.266295</v>
+        <v>0.255008</v>
       </c>
       <c r="C11" t="n">
-        <v>0.204693</v>
+        <v>0.201592</v>
       </c>
       <c r="D11" t="n">
-        <v>0.217216</v>
+        <v>0.218645</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2585</v>
+        <v>0.263735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214579</v>
+        <v>0.207724</v>
       </c>
       <c r="D12" t="n">
-        <v>0.217216</v>
+        <v>0.222996</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.230805</v>
+        <v>0.233864</v>
       </c>
       <c r="C13" t="n">
-        <v>0.20281</v>
+        <v>0.210723</v>
       </c>
       <c r="D13" t="n">
-        <v>0.226772</v>
+        <v>0.225316</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.223718</v>
+        <v>0.228015</v>
       </c>
       <c r="C14" t="n">
-        <v>0.21335</v>
+        <v>0.209175</v>
       </c>
       <c r="D14" t="n">
-        <v>0.221587</v>
+        <v>0.221813</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.228137</v>
+        <v>0.261026</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212919</v>
+        <v>0.233256</v>
       </c>
       <c r="D15" t="n">
-        <v>0.23534</v>
+        <v>0.234417</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.23101</v>
+        <v>0.241264</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215706</v>
+        <v>0.228311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.230498</v>
+        <v>0.238178</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.231652</v>
+        <v>0.240806</v>
       </c>
       <c r="C17" t="n">
         <v>0.227173</v>
       </c>
       <c r="D17" t="n">
-        <v>0.235968</v>
+        <v>0.246578</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.234869</v>
+        <v>0.251702</v>
       </c>
       <c r="C18" t="n">
-        <v>0.233952</v>
+        <v>0.228098</v>
       </c>
       <c r="D18" t="n">
-        <v>0.243602</v>
+        <v>0.24824</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.243065</v>
+        <v>0.248621</v>
       </c>
       <c r="C19" t="n">
-        <v>0.229607</v>
+        <v>0.2321</v>
       </c>
       <c r="D19" t="n">
-        <v>0.247195</v>
+        <v>0.251272</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.240855</v>
+        <v>0.250527</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237945</v>
+        <v>0.23799</v>
       </c>
       <c r="D20" t="n">
-        <v>0.249257</v>
+        <v>0.260262</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.246128</v>
+        <v>0.257789</v>
       </c>
       <c r="C21" t="n">
-        <v>0.208402</v>
+        <v>0.20851</v>
       </c>
       <c r="D21" t="n">
-        <v>0.216236</v>
+        <v>0.220617</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.250831</v>
+        <v>0.258055</v>
       </c>
       <c r="C22" t="n">
-        <v>0.206784</v>
+        <v>0.205537</v>
       </c>
       <c r="D22" t="n">
-        <v>0.218343</v>
+        <v>0.218206</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.257541</v>
+        <v>0.259262</v>
       </c>
       <c r="C23" t="n">
-        <v>0.206995</v>
+        <v>0.214793</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227324</v>
+        <v>0.221622</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.263866</v>
+        <v>0.265338</v>
       </c>
       <c r="C24" t="n">
-        <v>0.205182</v>
+        <v>0.210969</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220454</v>
+        <v>0.220694</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.264405</v>
+        <v>0.261041</v>
       </c>
       <c r="C25" t="n">
-        <v>0.208914</v>
+        <v>0.213344</v>
       </c>
       <c r="D25" t="n">
-        <v>0.227394</v>
+        <v>0.222859</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.279418</v>
+        <v>0.263758</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22004</v>
+        <v>0.215676</v>
       </c>
       <c r="D26" t="n">
-        <v>0.228602</v>
+        <v>0.232102</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.234548</v>
+        <v>0.230856</v>
       </c>
       <c r="C27" t="n">
-        <v>0.216978</v>
+        <v>0.214556</v>
       </c>
       <c r="D27" t="n">
-        <v>0.23757</v>
+        <v>0.22654</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2339</v>
+        <v>0.228302</v>
       </c>
       <c r="C28" t="n">
-        <v>0.230558</v>
+        <v>0.218086</v>
       </c>
       <c r="D28" t="n">
-        <v>0.237678</v>
+        <v>0.238521</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.242075</v>
+        <v>0.240671</v>
       </c>
       <c r="C29" t="n">
-        <v>0.231668</v>
+        <v>0.221374</v>
       </c>
       <c r="D29" t="n">
-        <v>0.246335</v>
+        <v>0.234907</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.256641</v>
+        <v>0.244338</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238499</v>
+        <v>0.22294</v>
       </c>
       <c r="D30" t="n">
-        <v>0.246938</v>
+        <v>0.26014</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.250061</v>
+        <v>0.246519</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238936</v>
+        <v>0.240834</v>
       </c>
       <c r="D31" t="n">
-        <v>0.257369</v>
+        <v>0.259074</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.254816</v>
+        <v>0.254098</v>
       </c>
       <c r="C32" t="n">
-        <v>0.246464</v>
+        <v>0.237916</v>
       </c>
       <c r="D32" t="n">
-        <v>0.261556</v>
+        <v>0.252661</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.263039</v>
+        <v>0.259989</v>
       </c>
       <c r="C33" t="n">
-        <v>0.252827</v>
+        <v>0.240476</v>
       </c>
       <c r="D33" t="n">
-        <v>0.271897</v>
+        <v>0.259211</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260087</v>
+        <v>0.269177</v>
       </c>
       <c r="C34" t="n">
-        <v>0.254243</v>
+        <v>0.255456</v>
       </c>
       <c r="D34" t="n">
-        <v>0.287982</v>
+        <v>0.263827</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.279802</v>
+        <v>0.263317</v>
       </c>
       <c r="C35" t="n">
-        <v>0.223469</v>
+        <v>0.218189</v>
       </c>
       <c r="D35" t="n">
-        <v>0.230686</v>
+        <v>0.222875</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.297573</v>
+        <v>0.268619</v>
       </c>
       <c r="C36" t="n">
-        <v>0.23406</v>
+        <v>0.222715</v>
       </c>
       <c r="D36" t="n">
-        <v>0.24125</v>
+        <v>0.233344</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.286563</v>
+        <v>0.280922</v>
       </c>
       <c r="C37" t="n">
-        <v>0.239323</v>
+        <v>0.222824</v>
       </c>
       <c r="D37" t="n">
-        <v>0.257966</v>
+        <v>0.242377</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.299919</v>
+        <v>0.282938</v>
       </c>
       <c r="C38" t="n">
-        <v>0.248581</v>
+        <v>0.238411</v>
       </c>
       <c r="D38" t="n">
-        <v>0.250283</v>
+        <v>0.244281</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.302375</v>
+        <v>0.292237</v>
       </c>
       <c r="C39" t="n">
-        <v>0.262044</v>
+        <v>0.237863</v>
       </c>
       <c r="D39" t="n">
-        <v>0.256864</v>
+        <v>0.249626</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.31402</v>
+        <v>0.307106</v>
       </c>
       <c r="C40" t="n">
-        <v>0.251581</v>
+        <v>0.250761</v>
       </c>
       <c r="D40" t="n">
-        <v>0.264608</v>
+        <v>0.254244</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.316377</v>
+        <v>0.288686</v>
       </c>
       <c r="C41" t="n">
-        <v>0.255297</v>
+        <v>0.249798</v>
       </c>
       <c r="D41" t="n">
-        <v>0.280529</v>
+        <v>0.273214</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327562</v>
+        <v>0.306378</v>
       </c>
       <c r="C42" t="n">
-        <v>0.262402</v>
+        <v>0.260476</v>
       </c>
       <c r="D42" t="n">
-        <v>0.275942</v>
+        <v>0.262808</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.345431</v>
+        <v>0.312233</v>
       </c>
       <c r="C43" t="n">
-        <v>0.274383</v>
+        <v>0.254453</v>
       </c>
       <c r="D43" t="n">
-        <v>0.286111</v>
+        <v>0.282087</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.347032</v>
+        <v>0.307327</v>
       </c>
       <c r="C44" t="n">
-        <v>0.282092</v>
+        <v>0.261587</v>
       </c>
       <c r="D44" t="n">
-        <v>0.295819</v>
+        <v>0.275787</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355293</v>
+        <v>0.319148</v>
       </c>
       <c r="C45" t="n">
-        <v>0.286269</v>
+        <v>0.267858</v>
       </c>
       <c r="D45" t="n">
-        <v>0.304923</v>
+        <v>0.291646</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.355108</v>
+        <v>0.327914</v>
       </c>
       <c r="C46" t="n">
-        <v>0.290902</v>
+        <v>0.274399</v>
       </c>
       <c r="D46" t="n">
-        <v>0.300509</v>
+        <v>0.284967</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.381825</v>
+        <v>0.33488</v>
       </c>
       <c r="C47" t="n">
-        <v>0.30137</v>
+        <v>0.284004</v>
       </c>
       <c r="D47" t="n">
-        <v>0.327637</v>
+        <v>0.309949</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.422735</v>
+        <v>0.36024</v>
       </c>
       <c r="C48" t="n">
-        <v>0.324761</v>
+        <v>0.287823</v>
       </c>
       <c r="D48" t="n">
-        <v>0.328271</v>
+        <v>0.308671</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.423135</v>
+        <v>0.355914</v>
       </c>
       <c r="C49" t="n">
-        <v>0.33081</v>
+        <v>0.30836</v>
       </c>
       <c r="D49" t="n">
-        <v>0.345713</v>
+        <v>0.310892</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.45317</v>
+        <v>0.374903</v>
       </c>
       <c r="C50" t="n">
-        <v>0.333547</v>
+        <v>0.296169</v>
       </c>
       <c r="D50" t="n">
-        <v>0.319596</v>
+        <v>0.293085</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430944</v>
+        <v>0.393654</v>
       </c>
       <c r="C51" t="n">
-        <v>0.335812</v>
+        <v>0.301393</v>
       </c>
       <c r="D51" t="n">
-        <v>0.350047</v>
+        <v>0.292882</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.480645</v>
+        <v>0.401784</v>
       </c>
       <c r="C52" t="n">
-        <v>0.345835</v>
+        <v>0.306819</v>
       </c>
       <c r="D52" t="n">
-        <v>0.33978</v>
+        <v>0.30483</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.474004</v>
+        <v>0.403638</v>
       </c>
       <c r="C53" t="n">
-        <v>0.344698</v>
+        <v>0.30832</v>
       </c>
       <c r="D53" t="n">
-        <v>0.335906</v>
+        <v>0.309739</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.480488</v>
+        <v>0.419379</v>
       </c>
       <c r="C54" t="n">
-        <v>0.359152</v>
+        <v>0.325817</v>
       </c>
       <c r="D54" t="n">
-        <v>0.355691</v>
+        <v>0.325115</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.503495</v>
+        <v>0.446786</v>
       </c>
       <c r="C55" t="n">
-        <v>0.394668</v>
+        <v>0.326165</v>
       </c>
       <c r="D55" t="n">
-        <v>0.378053</v>
+        <v>0.330025</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.563758</v>
+        <v>0.486657</v>
       </c>
       <c r="C56" t="n">
-        <v>0.392041</v>
+        <v>0.334844</v>
       </c>
       <c r="D56" t="n">
-        <v>0.405159</v>
+        <v>0.337242</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.579207</v>
+        <v>0.525695</v>
       </c>
       <c r="C57" t="n">
-        <v>0.402557</v>
+        <v>0.377762</v>
       </c>
       <c r="D57" t="n">
-        <v>0.405252</v>
+        <v>0.367987</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6336039999999999</v>
+        <v>0.491078</v>
       </c>
       <c r="C58" t="n">
-        <v>0.425783</v>
+        <v>0.364481</v>
       </c>
       <c r="D58" t="n">
-        <v>0.463629</v>
+        <v>0.378006</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.658037</v>
+        <v>0.534439</v>
       </c>
       <c r="C59" t="n">
-        <v>0.46038</v>
+        <v>0.392567</v>
       </c>
       <c r="D59" t="n">
-        <v>0.459733</v>
+        <v>0.406228</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.653832</v>
+        <v>0.528186</v>
       </c>
       <c r="C60" t="n">
-        <v>0.480976</v>
+        <v>0.382968</v>
       </c>
       <c r="D60" t="n">
-        <v>0.47161</v>
+        <v>0.392879</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.661909</v>
+        <v>0.543475</v>
       </c>
       <c r="C61" t="n">
-        <v>0.479749</v>
+        <v>0.405331</v>
       </c>
       <c r="D61" t="n">
-        <v>0.479098</v>
+        <v>0.412886</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.679353</v>
+        <v>0.562694</v>
       </c>
       <c r="C62" t="n">
-        <v>0.483493</v>
+        <v>0.420665</v>
       </c>
       <c r="D62" t="n">
-        <v>0.506235</v>
+        <v>0.44451</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.674497</v>
+        <v>0.593212</v>
       </c>
       <c r="C63" t="n">
-        <v>0.516587</v>
+        <v>0.432263</v>
       </c>
       <c r="D63" t="n">
-        <v>0.517162</v>
+        <v>0.441127</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.719844</v>
+        <v>0.599178</v>
       </c>
       <c r="C64" t="n">
-        <v>0.543494</v>
+        <v>0.475115</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5584249999999999</v>
+        <v>0.483075</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.727237</v>
+        <v>0.631274</v>
       </c>
       <c r="C65" t="n">
-        <v>0.588295</v>
+        <v>0.473181</v>
       </c>
       <c r="D65" t="n">
-        <v>0.59743</v>
+        <v>0.494595</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.766529</v>
+        <v>0.643288</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6132030000000001</v>
+        <v>0.492288</v>
       </c>
       <c r="D66" t="n">
-        <v>0.652873</v>
+        <v>0.491238</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.790926</v>
+        <v>0.653075</v>
       </c>
       <c r="C67" t="n">
-        <v>0.617378</v>
+        <v>0.510835</v>
       </c>
       <c r="D67" t="n">
-        <v>0.632526</v>
+        <v>0.517436</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.779228</v>
+        <v>0.667028</v>
       </c>
       <c r="C68" t="n">
-        <v>0.656228</v>
+        <v>0.543767</v>
       </c>
       <c r="D68" t="n">
-        <v>0.636423</v>
+        <v>0.513054</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.831066</v>
+        <v>0.6961310000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.670574</v>
+        <v>0.519609</v>
       </c>
       <c r="D69" t="n">
-        <v>0.681501</v>
+        <v>0.537965</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.840861</v>
+        <v>0.688878</v>
       </c>
       <c r="C70" t="n">
-        <v>0.643141</v>
+        <v>0.595175</v>
       </c>
       <c r="D70" t="n">
-        <v>0.676915</v>
+        <v>0.559069</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.817132</v>
+        <v>0.729802</v>
       </c>
       <c r="C71" t="n">
-        <v>0.679623</v>
+        <v>0.570929</v>
       </c>
       <c r="D71" t="n">
-        <v>0.663529</v>
+        <v>0.575813</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.872273</v>
+        <v>0.744275</v>
       </c>
       <c r="C72" t="n">
-        <v>0.694981</v>
+        <v>0.601275</v>
       </c>
       <c r="D72" t="n">
-        <v>0.727321</v>
+        <v>0.595619</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.830055</v>
+        <v>0.744224</v>
       </c>
       <c r="C73" t="n">
-        <v>0.716387</v>
+        <v>0.599857</v>
       </c>
       <c r="D73" t="n">
-        <v>0.70764</v>
+        <v>0.612426</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.869776</v>
+        <v>0.758365</v>
       </c>
       <c r="C74" t="n">
-        <v>0.708678</v>
+        <v>0.633995</v>
       </c>
       <c r="D74" t="n">
-        <v>0.734196</v>
+        <v>0.648302</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.894993</v>
+        <v>0.800892</v>
       </c>
       <c r="C75" t="n">
-        <v>0.76696</v>
+        <v>0.624399</v>
       </c>
       <c r="D75" t="n">
-        <v>0.782022</v>
+        <v>0.661154</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.907548</v>
+        <v>0.815033</v>
       </c>
       <c r="C76" t="n">
-        <v>0.787005</v>
+        <v>0.6505379999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8007</v>
+        <v>0.675769</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.942808</v>
+        <v>0.818948</v>
       </c>
       <c r="C77" t="n">
-        <v>0.78528</v>
+        <v>0.6667459999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.815354</v>
+        <v>0.723822</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.942352</v>
+        <v>0.830712</v>
       </c>
       <c r="C78" t="n">
-        <v>0.771595</v>
+        <v>0.677463</v>
       </c>
       <c r="D78" t="n">
-        <v>0.815688</v>
+        <v>0.70768</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.990771</v>
+        <v>0.8655119999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.824489</v>
+        <v>0.725593</v>
       </c>
       <c r="D79" t="n">
-        <v>0.81669</v>
+        <v>0.710229</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.97806</v>
+        <v>0.866484</v>
       </c>
       <c r="C80" t="n">
-        <v>0.81133</v>
+        <v>0.713083</v>
       </c>
       <c r="D80" t="n">
-        <v>0.816894</v>
+        <v>0.725316</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.979039</v>
+        <v>0.934357</v>
       </c>
       <c r="C81" t="n">
-        <v>0.848649</v>
+        <v>0.729317</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8208530000000001</v>
+        <v>0.73104</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.00943</v>
+        <v>0.922923</v>
       </c>
       <c r="C82" t="n">
-        <v>0.830384</v>
+        <v>0.737643</v>
       </c>
       <c r="D82" t="n">
-        <v>0.852523</v>
+        <v>0.76224</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.01091</v>
+        <v>0.936843</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8769</v>
+        <v>0.739781</v>
       </c>
       <c r="D83" t="n">
-        <v>0.870785</v>
+        <v>0.768113</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9494050000000001</v>
+        <v>0.86408</v>
       </c>
       <c r="C84" t="n">
-        <v>0.865927</v>
+        <v>0.770289</v>
       </c>
       <c r="D84" t="n">
-        <v>0.904058</v>
+        <v>0.789292</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9698870000000001</v>
+        <v>0.881751</v>
       </c>
       <c r="C85" t="n">
-        <v>0.881233</v>
+        <v>0.779743</v>
       </c>
       <c r="D85" t="n">
-        <v>0.88557</v>
+        <v>0.804747</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.989476</v>
+        <v>0.889643</v>
       </c>
       <c r="C86" t="n">
-        <v>0.880525</v>
+        <v>0.803241</v>
       </c>
       <c r="D86" t="n">
-        <v>0.910293</v>
+        <v>0.831992</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.987594</v>
+        <v>0.903409</v>
       </c>
       <c r="C87" t="n">
-        <v>0.917145</v>
+        <v>0.811752</v>
       </c>
       <c r="D87" t="n">
-        <v>0.934195</v>
+        <v>0.869289</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.03446</v>
+        <v>0.930399</v>
       </c>
       <c r="C88" t="n">
-        <v>0.926494</v>
+        <v>0.834212</v>
       </c>
       <c r="D88" t="n">
-        <v>0.971282</v>
+        <v>0.869527</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.03078</v>
+        <v>0.937205</v>
       </c>
       <c r="C89" t="n">
-        <v>0.926847</v>
+        <v>0.863366</v>
       </c>
       <c r="D89" t="n">
-        <v>0.964303</v>
+        <v>0.921914</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.00899</v>
+        <v>0.950413</v>
       </c>
       <c r="C90" t="n">
-        <v>0.959214</v>
+        <v>0.870104</v>
       </c>
       <c r="D90" t="n">
-        <v>1.00113</v>
+        <v>0.897545</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.05839</v>
+        <v>0.965956</v>
       </c>
       <c r="C91" t="n">
-        <v>0.97451</v>
+        <v>0.907989</v>
       </c>
       <c r="D91" t="n">
-        <v>1.03817</v>
+        <v>0.924704</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.04711</v>
+        <v>0.997174</v>
       </c>
       <c r="C92" t="n">
-        <v>0.917622</v>
+        <v>0.832267</v>
       </c>
       <c r="D92" t="n">
-        <v>0.936696</v>
+        <v>0.86983</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.11175</v>
+        <v>1.03107</v>
       </c>
       <c r="C93" t="n">
-        <v>0.918036</v>
+        <v>0.840517</v>
       </c>
       <c r="D93" t="n">
-        <v>0.940225</v>
+        <v>0.8643729999999999</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.09269</v>
+        <v>1.01847</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9351739999999999</v>
+        <v>0.882633</v>
       </c>
       <c r="D94" t="n">
-        <v>0.950756</v>
+        <v>0.885829</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.13761</v>
+        <v>1.04814</v>
       </c>
       <c r="C95" t="n">
-        <v>0.954244</v>
+        <v>0.863891</v>
       </c>
       <c r="D95" t="n">
-        <v>0.965326</v>
+        <v>0.915856</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.13515</v>
+        <v>1.06756</v>
       </c>
       <c r="C96" t="n">
-        <v>0.950648</v>
+        <v>0.884907</v>
       </c>
       <c r="D96" t="n">
-        <v>1.00785</v>
+        <v>0.914633</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11359</v>
+        <v>1.08386</v>
       </c>
       <c r="C97" t="n">
-        <v>0.989675</v>
+        <v>0.913567</v>
       </c>
       <c r="D97" t="n">
-        <v>1.00796</v>
+        <v>0.935932</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01832</v>
+        <v>0.96524</v>
       </c>
       <c r="C98" t="n">
-        <v>0.973055</v>
+        <v>0.94415</v>
       </c>
       <c r="D98" t="n">
-        <v>1.01453</v>
+        <v>0.97274</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.04203</v>
+        <v>0.9832959999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02476</v>
+        <v>0.93845</v>
       </c>
       <c r="D99" t="n">
-        <v>1.01661</v>
+        <v>0.958856</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.06073</v>
+        <v>1.00307</v>
       </c>
       <c r="C100" t="n">
-        <v>0.987689</v>
+        <v>0.951831</v>
       </c>
       <c r="D100" t="n">
-        <v>1.03322</v>
+        <v>0.975483</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.0734</v>
+        <v>1.02782</v>
       </c>
       <c r="C101" t="n">
-        <v>1.03159</v>
+        <v>0.976939</v>
       </c>
       <c r="D101" t="n">
-        <v>1.06529</v>
+        <v>1.00393</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.07862</v>
+        <v>1.03417</v>
       </c>
       <c r="C102" t="n">
-        <v>1.06054</v>
+        <v>1.01583</v>
       </c>
       <c r="D102" t="n">
-        <v>1.07313</v>
+        <v>1.01156</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.08723</v>
+        <v>1.04559</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07378</v>
+        <v>1.01148</v>
       </c>
       <c r="D103" t="n">
-        <v>1.09018</v>
+        <v>1.04935</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.13355</v>
+        <v>1.08625</v>
       </c>
       <c r="C104" t="n">
-        <v>1.07221</v>
+        <v>1.01363</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09042</v>
+        <v>1.0464</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.13519</v>
+        <v>1.06929</v>
       </c>
       <c r="C105" t="n">
-        <v>1.11091</v>
+        <v>1.04559</v>
       </c>
       <c r="D105" t="n">
-        <v>1.12466</v>
+        <v>1.07504</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.16306</v>
+        <v>1.10287</v>
       </c>
       <c r="C106" t="n">
-        <v>1.12993</v>
+        <v>1.07677</v>
       </c>
       <c r="D106" t="n">
-        <v>1.13659</v>
+        <v>1.0925</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1794</v>
+        <v>1.11894</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01971</v>
+        <v>0.949061</v>
       </c>
       <c r="D107" t="n">
-        <v>1.04729</v>
+        <v>1.00253</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.2234</v>
+        <v>1.12708</v>
       </c>
       <c r="C108" t="n">
-        <v>1.05779</v>
+        <v>0.963643</v>
       </c>
       <c r="D108" t="n">
-        <v>1.0889</v>
+        <v>0.985585</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.26505</v>
+        <v>1.13044</v>
       </c>
       <c r="C109" t="n">
-        <v>1.05619</v>
+        <v>0.968818</v>
       </c>
       <c r="D109" t="n">
-        <v>1.11288</v>
+        <v>0.9921450000000001</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.24888</v>
+        <v>1.16092</v>
       </c>
       <c r="C110" t="n">
-        <v>1.0715</v>
+        <v>0.988463</v>
       </c>
       <c r="D110" t="n">
-        <v>1.08715</v>
+        <v>1.02614</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.26739</v>
+        <v>1.20952</v>
       </c>
       <c r="C111" t="n">
-        <v>1.06965</v>
+        <v>1.00872</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09636</v>
+        <v>1.03631</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.15096</v>
+        <v>1.07314</v>
       </c>
       <c r="C112" t="n">
-        <v>1.0786</v>
+        <v>1.05506</v>
       </c>
       <c r="D112" t="n">
-        <v>1.10203</v>
+        <v>1.06007</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.16778</v>
+        <v>1.08127</v>
       </c>
       <c r="C113" t="n">
-        <v>1.14097</v>
+        <v>1.04173</v>
       </c>
       <c r="D113" t="n">
-        <v>1.14037</v>
+        <v>1.06043</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.20513</v>
+        <v>1.06974</v>
       </c>
       <c r="C114" t="n">
-        <v>1.12998</v>
+        <v>1.0541</v>
       </c>
       <c r="D114" t="n">
-        <v>1.1684</v>
+        <v>1.07837</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.18147</v>
+        <v>1.07791</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16654</v>
+        <v>1.06721</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16259</v>
+        <v>1.1185</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.18993</v>
+        <v>1.09437</v>
       </c>
       <c r="C116" t="n">
-        <v>1.18648</v>
+        <v>1.10244</v>
       </c>
       <c r="D116" t="n">
-        <v>1.20697</v>
+        <v>1.13198</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.23976</v>
+        <v>1.13227</v>
       </c>
       <c r="C117" t="n">
-        <v>1.17079</v>
+        <v>1.10397</v>
       </c>
       <c r="D117" t="n">
-        <v>1.25</v>
+        <v>1.15028</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.21864</v>
+        <v>1.14222</v>
       </c>
       <c r="C118" t="n">
-        <v>1.20835</v>
+        <v>1.11851</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23682</v>
+        <v>1.1619</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.21826</v>
+        <v>1.15955</v>
       </c>
       <c r="C119" t="n">
-        <v>1.25094</v>
+        <v>1.14113</v>
       </c>
       <c r="D119" t="n">
-        <v>1.29053</v>
+        <v>1.17071</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.237864</v>
+        <v>0.221149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187847</v>
+        <v>0.179347</v>
       </c>
       <c r="D2" t="n">
-        <v>0.188782</v>
+        <v>0.18457</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240371</v>
+        <v>0.220692</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190377</v>
+        <v>0.18706</v>
       </c>
       <c r="D3" t="n">
-        <v>0.188954</v>
+        <v>0.182141</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.238406</v>
+        <v>0.221079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.213812</v>
+        <v>0.186275</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213493</v>
+        <v>0.184048</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.251503</v>
+        <v>0.22509</v>
       </c>
       <c r="C5" t="n">
-        <v>0.207833</v>
+        <v>0.189559</v>
       </c>
       <c r="D5" t="n">
-        <v>0.198225</v>
+        <v>0.188117</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25479</v>
+        <v>0.231545</v>
       </c>
       <c r="C6" t="n">
-        <v>0.218761</v>
+        <v>0.205646</v>
       </c>
       <c r="D6" t="n">
-        <v>0.208575</v>
+        <v>0.196236</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.246123</v>
+        <v>0.236596</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194349</v>
+        <v>0.182643</v>
       </c>
       <c r="D7" t="n">
-        <v>0.207737</v>
+        <v>0.194882</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.253074</v>
+        <v>0.241567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198533</v>
+        <v>0.188491</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20214</v>
+        <v>0.198749</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.26227</v>
+        <v>0.246829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.203665</v>
+        <v>0.189444</v>
       </c>
       <c r="D9" t="n">
-        <v>0.211199</v>
+        <v>0.200965</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.262458</v>
+        <v>0.252336</v>
       </c>
       <c r="C10" t="n">
-        <v>0.206376</v>
+        <v>0.195666</v>
       </c>
       <c r="D10" t="n">
-        <v>0.214993</v>
+        <v>0.19888</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.276856</v>
+        <v>0.247292</v>
       </c>
       <c r="C11" t="n">
-        <v>0.203979</v>
+        <v>0.190135</v>
       </c>
       <c r="D11" t="n">
-        <v>0.204646</v>
+        <v>0.199735</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.271179</v>
+        <v>0.257107</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21243</v>
+        <v>0.200188</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214461</v>
+        <v>0.202814</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.241556</v>
+        <v>0.231129</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220788</v>
+        <v>0.196894</v>
       </c>
       <c r="D13" t="n">
-        <v>0.214888</v>
+        <v>0.203432</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.246844</v>
+        <v>0.254626</v>
       </c>
       <c r="C14" t="n">
-        <v>0.208241</v>
+        <v>0.200825</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22185</v>
+        <v>0.203548</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.245499</v>
+        <v>0.236459</v>
       </c>
       <c r="C15" t="n">
-        <v>0.215897</v>
+        <v>0.201898</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220239</v>
+        <v>0.207744</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.257651</v>
+        <v>0.239795</v>
       </c>
       <c r="C16" t="n">
-        <v>0.229545</v>
+        <v>0.210686</v>
       </c>
       <c r="D16" t="n">
-        <v>0.220204</v>
+        <v>0.211409</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.26088</v>
+        <v>0.256088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.220831</v>
+        <v>0.214501</v>
       </c>
       <c r="D17" t="n">
-        <v>0.222914</v>
+        <v>0.214043</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.272247</v>
+        <v>0.257827</v>
       </c>
       <c r="C18" t="n">
-        <v>0.22734</v>
+        <v>0.222184</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222557</v>
+        <v>0.21806</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.263906</v>
+        <v>0.252684</v>
       </c>
       <c r="C19" t="n">
-        <v>0.240885</v>
+        <v>0.223668</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23414</v>
+        <v>0.218693</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.285623</v>
+        <v>0.259478</v>
       </c>
       <c r="C20" t="n">
-        <v>0.240612</v>
+        <v>0.228311</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241517</v>
+        <v>0.22247</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.270712</v>
+        <v>0.267575</v>
       </c>
       <c r="C21" t="n">
-        <v>0.219509</v>
+        <v>0.213633</v>
       </c>
       <c r="D21" t="n">
-        <v>0.222107</v>
+        <v>0.217375</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.28513</v>
+        <v>0.264311</v>
       </c>
       <c r="C22" t="n">
-        <v>0.236821</v>
+        <v>0.217606</v>
       </c>
       <c r="D22" t="n">
-        <v>0.228588</v>
+        <v>0.224322</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289473</v>
+        <v>0.27258</v>
       </c>
       <c r="C23" t="n">
-        <v>0.229118</v>
+        <v>0.217267</v>
       </c>
       <c r="D23" t="n">
-        <v>0.229628</v>
+        <v>0.226428</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.305263</v>
+        <v>0.277751</v>
       </c>
       <c r="C24" t="n">
-        <v>0.238597</v>
+        <v>0.22481</v>
       </c>
       <c r="D24" t="n">
-        <v>0.247572</v>
+        <v>0.227111</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.318173</v>
+        <v>0.292279</v>
       </c>
       <c r="C25" t="n">
-        <v>0.263653</v>
+        <v>0.231159</v>
       </c>
       <c r="D25" t="n">
-        <v>0.246856</v>
+        <v>0.232207</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.309913</v>
+        <v>0.294319</v>
       </c>
       <c r="C26" t="n">
-        <v>0.24869</v>
+        <v>0.242017</v>
       </c>
       <c r="D26" t="n">
-        <v>0.242276</v>
+        <v>0.23007</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.296127</v>
+        <v>0.274162</v>
       </c>
       <c r="C27" t="n">
-        <v>0.252182</v>
+        <v>0.24908</v>
       </c>
       <c r="D27" t="n">
-        <v>0.249582</v>
+        <v>0.239943</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.294576</v>
+        <v>0.292141</v>
       </c>
       <c r="C28" t="n">
-        <v>0.251953</v>
+        <v>0.246069</v>
       </c>
       <c r="D28" t="n">
-        <v>0.242397</v>
+        <v>0.242454</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.296353</v>
+        <v>0.299623</v>
       </c>
       <c r="C29" t="n">
-        <v>0.273546</v>
+        <v>0.248171</v>
       </c>
       <c r="D29" t="n">
-        <v>0.256038</v>
+        <v>0.240008</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.315777</v>
+        <v>0.301089</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265131</v>
+        <v>0.268991</v>
       </c>
       <c r="D30" t="n">
-        <v>0.256939</v>
+        <v>0.259124</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.309652</v>
+        <v>0.308722</v>
       </c>
       <c r="C31" t="n">
-        <v>0.275396</v>
+        <v>0.268704</v>
       </c>
       <c r="D31" t="n">
-        <v>0.261557</v>
+        <v>0.254663</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.33566</v>
+        <v>0.320508</v>
       </c>
       <c r="C32" t="n">
-        <v>0.275272</v>
+        <v>0.272907</v>
       </c>
       <c r="D32" t="n">
-        <v>0.267395</v>
+        <v>0.252619</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.322043</v>
+        <v>0.335848</v>
       </c>
       <c r="C33" t="n">
-        <v>0.281963</v>
+        <v>0.286826</v>
       </c>
       <c r="D33" t="n">
-        <v>0.264586</v>
+        <v>0.259443</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.337684</v>
+        <v>0.331444</v>
       </c>
       <c r="C34" t="n">
-        <v>0.300667</v>
+        <v>0.295528</v>
       </c>
       <c r="D34" t="n">
-        <v>0.26878</v>
+        <v>0.264103</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.341182</v>
+        <v>0.354887</v>
       </c>
       <c r="C35" t="n">
-        <v>0.254936</v>
+        <v>0.252226</v>
       </c>
       <c r="D35" t="n">
-        <v>0.252346</v>
+        <v>0.246397</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.351518</v>
+        <v>0.347763</v>
       </c>
       <c r="C36" t="n">
-        <v>0.268583</v>
+        <v>0.261408</v>
       </c>
       <c r="D36" t="n">
-        <v>0.265906</v>
+        <v>0.250586</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.372307</v>
+        <v>0.359489</v>
       </c>
       <c r="C37" t="n">
-        <v>0.269025</v>
+        <v>0.272696</v>
       </c>
       <c r="D37" t="n">
-        <v>0.257242</v>
+        <v>0.255179</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.39115</v>
+        <v>0.378014</v>
       </c>
       <c r="C38" t="n">
-        <v>0.288132</v>
+        <v>0.27504</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264271</v>
+        <v>0.276396</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.383951</v>
+        <v>0.384422</v>
       </c>
       <c r="C39" t="n">
-        <v>0.28768</v>
+        <v>0.291181</v>
       </c>
       <c r="D39" t="n">
-        <v>0.27385</v>
+        <v>0.26579</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.398695</v>
+        <v>0.406173</v>
       </c>
       <c r="C40" t="n">
-        <v>0.290425</v>
+        <v>0.299564</v>
       </c>
       <c r="D40" t="n">
-        <v>0.282014</v>
+        <v>0.27461</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.394657</v>
+        <v>0.420729</v>
       </c>
       <c r="C41" t="n">
-        <v>0.298845</v>
+        <v>0.331063</v>
       </c>
       <c r="D41" t="n">
-        <v>0.291793</v>
+        <v>0.281918</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.394211</v>
+        <v>0.431737</v>
       </c>
       <c r="C42" t="n">
-        <v>0.302336</v>
+        <v>0.326567</v>
       </c>
       <c r="D42" t="n">
-        <v>0.286407</v>
+        <v>0.28456</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.412148</v>
+        <v>0.450369</v>
       </c>
       <c r="C43" t="n">
-        <v>0.338102</v>
+        <v>0.338399</v>
       </c>
       <c r="D43" t="n">
-        <v>0.305545</v>
+        <v>0.289276</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.415135</v>
+        <v>0.452773</v>
       </c>
       <c r="C44" t="n">
-        <v>0.344611</v>
+        <v>0.35279</v>
       </c>
       <c r="D44" t="n">
-        <v>0.300094</v>
+        <v>0.300685</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.435547</v>
+        <v>0.464315</v>
       </c>
       <c r="C45" t="n">
-        <v>0.339168</v>
+        <v>0.37233</v>
       </c>
       <c r="D45" t="n">
-        <v>0.299877</v>
+        <v>0.311832</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.465334</v>
+        <v>0.473838</v>
       </c>
       <c r="C46" t="n">
-        <v>0.353131</v>
+        <v>0.375324</v>
       </c>
       <c r="D46" t="n">
-        <v>0.325961</v>
+        <v>0.312328</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.461787</v>
+        <v>0.494008</v>
       </c>
       <c r="C47" t="n">
-        <v>0.360823</v>
+        <v>0.385268</v>
       </c>
       <c r="D47" t="n">
-        <v>0.325368</v>
+        <v>0.31614</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.459253</v>
+        <v>0.503667</v>
       </c>
       <c r="C48" t="n">
-        <v>0.372479</v>
+        <v>0.405017</v>
       </c>
       <c r="D48" t="n">
-        <v>0.323704</v>
+        <v>0.320845</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.479959</v>
+        <v>0.510254</v>
       </c>
       <c r="C49" t="n">
-        <v>0.383021</v>
+        <v>0.410189</v>
       </c>
       <c r="D49" t="n">
-        <v>0.335339</v>
+        <v>0.327946</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.505037</v>
+        <v>0.521984</v>
       </c>
       <c r="C50" t="n">
-        <v>0.386388</v>
+        <v>0.428286</v>
       </c>
       <c r="D50" t="n">
-        <v>0.35841</v>
+        <v>0.371958</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.507952</v>
+        <v>0.564576</v>
       </c>
       <c r="C51" t="n">
-        <v>0.398059</v>
+        <v>0.4492</v>
       </c>
       <c r="D51" t="n">
-        <v>0.338135</v>
+        <v>0.382121</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.530443</v>
+        <v>0.560013</v>
       </c>
       <c r="C52" t="n">
-        <v>0.408642</v>
+        <v>0.460123</v>
       </c>
       <c r="D52" t="n">
-        <v>0.35179</v>
+        <v>0.390316</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.525942</v>
+        <v>0.567665</v>
       </c>
       <c r="C53" t="n">
-        <v>0.422381</v>
+        <v>0.479031</v>
       </c>
       <c r="D53" t="n">
-        <v>0.362178</v>
+        <v>0.403094</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.545957</v>
+        <v>0.58943</v>
       </c>
       <c r="C54" t="n">
-        <v>0.43609</v>
+        <v>0.492196</v>
       </c>
       <c r="D54" t="n">
-        <v>0.368072</v>
+        <v>0.409055</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.549581</v>
+        <v>0.600945</v>
       </c>
       <c r="C55" t="n">
-        <v>0.452103</v>
+        <v>0.5226229999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.384591</v>
+        <v>0.419936</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.524587</v>
+        <v>0.5909759999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.45565</v>
+        <v>0.50701</v>
       </c>
       <c r="D56" t="n">
-        <v>0.396999</v>
+        <v>0.430215</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5278040000000001</v>
+        <v>0.590327</v>
       </c>
       <c r="C57" t="n">
-        <v>0.483909</v>
+        <v>0.536108</v>
       </c>
       <c r="D57" t="n">
-        <v>0.380673</v>
+        <v>0.45031</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.549918</v>
+        <v>0.608524</v>
       </c>
       <c r="C58" t="n">
-        <v>0.487626</v>
+        <v>0.551198</v>
       </c>
       <c r="D58" t="n">
-        <v>0.41667</v>
+        <v>0.453134</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.570398</v>
+        <v>0.613841</v>
       </c>
       <c r="C59" t="n">
-        <v>0.536283</v>
+        <v>0.565999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.416698</v>
+        <v>0.467765</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.590307</v>
+        <v>0.629861</v>
       </c>
       <c r="C60" t="n">
-        <v>0.529681</v>
+        <v>0.581479</v>
       </c>
       <c r="D60" t="n">
-        <v>0.430077</v>
+        <v>0.478988</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.610163</v>
+        <v>0.654255</v>
       </c>
       <c r="C61" t="n">
-        <v>0.542767</v>
+        <v>0.607301</v>
       </c>
       <c r="D61" t="n">
-        <v>0.445009</v>
+        <v>0.499611</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6193419999999999</v>
+        <v>0.66312</v>
       </c>
       <c r="C62" t="n">
-        <v>0.562469</v>
+        <v>0.6203109999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.450119</v>
+        <v>0.507274</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.634845</v>
+        <v>0.676517</v>
       </c>
       <c r="C63" t="n">
-        <v>0.584806</v>
+        <v>0.630699</v>
       </c>
       <c r="D63" t="n">
-        <v>0.481564</v>
+        <v>0.530384</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.672019</v>
+        <v>0.686599</v>
       </c>
       <c r="C64" t="n">
-        <v>0.571905</v>
+        <v>0.626034</v>
       </c>
       <c r="D64" t="n">
-        <v>0.49034</v>
+        <v>0.554486</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7098449999999999</v>
+        <v>0.7259</v>
       </c>
       <c r="C65" t="n">
-        <v>0.582725</v>
+        <v>0.638107</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5048899999999999</v>
+        <v>0.56397</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.716866</v>
+        <v>0.72988</v>
       </c>
       <c r="C66" t="n">
-        <v>0.623851</v>
+        <v>0.660699</v>
       </c>
       <c r="D66" t="n">
-        <v>0.496528</v>
+        <v>0.571214</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.730904</v>
+        <v>0.766746</v>
       </c>
       <c r="C67" t="n">
-        <v>0.639037</v>
+        <v>0.665615</v>
       </c>
       <c r="D67" t="n">
-        <v>0.535059</v>
+        <v>0.574381</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.772514</v>
+        <v>0.79877</v>
       </c>
       <c r="C68" t="n">
-        <v>0.626573</v>
+        <v>0.664636</v>
       </c>
       <c r="D68" t="n">
-        <v>0.529708</v>
+        <v>0.583649</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.827982</v>
+        <v>0.819702</v>
       </c>
       <c r="C69" t="n">
-        <v>0.651122</v>
+        <v>0.707463</v>
       </c>
       <c r="D69" t="n">
-        <v>0.559742</v>
+        <v>0.6066589999999999</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.731621</v>
+        <v>0.780498</v>
       </c>
       <c r="C70" t="n">
-        <v>0.665144</v>
+        <v>0.745864</v>
       </c>
       <c r="D70" t="n">
-        <v>0.584221</v>
+        <v>0.614038</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.772691</v>
+        <v>0.806151</v>
       </c>
       <c r="C71" t="n">
-        <v>0.689025</v>
+        <v>0.7542219999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.569771</v>
+        <v>0.647848</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.812017</v>
+        <v>0.852876</v>
       </c>
       <c r="C72" t="n">
-        <v>0.752552</v>
+        <v>0.7874989999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.589527</v>
+        <v>0.6637380000000001</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.825735</v>
+        <v>0.888574</v>
       </c>
       <c r="C73" t="n">
-        <v>0.799434</v>
+        <v>0.819778</v>
       </c>
       <c r="D73" t="n">
-        <v>0.642103</v>
+        <v>0.697447</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.858524</v>
+        <v>0.924329</v>
       </c>
       <c r="C74" t="n">
-        <v>0.82657</v>
+        <v>0.856228</v>
       </c>
       <c r="D74" t="n">
-        <v>0.639995</v>
+        <v>0.708908</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.878904</v>
+        <v>0.971852</v>
       </c>
       <c r="C75" t="n">
-        <v>0.836651</v>
+        <v>0.894435</v>
       </c>
       <c r="D75" t="n">
-        <v>0.661614</v>
+        <v>0.7478129999999999</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.930075</v>
+        <v>1.0149</v>
       </c>
       <c r="C76" t="n">
-        <v>0.901757</v>
+        <v>0.96161</v>
       </c>
       <c r="D76" t="n">
-        <v>0.710677</v>
+        <v>0.739792</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.935468</v>
+        <v>1.04061</v>
       </c>
       <c r="C77" t="n">
-        <v>0.954575</v>
+        <v>0.956772</v>
       </c>
       <c r="D77" t="n">
-        <v>0.713798</v>
+        <v>0.778805</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.992765</v>
+        <v>1.03828</v>
       </c>
       <c r="C78" t="n">
-        <v>0.854025</v>
+        <v>0.949728</v>
       </c>
       <c r="D78" t="n">
-        <v>0.756306</v>
+        <v>0.844225</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.00388</v>
+        <v>1.11931</v>
       </c>
       <c r="C79" t="n">
-        <v>0.866727</v>
+        <v>0.995256</v>
       </c>
       <c r="D79" t="n">
-        <v>0.777612</v>
+        <v>0.910353</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.04764</v>
+        <v>1.1898</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8933680000000001</v>
+        <v>1.03856</v>
       </c>
       <c r="D80" t="n">
-        <v>0.799102</v>
+        <v>0.9097460000000001</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.10188</v>
+        <v>1.23886</v>
       </c>
       <c r="C81" t="n">
-        <v>0.938354</v>
+        <v>1.05615</v>
       </c>
       <c r="D81" t="n">
-        <v>0.818257</v>
+        <v>0.95653</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.09229</v>
+        <v>1.29116</v>
       </c>
       <c r="C82" t="n">
-        <v>0.939987</v>
+        <v>1.0836</v>
       </c>
       <c r="D82" t="n">
-        <v>0.824379</v>
+        <v>0.974131</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.14568</v>
+        <v>1.33002</v>
       </c>
       <c r="C83" t="n">
-        <v>1.02331</v>
+        <v>1.14062</v>
       </c>
       <c r="D83" t="n">
-        <v>0.857367</v>
+        <v>1.04235</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05658</v>
+        <v>1.27628</v>
       </c>
       <c r="C84" t="n">
-        <v>1.00589</v>
+        <v>1.19345</v>
       </c>
       <c r="D84" t="n">
-        <v>0.871132</v>
+        <v>1.02609</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.04685</v>
+        <v>1.33405</v>
       </c>
       <c r="C85" t="n">
-        <v>1.06269</v>
+        <v>1.2305</v>
       </c>
       <c r="D85" t="n">
-        <v>0.914469</v>
+        <v>1.07527</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.10629</v>
+        <v>1.34117</v>
       </c>
       <c r="C86" t="n">
-        <v>1.04091</v>
+        <v>1.24286</v>
       </c>
       <c r="D86" t="n">
-        <v>0.933852</v>
+        <v>1.08156</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.1422</v>
+        <v>1.34491</v>
       </c>
       <c r="C87" t="n">
-        <v>1.10762</v>
+        <v>1.29023</v>
       </c>
       <c r="D87" t="n">
-        <v>0.914839</v>
+        <v>1.11002</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.1335</v>
+        <v>1.39616</v>
       </c>
       <c r="C88" t="n">
-        <v>1.09511</v>
+        <v>1.33041</v>
       </c>
       <c r="D88" t="n">
-        <v>0.936934</v>
+        <v>1.15014</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.20337</v>
+        <v>1.42669</v>
       </c>
       <c r="C89" t="n">
-        <v>1.17086</v>
+        <v>1.36502</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9646439999999999</v>
+        <v>1.21055</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.23333</v>
+        <v>1.45024</v>
       </c>
       <c r="C90" t="n">
-        <v>1.17613</v>
+        <v>1.39001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.970227</v>
+        <v>1.27068</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.24577</v>
+        <v>1.51466</v>
       </c>
       <c r="C91" t="n">
-        <v>1.28532</v>
+        <v>1.44102</v>
       </c>
       <c r="D91" t="n">
-        <v>1.02071</v>
+        <v>1.24101</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.31068</v>
+        <v>1.56234</v>
       </c>
       <c r="C92" t="n">
-        <v>1.08474</v>
+        <v>1.3812</v>
       </c>
       <c r="D92" t="n">
-        <v>1.02615</v>
+        <v>1.26711</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.32602</v>
+        <v>1.54145</v>
       </c>
       <c r="C93" t="n">
-        <v>1.12718</v>
+        <v>1.38207</v>
       </c>
       <c r="D93" t="n">
-        <v>1.01068</v>
+        <v>1.292</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.29406</v>
+        <v>1.60952</v>
       </c>
       <c r="C94" t="n">
-        <v>1.14658</v>
+        <v>1.42147</v>
       </c>
       <c r="D94" t="n">
-        <v>1.02232</v>
+        <v>1.34125</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.33226</v>
+        <v>1.62656</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15419</v>
+        <v>1.45551</v>
       </c>
       <c r="D95" t="n">
-        <v>1.03734</v>
+        <v>1.3195</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.40401</v>
+        <v>1.724</v>
       </c>
       <c r="C96" t="n">
-        <v>1.22659</v>
+        <v>1.47308</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08145</v>
+        <v>1.34199</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.41738</v>
+        <v>1.76122</v>
       </c>
       <c r="C97" t="n">
-        <v>1.19075</v>
+        <v>1.50149</v>
       </c>
       <c r="D97" t="n">
-        <v>1.0843</v>
+        <v>1.37474</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.30952</v>
+        <v>1.60316</v>
       </c>
       <c r="C98" t="n">
-        <v>1.24253</v>
+        <v>1.54288</v>
       </c>
       <c r="D98" t="n">
-        <v>1.10681</v>
+        <v>1.40544</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.27654</v>
+        <v>1.65087</v>
       </c>
       <c r="C99" t="n">
-        <v>1.24668</v>
+        <v>1.58166</v>
       </c>
       <c r="D99" t="n">
-        <v>1.10828</v>
+        <v>1.43092</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.29475</v>
+        <v>1.68506</v>
       </c>
       <c r="C100" t="n">
-        <v>1.27154</v>
+        <v>1.64243</v>
       </c>
       <c r="D100" t="n">
-        <v>1.1554</v>
+        <v>1.46696</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.35536</v>
+        <v>1.70225</v>
       </c>
       <c r="C101" t="n">
-        <v>1.32629</v>
+        <v>1.67147</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15669</v>
+        <v>1.45448</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.37184</v>
+        <v>1.74713</v>
       </c>
       <c r="C102" t="n">
-        <v>1.37639</v>
+        <v>1.70576</v>
       </c>
       <c r="D102" t="n">
-        <v>1.20372</v>
+        <v>1.51428</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.41947</v>
+        <v>1.79655</v>
       </c>
       <c r="C103" t="n">
-        <v>1.3803</v>
+        <v>1.7207</v>
       </c>
       <c r="D103" t="n">
-        <v>1.23635</v>
+        <v>1.53302</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.44174</v>
+        <v>1.81212</v>
       </c>
       <c r="C104" t="n">
-        <v>1.43072</v>
+        <v>1.7521</v>
       </c>
       <c r="D104" t="n">
-        <v>1.22731</v>
+        <v>1.56876</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.46136</v>
+        <v>1.86208</v>
       </c>
       <c r="C105" t="n">
-        <v>1.42811</v>
+        <v>1.81903</v>
       </c>
       <c r="D105" t="n">
-        <v>1.26359</v>
+        <v>1.60462</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.49906</v>
+        <v>1.91974</v>
       </c>
       <c r="C106" t="n">
-        <v>1.45637</v>
+        <v>1.83146</v>
       </c>
       <c r="D106" t="n">
-        <v>1.2619</v>
+        <v>1.61971</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.52128</v>
+        <v>1.93157</v>
       </c>
       <c r="C107" t="n">
-        <v>1.31257</v>
+        <v>1.72707</v>
       </c>
       <c r="D107" t="n">
-        <v>1.2019</v>
+        <v>1.60676</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.57678</v>
+        <v>2.01289</v>
       </c>
       <c r="C108" t="n">
-        <v>1.34504</v>
+        <v>1.75662</v>
       </c>
       <c r="D108" t="n">
-        <v>1.19444</v>
+        <v>1.62084</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.59314</v>
+        <v>1.99433</v>
       </c>
       <c r="C109" t="n">
-        <v>1.34176</v>
+        <v>1.82253</v>
       </c>
       <c r="D109" t="n">
-        <v>1.21025</v>
+        <v>1.62401</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.61866</v>
+        <v>2.07455</v>
       </c>
       <c r="C110" t="n">
-        <v>1.39856</v>
+        <v>1.79876</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27842</v>
+        <v>1.68094</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.65398</v>
+        <v>2.09347</v>
       </c>
       <c r="C111" t="n">
-        <v>1.41635</v>
+        <v>1.84137</v>
       </c>
       <c r="D111" t="n">
-        <v>1.26874</v>
+        <v>1.71257</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.47937</v>
+        <v>2.07204</v>
       </c>
       <c r="C112" t="n">
-        <v>1.46307</v>
+        <v>1.86037</v>
       </c>
       <c r="D112" t="n">
-        <v>1.28569</v>
+        <v>1.68897</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.49187</v>
+        <v>2.03869</v>
       </c>
       <c r="C113" t="n">
-        <v>1.46817</v>
+        <v>1.8968</v>
       </c>
       <c r="D113" t="n">
-        <v>1.32583</v>
+        <v>1.72636</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.51483</v>
+        <v>2.05341</v>
       </c>
       <c r="C114" t="n">
-        <v>1.53069</v>
+        <v>1.95656</v>
       </c>
       <c r="D114" t="n">
-        <v>1.33811</v>
+        <v>1.75613</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.61598</v>
+        <v>2.08785</v>
       </c>
       <c r="C115" t="n">
-        <v>1.53491</v>
+        <v>1.99167</v>
       </c>
       <c r="D115" t="n">
-        <v>1.34715</v>
+        <v>1.79011</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.54409</v>
+        <v>2.16914</v>
       </c>
       <c r="C116" t="n">
-        <v>1.51641</v>
+        <v>1.98236</v>
       </c>
       <c r="D116" t="n">
-        <v>1.37846</v>
+        <v>1.80605</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.57259</v>
+        <v>2.1581</v>
       </c>
       <c r="C117" t="n">
-        <v>1.57366</v>
+        <v>2.0582</v>
       </c>
       <c r="D117" t="n">
-        <v>1.40264</v>
+        <v>1.8056</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.61629</v>
+        <v>2.22962</v>
       </c>
       <c r="C118" t="n">
-        <v>1.60845</v>
+        <v>2.12466</v>
       </c>
       <c r="D118" t="n">
-        <v>1.41029</v>
+        <v>1.84876</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.63408</v>
+        <v>2.24232</v>
       </c>
       <c r="C119" t="n">
-        <v>1.60429</v>
+        <v>2.15088</v>
       </c>
       <c r="D119" t="n">
-        <v>1.44361</v>
+        <v>1.87001</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.572805</v>
+        <v>0.5345760000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.31443</v>
+        <v>0.30033</v>
       </c>
       <c r="D2" t="n">
-        <v>0.241058</v>
+        <v>0.235565</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.393432</v>
+        <v>0.383418</v>
       </c>
       <c r="C3" t="n">
-        <v>0.311831</v>
+        <v>0.306301</v>
       </c>
       <c r="D3" t="n">
-        <v>0.261635</v>
+        <v>0.237402</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.394755</v>
+        <v>0.382744</v>
       </c>
       <c r="C4" t="n">
-        <v>0.332433</v>
+        <v>0.31889</v>
       </c>
       <c r="D4" t="n">
-        <v>0.258561</v>
+        <v>0.245546</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.399408</v>
+        <v>0.388317</v>
       </c>
       <c r="C5" t="n">
-        <v>0.341027</v>
+        <v>0.328285</v>
       </c>
       <c r="D5" t="n">
-        <v>0.256952</v>
+        <v>0.249146</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.435131</v>
+        <v>0.40059</v>
       </c>
       <c r="C6" t="n">
-        <v>0.353696</v>
+        <v>0.3314</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26378</v>
+        <v>0.252634</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.447966</v>
+        <v>0.434232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.376841</v>
+        <v>0.359709</v>
       </c>
       <c r="D7" t="n">
-        <v>0.267751</v>
+        <v>0.260517</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.441795</v>
+        <v>0.426912</v>
       </c>
       <c r="C8" t="n">
-        <v>0.376036</v>
+        <v>0.374389</v>
       </c>
       <c r="D8" t="n">
-        <v>0.277512</v>
+        <v>0.273051</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.478866</v>
+        <v>0.456553</v>
       </c>
       <c r="C9" t="n">
-        <v>0.412867</v>
+        <v>0.390182</v>
       </c>
       <c r="D9" t="n">
-        <v>0.292151</v>
+        <v>0.27926</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.481116</v>
+        <v>0.46385</v>
       </c>
       <c r="C10" t="n">
-        <v>0.420076</v>
+        <v>0.399802</v>
       </c>
       <c r="D10" t="n">
-        <v>0.313148</v>
+        <v>0.290001</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.490024</v>
+        <v>0.478388</v>
       </c>
       <c r="C11" t="n">
-        <v>0.327058</v>
+        <v>0.31386</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246936</v>
+        <v>0.238637</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.513356</v>
+        <v>0.496205</v>
       </c>
       <c r="C12" t="n">
-        <v>0.325835</v>
+        <v>0.30963</v>
       </c>
       <c r="D12" t="n">
-        <v>0.253167</v>
+        <v>0.246456</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.55965</v>
+        <v>0.528287</v>
       </c>
       <c r="C13" t="n">
-        <v>0.329765</v>
+        <v>0.32771</v>
       </c>
       <c r="D13" t="n">
-        <v>0.261183</v>
+        <v>0.253232</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.578392</v>
+        <v>0.547893</v>
       </c>
       <c r="C14" t="n">
-        <v>0.356014</v>
+        <v>0.337395</v>
       </c>
       <c r="D14" t="n">
-        <v>0.265285</v>
+        <v>0.255147</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.583337</v>
+        <v>0.5611</v>
       </c>
       <c r="C15" t="n">
-        <v>0.365482</v>
+        <v>0.353904</v>
       </c>
       <c r="D15" t="n">
-        <v>0.272255</v>
+        <v>0.259944</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.611835</v>
+        <v>0.578943</v>
       </c>
       <c r="C16" t="n">
-        <v>0.387489</v>
+        <v>0.364904</v>
       </c>
       <c r="D16" t="n">
-        <v>0.281311</v>
+        <v>0.274797</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.388239</v>
+        <v>0.37537</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4113</v>
+        <v>0.382308</v>
       </c>
       <c r="D17" t="n">
-        <v>0.291977</v>
+        <v>0.280196</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.405747</v>
+        <v>0.390827</v>
       </c>
       <c r="C18" t="n">
-        <v>0.399247</v>
+        <v>0.38972</v>
       </c>
       <c r="D18" t="n">
-        <v>0.291856</v>
+        <v>0.278223</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.409531</v>
+        <v>0.400008</v>
       </c>
       <c r="C19" t="n">
-        <v>0.452777</v>
+        <v>0.410239</v>
       </c>
       <c r="D19" t="n">
-        <v>0.311403</v>
+        <v>0.290833</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.429197</v>
+        <v>0.406897</v>
       </c>
       <c r="C20" t="n">
-        <v>0.447242</v>
+        <v>0.422936</v>
       </c>
       <c r="D20" t="n">
-        <v>0.307967</v>
+        <v>0.314305</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.431028</v>
+        <v>0.426473</v>
       </c>
       <c r="C21" t="n">
-        <v>0.456076</v>
+        <v>0.442575</v>
       </c>
       <c r="D21" t="n">
-        <v>0.335288</v>
+        <v>0.31558</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.44825</v>
+        <v>0.432861</v>
       </c>
       <c r="C22" t="n">
-        <v>0.487289</v>
+        <v>0.459223</v>
       </c>
       <c r="D22" t="n">
-        <v>0.339753</v>
+        <v>0.323206</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.480447</v>
+        <v>0.452682</v>
       </c>
       <c r="C23" t="n">
-        <v>0.501116</v>
+        <v>0.479361</v>
       </c>
       <c r="D23" t="n">
-        <v>0.342802</v>
+        <v>0.338834</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.494475</v>
+        <v>0.479278</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5054959999999999</v>
+        <v>0.496863</v>
       </c>
       <c r="D24" t="n">
-        <v>0.369247</v>
+        <v>0.345866</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.507675</v>
+        <v>0.518296</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5282480000000001</v>
+        <v>0.5365839999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.377405</v>
+        <v>0.36504</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.529815</v>
+        <v>0.510702</v>
       </c>
       <c r="C26" t="n">
-        <v>0.353726</v>
+        <v>0.335143</v>
       </c>
       <c r="D26" t="n">
-        <v>0.270545</v>
+        <v>0.260619</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.570775</v>
+        <v>0.519214</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3689</v>
+        <v>0.340212</v>
       </c>
       <c r="D27" t="n">
-        <v>0.278224</v>
+        <v>0.263739</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5683009999999999</v>
+        <v>0.541447</v>
       </c>
       <c r="C28" t="n">
-        <v>0.390341</v>
+        <v>0.352447</v>
       </c>
       <c r="D28" t="n">
-        <v>0.290585</v>
+        <v>0.272244</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.596781</v>
+        <v>0.574105</v>
       </c>
       <c r="C29" t="n">
-        <v>0.379586</v>
+        <v>0.357497</v>
       </c>
       <c r="D29" t="n">
-        <v>0.28263</v>
+        <v>0.277189</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.590801</v>
+        <v>0.601873</v>
       </c>
       <c r="C30" t="n">
-        <v>0.384993</v>
+        <v>0.37511</v>
       </c>
       <c r="D30" t="n">
-        <v>0.316313</v>
+        <v>0.286354</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6422369999999999</v>
+        <v>0.62163</v>
       </c>
       <c r="C31" t="n">
-        <v>0.406495</v>
+        <v>0.386934</v>
       </c>
       <c r="D31" t="n">
-        <v>0.314203</v>
+        <v>0.295988</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.453033</v>
+        <v>0.441215</v>
       </c>
       <c r="C32" t="n">
-        <v>0.418012</v>
+        <v>0.413157</v>
       </c>
       <c r="D32" t="n">
-        <v>0.310829</v>
+        <v>0.29895</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.485203</v>
+        <v>0.481891</v>
       </c>
       <c r="C33" t="n">
-        <v>0.435712</v>
+        <v>0.426575</v>
       </c>
       <c r="D33" t="n">
-        <v>0.327968</v>
+        <v>0.307632</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.506929</v>
+        <v>0.455367</v>
       </c>
       <c r="C34" t="n">
-        <v>0.462799</v>
+        <v>0.44117</v>
       </c>
       <c r="D34" t="n">
-        <v>0.335386</v>
+        <v>0.319364</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5494019999999999</v>
+        <v>0.500252</v>
       </c>
       <c r="C35" t="n">
-        <v>0.493825</v>
+        <v>0.455713</v>
       </c>
       <c r="D35" t="n">
-        <v>0.353181</v>
+        <v>0.343491</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.537893</v>
+        <v>0.513923</v>
       </c>
       <c r="C36" t="n">
-        <v>0.513868</v>
+        <v>0.494637</v>
       </c>
       <c r="D36" t="n">
-        <v>0.37111</v>
+        <v>0.348092</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.557781</v>
+        <v>0.548678</v>
       </c>
       <c r="C37" t="n">
-        <v>0.544584</v>
+        <v>0.529726</v>
       </c>
       <c r="D37" t="n">
-        <v>0.379355</v>
+        <v>0.361948</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.599567</v>
+        <v>0.577288</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5788720000000001</v>
+        <v>0.554598</v>
       </c>
       <c r="D38" t="n">
-        <v>0.404604</v>
+        <v>0.381769</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.628406</v>
+        <v>0.616009</v>
       </c>
       <c r="C39" t="n">
-        <v>0.581978</v>
+        <v>0.587251</v>
       </c>
       <c r="D39" t="n">
-        <v>0.411099</v>
+        <v>0.392005</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.649611</v>
+        <v>0.634036</v>
       </c>
       <c r="C40" t="n">
-        <v>0.430861</v>
+        <v>0.435814</v>
       </c>
       <c r="D40" t="n">
-        <v>0.334292</v>
+        <v>0.325005</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.721727</v>
+        <v>0.662979</v>
       </c>
       <c r="C41" t="n">
-        <v>0.452107</v>
+        <v>0.466863</v>
       </c>
       <c r="D41" t="n">
-        <v>0.340494</v>
+        <v>0.36252</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7227479999999999</v>
+        <v>0.725768</v>
       </c>
       <c r="C42" t="n">
-        <v>0.485319</v>
+        <v>0.485553</v>
       </c>
       <c r="D42" t="n">
-        <v>0.349152</v>
+        <v>0.360992</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.76605</v>
+        <v>0.769357</v>
       </c>
       <c r="C43" t="n">
-        <v>0.498599</v>
+        <v>0.508174</v>
       </c>
       <c r="D43" t="n">
-        <v>0.372827</v>
+        <v>0.363879</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.80409</v>
+        <v>0.800193</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5530350000000001</v>
+        <v>0.5341050000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.394187</v>
+        <v>0.38883</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.844516</v>
+        <v>0.851982</v>
       </c>
       <c r="C45" t="n">
-        <v>0.55744</v>
+        <v>0.551381</v>
       </c>
       <c r="D45" t="n">
-        <v>0.397753</v>
+        <v>0.39204</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6383760000000001</v>
+        <v>0.617057</v>
       </c>
       <c r="C46" t="n">
-        <v>0.587405</v>
+        <v>0.588772</v>
       </c>
       <c r="D46" t="n">
-        <v>0.412059</v>
+        <v>0.409793</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.641414</v>
+        <v>0.649454</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6440630000000001</v>
+        <v>0.6231640000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.450737</v>
+        <v>0.43293</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.703863</v>
+        <v>0.675576</v>
       </c>
       <c r="C48" t="n">
-        <v>0.677273</v>
+        <v>0.6582249999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.462096</v>
+        <v>0.451809</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.723866</v>
+        <v>0.701622</v>
       </c>
       <c r="C49" t="n">
-        <v>0.703989</v>
+        <v>0.695022</v>
       </c>
       <c r="D49" t="n">
-        <v>0.477782</v>
+        <v>0.461647</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.73483</v>
+        <v>0.732534</v>
       </c>
       <c r="C50" t="n">
-        <v>0.749987</v>
+        <v>0.71771</v>
       </c>
       <c r="D50" t="n">
-        <v>0.493923</v>
+        <v>0.483345</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.80471</v>
+        <v>0.7923</v>
       </c>
       <c r="C51" t="n">
-        <v>0.810663</v>
+        <v>0.779732</v>
       </c>
       <c r="D51" t="n">
-        <v>0.546542</v>
+        <v>0.515611</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.829407</v>
+        <v>0.831257</v>
       </c>
       <c r="C52" t="n">
-        <v>0.827113</v>
+        <v>0.824326</v>
       </c>
       <c r="D52" t="n">
-        <v>0.536588</v>
+        <v>0.537035</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.901513</v>
+        <v>0.8873799999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.895112</v>
+        <v>0.866614</v>
       </c>
       <c r="D53" t="n">
-        <v>0.573269</v>
+        <v>0.571677</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.914546</v>
+        <v>0.912658</v>
       </c>
       <c r="C54" t="n">
-        <v>0.656733</v>
+        <v>0.657763</v>
       </c>
       <c r="D54" t="n">
-        <v>0.470174</v>
+        <v>0.473761</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.985583</v>
+        <v>0.967987</v>
       </c>
       <c r="C55" t="n">
-        <v>0.665096</v>
+        <v>0.692199</v>
       </c>
       <c r="D55" t="n">
-        <v>0.466</v>
+        <v>0.491341</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.04277</v>
+        <v>1.01356</v>
       </c>
       <c r="C56" t="n">
-        <v>0.727201</v>
+        <v>0.72333</v>
       </c>
       <c r="D56" t="n">
-        <v>0.508366</v>
+        <v>0.50529</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.0693</v>
+        <v>1.06235</v>
       </c>
       <c r="C57" t="n">
-        <v>0.743126</v>
+        <v>0.757715</v>
       </c>
       <c r="D57" t="n">
-        <v>0.532521</v>
+        <v>0.530461</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.14693</v>
+        <v>1.12267</v>
       </c>
       <c r="C58" t="n">
-        <v>0.792436</v>
+        <v>0.822556</v>
       </c>
       <c r="D58" t="n">
-        <v>0.543623</v>
+        <v>0.556544</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.22319</v>
+        <v>1.19026</v>
       </c>
       <c r="C59" t="n">
-        <v>0.827919</v>
+        <v>0.843772</v>
       </c>
       <c r="D59" t="n">
-        <v>0.56756</v>
+        <v>0.593029</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.841741</v>
+        <v>0.88759</v>
       </c>
       <c r="C60" t="n">
-        <v>0.88502</v>
+        <v>0.89356</v>
       </c>
       <c r="D60" t="n">
-        <v>0.569088</v>
+        <v>0.60659</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.910954</v>
+        <v>0.909703</v>
       </c>
       <c r="C61" t="n">
-        <v>0.890296</v>
+        <v>0.918714</v>
       </c>
       <c r="D61" t="n">
-        <v>0.611158</v>
+        <v>0.626653</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.945632</v>
+        <v>0.964786</v>
       </c>
       <c r="C62" t="n">
-        <v>0.955688</v>
+        <v>0.960689</v>
       </c>
       <c r="D62" t="n">
-        <v>0.604831</v>
+        <v>0.654837</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.979792</v>
+        <v>1.00518</v>
       </c>
       <c r="C63" t="n">
-        <v>1.04546</v>
+        <v>1.038</v>
       </c>
       <c r="D63" t="n">
-        <v>0.640994</v>
+        <v>0.692656</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.05029</v>
+        <v>1.06696</v>
       </c>
       <c r="C64" t="n">
-        <v>1.0965</v>
+        <v>1.08509</v>
       </c>
       <c r="D64" t="n">
-        <v>0.664085</v>
+        <v>0.724382</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.12314</v>
+        <v>1.13558</v>
       </c>
       <c r="C65" t="n">
-        <v>1.13264</v>
+        <v>1.1686</v>
       </c>
       <c r="D65" t="n">
-        <v>0.698106</v>
+        <v>0.755247</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.22039</v>
+        <v>1.1999</v>
       </c>
       <c r="C66" t="n">
-        <v>1.26341</v>
+        <v>1.20994</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7264890000000001</v>
+        <v>0.775734</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.28614</v>
+        <v>1.25223</v>
       </c>
       <c r="C67" t="n">
-        <v>1.31527</v>
+        <v>1.2952</v>
       </c>
       <c r="D67" t="n">
-        <v>0.785486</v>
+        <v>0.827952</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.34913</v>
+        <v>1.36559</v>
       </c>
       <c r="C68" t="n">
-        <v>0.851227</v>
+        <v>0.903434</v>
       </c>
       <c r="D68" t="n">
-        <v>0.592676</v>
+        <v>0.6407620000000001</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.45334</v>
+        <v>1.45657</v>
       </c>
       <c r="C69" t="n">
-        <v>0.885897</v>
+        <v>0.932253</v>
       </c>
       <c r="D69" t="n">
-        <v>0.590089</v>
+        <v>0.702753</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.57803</v>
+        <v>1.59471</v>
       </c>
       <c r="C70" t="n">
-        <v>0.961601</v>
+        <v>1.01031</v>
       </c>
       <c r="D70" t="n">
-        <v>0.630267</v>
+        <v>0.702783</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.67556</v>
+        <v>1.70215</v>
       </c>
       <c r="C71" t="n">
-        <v>1.0272</v>
+        <v>1.07512</v>
       </c>
       <c r="D71" t="n">
-        <v>0.670844</v>
+        <v>0.723535</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.76905</v>
+        <v>1.83203</v>
       </c>
       <c r="C72" t="n">
-        <v>1.08423</v>
+        <v>1.12027</v>
       </c>
       <c r="D72" t="n">
-        <v>0.694453</v>
+        <v>0.761006</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.90088</v>
+        <v>1.96062</v>
       </c>
       <c r="C73" t="n">
-        <v>1.14341</v>
+        <v>1.22428</v>
       </c>
       <c r="D73" t="n">
-        <v>0.731967</v>
+        <v>0.802959</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.30559</v>
+        <v>1.44995</v>
       </c>
       <c r="C74" t="n">
-        <v>1.2385</v>
+        <v>1.3179</v>
       </c>
       <c r="D74" t="n">
-        <v>0.772865</v>
+        <v>0.842147</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.35359</v>
+        <v>1.49394</v>
       </c>
       <c r="C75" t="n">
-        <v>1.31186</v>
+        <v>1.40799</v>
       </c>
       <c r="D75" t="n">
-        <v>0.798377</v>
+        <v>0.882901</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.44558</v>
+        <v>1.57683</v>
       </c>
       <c r="C76" t="n">
-        <v>1.49978</v>
+        <v>1.502</v>
       </c>
       <c r="D76" t="n">
-        <v>0.842315</v>
+        <v>0.935568</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.51505</v>
+        <v>1.66188</v>
       </c>
       <c r="C77" t="n">
-        <v>1.52815</v>
+        <v>1.61957</v>
       </c>
       <c r="D77" t="n">
-        <v>0.891417</v>
+        <v>1.00686</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.63181</v>
+        <v>1.81896</v>
       </c>
       <c r="C78" t="n">
-        <v>1.64257</v>
+        <v>1.74599</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9236220000000001</v>
+        <v>1.05656</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.73524</v>
+        <v>1.85371</v>
       </c>
       <c r="C79" t="n">
-        <v>1.74955</v>
+        <v>1.82011</v>
       </c>
       <c r="D79" t="n">
-        <v>1.0024</v>
+        <v>1.12905</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.87664</v>
+        <v>1.97976</v>
       </c>
       <c r="C80" t="n">
-        <v>1.89464</v>
+        <v>1.98026</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03452</v>
+        <v>1.25718</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.90624</v>
+        <v>2.10337</v>
       </c>
       <c r="C81" t="n">
-        <v>2.04574</v>
+        <v>2.10637</v>
       </c>
       <c r="D81" t="n">
-        <v>1.11053</v>
+        <v>1.33332</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.05585</v>
+        <v>2.2058</v>
       </c>
       <c r="C82" t="n">
-        <v>2.14731</v>
+        <v>2.30608</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16123</v>
+        <v>1.41067</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.11629</v>
+        <v>2.40976</v>
       </c>
       <c r="C83" t="n">
-        <v>1.58223</v>
+        <v>1.69595</v>
       </c>
       <c r="D83" t="n">
-        <v>0.992571</v>
+        <v>1.14316</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.23612</v>
+        <v>2.49383</v>
       </c>
       <c r="C84" t="n">
-        <v>1.642</v>
+        <v>1.81611</v>
       </c>
       <c r="D84" t="n">
-        <v>1.02646</v>
+        <v>1.23818</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.37335</v>
+        <v>2.58037</v>
       </c>
       <c r="C85" t="n">
-        <v>1.73513</v>
+        <v>1.94988</v>
       </c>
       <c r="D85" t="n">
-        <v>1.03462</v>
+        <v>1.29656</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.56233</v>
+        <v>2.78499</v>
       </c>
       <c r="C86" t="n">
-        <v>1.78379</v>
+        <v>2.01943</v>
       </c>
       <c r="D86" t="n">
-        <v>1.16326</v>
+        <v>1.30237</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.68076</v>
+        <v>3.00191</v>
       </c>
       <c r="C87" t="n">
-        <v>1.92995</v>
+        <v>2.08993</v>
       </c>
       <c r="D87" t="n">
-        <v>1.13459</v>
+        <v>1.3727</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.82852</v>
+        <v>3.03049</v>
       </c>
       <c r="C88" t="n">
-        <v>2.00764</v>
+        <v>2.29624</v>
       </c>
       <c r="D88" t="n">
-        <v>1.24329</v>
+        <v>1.46804</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.92581</v>
+        <v>2.1579</v>
       </c>
       <c r="C89" t="n">
-        <v>2.11242</v>
+        <v>2.32374</v>
       </c>
       <c r="D89" t="n">
-        <v>1.29939</v>
+        <v>1.52983</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.98416</v>
+        <v>2.28881</v>
       </c>
       <c r="C90" t="n">
-        <v>2.29611</v>
+        <v>2.50463</v>
       </c>
       <c r="D90" t="n">
-        <v>1.39167</v>
+        <v>1.62033</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.0922</v>
+        <v>2.3766</v>
       </c>
       <c r="C91" t="n">
-        <v>2.34422</v>
+        <v>2.61868</v>
       </c>
       <c r="D91" t="n">
-        <v>1.3902</v>
+        <v>1.70296</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.12669</v>
+        <v>2.50397</v>
       </c>
       <c r="C92" t="n">
-        <v>2.51747</v>
+        <v>2.80885</v>
       </c>
       <c r="D92" t="n">
-        <v>1.50491</v>
+        <v>1.76771</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.26295</v>
+        <v>2.52302</v>
       </c>
       <c r="C93" t="n">
-        <v>2.61482</v>
+        <v>2.84707</v>
       </c>
       <c r="D93" t="n">
-        <v>1.53807</v>
+        <v>1.8384</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.36534</v>
+        <v>2.61602</v>
       </c>
       <c r="C94" t="n">
-        <v>2.74214</v>
+        <v>2.96672</v>
       </c>
       <c r="D94" t="n">
-        <v>1.62555</v>
+        <v>1.92913</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.48451</v>
+        <v>2.77989</v>
       </c>
       <c r="C95" t="n">
-        <v>2.86475</v>
+        <v>3.10233</v>
       </c>
       <c r="D95" t="n">
-        <v>1.67028</v>
+        <v>2.04293</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.57698</v>
+        <v>2.84728</v>
       </c>
       <c r="C96" t="n">
-        <v>3.07373</v>
+        <v>3.23901</v>
       </c>
       <c r="D96" t="n">
-        <v>1.77321</v>
+        <v>2.13605</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.6941</v>
+        <v>2.96384</v>
       </c>
       <c r="C97" t="n">
-        <v>1.94421</v>
+        <v>2.23527</v>
       </c>
       <c r="D97" t="n">
-        <v>1.36631</v>
+        <v>1.6807</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.75055</v>
+        <v>3.08419</v>
       </c>
       <c r="C98" t="n">
-        <v>2.02065</v>
+        <v>2.30183</v>
       </c>
       <c r="D98" t="n">
-        <v>1.38702</v>
+        <v>1.70258</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.93901</v>
+        <v>3.2522</v>
       </c>
       <c r="C99" t="n">
-        <v>2.06292</v>
+        <v>2.40103</v>
       </c>
       <c r="D99" t="n">
-        <v>1.39327</v>
+        <v>1.75858</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.03805</v>
+        <v>3.41339</v>
       </c>
       <c r="C100" t="n">
-        <v>2.18152</v>
+        <v>2.49129</v>
       </c>
       <c r="D100" t="n">
-        <v>1.45399</v>
+        <v>1.83368</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.16829</v>
+        <v>3.59158</v>
       </c>
       <c r="C101" t="n">
-        <v>2.25259</v>
+        <v>2.58842</v>
       </c>
       <c r="D101" t="n">
-        <v>1.48806</v>
+        <v>1.86952</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.35534</v>
+        <v>3.67923</v>
       </c>
       <c r="C102" t="n">
-        <v>2.34723</v>
+        <v>2.6549</v>
       </c>
       <c r="D102" t="n">
-        <v>1.55161</v>
+        <v>1.96518</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.22868</v>
+        <v>2.61564</v>
       </c>
       <c r="C103" t="n">
-        <v>2.44801</v>
+        <v>2.80918</v>
       </c>
       <c r="D103" t="n">
-        <v>1.63085</v>
+        <v>2.03565</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.30696</v>
+        <v>2.6847</v>
       </c>
       <c r="C104" t="n">
-        <v>2.57415</v>
+        <v>2.91653</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72406</v>
+        <v>2.1319</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.42277</v>
+        <v>2.78652</v>
       </c>
       <c r="C105" t="n">
-        <v>2.65581</v>
+        <v>3.00365</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72592</v>
+        <v>2.1745</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.52988</v>
+        <v>2.86402</v>
       </c>
       <c r="C106" t="n">
-        <v>2.81903</v>
+        <v>3.18828</v>
       </c>
       <c r="D106" t="n">
-        <v>1.76488</v>
+        <v>2.24615</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.57429</v>
+        <v>2.97986</v>
       </c>
       <c r="C107" t="n">
-        <v>2.92889</v>
+        <v>3.23527</v>
       </c>
       <c r="D107" t="n">
-        <v>1.8436</v>
+        <v>2.30501</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.68921</v>
+        <v>3.10149</v>
       </c>
       <c r="C108" t="n">
-        <v>2.98792</v>
+        <v>3.37317</v>
       </c>
       <c r="D108" t="n">
-        <v>1.89383</v>
+        <v>2.40917</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.81301</v>
+        <v>3.16929</v>
       </c>
       <c r="C109" t="n">
-        <v>3.16698</v>
+        <v>3.52263</v>
       </c>
       <c r="D109" t="n">
-        <v>1.95924</v>
+        <v>2.48175</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.95938</v>
+        <v>3.30504</v>
       </c>
       <c r="C110" t="n">
-        <v>3.31745</v>
+        <v>3.57851</v>
       </c>
       <c r="D110" t="n">
-        <v>2.02708</v>
+        <v>2.57113</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.98883</v>
+        <v>3.39734</v>
       </c>
       <c r="C111" t="n">
-        <v>2.17059</v>
+        <v>2.61864</v>
       </c>
       <c r="D111" t="n">
-        <v>1.63103</v>
+        <v>2.07054</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.158</v>
+        <v>3.60092</v>
       </c>
       <c r="C112" t="n">
-        <v>2.26094</v>
+        <v>2.74383</v>
       </c>
       <c r="D112" t="n">
-        <v>1.62284</v>
+        <v>2.0938</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.258</v>
+        <v>3.67493</v>
       </c>
       <c r="C113" t="n">
-        <v>2.43286</v>
+        <v>2.78396</v>
       </c>
       <c r="D113" t="n">
-        <v>1.7124</v>
+        <v>2.15973</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.35797</v>
+        <v>3.79901</v>
       </c>
       <c r="C114" t="n">
-        <v>2.42824</v>
+        <v>2.90289</v>
       </c>
       <c r="D114" t="n">
-        <v>1.76821</v>
+        <v>2.15883</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.54852</v>
+        <v>3.94292</v>
       </c>
       <c r="C115" t="n">
-        <v>2.5575</v>
+        <v>2.99825</v>
       </c>
       <c r="D115" t="n">
-        <v>1.79386</v>
+        <v>2.3038</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.68715</v>
+        <v>4.12768</v>
       </c>
       <c r="C116" t="n">
-        <v>2.67843</v>
+        <v>3.08406</v>
       </c>
       <c r="D116" t="n">
-        <v>1.82018</v>
+        <v>2.35987</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.53297</v>
+        <v>3.01916</v>
       </c>
       <c r="C117" t="n">
-        <v>2.7975</v>
+        <v>3.21072</v>
       </c>
       <c r="D117" t="n">
-        <v>1.91858</v>
+        <v>2.47162</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.56502</v>
+        <v>3.08482</v>
       </c>
       <c r="C118" t="n">
-        <v>2.85976</v>
+        <v>3.35514</v>
       </c>
       <c r="D118" t="n">
-        <v>1.92707</v>
+        <v>2.53016</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.64085</v>
+        <v>3.20515</v>
       </c>
       <c r="C119" t="n">
-        <v>3.02307</v>
+        <v>3.50423</v>
       </c>
       <c r="D119" t="n">
-        <v>2.07058</v>
+        <v>2.57387</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.212852</v>
+        <v>0.135494</v>
       </c>
       <c r="C2" t="n">
-        <v>0.200427</v>
+        <v>0.130419</v>
       </c>
       <c r="D2" t="n">
-        <v>0.207525</v>
+        <v>0.136304</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.213238</v>
+        <v>0.138561</v>
       </c>
       <c r="C3" t="n">
-        <v>0.200089</v>
+        <v>0.132354</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214132</v>
+        <v>0.138326</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.214669</v>
+        <v>0.14206</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203604</v>
+        <v>0.136107</v>
       </c>
       <c r="D4" t="n">
-        <v>0.217134</v>
+        <v>0.141912</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.222543</v>
+        <v>0.145212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209759</v>
+        <v>0.139262</v>
       </c>
       <c r="D5" t="n">
-        <v>0.232955</v>
+        <v>0.144961</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.253816</v>
+        <v>0.149212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226441</v>
+        <v>0.142078</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240699</v>
+        <v>0.14857</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.234879</v>
+        <v>0.154051</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188763</v>
+        <v>0.117706</v>
       </c>
       <c r="D7" t="n">
-        <v>0.207622</v>
+        <v>0.127126</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245507</v>
+        <v>0.157809</v>
       </c>
       <c r="C8" t="n">
-        <v>0.190318</v>
+        <v>0.12014</v>
       </c>
       <c r="D8" t="n">
-        <v>0.206763</v>
+        <v>0.130164</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.248608</v>
+        <v>0.162061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199396</v>
+        <v>0.123153</v>
       </c>
       <c r="D9" t="n">
-        <v>0.216786</v>
+        <v>0.133114</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.25224</v>
+        <v>0.16603</v>
       </c>
       <c r="C10" t="n">
-        <v>0.201869</v>
+        <v>0.125872</v>
       </c>
       <c r="D10" t="n">
-        <v>0.225142</v>
+        <v>0.136429</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.255008</v>
+        <v>0.170548</v>
       </c>
       <c r="C11" t="n">
-        <v>0.201592</v>
+        <v>0.128937</v>
       </c>
       <c r="D11" t="n">
-        <v>0.218645</v>
+        <v>0.138836</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.263735</v>
+        <v>0.175306</v>
       </c>
       <c r="C12" t="n">
-        <v>0.207724</v>
+        <v>0.132282</v>
       </c>
       <c r="D12" t="n">
-        <v>0.222996</v>
+        <v>0.141838</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.233864</v>
+        <v>0.149855</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210723</v>
+        <v>0.13535</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225316</v>
+        <v>0.145282</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.228015</v>
+        <v>0.153185</v>
       </c>
       <c r="C14" t="n">
-        <v>0.209175</v>
+        <v>0.138273</v>
       </c>
       <c r="D14" t="n">
-        <v>0.221813</v>
+        <v>0.148605</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.261026</v>
+        <v>0.156107</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233256</v>
+        <v>0.141948</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234417</v>
+        <v>0.152435</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.241264</v>
+        <v>0.158901</v>
       </c>
       <c r="C16" t="n">
-        <v>0.228311</v>
+        <v>0.145398</v>
       </c>
       <c r="D16" t="n">
-        <v>0.238178</v>
+        <v>0.155343</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.240806</v>
+        <v>0.162378</v>
       </c>
       <c r="C17" t="n">
-        <v>0.227173</v>
+        <v>0.148884</v>
       </c>
       <c r="D17" t="n">
-        <v>0.246578</v>
+        <v>0.158898</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251702</v>
+        <v>0.165275</v>
       </c>
       <c r="C18" t="n">
-        <v>0.228098</v>
+        <v>0.151874</v>
       </c>
       <c r="D18" t="n">
-        <v>0.24824</v>
+        <v>0.161922</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.248621</v>
+        <v>0.169574</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2321</v>
+        <v>0.155178</v>
       </c>
       <c r="D19" t="n">
-        <v>0.251272</v>
+        <v>0.165601</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.250527</v>
+        <v>0.173351</v>
       </c>
       <c r="C20" t="n">
-        <v>0.23799</v>
+        <v>0.158465</v>
       </c>
       <c r="D20" t="n">
-        <v>0.260262</v>
+        <v>0.169028</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.257789</v>
+        <v>0.176911</v>
       </c>
       <c r="C21" t="n">
-        <v>0.20851</v>
+        <v>0.132048</v>
       </c>
       <c r="D21" t="n">
-        <v>0.220617</v>
+        <v>0.142116</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.258055</v>
+        <v>0.180375</v>
       </c>
       <c r="C22" t="n">
-        <v>0.205537</v>
+        <v>0.134924</v>
       </c>
       <c r="D22" t="n">
-        <v>0.218206</v>
+        <v>0.145963</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.259262</v>
+        <v>0.183994</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214793</v>
+        <v>0.137654</v>
       </c>
       <c r="D23" t="n">
-        <v>0.221622</v>
+        <v>0.148647</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.265338</v>
+        <v>0.187825</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210969</v>
+        <v>0.140386</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220694</v>
+        <v>0.151506</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.261041</v>
+        <v>0.190658</v>
       </c>
       <c r="C25" t="n">
-        <v>0.213344</v>
+        <v>0.142941</v>
       </c>
       <c r="D25" t="n">
-        <v>0.222859</v>
+        <v>0.153364</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.263758</v>
+        <v>0.193747</v>
       </c>
       <c r="C26" t="n">
-        <v>0.215676</v>
+        <v>0.146153</v>
       </c>
       <c r="D26" t="n">
-        <v>0.232102</v>
+        <v>0.157337</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230856</v>
+        <v>0.159503</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214556</v>
+        <v>0.149444</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22654</v>
+        <v>0.160827</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.228302</v>
+        <v>0.161958</v>
       </c>
       <c r="C28" t="n">
-        <v>0.218086</v>
+        <v>0.153227</v>
       </c>
       <c r="D28" t="n">
-        <v>0.238521</v>
+        <v>0.164517</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.240671</v>
+        <v>0.166353</v>
       </c>
       <c r="C29" t="n">
-        <v>0.221374</v>
+        <v>0.156885</v>
       </c>
       <c r="D29" t="n">
-        <v>0.234907</v>
+        <v>0.168337</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.244338</v>
+        <v>0.169214</v>
       </c>
       <c r="C30" t="n">
-        <v>0.22294</v>
+        <v>0.159755</v>
       </c>
       <c r="D30" t="n">
-        <v>0.26014</v>
+        <v>0.171302</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.246519</v>
+        <v>0.172925</v>
       </c>
       <c r="C31" t="n">
-        <v>0.240834</v>
+        <v>0.163565</v>
       </c>
       <c r="D31" t="n">
-        <v>0.259074</v>
+        <v>0.175271</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.254098</v>
+        <v>0.174129</v>
       </c>
       <c r="C32" t="n">
-        <v>0.237916</v>
+        <v>0.166922</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252661</v>
+        <v>0.178406</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.259989</v>
+        <v>0.179707</v>
       </c>
       <c r="C33" t="n">
-        <v>0.240476</v>
+        <v>0.170638</v>
       </c>
       <c r="D33" t="n">
-        <v>0.259211</v>
+        <v>0.182373</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269177</v>
+        <v>0.182598</v>
       </c>
       <c r="C34" t="n">
-        <v>0.255456</v>
+        <v>0.173529</v>
       </c>
       <c r="D34" t="n">
-        <v>0.263827</v>
+        <v>0.18574</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.263317</v>
+        <v>0.184526</v>
       </c>
       <c r="C35" t="n">
-        <v>0.218189</v>
+        <v>0.139175</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222875</v>
+        <v>0.151535</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.268619</v>
+        <v>0.18789</v>
       </c>
       <c r="C36" t="n">
-        <v>0.222715</v>
+        <v>0.141579</v>
       </c>
       <c r="D36" t="n">
-        <v>0.233344</v>
+        <v>0.15418</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280922</v>
+        <v>0.190468</v>
       </c>
       <c r="C37" t="n">
-        <v>0.222824</v>
+        <v>0.144034</v>
       </c>
       <c r="D37" t="n">
-        <v>0.242377</v>
+        <v>0.156582</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.282938</v>
+        <v>0.194242</v>
       </c>
       <c r="C38" t="n">
-        <v>0.238411</v>
+        <v>0.147319</v>
       </c>
       <c r="D38" t="n">
-        <v>0.244281</v>
+        <v>0.160018</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.292237</v>
+        <v>0.197267</v>
       </c>
       <c r="C39" t="n">
-        <v>0.237863</v>
+        <v>0.149941</v>
       </c>
       <c r="D39" t="n">
-        <v>0.249626</v>
+        <v>0.162694</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.307106</v>
+        <v>0.202267</v>
       </c>
       <c r="C40" t="n">
-        <v>0.250761</v>
+        <v>0.153177</v>
       </c>
       <c r="D40" t="n">
-        <v>0.254244</v>
+        <v>0.166345</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288686</v>
+        <v>0.16537</v>
       </c>
       <c r="C41" t="n">
-        <v>0.249798</v>
+        <v>0.156349</v>
       </c>
       <c r="D41" t="n">
-        <v>0.273214</v>
+        <v>0.169781</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.306378</v>
+        <v>0.167254</v>
       </c>
       <c r="C42" t="n">
-        <v>0.260476</v>
+        <v>0.159569</v>
       </c>
       <c r="D42" t="n">
-        <v>0.262808</v>
+        <v>0.172902</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.312233</v>
+        <v>0.170393</v>
       </c>
       <c r="C43" t="n">
-        <v>0.254453</v>
+        <v>0.162944</v>
       </c>
       <c r="D43" t="n">
-        <v>0.282087</v>
+        <v>0.176658</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.307327</v>
+        <v>0.173587</v>
       </c>
       <c r="C44" t="n">
-        <v>0.261587</v>
+        <v>0.166566</v>
       </c>
       <c r="D44" t="n">
-        <v>0.275787</v>
+        <v>0.180045</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.319148</v>
+        <v>0.176108</v>
       </c>
       <c r="C45" t="n">
-        <v>0.267858</v>
+        <v>0.170382</v>
       </c>
       <c r="D45" t="n">
-        <v>0.291646</v>
+        <v>0.183375</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.327914</v>
+        <v>0.179085</v>
       </c>
       <c r="C46" t="n">
-        <v>0.274399</v>
+        <v>0.173713</v>
       </c>
       <c r="D46" t="n">
-        <v>0.284967</v>
+        <v>0.187308</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.33488</v>
+        <v>0.182134</v>
       </c>
       <c r="C47" t="n">
-        <v>0.284004</v>
+        <v>0.177385</v>
       </c>
       <c r="D47" t="n">
-        <v>0.309949</v>
+        <v>0.190191</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.36024</v>
+        <v>0.185256</v>
       </c>
       <c r="C48" t="n">
-        <v>0.287823</v>
+        <v>0.180657</v>
       </c>
       <c r="D48" t="n">
-        <v>0.308671</v>
+        <v>0.194291</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.355914</v>
+        <v>0.188627</v>
       </c>
       <c r="C49" t="n">
-        <v>0.30836</v>
+        <v>0.183617</v>
       </c>
       <c r="D49" t="n">
-        <v>0.310892</v>
+        <v>0.196628</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.374903</v>
+        <v>0.191705</v>
       </c>
       <c r="C50" t="n">
-        <v>0.296169</v>
+        <v>0.143726</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293085</v>
+        <v>0.150679</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.393654</v>
+        <v>0.195033</v>
       </c>
       <c r="C51" t="n">
-        <v>0.301393</v>
+        <v>0.146532</v>
       </c>
       <c r="D51" t="n">
-        <v>0.292882</v>
+        <v>0.153954</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.401784</v>
+        <v>0.198264</v>
       </c>
       <c r="C52" t="n">
-        <v>0.306819</v>
+        <v>0.149164</v>
       </c>
       <c r="D52" t="n">
-        <v>0.30483</v>
+        <v>0.156409</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.403638</v>
+        <v>0.201705</v>
       </c>
       <c r="C53" t="n">
-        <v>0.30832</v>
+        <v>0.151896</v>
       </c>
       <c r="D53" t="n">
-        <v>0.309739</v>
+        <v>0.159247</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.419379</v>
+        <v>0.204734</v>
       </c>
       <c r="C54" t="n">
-        <v>0.325817</v>
+        <v>0.155141</v>
       </c>
       <c r="D54" t="n">
-        <v>0.325115</v>
+        <v>0.162184</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.446786</v>
+        <v>0.207687</v>
       </c>
       <c r="C55" t="n">
-        <v>0.326165</v>
+        <v>0.158318</v>
       </c>
       <c r="D55" t="n">
-        <v>0.330025</v>
+        <v>0.166035</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.486657</v>
+        <v>0.169528</v>
       </c>
       <c r="C56" t="n">
-        <v>0.334844</v>
+        <v>0.161511</v>
       </c>
       <c r="D56" t="n">
-        <v>0.337242</v>
+        <v>0.169184</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.525695</v>
+        <v>0.172345</v>
       </c>
       <c r="C57" t="n">
-        <v>0.377762</v>
+        <v>0.165069</v>
       </c>
       <c r="D57" t="n">
-        <v>0.367987</v>
+        <v>0.172338</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.491078</v>
+        <v>0.174891</v>
       </c>
       <c r="C58" t="n">
-        <v>0.364481</v>
+        <v>0.168274</v>
       </c>
       <c r="D58" t="n">
-        <v>0.378006</v>
+        <v>0.17639</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.534439</v>
+        <v>0.177796</v>
       </c>
       <c r="C59" t="n">
-        <v>0.392567</v>
+        <v>0.172137</v>
       </c>
       <c r="D59" t="n">
-        <v>0.406228</v>
+        <v>0.180039</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.528186</v>
+        <v>0.180919</v>
       </c>
       <c r="C60" t="n">
-        <v>0.382968</v>
+        <v>0.175888</v>
       </c>
       <c r="D60" t="n">
-        <v>0.392879</v>
+        <v>0.184123</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.543475</v>
+        <v>0.184123</v>
       </c>
       <c r="C61" t="n">
-        <v>0.405331</v>
+        <v>0.179832</v>
       </c>
       <c r="D61" t="n">
-        <v>0.412886</v>
+        <v>0.188601</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.562694</v>
+        <v>0.187447</v>
       </c>
       <c r="C62" t="n">
-        <v>0.420665</v>
+        <v>0.184086</v>
       </c>
       <c r="D62" t="n">
-        <v>0.44451</v>
+        <v>0.191022</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.593212</v>
+        <v>0.190802</v>
       </c>
       <c r="C63" t="n">
-        <v>0.432263</v>
+        <v>0.186812</v>
       </c>
       <c r="D63" t="n">
-        <v>0.441127</v>
+        <v>0.195441</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.599178</v>
+        <v>0.19531</v>
       </c>
       <c r="C64" t="n">
-        <v>0.475115</v>
+        <v>0.148155</v>
       </c>
       <c r="D64" t="n">
-        <v>0.483075</v>
+        <v>0.154232</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.631274</v>
+        <v>0.198309</v>
       </c>
       <c r="C65" t="n">
-        <v>0.473181</v>
+        <v>0.150904</v>
       </c>
       <c r="D65" t="n">
-        <v>0.494595</v>
+        <v>0.157851</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.643288</v>
+        <v>0.202733</v>
       </c>
       <c r="C66" t="n">
-        <v>0.492288</v>
+        <v>0.15504</v>
       </c>
       <c r="D66" t="n">
-        <v>0.491238</v>
+        <v>0.160858</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.653075</v>
+        <v>0.207386</v>
       </c>
       <c r="C67" t="n">
-        <v>0.510835</v>
+        <v>0.159005</v>
       </c>
       <c r="D67" t="n">
-        <v>0.517436</v>
+        <v>0.165723</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.667028</v>
+        <v>0.211372</v>
       </c>
       <c r="C68" t="n">
-        <v>0.543767</v>
+        <v>0.162838</v>
       </c>
       <c r="D68" t="n">
-        <v>0.513054</v>
+        <v>0.168574</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6961310000000001</v>
+        <v>0.216343</v>
       </c>
       <c r="C69" t="n">
-        <v>0.519609</v>
+        <v>0.167266</v>
       </c>
       <c r="D69" t="n">
-        <v>0.537965</v>
+        <v>0.173555</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.688878</v>
+        <v>0.212704</v>
       </c>
       <c r="C70" t="n">
-        <v>0.595175</v>
+        <v>0.171366</v>
       </c>
       <c r="D70" t="n">
-        <v>0.559069</v>
+        <v>0.17754</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.729802</v>
+        <v>0.222139</v>
       </c>
       <c r="C71" t="n">
-        <v>0.570929</v>
+        <v>0.175839</v>
       </c>
       <c r="D71" t="n">
-        <v>0.575813</v>
+        <v>0.182406</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.744275</v>
+        <v>0.236053</v>
       </c>
       <c r="C72" t="n">
-        <v>0.601275</v>
+        <v>0.180723</v>
       </c>
       <c r="D72" t="n">
-        <v>0.595619</v>
+        <v>0.187144</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.744224</v>
+        <v>0.2492</v>
       </c>
       <c r="C73" t="n">
-        <v>0.599857</v>
+        <v>0.184918</v>
       </c>
       <c r="D73" t="n">
-        <v>0.612426</v>
+        <v>0.19197</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.758365</v>
+        <v>0.264786</v>
       </c>
       <c r="C74" t="n">
-        <v>0.633995</v>
+        <v>0.189989</v>
       </c>
       <c r="D74" t="n">
-        <v>0.648302</v>
+        <v>0.195735</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.800892</v>
+        <v>0.278065</v>
       </c>
       <c r="C75" t="n">
-        <v>0.624399</v>
+        <v>0.195219</v>
       </c>
       <c r="D75" t="n">
-        <v>0.661154</v>
+        <v>0.199729</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.815033</v>
+        <v>0.290203</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6505379999999999</v>
+        <v>0.198945</v>
       </c>
       <c r="D76" t="n">
-        <v>0.675769</v>
+        <v>0.206271</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.818948</v>
+        <v>0.302586</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6667459999999999</v>
+        <v>0.207618</v>
       </c>
       <c r="D77" t="n">
-        <v>0.723822</v>
+        <v>0.212133</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.830712</v>
+        <v>0.317821</v>
       </c>
       <c r="C78" t="n">
-        <v>0.677463</v>
+        <v>0.225423</v>
       </c>
       <c r="D78" t="n">
-        <v>0.70768</v>
+        <v>0.23136</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8655119999999999</v>
+        <v>0.332313</v>
       </c>
       <c r="C79" t="n">
-        <v>0.725593</v>
+        <v>0.242787</v>
       </c>
       <c r="D79" t="n">
-        <v>0.710229</v>
+        <v>0.241903</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.866484</v>
+        <v>0.345841</v>
       </c>
       <c r="C80" t="n">
-        <v>0.713083</v>
+        <v>0.256391</v>
       </c>
       <c r="D80" t="n">
-        <v>0.725316</v>
+        <v>0.253713</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.934357</v>
+        <v>0.358385</v>
       </c>
       <c r="C81" t="n">
-        <v>0.729317</v>
+        <v>0.264762</v>
       </c>
       <c r="D81" t="n">
-        <v>0.73104</v>
+        <v>0.26537</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.922923</v>
+        <v>0.370749</v>
       </c>
       <c r="C82" t="n">
-        <v>0.737643</v>
+        <v>0.280931</v>
       </c>
       <c r="D82" t="n">
-        <v>0.76224</v>
+        <v>0.281235</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.936843</v>
+        <v>0.389217</v>
       </c>
       <c r="C83" t="n">
-        <v>0.739781</v>
+        <v>0.292266</v>
       </c>
       <c r="D83" t="n">
-        <v>0.768113</v>
+        <v>0.294087</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.86408</v>
+        <v>0.43898</v>
       </c>
       <c r="C84" t="n">
-        <v>0.770289</v>
+        <v>0.304841</v>
       </c>
       <c r="D84" t="n">
-        <v>0.789292</v>
+        <v>0.304124</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.881751</v>
+        <v>0.447952</v>
       </c>
       <c r="C85" t="n">
-        <v>0.779743</v>
+        <v>0.316911</v>
       </c>
       <c r="D85" t="n">
-        <v>0.804747</v>
+        <v>0.31748</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.889643</v>
+        <v>0.459254</v>
       </c>
       <c r="C86" t="n">
-        <v>0.803241</v>
+        <v>0.329211</v>
       </c>
       <c r="D86" t="n">
-        <v>0.831992</v>
+        <v>0.330603</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.903409</v>
+        <v>0.467434</v>
       </c>
       <c r="C87" t="n">
-        <v>0.811752</v>
+        <v>0.339724</v>
       </c>
       <c r="D87" t="n">
-        <v>0.869289</v>
+        <v>0.342593</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.930399</v>
+        <v>0.47912</v>
       </c>
       <c r="C88" t="n">
-        <v>0.834212</v>
+        <v>0.35316</v>
       </c>
       <c r="D88" t="n">
-        <v>0.869527</v>
+        <v>0.352853</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.937205</v>
+        <v>0.487651</v>
       </c>
       <c r="C89" t="n">
-        <v>0.863366</v>
+        <v>0.361625</v>
       </c>
       <c r="D89" t="n">
-        <v>0.921914</v>
+        <v>0.36531</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.950413</v>
+        <v>0.496626</v>
       </c>
       <c r="C90" t="n">
-        <v>0.870104</v>
+        <v>0.37592</v>
       </c>
       <c r="D90" t="n">
-        <v>0.897545</v>
+        <v>0.377628</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.965956</v>
+        <v>0.507516</v>
       </c>
       <c r="C91" t="n">
-        <v>0.907989</v>
+        <v>0.387168</v>
       </c>
       <c r="D91" t="n">
-        <v>0.924704</v>
+        <v>0.392133</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.997174</v>
+        <v>0.520342</v>
       </c>
       <c r="C92" t="n">
-        <v>0.832267</v>
+        <v>0.429219</v>
       </c>
       <c r="D92" t="n">
-        <v>0.86983</v>
+        <v>0.42872</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.03107</v>
+        <v>0.532238</v>
       </c>
       <c r="C93" t="n">
-        <v>0.840517</v>
+        <v>0.436201</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8643729999999999</v>
+        <v>0.435981</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.01847</v>
+        <v>0.54417</v>
       </c>
       <c r="C94" t="n">
-        <v>0.882633</v>
+        <v>0.443917</v>
       </c>
       <c r="D94" t="n">
-        <v>0.885829</v>
+        <v>0.444859</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.04814</v>
+        <v>0.556431</v>
       </c>
       <c r="C95" t="n">
-        <v>0.863891</v>
+        <v>0.454246</v>
       </c>
       <c r="D95" t="n">
-        <v>0.915856</v>
+        <v>0.455282</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06756</v>
+        <v>0.570796</v>
       </c>
       <c r="C96" t="n">
-        <v>0.884907</v>
+        <v>0.462618</v>
       </c>
       <c r="D96" t="n">
-        <v>0.914633</v>
+        <v>0.46375</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.08386</v>
+        <v>0.584883</v>
       </c>
       <c r="C97" t="n">
-        <v>0.913567</v>
+        <v>0.469485</v>
       </c>
       <c r="D97" t="n">
-        <v>0.935932</v>
+        <v>0.472567</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.96524</v>
+        <v>0.550926</v>
       </c>
       <c r="C98" t="n">
-        <v>0.94415</v>
+        <v>0.479339</v>
       </c>
       <c r="D98" t="n">
-        <v>0.97274</v>
+        <v>0.481577</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9832959999999999</v>
+        <v>0.5579769999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.93845</v>
+        <v>0.487669</v>
       </c>
       <c r="D99" t="n">
-        <v>0.958856</v>
+        <v>0.491113</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00307</v>
+        <v>0.566936</v>
       </c>
       <c r="C100" t="n">
-        <v>0.951831</v>
+        <v>0.499325</v>
       </c>
       <c r="D100" t="n">
-        <v>0.975483</v>
+        <v>0.500136</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.02782</v>
+        <v>0.575573</v>
       </c>
       <c r="C101" t="n">
-        <v>0.976939</v>
+        <v>0.510665</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00393</v>
+        <v>0.512058</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.03417</v>
+        <v>0.584134</v>
       </c>
       <c r="C102" t="n">
-        <v>1.01583</v>
+        <v>0.520537</v>
       </c>
       <c r="D102" t="n">
-        <v>1.01156</v>
+        <v>0.52584</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.04559</v>
+        <v>0.596619</v>
       </c>
       <c r="C103" t="n">
-        <v>1.01148</v>
+        <v>0.534364</v>
       </c>
       <c r="D103" t="n">
-        <v>1.04935</v>
+        <v>0.537888</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08625</v>
+        <v>0.608197</v>
       </c>
       <c r="C104" t="n">
-        <v>1.01363</v>
+        <v>0.546397</v>
       </c>
       <c r="D104" t="n">
-        <v>1.0464</v>
+        <v>0.5516219999999999</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.06929</v>
+        <v>0.618892</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04559</v>
+        <v>0.5577530000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>1.07504</v>
+        <v>0.56393</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.10287</v>
+        <v>0.62953</v>
       </c>
       <c r="C106" t="n">
-        <v>1.07677</v>
+        <v>0.573526</v>
       </c>
       <c r="D106" t="n">
-        <v>1.0925</v>
+        <v>0.578238</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.11894</v>
+        <v>0.6413219999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.949061</v>
+        <v>0.538805</v>
       </c>
       <c r="D107" t="n">
-        <v>1.00253</v>
+        <v>0.5431</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.12708</v>
+        <v>0.650641</v>
       </c>
       <c r="C108" t="n">
-        <v>0.963643</v>
+        <v>0.5484329999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.985585</v>
+        <v>0.552682</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.13044</v>
+        <v>0.666703</v>
       </c>
       <c r="C109" t="n">
-        <v>0.968818</v>
+        <v>0.55749</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9921450000000001</v>
+        <v>0.560914</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.16092</v>
+        <v>0.679084</v>
       </c>
       <c r="C110" t="n">
-        <v>0.988463</v>
+        <v>0.565598</v>
       </c>
       <c r="D110" t="n">
-        <v>1.02614</v>
+        <v>0.56692</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.20952</v>
+        <v>0.693374</v>
       </c>
       <c r="C111" t="n">
-        <v>1.00872</v>
+        <v>0.574969</v>
       </c>
       <c r="D111" t="n">
-        <v>1.03631</v>
+        <v>0.577939</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.07314</v>
+        <v>0.6138749999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>1.05506</v>
+        <v>0.585136</v>
       </c>
       <c r="D112" t="n">
-        <v>1.06007</v>
+        <v>0.587856</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.08127</v>
+        <v>0.620375</v>
       </c>
       <c r="C113" t="n">
-        <v>1.04173</v>
+        <v>0.5946</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06043</v>
+        <v>0.5995200000000001</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.06974</v>
+        <v>0.631417</v>
       </c>
       <c r="C114" t="n">
-        <v>1.0541</v>
+        <v>0.605935</v>
       </c>
       <c r="D114" t="n">
-        <v>1.07837</v>
+        <v>0.607797</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.07791</v>
+        <v>0.640371</v>
       </c>
       <c r="C115" t="n">
-        <v>1.06721</v>
+        <v>0.613877</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1185</v>
+        <v>0.6185079999999999</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.09437</v>
+        <v>0.648512</v>
       </c>
       <c r="C116" t="n">
-        <v>1.10244</v>
+        <v>0.628159</v>
       </c>
       <c r="D116" t="n">
-        <v>1.13198</v>
+        <v>0.632576</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13227</v>
+        <v>0.656872</v>
       </c>
       <c r="C117" t="n">
-        <v>1.10397</v>
+        <v>0.6409319999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>1.15028</v>
+        <v>0.643914</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14222</v>
+        <v>0.666374</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11851</v>
+        <v>0.653033</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1619</v>
+        <v>0.657085</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.15955</v>
+        <v>0.679963</v>
       </c>
       <c r="C119" t="n">
-        <v>1.14113</v>
+        <v>0.663281</v>
       </c>
       <c r="D119" t="n">
-        <v>1.17071</v>
+        <v>0.671425</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.221149</v>
+        <v>0.14123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.179347</v>
+        <v>0.114178</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18457</v>
+        <v>0.114217</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.220692</v>
+        <v>0.14041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18706</v>
+        <v>0.117538</v>
       </c>
       <c r="D3" t="n">
-        <v>0.182141</v>
+        <v>0.114593</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.221079</v>
+        <v>0.140528</v>
       </c>
       <c r="C4" t="n">
-        <v>0.186275</v>
+        <v>0.119795</v>
       </c>
       <c r="D4" t="n">
-        <v>0.184048</v>
+        <v>0.116967</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.22509</v>
+        <v>0.144281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.189559</v>
+        <v>0.121723</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188117</v>
+        <v>0.117267</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231545</v>
+        <v>0.145348</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205646</v>
+        <v>0.124977</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196236</v>
+        <v>0.119723</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.236596</v>
+        <v>0.147095</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182643</v>
+        <v>0.113827</v>
       </c>
       <c r="D7" t="n">
-        <v>0.194882</v>
+        <v>0.117353</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.241567</v>
+        <v>0.147388</v>
       </c>
       <c r="C8" t="n">
-        <v>0.188491</v>
+        <v>0.116119</v>
       </c>
       <c r="D8" t="n">
-        <v>0.198749</v>
+        <v>0.119795</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.246829</v>
+        <v>0.150852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.189444</v>
+        <v>0.119447</v>
       </c>
       <c r="D9" t="n">
-        <v>0.200965</v>
+        <v>0.120203</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.252336</v>
+        <v>0.154653</v>
       </c>
       <c r="C10" t="n">
-        <v>0.195666</v>
+        <v>0.120047</v>
       </c>
       <c r="D10" t="n">
-        <v>0.19888</v>
+        <v>0.120968</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.247292</v>
+        <v>0.15385</v>
       </c>
       <c r="C11" t="n">
-        <v>0.190135</v>
+        <v>0.119527</v>
       </c>
       <c r="D11" t="n">
-        <v>0.199735</v>
+        <v>0.12011</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.257107</v>
+        <v>0.160374</v>
       </c>
       <c r="C12" t="n">
-        <v>0.200188</v>
+        <v>0.124383</v>
       </c>
       <c r="D12" t="n">
-        <v>0.202814</v>
+        <v>0.122167</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.231129</v>
+        <v>0.145462</v>
       </c>
       <c r="C13" t="n">
-        <v>0.196894</v>
+        <v>0.123724</v>
       </c>
       <c r="D13" t="n">
-        <v>0.203432</v>
+        <v>0.123669</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.254626</v>
+        <v>0.14843</v>
       </c>
       <c r="C14" t="n">
-        <v>0.200825</v>
+        <v>0.125607</v>
       </c>
       <c r="D14" t="n">
-        <v>0.203548</v>
+        <v>0.123167</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.236459</v>
+        <v>0.150269</v>
       </c>
       <c r="C15" t="n">
-        <v>0.201898</v>
+        <v>0.128135</v>
       </c>
       <c r="D15" t="n">
-        <v>0.207744</v>
+        <v>0.12474</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.239795</v>
+        <v>0.154868</v>
       </c>
       <c r="C16" t="n">
-        <v>0.210686</v>
+        <v>0.131966</v>
       </c>
       <c r="D16" t="n">
-        <v>0.211409</v>
+        <v>0.125571</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.256088</v>
+        <v>0.15862</v>
       </c>
       <c r="C17" t="n">
-        <v>0.214501</v>
+        <v>0.133306</v>
       </c>
       <c r="D17" t="n">
-        <v>0.214043</v>
+        <v>0.127467</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.257827</v>
+        <v>0.160544</v>
       </c>
       <c r="C18" t="n">
-        <v>0.222184</v>
+        <v>0.139455</v>
       </c>
       <c r="D18" t="n">
-        <v>0.21806</v>
+        <v>0.128962</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.252684</v>
+        <v>0.164167</v>
       </c>
       <c r="C19" t="n">
-        <v>0.223668</v>
+        <v>0.141485</v>
       </c>
       <c r="D19" t="n">
-        <v>0.218693</v>
+        <v>0.131665</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.259478</v>
+        <v>0.169884</v>
       </c>
       <c r="C20" t="n">
-        <v>0.228311</v>
+        <v>0.147134</v>
       </c>
       <c r="D20" t="n">
-        <v>0.22247</v>
+        <v>0.132605</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.267575</v>
+        <v>0.171193</v>
       </c>
       <c r="C21" t="n">
-        <v>0.213633</v>
+        <v>0.137449</v>
       </c>
       <c r="D21" t="n">
-        <v>0.217375</v>
+        <v>0.132897</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.264311</v>
+        <v>0.176101</v>
       </c>
       <c r="C22" t="n">
-        <v>0.217606</v>
+        <v>0.140752</v>
       </c>
       <c r="D22" t="n">
-        <v>0.224322</v>
+        <v>0.135148</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.27258</v>
+        <v>0.179465</v>
       </c>
       <c r="C23" t="n">
-        <v>0.217267</v>
+        <v>0.142268</v>
       </c>
       <c r="D23" t="n">
-        <v>0.226428</v>
+        <v>0.136029</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.277751</v>
+        <v>0.182926</v>
       </c>
       <c r="C24" t="n">
-        <v>0.22481</v>
+        <v>0.149258</v>
       </c>
       <c r="D24" t="n">
-        <v>0.227111</v>
+        <v>0.139652</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.292279</v>
+        <v>0.189169</v>
       </c>
       <c r="C25" t="n">
-        <v>0.231159</v>
+        <v>0.156229</v>
       </c>
       <c r="D25" t="n">
-        <v>0.232207</v>
+        <v>0.142365</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.294319</v>
+        <v>0.195926</v>
       </c>
       <c r="C26" t="n">
-        <v>0.242017</v>
+        <v>0.156088</v>
       </c>
       <c r="D26" t="n">
-        <v>0.23007</v>
+        <v>0.143937</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.274162</v>
+        <v>0.166234</v>
       </c>
       <c r="C27" t="n">
-        <v>0.24908</v>
+        <v>0.162565</v>
       </c>
       <c r="D27" t="n">
-        <v>0.239943</v>
+        <v>0.146445</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.292141</v>
+        <v>0.169443</v>
       </c>
       <c r="C28" t="n">
-        <v>0.246069</v>
+        <v>0.163779</v>
       </c>
       <c r="D28" t="n">
-        <v>0.242454</v>
+        <v>0.147595</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.299623</v>
+        <v>0.174021</v>
       </c>
       <c r="C29" t="n">
-        <v>0.248171</v>
+        <v>0.168107</v>
       </c>
       <c r="D29" t="n">
-        <v>0.240008</v>
+        <v>0.150246</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.301089</v>
+        <v>0.178177</v>
       </c>
       <c r="C30" t="n">
-        <v>0.268991</v>
+        <v>0.176517</v>
       </c>
       <c r="D30" t="n">
-        <v>0.259124</v>
+        <v>0.153684</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.308722</v>
+        <v>0.180545</v>
       </c>
       <c r="C31" t="n">
-        <v>0.268704</v>
+        <v>0.174772</v>
       </c>
       <c r="D31" t="n">
-        <v>0.254663</v>
+        <v>0.155134</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.320508</v>
+        <v>0.18416</v>
       </c>
       <c r="C32" t="n">
-        <v>0.272907</v>
+        <v>0.181096</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252619</v>
+        <v>0.158202</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.335848</v>
+        <v>0.18929</v>
       </c>
       <c r="C33" t="n">
-        <v>0.286826</v>
+        <v>0.188279</v>
       </c>
       <c r="D33" t="n">
-        <v>0.259443</v>
+        <v>0.160971</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.331444</v>
+        <v>0.188308</v>
       </c>
       <c r="C34" t="n">
-        <v>0.295528</v>
+        <v>0.190872</v>
       </c>
       <c r="D34" t="n">
-        <v>0.264103</v>
+        <v>0.163498</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.354887</v>
+        <v>0.193303</v>
       </c>
       <c r="C35" t="n">
-        <v>0.252226</v>
+        <v>0.1503</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246397</v>
+        <v>0.149438</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.347763</v>
+        <v>0.196336</v>
       </c>
       <c r="C36" t="n">
-        <v>0.261408</v>
+        <v>0.153937</v>
       </c>
       <c r="D36" t="n">
-        <v>0.250586</v>
+        <v>0.150583</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.359489</v>
+        <v>0.201058</v>
       </c>
       <c r="C37" t="n">
-        <v>0.272696</v>
+        <v>0.157193</v>
       </c>
       <c r="D37" t="n">
-        <v>0.255179</v>
+        <v>0.152349</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.378014</v>
+        <v>0.205633</v>
       </c>
       <c r="C38" t="n">
-        <v>0.27504</v>
+        <v>0.159306</v>
       </c>
       <c r="D38" t="n">
-        <v>0.276396</v>
+        <v>0.15385</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.384422</v>
+        <v>0.210126</v>
       </c>
       <c r="C39" t="n">
-        <v>0.291181</v>
+        <v>0.162224</v>
       </c>
       <c r="D39" t="n">
-        <v>0.26579</v>
+        <v>0.15662</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.406173</v>
+        <v>0.215214</v>
       </c>
       <c r="C40" t="n">
-        <v>0.299564</v>
+        <v>0.16497</v>
       </c>
       <c r="D40" t="n">
-        <v>0.27461</v>
+        <v>0.157522</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.420729</v>
+        <v>0.183068</v>
       </c>
       <c r="C41" t="n">
-        <v>0.331063</v>
+        <v>0.167695</v>
       </c>
       <c r="D41" t="n">
-        <v>0.281918</v>
+        <v>0.158645</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.431737</v>
+        <v>0.186036</v>
       </c>
       <c r="C42" t="n">
-        <v>0.326567</v>
+        <v>0.169288</v>
       </c>
       <c r="D42" t="n">
-        <v>0.28456</v>
+        <v>0.160009</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.450369</v>
+        <v>0.1889</v>
       </c>
       <c r="C43" t="n">
-        <v>0.338399</v>
+        <v>0.171437</v>
       </c>
       <c r="D43" t="n">
-        <v>0.289276</v>
+        <v>0.161694</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.452773</v>
+        <v>0.191775</v>
       </c>
       <c r="C44" t="n">
-        <v>0.35279</v>
+        <v>0.175476</v>
       </c>
       <c r="D44" t="n">
-        <v>0.300685</v>
+        <v>0.162951</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.464315</v>
+        <v>0.194867</v>
       </c>
       <c r="C45" t="n">
-        <v>0.37233</v>
+        <v>0.177205</v>
       </c>
       <c r="D45" t="n">
-        <v>0.311832</v>
+        <v>0.165201</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.473838</v>
+        <v>0.195742</v>
       </c>
       <c r="C46" t="n">
-        <v>0.375324</v>
+        <v>0.178593</v>
       </c>
       <c r="D46" t="n">
-        <v>0.312328</v>
+        <v>0.1663</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.494008</v>
+        <v>0.199067</v>
       </c>
       <c r="C47" t="n">
-        <v>0.385268</v>
+        <v>0.182947</v>
       </c>
       <c r="D47" t="n">
-        <v>0.31614</v>
+        <v>0.167881</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.503667</v>
+        <v>0.203198</v>
       </c>
       <c r="C48" t="n">
-        <v>0.405017</v>
+        <v>0.187045</v>
       </c>
       <c r="D48" t="n">
-        <v>0.320845</v>
+        <v>0.16948</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.510254</v>
+        <v>0.20724</v>
       </c>
       <c r="C49" t="n">
-        <v>0.410189</v>
+        <v>0.188997</v>
       </c>
       <c r="D49" t="n">
-        <v>0.327946</v>
+        <v>0.171681</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.521984</v>
+        <v>0.210551</v>
       </c>
       <c r="C50" t="n">
-        <v>0.428286</v>
+        <v>0.167094</v>
       </c>
       <c r="D50" t="n">
-        <v>0.371958</v>
+        <v>0.15739</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.564576</v>
+        <v>0.215239</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4492</v>
+        <v>0.169155</v>
       </c>
       <c r="D51" t="n">
-        <v>0.382121</v>
+        <v>0.158936</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.560013</v>
+        <v>0.217697</v>
       </c>
       <c r="C52" t="n">
-        <v>0.460123</v>
+        <v>0.170723</v>
       </c>
       <c r="D52" t="n">
-        <v>0.390316</v>
+        <v>0.159461</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.567665</v>
+        <v>0.222081</v>
       </c>
       <c r="C53" t="n">
-        <v>0.479031</v>
+        <v>0.17404</v>
       </c>
       <c r="D53" t="n">
-        <v>0.403094</v>
+        <v>0.160933</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.58943</v>
+        <v>0.225711</v>
       </c>
       <c r="C54" t="n">
-        <v>0.492196</v>
+        <v>0.177592</v>
       </c>
       <c r="D54" t="n">
-        <v>0.409055</v>
+        <v>0.163355</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.600945</v>
+        <v>0.229787</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5226229999999999</v>
+        <v>0.181772</v>
       </c>
       <c r="D55" t="n">
-        <v>0.419936</v>
+        <v>0.164293</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5909759999999999</v>
+        <v>0.196097</v>
       </c>
       <c r="C56" t="n">
-        <v>0.50701</v>
+        <v>0.181844</v>
       </c>
       <c r="D56" t="n">
-        <v>0.430215</v>
+        <v>0.165571</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.590327</v>
+        <v>0.19711</v>
       </c>
       <c r="C57" t="n">
-        <v>0.536108</v>
+        <v>0.186696</v>
       </c>
       <c r="D57" t="n">
-        <v>0.45031</v>
+        <v>0.166863</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.608524</v>
+        <v>0.200572</v>
       </c>
       <c r="C58" t="n">
-        <v>0.551198</v>
+        <v>0.192203</v>
       </c>
       <c r="D58" t="n">
-        <v>0.453134</v>
+        <v>0.169519</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.613841</v>
+        <v>0.202698</v>
       </c>
       <c r="C59" t="n">
-        <v>0.565999</v>
+        <v>0.196386</v>
       </c>
       <c r="D59" t="n">
-        <v>0.467765</v>
+        <v>0.172341</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.629861</v>
+        <v>0.2063</v>
       </c>
       <c r="C60" t="n">
-        <v>0.581479</v>
+        <v>0.199656</v>
       </c>
       <c r="D60" t="n">
-        <v>0.478988</v>
+        <v>0.175997</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.654255</v>
+        <v>0.208323</v>
       </c>
       <c r="C61" t="n">
-        <v>0.607301</v>
+        <v>0.204033</v>
       </c>
       <c r="D61" t="n">
-        <v>0.499611</v>
+        <v>0.176006</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.66312</v>
+        <v>0.211505</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6203109999999999</v>
+        <v>0.20993</v>
       </c>
       <c r="D62" t="n">
-        <v>0.507274</v>
+        <v>0.179046</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.676517</v>
+        <v>0.216847</v>
       </c>
       <c r="C63" t="n">
-        <v>0.630699</v>
+        <v>0.214973</v>
       </c>
       <c r="D63" t="n">
-        <v>0.530384</v>
+        <v>0.185424</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.686599</v>
+        <v>0.220882</v>
       </c>
       <c r="C64" t="n">
-        <v>0.626034</v>
+        <v>0.184584</v>
       </c>
       <c r="D64" t="n">
-        <v>0.554486</v>
+        <v>0.166839</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7259</v>
+        <v>0.228547</v>
       </c>
       <c r="C65" t="n">
-        <v>0.638107</v>
+        <v>0.184079</v>
       </c>
       <c r="D65" t="n">
-        <v>0.56397</v>
+        <v>0.168832</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.72988</v>
+        <v>0.233563</v>
       </c>
       <c r="C66" t="n">
-        <v>0.660699</v>
+        <v>0.18829</v>
       </c>
       <c r="D66" t="n">
-        <v>0.571214</v>
+        <v>0.171144</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.766746</v>
+        <v>0.23993</v>
       </c>
       <c r="C67" t="n">
-        <v>0.665615</v>
+        <v>0.194825</v>
       </c>
       <c r="D67" t="n">
-        <v>0.574381</v>
+        <v>0.171686</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.79877</v>
+        <v>0.248236</v>
       </c>
       <c r="C68" t="n">
-        <v>0.664636</v>
+        <v>0.196746</v>
       </c>
       <c r="D68" t="n">
-        <v>0.583649</v>
+        <v>0.175368</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.819702</v>
+        <v>0.257786</v>
       </c>
       <c r="C69" t="n">
-        <v>0.707463</v>
+        <v>0.201608</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6066589999999999</v>
+        <v>0.176377</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.780498</v>
+        <v>0.219147</v>
       </c>
       <c r="C70" t="n">
-        <v>0.745864</v>
+        <v>0.207331</v>
       </c>
       <c r="D70" t="n">
-        <v>0.614038</v>
+        <v>0.179768</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.806151</v>
+        <v>0.223057</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7542219999999999</v>
+        <v>0.213646</v>
       </c>
       <c r="D71" t="n">
-        <v>0.647848</v>
+        <v>0.182722</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.852876</v>
+        <v>0.231664</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7874989999999999</v>
+        <v>0.220266</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6637380000000001</v>
+        <v>0.187263</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.888574</v>
+        <v>0.234119</v>
       </c>
       <c r="C73" t="n">
-        <v>0.819778</v>
+        <v>0.226403</v>
       </c>
       <c r="D73" t="n">
-        <v>0.697447</v>
+        <v>0.190188</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.924329</v>
+        <v>0.243197</v>
       </c>
       <c r="C74" t="n">
-        <v>0.856228</v>
+        <v>0.231288</v>
       </c>
       <c r="D74" t="n">
-        <v>0.708908</v>
+        <v>0.193102</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.971852</v>
+        <v>0.245252</v>
       </c>
       <c r="C75" t="n">
-        <v>0.894435</v>
+        <v>0.237107</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7478129999999999</v>
+        <v>0.19571</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.0149</v>
+        <v>0.254966</v>
       </c>
       <c r="C76" t="n">
-        <v>0.96161</v>
+        <v>0.244954</v>
       </c>
       <c r="D76" t="n">
-        <v>0.739792</v>
+        <v>0.200342</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.04061</v>
+        <v>0.261241</v>
       </c>
       <c r="C77" t="n">
-        <v>0.956772</v>
+        <v>0.255453</v>
       </c>
       <c r="D77" t="n">
-        <v>0.778805</v>
+        <v>0.204591</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.03828</v>
+        <v>0.26937</v>
       </c>
       <c r="C78" t="n">
-        <v>0.949728</v>
+        <v>0.208981</v>
       </c>
       <c r="D78" t="n">
-        <v>0.844225</v>
+        <v>0.185964</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.11931</v>
+        <v>0.282581</v>
       </c>
       <c r="C79" t="n">
-        <v>0.995256</v>
+        <v>0.217215</v>
       </c>
       <c r="D79" t="n">
-        <v>0.910353</v>
+        <v>0.187391</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.1898</v>
+        <v>0.300159</v>
       </c>
       <c r="C80" t="n">
-        <v>1.03856</v>
+        <v>0.226352</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9097460000000001</v>
+        <v>0.19221</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.23886</v>
+        <v>0.31844</v>
       </c>
       <c r="C81" t="n">
-        <v>1.05615</v>
+        <v>0.23519</v>
       </c>
       <c r="D81" t="n">
-        <v>0.95653</v>
+        <v>0.195918</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.29116</v>
+        <v>0.343706</v>
       </c>
       <c r="C82" t="n">
-        <v>1.0836</v>
+        <v>0.249197</v>
       </c>
       <c r="D82" t="n">
-        <v>0.974131</v>
+        <v>0.200793</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.33002</v>
+        <v>0.363273</v>
       </c>
       <c r="C83" t="n">
-        <v>1.14062</v>
+        <v>0.264162</v>
       </c>
       <c r="D83" t="n">
-        <v>1.04235</v>
+        <v>0.204714</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.27628</v>
+        <v>0.378287</v>
       </c>
       <c r="C84" t="n">
-        <v>1.19345</v>
+        <v>0.284197</v>
       </c>
       <c r="D84" t="n">
-        <v>1.02609</v>
+        <v>0.210764</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.33405</v>
+        <v>0.406044</v>
       </c>
       <c r="C85" t="n">
-        <v>1.2305</v>
+        <v>0.301907</v>
       </c>
       <c r="D85" t="n">
-        <v>1.07527</v>
+        <v>0.218632</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.34117</v>
+        <v>0.441871</v>
       </c>
       <c r="C86" t="n">
-        <v>1.24286</v>
+        <v>0.318672</v>
       </c>
       <c r="D86" t="n">
-        <v>1.08156</v>
+        <v>0.223898</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.34491</v>
+        <v>0.471403</v>
       </c>
       <c r="C87" t="n">
-        <v>1.29023</v>
+        <v>0.342778</v>
       </c>
       <c r="D87" t="n">
-        <v>1.11002</v>
+        <v>0.235172</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.39616</v>
+        <v>0.50514</v>
       </c>
       <c r="C88" t="n">
-        <v>1.33041</v>
+        <v>0.370201</v>
       </c>
       <c r="D88" t="n">
-        <v>1.15014</v>
+        <v>0.247175</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.42669</v>
+        <v>0.534896</v>
       </c>
       <c r="C89" t="n">
-        <v>1.36502</v>
+        <v>0.399105</v>
       </c>
       <c r="D89" t="n">
-        <v>1.21055</v>
+        <v>0.262376</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.45024</v>
+        <v>0.571885</v>
       </c>
       <c r="C90" t="n">
-        <v>1.39001</v>
+        <v>0.421727</v>
       </c>
       <c r="D90" t="n">
-        <v>1.27068</v>
+        <v>0.280107</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.51466</v>
+        <v>0.601533</v>
       </c>
       <c r="C91" t="n">
-        <v>1.44102</v>
+        <v>0.455364</v>
       </c>
       <c r="D91" t="n">
-        <v>1.24101</v>
+        <v>0.301822</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.56234</v>
+        <v>0.633231</v>
       </c>
       <c r="C92" t="n">
-        <v>1.3812</v>
+        <v>0.467872</v>
       </c>
       <c r="D92" t="n">
-        <v>1.26711</v>
+        <v>0.401396</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.54145</v>
+        <v>0.669254</v>
       </c>
       <c r="C93" t="n">
-        <v>1.38207</v>
+        <v>0.492654</v>
       </c>
       <c r="D93" t="n">
-        <v>1.292</v>
+        <v>0.426865</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.60952</v>
+        <v>0.70228</v>
       </c>
       <c r="C94" t="n">
-        <v>1.42147</v>
+        <v>0.514283</v>
       </c>
       <c r="D94" t="n">
-        <v>1.34125</v>
+        <v>0.448226</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.62656</v>
+        <v>0.737997</v>
       </c>
       <c r="C95" t="n">
-        <v>1.45551</v>
+        <v>0.534263</v>
       </c>
       <c r="D95" t="n">
-        <v>1.3195</v>
+        <v>0.469827</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.724</v>
+        <v>0.776119</v>
       </c>
       <c r="C96" t="n">
-        <v>1.47308</v>
+        <v>0.562154</v>
       </c>
       <c r="D96" t="n">
-        <v>1.34199</v>
+        <v>0.49073</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.76122</v>
+        <v>0.815114</v>
       </c>
       <c r="C97" t="n">
-        <v>1.50149</v>
+        <v>0.5873930000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>1.37474</v>
+        <v>0.515266</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.60316</v>
+        <v>0.762603</v>
       </c>
       <c r="C98" t="n">
-        <v>1.54288</v>
+        <v>0.609749</v>
       </c>
       <c r="D98" t="n">
-        <v>1.40544</v>
+        <v>0.5365</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.65087</v>
+        <v>0.787919</v>
       </c>
       <c r="C99" t="n">
-        <v>1.58166</v>
+        <v>0.63724</v>
       </c>
       <c r="D99" t="n">
-        <v>1.43092</v>
+        <v>0.559398</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.68506</v>
+        <v>0.81274</v>
       </c>
       <c r="C100" t="n">
-        <v>1.64243</v>
+        <v>0.664848</v>
       </c>
       <c r="D100" t="n">
-        <v>1.46696</v>
+        <v>0.585139</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.70225</v>
+        <v>0.840359</v>
       </c>
       <c r="C101" t="n">
-        <v>1.67147</v>
+        <v>0.687392</v>
       </c>
       <c r="D101" t="n">
-        <v>1.45448</v>
+        <v>0.606043</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.74713</v>
+        <v>0.869247</v>
       </c>
       <c r="C102" t="n">
-        <v>1.70576</v>
+        <v>0.716987</v>
       </c>
       <c r="D102" t="n">
-        <v>1.51428</v>
+        <v>0.6335769999999999</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.79655</v>
+        <v>0.899311</v>
       </c>
       <c r="C103" t="n">
-        <v>1.7207</v>
+        <v>0.741864</v>
       </c>
       <c r="D103" t="n">
-        <v>1.53302</v>
+        <v>0.656241</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.81212</v>
+        <v>0.926763</v>
       </c>
       <c r="C104" t="n">
-        <v>1.7521</v>
+        <v>0.7661559999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>1.56876</v>
+        <v>0.677561</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.86208</v>
+        <v>0.956835</v>
       </c>
       <c r="C105" t="n">
-        <v>1.81903</v>
+        <v>0.792303</v>
       </c>
       <c r="D105" t="n">
-        <v>1.60462</v>
+        <v>0.701591</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.91974</v>
+        <v>0.98816</v>
       </c>
       <c r="C106" t="n">
-        <v>1.83146</v>
+        <v>0.822093</v>
       </c>
       <c r="D106" t="n">
-        <v>1.61971</v>
+        <v>0.723587</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.93157</v>
+        <v>1.01781</v>
       </c>
       <c r="C107" t="n">
-        <v>1.72707</v>
+        <v>0.7347590000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>1.60676</v>
+        <v>0.767279</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.01289</v>
+        <v>1.04488</v>
       </c>
       <c r="C108" t="n">
-        <v>1.75662</v>
+        <v>0.754006</v>
       </c>
       <c r="D108" t="n">
-        <v>1.62084</v>
+        <v>0.784738</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.99433</v>
+        <v>1.07154</v>
       </c>
       <c r="C109" t="n">
-        <v>1.82253</v>
+        <v>0.775141</v>
       </c>
       <c r="D109" t="n">
-        <v>1.62401</v>
+        <v>0.799613</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.07455</v>
+        <v>1.10831</v>
       </c>
       <c r="C110" t="n">
-        <v>1.79876</v>
+        <v>0.793481</v>
       </c>
       <c r="D110" t="n">
-        <v>1.68094</v>
+        <v>0.812985</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.09347</v>
+        <v>1.13567</v>
       </c>
       <c r="C111" t="n">
-        <v>1.84137</v>
+        <v>0.81136</v>
       </c>
       <c r="D111" t="n">
-        <v>1.71257</v>
+        <v>0.830209</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.07204</v>
+        <v>1.00884</v>
       </c>
       <c r="C112" t="n">
-        <v>1.86037</v>
+        <v>0.831912</v>
       </c>
       <c r="D112" t="n">
-        <v>1.68897</v>
+        <v>0.847513</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.03869</v>
+        <v>1.03222</v>
       </c>
       <c r="C113" t="n">
-        <v>1.8968</v>
+        <v>0.85401</v>
       </c>
       <c r="D113" t="n">
-        <v>1.72636</v>
+        <v>0.864367</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.05341</v>
+        <v>1.04246</v>
       </c>
       <c r="C114" t="n">
-        <v>1.95656</v>
+        <v>0.871757</v>
       </c>
       <c r="D114" t="n">
-        <v>1.75613</v>
+        <v>0.879709</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.08785</v>
+        <v>1.07021</v>
       </c>
       <c r="C115" t="n">
-        <v>1.99167</v>
+        <v>0.897963</v>
       </c>
       <c r="D115" t="n">
-        <v>1.79011</v>
+        <v>0.898702</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.16914</v>
+        <v>1.09417</v>
       </c>
       <c r="C116" t="n">
-        <v>1.98236</v>
+        <v>0.91881</v>
       </c>
       <c r="D116" t="n">
-        <v>1.80605</v>
+        <v>0.918488</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.1581</v>
+        <v>1.11597</v>
       </c>
       <c r="C117" t="n">
-        <v>2.0582</v>
+        <v>0.937765</v>
       </c>
       <c r="D117" t="n">
-        <v>1.8056</v>
+        <v>0.934812</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.22962</v>
+        <v>1.14049</v>
       </c>
       <c r="C118" t="n">
-        <v>2.12466</v>
+        <v>0.968877</v>
       </c>
       <c r="D118" t="n">
-        <v>1.84876</v>
+        <v>0.953067</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.24232</v>
+        <v>1.1563</v>
       </c>
       <c r="C119" t="n">
-        <v>2.15088</v>
+        <v>0.988689</v>
       </c>
       <c r="D119" t="n">
-        <v>1.87001</v>
+        <v>0.971383</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5345760000000001</v>
+        <v>0.360368</v>
       </c>
       <c r="C2" t="n">
-        <v>0.30033</v>
+        <v>0.195605</v>
       </c>
       <c r="D2" t="n">
-        <v>0.235565</v>
+        <v>0.156646</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.383418</v>
+        <v>0.242796</v>
       </c>
       <c r="C3" t="n">
-        <v>0.306301</v>
+        <v>0.200857</v>
       </c>
       <c r="D3" t="n">
-        <v>0.237402</v>
+        <v>0.157245</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.382744</v>
+        <v>0.245421</v>
       </c>
       <c r="C4" t="n">
-        <v>0.31889</v>
+        <v>0.20987</v>
       </c>
       <c r="D4" t="n">
-        <v>0.245546</v>
+        <v>0.163847</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.388317</v>
+        <v>0.253079</v>
       </c>
       <c r="C5" t="n">
-        <v>0.328285</v>
+        <v>0.218477</v>
       </c>
       <c r="D5" t="n">
-        <v>0.249146</v>
+        <v>0.165982</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.40059</v>
+        <v>0.264549</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3314</v>
+        <v>0.2186</v>
       </c>
       <c r="D6" t="n">
-        <v>0.252634</v>
+        <v>0.169038</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.434232</v>
+        <v>0.269462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.359709</v>
+        <v>0.232869</v>
       </c>
       <c r="D7" t="n">
-        <v>0.260517</v>
+        <v>0.172747</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.426912</v>
+        <v>0.280251</v>
       </c>
       <c r="C8" t="n">
-        <v>0.374389</v>
+        <v>0.246306</v>
       </c>
       <c r="D8" t="n">
-        <v>0.273051</v>
+        <v>0.180338</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.456553</v>
+        <v>0.294794</v>
       </c>
       <c r="C9" t="n">
-        <v>0.390182</v>
+        <v>0.257364</v>
       </c>
       <c r="D9" t="n">
-        <v>0.27926</v>
+        <v>0.186401</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.46385</v>
+        <v>0.302509</v>
       </c>
       <c r="C10" t="n">
-        <v>0.399802</v>
+        <v>0.269595</v>
       </c>
       <c r="D10" t="n">
-        <v>0.290001</v>
+        <v>0.19454</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.478388</v>
+        <v>0.310607</v>
       </c>
       <c r="C11" t="n">
-        <v>0.31386</v>
+        <v>0.199824</v>
       </c>
       <c r="D11" t="n">
-        <v>0.238637</v>
+        <v>0.156021</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.496205</v>
+        <v>0.327978</v>
       </c>
       <c r="C12" t="n">
-        <v>0.30963</v>
+        <v>0.202443</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246456</v>
+        <v>0.157134</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.528287</v>
+        <v>0.351718</v>
       </c>
       <c r="C13" t="n">
-        <v>0.32771</v>
+        <v>0.214154</v>
       </c>
       <c r="D13" t="n">
-        <v>0.253232</v>
+        <v>0.162196</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.547893</v>
+        <v>0.360204</v>
       </c>
       <c r="C14" t="n">
-        <v>0.337395</v>
+        <v>0.223566</v>
       </c>
       <c r="D14" t="n">
-        <v>0.255147</v>
+        <v>0.163254</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5611</v>
+        <v>0.380715</v>
       </c>
       <c r="C15" t="n">
-        <v>0.353904</v>
+        <v>0.23378</v>
       </c>
       <c r="D15" t="n">
-        <v>0.259944</v>
+        <v>0.169841</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.578943</v>
+        <v>0.39635</v>
       </c>
       <c r="C16" t="n">
-        <v>0.364904</v>
+        <v>0.242469</v>
       </c>
       <c r="D16" t="n">
-        <v>0.274797</v>
+        <v>0.175263</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.37537</v>
+        <v>0.24383</v>
       </c>
       <c r="C17" t="n">
-        <v>0.382308</v>
+        <v>0.257272</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280196</v>
+        <v>0.177524</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.390827</v>
+        <v>0.255494</v>
       </c>
       <c r="C18" t="n">
-        <v>0.38972</v>
+        <v>0.257507</v>
       </c>
       <c r="D18" t="n">
-        <v>0.278223</v>
+        <v>0.179432</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.400008</v>
+        <v>0.267703</v>
       </c>
       <c r="C19" t="n">
-        <v>0.410239</v>
+        <v>0.280128</v>
       </c>
       <c r="D19" t="n">
-        <v>0.290833</v>
+        <v>0.185636</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.406897</v>
+        <v>0.277794</v>
       </c>
       <c r="C20" t="n">
-        <v>0.422936</v>
+        <v>0.29504</v>
       </c>
       <c r="D20" t="n">
-        <v>0.314305</v>
+        <v>0.194158</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.426473</v>
+        <v>0.285477</v>
       </c>
       <c r="C21" t="n">
-        <v>0.442575</v>
+        <v>0.305668</v>
       </c>
       <c r="D21" t="n">
-        <v>0.31558</v>
+        <v>0.202146</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.432861</v>
+        <v>0.300511</v>
       </c>
       <c r="C22" t="n">
-        <v>0.459223</v>
+        <v>0.326893</v>
       </c>
       <c r="D22" t="n">
-        <v>0.323206</v>
+        <v>0.208157</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.452682</v>
+        <v>0.31659</v>
       </c>
       <c r="C23" t="n">
-        <v>0.479361</v>
+        <v>0.346943</v>
       </c>
       <c r="D23" t="n">
-        <v>0.338834</v>
+        <v>0.219233</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.479278</v>
+        <v>0.327337</v>
       </c>
       <c r="C24" t="n">
-        <v>0.496863</v>
+        <v>0.359557</v>
       </c>
       <c r="D24" t="n">
-        <v>0.345866</v>
+        <v>0.226049</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.518296</v>
+        <v>0.347332</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5365839999999999</v>
+        <v>0.377855</v>
       </c>
       <c r="D25" t="n">
-        <v>0.36504</v>
+        <v>0.236262</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.510702</v>
+        <v>0.361497</v>
       </c>
       <c r="C26" t="n">
-        <v>0.335143</v>
+        <v>0.229741</v>
       </c>
       <c r="D26" t="n">
-        <v>0.260619</v>
+        <v>0.164828</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.519214</v>
+        <v>0.373541</v>
       </c>
       <c r="C27" t="n">
-        <v>0.340212</v>
+        <v>0.237709</v>
       </c>
       <c r="D27" t="n">
-        <v>0.263739</v>
+        <v>0.167266</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.541447</v>
+        <v>0.390903</v>
       </c>
       <c r="C28" t="n">
-        <v>0.352447</v>
+        <v>0.248168</v>
       </c>
       <c r="D28" t="n">
-        <v>0.272244</v>
+        <v>0.171839</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.574105</v>
+        <v>0.415419</v>
       </c>
       <c r="C29" t="n">
-        <v>0.357497</v>
+        <v>0.254226</v>
       </c>
       <c r="D29" t="n">
-        <v>0.277189</v>
+        <v>0.176265</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.601873</v>
+        <v>0.424866</v>
       </c>
       <c r="C30" t="n">
-        <v>0.37511</v>
+        <v>0.267197</v>
       </c>
       <c r="D30" t="n">
-        <v>0.286354</v>
+        <v>0.181002</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.62163</v>
+        <v>0.447951</v>
       </c>
       <c r="C31" t="n">
-        <v>0.386934</v>
+        <v>0.277368</v>
       </c>
       <c r="D31" t="n">
-        <v>0.295988</v>
+        <v>0.187831</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.441215</v>
+        <v>0.303898</v>
       </c>
       <c r="C32" t="n">
-        <v>0.413157</v>
+        <v>0.292534</v>
       </c>
       <c r="D32" t="n">
-        <v>0.29895</v>
+        <v>0.192007</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481891</v>
+        <v>0.313285</v>
       </c>
       <c r="C33" t="n">
-        <v>0.426575</v>
+        <v>0.302896</v>
       </c>
       <c r="D33" t="n">
-        <v>0.307632</v>
+        <v>0.199354</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.455367</v>
+        <v>0.321664</v>
       </c>
       <c r="C34" t="n">
-        <v>0.44117</v>
+        <v>0.316342</v>
       </c>
       <c r="D34" t="n">
-        <v>0.319364</v>
+        <v>0.205635</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.500252</v>
+        <v>0.339642</v>
       </c>
       <c r="C35" t="n">
-        <v>0.455713</v>
+        <v>0.334435</v>
       </c>
       <c r="D35" t="n">
-        <v>0.343491</v>
+        <v>0.212941</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.513923</v>
+        <v>0.346144</v>
       </c>
       <c r="C36" t="n">
-        <v>0.494637</v>
+        <v>0.351257</v>
       </c>
       <c r="D36" t="n">
-        <v>0.348092</v>
+        <v>0.222957</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.548678</v>
+        <v>0.36152</v>
       </c>
       <c r="C37" t="n">
-        <v>0.529726</v>
+        <v>0.367755</v>
       </c>
       <c r="D37" t="n">
-        <v>0.361948</v>
+        <v>0.229886</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.577288</v>
+        <v>0.378545</v>
       </c>
       <c r="C38" t="n">
-        <v>0.554598</v>
+        <v>0.381414</v>
       </c>
       <c r="D38" t="n">
-        <v>0.381769</v>
+        <v>0.23971</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.616009</v>
+        <v>0.388652</v>
       </c>
       <c r="C39" t="n">
-        <v>0.587251</v>
+        <v>0.400227</v>
       </c>
       <c r="D39" t="n">
-        <v>0.392005</v>
+        <v>0.247687</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.634036</v>
+        <v>0.403366</v>
       </c>
       <c r="C40" t="n">
-        <v>0.435814</v>
+        <v>0.278148</v>
       </c>
       <c r="D40" t="n">
-        <v>0.325005</v>
+        <v>0.201362</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.662979</v>
+        <v>0.419075</v>
       </c>
       <c r="C41" t="n">
-        <v>0.466863</v>
+        <v>0.288614</v>
       </c>
       <c r="D41" t="n">
-        <v>0.36252</v>
+        <v>0.205516</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.725768</v>
+        <v>0.438471</v>
       </c>
       <c r="C42" t="n">
-        <v>0.485553</v>
+        <v>0.300947</v>
       </c>
       <c r="D42" t="n">
-        <v>0.360992</v>
+        <v>0.211699</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.769357</v>
+        <v>0.454234</v>
       </c>
       <c r="C43" t="n">
-        <v>0.508174</v>
+        <v>0.308353</v>
       </c>
       <c r="D43" t="n">
-        <v>0.363879</v>
+        <v>0.216378</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.800193</v>
+        <v>0.471945</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5341050000000001</v>
+        <v>0.322434</v>
       </c>
       <c r="D44" t="n">
-        <v>0.38883</v>
+        <v>0.224243</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.851982</v>
+        <v>0.489987</v>
       </c>
       <c r="C45" t="n">
-        <v>0.551381</v>
+        <v>0.334174</v>
       </c>
       <c r="D45" t="n">
-        <v>0.39204</v>
+        <v>0.229789</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.617057</v>
+        <v>0.333732</v>
       </c>
       <c r="C46" t="n">
-        <v>0.588772</v>
+        <v>0.348915</v>
       </c>
       <c r="D46" t="n">
-        <v>0.409793</v>
+        <v>0.236031</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.649454</v>
+        <v>0.346529</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6231640000000001</v>
+        <v>0.358735</v>
       </c>
       <c r="D47" t="n">
-        <v>0.43293</v>
+        <v>0.243379</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.675576</v>
+        <v>0.358903</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6582249999999999</v>
+        <v>0.373343</v>
       </c>
       <c r="D48" t="n">
-        <v>0.451809</v>
+        <v>0.250994</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.701622</v>
+        <v>0.368655</v>
       </c>
       <c r="C49" t="n">
-        <v>0.695022</v>
+        <v>0.387419</v>
       </c>
       <c r="D49" t="n">
-        <v>0.461647</v>
+        <v>0.257078</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.732534</v>
+        <v>0.379869</v>
       </c>
       <c r="C50" t="n">
-        <v>0.71771</v>
+        <v>0.403321</v>
       </c>
       <c r="D50" t="n">
-        <v>0.483345</v>
+        <v>0.265255</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7923</v>
+        <v>0.400845</v>
       </c>
       <c r="C51" t="n">
-        <v>0.779732</v>
+        <v>0.421083</v>
       </c>
       <c r="D51" t="n">
-        <v>0.515611</v>
+        <v>0.274031</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.831257</v>
+        <v>0.413026</v>
       </c>
       <c r="C52" t="n">
-        <v>0.824326</v>
+        <v>0.436098</v>
       </c>
       <c r="D52" t="n">
-        <v>0.537035</v>
+        <v>0.283774</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8873799999999999</v>
+        <v>0.425823</v>
       </c>
       <c r="C53" t="n">
-        <v>0.866614</v>
+        <v>0.455807</v>
       </c>
       <c r="D53" t="n">
-        <v>0.571677</v>
+        <v>0.29386</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.912658</v>
+        <v>0.442365</v>
       </c>
       <c r="C54" t="n">
-        <v>0.657763</v>
+        <v>0.317339</v>
       </c>
       <c r="D54" t="n">
-        <v>0.473761</v>
+        <v>0.229329</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.967987</v>
+        <v>0.460268</v>
       </c>
       <c r="C55" t="n">
-        <v>0.692199</v>
+        <v>0.326222</v>
       </c>
       <c r="D55" t="n">
-        <v>0.491341</v>
+        <v>0.234739</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.01356</v>
+        <v>0.4795</v>
       </c>
       <c r="C56" t="n">
-        <v>0.72333</v>
+        <v>0.33688</v>
       </c>
       <c r="D56" t="n">
-        <v>0.50529</v>
+        <v>0.23952</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.06235</v>
+        <v>0.493438</v>
       </c>
       <c r="C57" t="n">
-        <v>0.757715</v>
+        <v>0.346524</v>
       </c>
       <c r="D57" t="n">
-        <v>0.530461</v>
+        <v>0.244462</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.12267</v>
+        <v>0.513338</v>
       </c>
       <c r="C58" t="n">
-        <v>0.822556</v>
+        <v>0.355863</v>
       </c>
       <c r="D58" t="n">
-        <v>0.556544</v>
+        <v>0.249915</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.19026</v>
+        <v>0.5334410000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.843772</v>
+        <v>0.365688</v>
       </c>
       <c r="D59" t="n">
-        <v>0.593029</v>
+        <v>0.256365</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.88759</v>
+        <v>0.354403</v>
       </c>
       <c r="C60" t="n">
-        <v>0.89356</v>
+        <v>0.382479</v>
       </c>
       <c r="D60" t="n">
-        <v>0.60659</v>
+        <v>0.26213</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.909703</v>
+        <v>0.370648</v>
       </c>
       <c r="C61" t="n">
-        <v>0.918714</v>
+        <v>0.397614</v>
       </c>
       <c r="D61" t="n">
-        <v>0.626653</v>
+        <v>0.269032</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.964786</v>
+        <v>0.379287</v>
       </c>
       <c r="C62" t="n">
-        <v>0.960689</v>
+        <v>0.408332</v>
       </c>
       <c r="D62" t="n">
-        <v>0.654837</v>
+        <v>0.275269</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.00518</v>
+        <v>0.392457</v>
       </c>
       <c r="C63" t="n">
-        <v>1.038</v>
+        <v>0.432727</v>
       </c>
       <c r="D63" t="n">
-        <v>0.692656</v>
+        <v>0.28497</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06696</v>
+        <v>0.405824</v>
       </c>
       <c r="C64" t="n">
-        <v>1.08509</v>
+        <v>0.448555</v>
       </c>
       <c r="D64" t="n">
-        <v>0.724382</v>
+        <v>0.294808</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.13558</v>
+        <v>0.429023</v>
       </c>
       <c r="C65" t="n">
-        <v>1.1686</v>
+        <v>0.481926</v>
       </c>
       <c r="D65" t="n">
-        <v>0.755247</v>
+        <v>0.307458</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.1999</v>
+        <v>0.447523</v>
       </c>
       <c r="C66" t="n">
-        <v>1.20994</v>
+        <v>0.496724</v>
       </c>
       <c r="D66" t="n">
-        <v>0.775734</v>
+        <v>0.318373</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.25223</v>
+        <v>0.467913</v>
       </c>
       <c r="C67" t="n">
-        <v>1.2952</v>
+        <v>0.531694</v>
       </c>
       <c r="D67" t="n">
-        <v>0.827952</v>
+        <v>0.333245</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.36559</v>
+        <v>0.490877</v>
       </c>
       <c r="C68" t="n">
-        <v>0.903434</v>
+        <v>0.338859</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6407620000000001</v>
+        <v>0.246777</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.45657</v>
+        <v>0.522587</v>
       </c>
       <c r="C69" t="n">
-        <v>0.932253</v>
+        <v>0.353764</v>
       </c>
       <c r="D69" t="n">
-        <v>0.702753</v>
+        <v>0.253106</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.59471</v>
+        <v>0.546356</v>
       </c>
       <c r="C70" t="n">
-        <v>1.01031</v>
+        <v>0.371124</v>
       </c>
       <c r="D70" t="n">
-        <v>0.702783</v>
+        <v>0.262408</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.70215</v>
+        <v>0.58305</v>
       </c>
       <c r="C71" t="n">
-        <v>1.07512</v>
+        <v>0.387717</v>
       </c>
       <c r="D71" t="n">
-        <v>0.723535</v>
+        <v>0.270437</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.83203</v>
+        <v>0.609058</v>
       </c>
       <c r="C72" t="n">
-        <v>1.12027</v>
+        <v>0.407136</v>
       </c>
       <c r="D72" t="n">
-        <v>0.761006</v>
+        <v>0.278893</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.96062</v>
+        <v>0.6423759999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>1.22428</v>
+        <v>0.427518</v>
       </c>
       <c r="D73" t="n">
-        <v>0.802959</v>
+        <v>0.288905</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.44995</v>
+        <v>0.423043</v>
       </c>
       <c r="C74" t="n">
-        <v>1.3179</v>
+        <v>0.444029</v>
       </c>
       <c r="D74" t="n">
-        <v>0.842147</v>
+        <v>0.300324</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.49394</v>
+        <v>0.442222</v>
       </c>
       <c r="C75" t="n">
-        <v>1.40799</v>
+        <v>0.472159</v>
       </c>
       <c r="D75" t="n">
-        <v>0.882901</v>
+        <v>0.310119</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.57683</v>
+        <v>0.460548</v>
       </c>
       <c r="C76" t="n">
-        <v>1.502</v>
+        <v>0.495638</v>
       </c>
       <c r="D76" t="n">
-        <v>0.935568</v>
+        <v>0.321834</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.66188</v>
+        <v>0.479155</v>
       </c>
       <c r="C77" t="n">
-        <v>1.61957</v>
+        <v>0.525909</v>
       </c>
       <c r="D77" t="n">
-        <v>1.00686</v>
+        <v>0.334727</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.81896</v>
+        <v>0.513641</v>
       </c>
       <c r="C78" t="n">
-        <v>1.74599</v>
+        <v>0.553819</v>
       </c>
       <c r="D78" t="n">
-        <v>1.05656</v>
+        <v>0.345695</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.85371</v>
+        <v>0.545091</v>
       </c>
       <c r="C79" t="n">
-        <v>1.82011</v>
+        <v>0.578812</v>
       </c>
       <c r="D79" t="n">
-        <v>1.12905</v>
+        <v>0.359122</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.97976</v>
+        <v>0.573842</v>
       </c>
       <c r="C80" t="n">
-        <v>1.98026</v>
+        <v>0.619872</v>
       </c>
       <c r="D80" t="n">
-        <v>1.25718</v>
+        <v>0.375705</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.10337</v>
+        <v>0.6125890000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>2.10637</v>
+        <v>0.669858</v>
       </c>
       <c r="D81" t="n">
-        <v>1.33332</v>
+        <v>0.396701</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.2058</v>
+        <v>0.678741</v>
       </c>
       <c r="C82" t="n">
-        <v>2.30608</v>
+        <v>0.736437</v>
       </c>
       <c r="D82" t="n">
-        <v>1.41067</v>
+        <v>0.412424</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.40976</v>
+        <v>0.753405</v>
       </c>
       <c r="C83" t="n">
-        <v>1.69595</v>
+        <v>0.514343</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14316</v>
+        <v>0.305099</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.49383</v>
+        <v>0.801546</v>
       </c>
       <c r="C84" t="n">
-        <v>1.81611</v>
+        <v>0.564963</v>
       </c>
       <c r="D84" t="n">
-        <v>1.23818</v>
+        <v>0.322447</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.58037</v>
+        <v>0.885329</v>
       </c>
       <c r="C85" t="n">
-        <v>1.94988</v>
+        <v>0.601922</v>
       </c>
       <c r="D85" t="n">
-        <v>1.29656</v>
+        <v>0.330658</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.78499</v>
+        <v>0.976788</v>
       </c>
       <c r="C86" t="n">
-        <v>2.01943</v>
+        <v>0.655353</v>
       </c>
       <c r="D86" t="n">
-        <v>1.30237</v>
+        <v>0.349114</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>3.00191</v>
+        <v>1.07866</v>
       </c>
       <c r="C87" t="n">
-        <v>2.08993</v>
+        <v>0.703753</v>
       </c>
       <c r="D87" t="n">
-        <v>1.3727</v>
+        <v>0.364555</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>3.03049</v>
+        <v>1.17359</v>
       </c>
       <c r="C88" t="n">
-        <v>2.29624</v>
+        <v>0.7765339999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>1.46804</v>
+        <v>0.386387</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.1579</v>
+        <v>0.820367</v>
       </c>
       <c r="C89" t="n">
-        <v>2.32374</v>
+        <v>0.861451</v>
       </c>
       <c r="D89" t="n">
-        <v>1.52983</v>
+        <v>0.407501</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.28881</v>
+        <v>0.892952</v>
       </c>
       <c r="C90" t="n">
-        <v>2.50463</v>
+        <v>0.9482080000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>1.62033</v>
+        <v>0.441624</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.3766</v>
+        <v>0.967341</v>
       </c>
       <c r="C91" t="n">
-        <v>2.61868</v>
+        <v>1.03871</v>
       </c>
       <c r="D91" t="n">
-        <v>1.70296</v>
+        <v>0.480648</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.50397</v>
+        <v>1.05162</v>
       </c>
       <c r="C92" t="n">
-        <v>2.80885</v>
+        <v>1.14935</v>
       </c>
       <c r="D92" t="n">
-        <v>1.76771</v>
+        <v>0.522501</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.52302</v>
+        <v>1.13717</v>
       </c>
       <c r="C93" t="n">
-        <v>2.84707</v>
+        <v>1.25646</v>
       </c>
       <c r="D93" t="n">
-        <v>1.8384</v>
+        <v>0.562215</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.61602</v>
+        <v>1.23252</v>
       </c>
       <c r="C94" t="n">
-        <v>2.96672</v>
+        <v>1.37348</v>
       </c>
       <c r="D94" t="n">
-        <v>1.92913</v>
+        <v>0.621898</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.77989</v>
+        <v>1.33059</v>
       </c>
       <c r="C95" t="n">
-        <v>3.10233</v>
+        <v>1.48578</v>
       </c>
       <c r="D95" t="n">
-        <v>2.04293</v>
+        <v>0.675389</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.84728</v>
+        <v>1.41978</v>
       </c>
       <c r="C96" t="n">
-        <v>3.23901</v>
+        <v>1.62539</v>
       </c>
       <c r="D96" t="n">
-        <v>2.13605</v>
+        <v>0.751441</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.96384</v>
+        <v>1.53291</v>
       </c>
       <c r="C97" t="n">
-        <v>2.23527</v>
+        <v>0.976214</v>
       </c>
       <c r="D97" t="n">
-        <v>1.6807</v>
+        <v>0.539409</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.08419</v>
+        <v>1.64168</v>
       </c>
       <c r="C98" t="n">
-        <v>2.30183</v>
+        <v>1.04247</v>
       </c>
       <c r="D98" t="n">
-        <v>1.70258</v>
+        <v>0.584172</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.2522</v>
+        <v>1.76058</v>
       </c>
       <c r="C99" t="n">
-        <v>2.40103</v>
+        <v>1.10946</v>
       </c>
       <c r="D99" t="n">
-        <v>1.75858</v>
+        <v>0.62364</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.41339</v>
+        <v>1.88203</v>
       </c>
       <c r="C100" t="n">
-        <v>2.49129</v>
+        <v>1.19655</v>
       </c>
       <c r="D100" t="n">
-        <v>1.83368</v>
+        <v>0.67222</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.59158</v>
+        <v>2.00168</v>
       </c>
       <c r="C101" t="n">
-        <v>2.58842</v>
+        <v>1.26309</v>
       </c>
       <c r="D101" t="n">
-        <v>1.86952</v>
+        <v>0.712284</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.67923</v>
+        <v>2.15436</v>
       </c>
       <c r="C102" t="n">
-        <v>2.6549</v>
+        <v>1.35386</v>
       </c>
       <c r="D102" t="n">
-        <v>1.96518</v>
+        <v>0.76328</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.61564</v>
+        <v>1.43462</v>
       </c>
       <c r="C103" t="n">
-        <v>2.80918</v>
+        <v>1.43919</v>
       </c>
       <c r="D103" t="n">
-        <v>2.03565</v>
+        <v>0.810041</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.6847</v>
+        <v>1.50876</v>
       </c>
       <c r="C104" t="n">
-        <v>2.91653</v>
+        <v>1.53803</v>
       </c>
       <c r="D104" t="n">
-        <v>2.1319</v>
+        <v>0.854801</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.78652</v>
+        <v>1.59499</v>
       </c>
       <c r="C105" t="n">
-        <v>3.00365</v>
+        <v>1.63868</v>
       </c>
       <c r="D105" t="n">
-        <v>2.1745</v>
+        <v>0.909381</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.86402</v>
+        <v>1.67508</v>
       </c>
       <c r="C106" t="n">
-        <v>3.18828</v>
+        <v>1.73182</v>
       </c>
       <c r="D106" t="n">
-        <v>2.24615</v>
+        <v>0.965363</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.97986</v>
+        <v>1.7692</v>
       </c>
       <c r="C107" t="n">
-        <v>3.23527</v>
+        <v>1.84016</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30501</v>
+        <v>1.02157</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.10149</v>
+        <v>1.86635</v>
       </c>
       <c r="C108" t="n">
-        <v>3.37317</v>
+        <v>1.96521</v>
       </c>
       <c r="D108" t="n">
-        <v>2.40917</v>
+        <v>1.08019</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.16929</v>
+        <v>1.95149</v>
       </c>
       <c r="C109" t="n">
-        <v>3.52263</v>
+        <v>2.0965</v>
       </c>
       <c r="D109" t="n">
-        <v>2.48175</v>
+        <v>1.13802</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.30504</v>
+        <v>2.03548</v>
       </c>
       <c r="C110" t="n">
-        <v>3.57851</v>
+        <v>2.22115</v>
       </c>
       <c r="D110" t="n">
-        <v>2.57113</v>
+        <v>1.20566</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.39734</v>
+        <v>2.15051</v>
       </c>
       <c r="C111" t="n">
-        <v>2.61864</v>
+        <v>1.3853</v>
       </c>
       <c r="D111" t="n">
-        <v>2.07054</v>
+        <v>0.946308</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.60092</v>
+        <v>2.27115</v>
       </c>
       <c r="C112" t="n">
-        <v>2.74383</v>
+        <v>1.45362</v>
       </c>
       <c r="D112" t="n">
-        <v>2.0938</v>
+        <v>0.986918</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.67493</v>
+        <v>2.3732</v>
       </c>
       <c r="C113" t="n">
-        <v>2.78396</v>
+        <v>1.53516</v>
       </c>
       <c r="D113" t="n">
-        <v>2.15973</v>
+        <v>1.02717</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.79901</v>
+        <v>2.48446</v>
       </c>
       <c r="C114" t="n">
-        <v>2.90289</v>
+        <v>1.61049</v>
       </c>
       <c r="D114" t="n">
-        <v>2.15883</v>
+        <v>1.06804</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.94292</v>
+        <v>2.60367</v>
       </c>
       <c r="C115" t="n">
-        <v>2.99825</v>
+        <v>1.68158</v>
       </c>
       <c r="D115" t="n">
-        <v>2.3038</v>
+        <v>1.10699</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.12768</v>
+        <v>2.71697</v>
       </c>
       <c r="C116" t="n">
-        <v>3.08406</v>
+        <v>1.75926</v>
       </c>
       <c r="D116" t="n">
-        <v>2.35987</v>
+        <v>1.1503</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.01916</v>
+        <v>1.82764</v>
       </c>
       <c r="C117" t="n">
-        <v>3.21072</v>
+        <v>1.84785</v>
       </c>
       <c r="D117" t="n">
-        <v>2.47162</v>
+        <v>1.2048</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.08482</v>
+        <v>1.90612</v>
       </c>
       <c r="C118" t="n">
-        <v>3.35514</v>
+        <v>1.95834</v>
       </c>
       <c r="D118" t="n">
-        <v>2.53016</v>
+        <v>1.24819</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.20515</v>
+        <v>1.98288</v>
       </c>
       <c r="C119" t="n">
-        <v>3.50423</v>
+        <v>2.05265</v>
       </c>
       <c r="D119" t="n">
-        <v>2.57387</v>
+        <v>1.30012</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.135494</v>
+        <v>0.135628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.130419</v>
+        <v>0.131102</v>
       </c>
       <c r="D2" t="n">
-        <v>0.136304</v>
+        <v>0.136704</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.138561</v>
+        <v>0.139392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.132354</v>
+        <v>0.132724</v>
       </c>
       <c r="D3" t="n">
-        <v>0.138326</v>
+        <v>0.138262</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.14206</v>
+        <v>0.14207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.136107</v>
+        <v>0.136438</v>
       </c>
       <c r="D4" t="n">
-        <v>0.141912</v>
+        <v>0.141862</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.145212</v>
+        <v>0.146363</v>
       </c>
       <c r="C5" t="n">
-        <v>0.139262</v>
+        <v>0.13976</v>
       </c>
       <c r="D5" t="n">
-        <v>0.144961</v>
+        <v>0.14518</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.149212</v>
+        <v>0.150124</v>
       </c>
       <c r="C6" t="n">
-        <v>0.142078</v>
+        <v>0.142251</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14857</v>
+        <v>0.148912</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.154051</v>
+        <v>0.154179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.117706</v>
+        <v>0.11752</v>
       </c>
       <c r="D7" t="n">
-        <v>0.127126</v>
+        <v>0.126988</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.157809</v>
+        <v>0.158013</v>
       </c>
       <c r="C8" t="n">
-        <v>0.12014</v>
+        <v>0.120097</v>
       </c>
       <c r="D8" t="n">
-        <v>0.130164</v>
+        <v>0.129398</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.162061</v>
+        <v>0.162506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.123153</v>
+        <v>0.122922</v>
       </c>
       <c r="D9" t="n">
-        <v>0.133114</v>
+        <v>0.132861</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.16603</v>
+        <v>0.165887</v>
       </c>
       <c r="C10" t="n">
-        <v>0.125872</v>
+        <v>0.125869</v>
       </c>
       <c r="D10" t="n">
-        <v>0.136429</v>
+        <v>0.135596</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.170548</v>
+        <v>0.170868</v>
       </c>
       <c r="C11" t="n">
-        <v>0.128937</v>
+        <v>0.129116</v>
       </c>
       <c r="D11" t="n">
-        <v>0.138836</v>
+        <v>0.138256</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.175306</v>
+        <v>0.175049</v>
       </c>
       <c r="C12" t="n">
-        <v>0.132282</v>
+        <v>0.13223</v>
       </c>
       <c r="D12" t="n">
-        <v>0.141838</v>
+        <v>0.141516</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.149855</v>
+        <v>0.150034</v>
       </c>
       <c r="C13" t="n">
-        <v>0.13535</v>
+        <v>0.135654</v>
       </c>
       <c r="D13" t="n">
-        <v>0.145282</v>
+        <v>0.144561</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.153185</v>
+        <v>0.153294</v>
       </c>
       <c r="C14" t="n">
-        <v>0.138273</v>
+        <v>0.138359</v>
       </c>
       <c r="D14" t="n">
-        <v>0.148605</v>
+        <v>0.14809</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.156107</v>
+        <v>0.156147</v>
       </c>
       <c r="C15" t="n">
-        <v>0.141948</v>
+        <v>0.142218</v>
       </c>
       <c r="D15" t="n">
-        <v>0.152435</v>
+        <v>0.152052</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.158901</v>
+        <v>0.158709</v>
       </c>
       <c r="C16" t="n">
-        <v>0.145398</v>
+        <v>0.145343</v>
       </c>
       <c r="D16" t="n">
-        <v>0.155343</v>
+        <v>0.154575</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.162378</v>
+        <v>0.162429</v>
       </c>
       <c r="C17" t="n">
-        <v>0.148884</v>
+        <v>0.148946</v>
       </c>
       <c r="D17" t="n">
-        <v>0.158898</v>
+        <v>0.158031</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.165275</v>
+        <v>0.165353</v>
       </c>
       <c r="C18" t="n">
-        <v>0.151874</v>
+        <v>0.15218</v>
       </c>
       <c r="D18" t="n">
-        <v>0.161922</v>
+        <v>0.161346</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.169574</v>
+        <v>0.169682</v>
       </c>
       <c r="C19" t="n">
-        <v>0.155178</v>
+        <v>0.15508</v>
       </c>
       <c r="D19" t="n">
-        <v>0.165601</v>
+        <v>0.165552</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.173351</v>
+        <v>0.173189</v>
       </c>
       <c r="C20" t="n">
-        <v>0.158465</v>
+        <v>0.158457</v>
       </c>
       <c r="D20" t="n">
-        <v>0.169028</v>
+        <v>0.168432</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.176911</v>
+        <v>0.176936</v>
       </c>
       <c r="C21" t="n">
-        <v>0.132048</v>
+        <v>0.132107</v>
       </c>
       <c r="D21" t="n">
-        <v>0.142116</v>
+        <v>0.142804</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.180375</v>
+        <v>0.18034</v>
       </c>
       <c r="C22" t="n">
-        <v>0.134924</v>
+        <v>0.134991</v>
       </c>
       <c r="D22" t="n">
-        <v>0.145963</v>
+        <v>0.145649</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.183994</v>
+        <v>0.184281</v>
       </c>
       <c r="C23" t="n">
-        <v>0.137654</v>
+        <v>0.13748</v>
       </c>
       <c r="D23" t="n">
-        <v>0.148647</v>
+        <v>0.148001</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.187825</v>
+        <v>0.187566</v>
       </c>
       <c r="C24" t="n">
-        <v>0.140386</v>
+        <v>0.140215</v>
       </c>
       <c r="D24" t="n">
-        <v>0.151506</v>
+        <v>0.151583</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.190658</v>
+        <v>0.190922</v>
       </c>
       <c r="C25" t="n">
-        <v>0.142941</v>
+        <v>0.142949</v>
       </c>
       <c r="D25" t="n">
-        <v>0.153364</v>
+        <v>0.153572</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.193747</v>
+        <v>0.19417</v>
       </c>
       <c r="C26" t="n">
-        <v>0.146153</v>
+        <v>0.146336</v>
       </c>
       <c r="D26" t="n">
-        <v>0.157337</v>
+        <v>0.156527</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.159503</v>
+        <v>0.158625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.149444</v>
+        <v>0.149439</v>
       </c>
       <c r="D27" t="n">
-        <v>0.160827</v>
+        <v>0.159943</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.161958</v>
+        <v>0.161634</v>
       </c>
       <c r="C28" t="n">
-        <v>0.153227</v>
+        <v>0.153398</v>
       </c>
       <c r="D28" t="n">
-        <v>0.164517</v>
+        <v>0.163695</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.166353</v>
+        <v>0.164449</v>
       </c>
       <c r="C29" t="n">
-        <v>0.156885</v>
+        <v>0.156897</v>
       </c>
       <c r="D29" t="n">
-        <v>0.168337</v>
+        <v>0.167629</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.169214</v>
+        <v>0.167981</v>
       </c>
       <c r="C30" t="n">
-        <v>0.159755</v>
+        <v>0.160091</v>
       </c>
       <c r="D30" t="n">
-        <v>0.171302</v>
+        <v>0.170955</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.172925</v>
+        <v>0.170566</v>
       </c>
       <c r="C31" t="n">
-        <v>0.163565</v>
+        <v>0.16376</v>
       </c>
       <c r="D31" t="n">
-        <v>0.175271</v>
+        <v>0.175369</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.174129</v>
+        <v>0.174245</v>
       </c>
       <c r="C32" t="n">
-        <v>0.166922</v>
+        <v>0.167147</v>
       </c>
       <c r="D32" t="n">
-        <v>0.178406</v>
+        <v>0.177462</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.179707</v>
+        <v>0.177564</v>
       </c>
       <c r="C33" t="n">
-        <v>0.170638</v>
+        <v>0.170685</v>
       </c>
       <c r="D33" t="n">
-        <v>0.182373</v>
+        <v>0.18206</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.182598</v>
+        <v>0.181464</v>
       </c>
       <c r="C34" t="n">
-        <v>0.173529</v>
+        <v>0.173845</v>
       </c>
       <c r="D34" t="n">
-        <v>0.18574</v>
+        <v>0.18518</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.184526</v>
+        <v>0.185068</v>
       </c>
       <c r="C35" t="n">
-        <v>0.139175</v>
+        <v>0.139048</v>
       </c>
       <c r="D35" t="n">
-        <v>0.151535</v>
+        <v>0.151441</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.18789</v>
+        <v>0.187517</v>
       </c>
       <c r="C36" t="n">
-        <v>0.141579</v>
+        <v>0.141486</v>
       </c>
       <c r="D36" t="n">
-        <v>0.15418</v>
+        <v>0.153887</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.190468</v>
+        <v>0.190505</v>
       </c>
       <c r="C37" t="n">
-        <v>0.144034</v>
+        <v>0.144035</v>
       </c>
       <c r="D37" t="n">
-        <v>0.156582</v>
+        <v>0.156623</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.194242</v>
+        <v>0.193955</v>
       </c>
       <c r="C38" t="n">
-        <v>0.147319</v>
+        <v>0.147193</v>
       </c>
       <c r="D38" t="n">
-        <v>0.160018</v>
+        <v>0.159345</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.197267</v>
+        <v>0.197647</v>
       </c>
       <c r="C39" t="n">
-        <v>0.149941</v>
+        <v>0.149906</v>
       </c>
       <c r="D39" t="n">
-        <v>0.162694</v>
+        <v>0.162314</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.202267</v>
+        <v>0.200829</v>
       </c>
       <c r="C40" t="n">
-        <v>0.153177</v>
+        <v>0.153245</v>
       </c>
       <c r="D40" t="n">
-        <v>0.166345</v>
+        <v>0.166209</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.16537</v>
+        <v>0.164676</v>
       </c>
       <c r="C41" t="n">
-        <v>0.156349</v>
+        <v>0.15669</v>
       </c>
       <c r="D41" t="n">
-        <v>0.169781</v>
+        <v>0.169218</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167254</v>
+        <v>0.167563</v>
       </c>
       <c r="C42" t="n">
-        <v>0.159569</v>
+        <v>0.159507</v>
       </c>
       <c r="D42" t="n">
-        <v>0.172902</v>
+        <v>0.172635</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.170393</v>
+        <v>0.170438</v>
       </c>
       <c r="C43" t="n">
-        <v>0.162944</v>
+        <v>0.162854</v>
       </c>
       <c r="D43" t="n">
-        <v>0.176658</v>
+        <v>0.176003</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.173587</v>
+        <v>0.173349</v>
       </c>
       <c r="C44" t="n">
-        <v>0.166566</v>
+        <v>0.166754</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180045</v>
+        <v>0.180042</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.176108</v>
+        <v>0.176221</v>
       </c>
       <c r="C45" t="n">
-        <v>0.170382</v>
+        <v>0.170445</v>
       </c>
       <c r="D45" t="n">
-        <v>0.183375</v>
+        <v>0.183582</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.179085</v>
+        <v>0.179132</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173713</v>
+        <v>0.173752</v>
       </c>
       <c r="D46" t="n">
-        <v>0.187308</v>
+        <v>0.187279</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.182134</v>
+        <v>0.181973</v>
       </c>
       <c r="C47" t="n">
-        <v>0.177385</v>
+        <v>0.177438</v>
       </c>
       <c r="D47" t="n">
-        <v>0.190191</v>
+        <v>0.190218</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.185256</v>
+        <v>0.185225</v>
       </c>
       <c r="C48" t="n">
-        <v>0.180657</v>
+        <v>0.180606</v>
       </c>
       <c r="D48" t="n">
-        <v>0.194291</v>
+        <v>0.193947</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188627</v>
+        <v>0.188688</v>
       </c>
       <c r="C49" t="n">
-        <v>0.183617</v>
+        <v>0.18381</v>
       </c>
       <c r="D49" t="n">
-        <v>0.196628</v>
+        <v>0.197477</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.191705</v>
+        <v>0.191754</v>
       </c>
       <c r="C50" t="n">
-        <v>0.143726</v>
+        <v>0.144055</v>
       </c>
       <c r="D50" t="n">
-        <v>0.150679</v>
+        <v>0.150982</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.195033</v>
+        <v>0.195037</v>
       </c>
       <c r="C51" t="n">
-        <v>0.146532</v>
+        <v>0.14647</v>
       </c>
       <c r="D51" t="n">
-        <v>0.153954</v>
+        <v>0.153858</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.198264</v>
+        <v>0.198171</v>
       </c>
       <c r="C52" t="n">
-        <v>0.149164</v>
+        <v>0.149759</v>
       </c>
       <c r="D52" t="n">
-        <v>0.156409</v>
+        <v>0.155792</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.201705</v>
+        <v>0.201425</v>
       </c>
       <c r="C53" t="n">
-        <v>0.151896</v>
+        <v>0.15195</v>
       </c>
       <c r="D53" t="n">
-        <v>0.159247</v>
+        <v>0.158647</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.204734</v>
+        <v>0.204745</v>
       </c>
       <c r="C54" t="n">
-        <v>0.155141</v>
+        <v>0.155253</v>
       </c>
       <c r="D54" t="n">
-        <v>0.162184</v>
+        <v>0.162834</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.207687</v>
+        <v>0.208105</v>
       </c>
       <c r="C55" t="n">
-        <v>0.158318</v>
+        <v>0.158296</v>
       </c>
       <c r="D55" t="n">
-        <v>0.166035</v>
+        <v>0.165425</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.169528</v>
+        <v>0.169704</v>
       </c>
       <c r="C56" t="n">
-        <v>0.161511</v>
+        <v>0.161677</v>
       </c>
       <c r="D56" t="n">
-        <v>0.169184</v>
+        <v>0.168495</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.172345</v>
+        <v>0.172368</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165069</v>
+        <v>0.164909</v>
       </c>
       <c r="D57" t="n">
-        <v>0.172338</v>
+        <v>0.172907</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.174891</v>
+        <v>0.175024</v>
       </c>
       <c r="C58" t="n">
-        <v>0.168274</v>
+        <v>0.168536</v>
       </c>
       <c r="D58" t="n">
-        <v>0.17639</v>
+        <v>0.175968</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177796</v>
+        <v>0.17798</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172137</v>
+        <v>0.172293</v>
       </c>
       <c r="D59" t="n">
-        <v>0.180039</v>
+        <v>0.179614</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.180919</v>
+        <v>0.180994</v>
       </c>
       <c r="C60" t="n">
-        <v>0.175888</v>
+        <v>0.17614</v>
       </c>
       <c r="D60" t="n">
-        <v>0.184123</v>
+        <v>0.183941</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184123</v>
+        <v>0.183801</v>
       </c>
       <c r="C61" t="n">
-        <v>0.179832</v>
+        <v>0.179585</v>
       </c>
       <c r="D61" t="n">
-        <v>0.188601</v>
+        <v>0.187525</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.187447</v>
+        <v>0.187751</v>
       </c>
       <c r="C62" t="n">
-        <v>0.184086</v>
+        <v>0.183002</v>
       </c>
       <c r="D62" t="n">
-        <v>0.191022</v>
+        <v>0.19027</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190802</v>
+        <v>0.191026</v>
       </c>
       <c r="C63" t="n">
-        <v>0.186812</v>
+        <v>0.186894</v>
       </c>
       <c r="D63" t="n">
-        <v>0.195441</v>
+        <v>0.194505</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.19531</v>
+        <v>0.194621</v>
       </c>
       <c r="C64" t="n">
-        <v>0.148155</v>
+        <v>0.14792</v>
       </c>
       <c r="D64" t="n">
-        <v>0.154232</v>
+        <v>0.154103</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.198309</v>
+        <v>0.198363</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150904</v>
+        <v>0.151162</v>
       </c>
       <c r="D65" t="n">
-        <v>0.157851</v>
+        <v>0.156759</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.202733</v>
+        <v>0.202304</v>
       </c>
       <c r="C66" t="n">
-        <v>0.15504</v>
+        <v>0.154152</v>
       </c>
       <c r="D66" t="n">
-        <v>0.160858</v>
+        <v>0.161076</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.207386</v>
+        <v>0.206864</v>
       </c>
       <c r="C67" t="n">
-        <v>0.159005</v>
+        <v>0.158721</v>
       </c>
       <c r="D67" t="n">
-        <v>0.165723</v>
+        <v>0.164383</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.211372</v>
+        <v>0.211485</v>
       </c>
       <c r="C68" t="n">
-        <v>0.162838</v>
+        <v>0.162618</v>
       </c>
       <c r="D68" t="n">
-        <v>0.168574</v>
+        <v>0.170059</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.216343</v>
+        <v>0.21603</v>
       </c>
       <c r="C69" t="n">
-        <v>0.167266</v>
+        <v>0.16711</v>
       </c>
       <c r="D69" t="n">
-        <v>0.173555</v>
+        <v>0.172625</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.212704</v>
+        <v>0.206237</v>
       </c>
       <c r="C70" t="n">
-        <v>0.171366</v>
+        <v>0.171363</v>
       </c>
       <c r="D70" t="n">
-        <v>0.17754</v>
+        <v>0.177804</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.222139</v>
+        <v>0.216544</v>
       </c>
       <c r="C71" t="n">
-        <v>0.175839</v>
+        <v>0.176013</v>
       </c>
       <c r="D71" t="n">
-        <v>0.182406</v>
+        <v>0.182349</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.236053</v>
+        <v>0.232039</v>
       </c>
       <c r="C72" t="n">
-        <v>0.180723</v>
+        <v>0.18019</v>
       </c>
       <c r="D72" t="n">
-        <v>0.187144</v>
+        <v>0.186529</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2492</v>
+        <v>0.25061</v>
       </c>
       <c r="C73" t="n">
-        <v>0.184918</v>
+        <v>0.185158</v>
       </c>
       <c r="D73" t="n">
-        <v>0.19197</v>
+        <v>0.19097</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.264786</v>
+        <v>0.26184</v>
       </c>
       <c r="C74" t="n">
-        <v>0.189989</v>
+        <v>0.189963</v>
       </c>
       <c r="D74" t="n">
-        <v>0.195735</v>
+        <v>0.195683</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278065</v>
+        <v>0.276408</v>
       </c>
       <c r="C75" t="n">
-        <v>0.195219</v>
+        <v>0.195515</v>
       </c>
       <c r="D75" t="n">
-        <v>0.199729</v>
+        <v>0.200032</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.290203</v>
+        <v>0.291342</v>
       </c>
       <c r="C76" t="n">
-        <v>0.198945</v>
+        <v>0.199451</v>
       </c>
       <c r="D76" t="n">
-        <v>0.206271</v>
+        <v>0.205441</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.302586</v>
+        <v>0.303493</v>
       </c>
       <c r="C77" t="n">
-        <v>0.207618</v>
+        <v>0.206542</v>
       </c>
       <c r="D77" t="n">
-        <v>0.212133</v>
+        <v>0.212556</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.317821</v>
+        <v>0.315227</v>
       </c>
       <c r="C78" t="n">
-        <v>0.225423</v>
+        <v>0.227093</v>
       </c>
       <c r="D78" t="n">
-        <v>0.23136</v>
+        <v>0.229515</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.332313</v>
+        <v>0.330072</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242787</v>
+        <v>0.240106</v>
       </c>
       <c r="D79" t="n">
-        <v>0.241903</v>
+        <v>0.242392</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.345841</v>
+        <v>0.344346</v>
       </c>
       <c r="C80" t="n">
-        <v>0.256391</v>
+        <v>0.255658</v>
       </c>
       <c r="D80" t="n">
-        <v>0.253713</v>
+        <v>0.256764</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358385</v>
+        <v>0.35759</v>
       </c>
       <c r="C81" t="n">
-        <v>0.264762</v>
+        <v>0.268575</v>
       </c>
       <c r="D81" t="n">
-        <v>0.26537</v>
+        <v>0.270507</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.370749</v>
+        <v>0.371718</v>
       </c>
       <c r="C82" t="n">
-        <v>0.280931</v>
+        <v>0.278016</v>
       </c>
       <c r="D82" t="n">
-        <v>0.281235</v>
+        <v>0.279434</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.389217</v>
+        <v>0.388373</v>
       </c>
       <c r="C83" t="n">
-        <v>0.292266</v>
+        <v>0.293</v>
       </c>
       <c r="D83" t="n">
-        <v>0.294087</v>
+        <v>0.292615</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.43898</v>
+        <v>0.438405</v>
       </c>
       <c r="C84" t="n">
-        <v>0.304841</v>
+        <v>0.304795</v>
       </c>
       <c r="D84" t="n">
-        <v>0.304124</v>
+        <v>0.306386</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.447952</v>
+        <v>0.448786</v>
       </c>
       <c r="C85" t="n">
-        <v>0.316911</v>
+        <v>0.316705</v>
       </c>
       <c r="D85" t="n">
-        <v>0.31748</v>
+        <v>0.319257</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.459254</v>
+        <v>0.460489</v>
       </c>
       <c r="C86" t="n">
-        <v>0.329211</v>
+        <v>0.32916</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330603</v>
+        <v>0.329788</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.467434</v>
+        <v>0.468334</v>
       </c>
       <c r="C87" t="n">
-        <v>0.339724</v>
+        <v>0.34014</v>
       </c>
       <c r="D87" t="n">
-        <v>0.342593</v>
+        <v>0.344186</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.47912</v>
+        <v>0.478145</v>
       </c>
       <c r="C88" t="n">
-        <v>0.35316</v>
+        <v>0.35189</v>
       </c>
       <c r="D88" t="n">
-        <v>0.352853</v>
+        <v>0.353367</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.487651</v>
+        <v>0.488809</v>
       </c>
       <c r="C89" t="n">
-        <v>0.361625</v>
+        <v>0.364765</v>
       </c>
       <c r="D89" t="n">
-        <v>0.36531</v>
+        <v>0.365952</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.496626</v>
+        <v>0.499099</v>
       </c>
       <c r="C90" t="n">
-        <v>0.37592</v>
+        <v>0.375798</v>
       </c>
       <c r="D90" t="n">
-        <v>0.377628</v>
+        <v>0.37747</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.507516</v>
+        <v>0.509417</v>
       </c>
       <c r="C91" t="n">
-        <v>0.387168</v>
+        <v>0.388861</v>
       </c>
       <c r="D91" t="n">
-        <v>0.392133</v>
+        <v>0.393061</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.520342</v>
+        <v>0.521469</v>
       </c>
       <c r="C92" t="n">
-        <v>0.429219</v>
+        <v>0.429722</v>
       </c>
       <c r="D92" t="n">
-        <v>0.42872</v>
+        <v>0.428323</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.532238</v>
+        <v>0.532206</v>
       </c>
       <c r="C93" t="n">
-        <v>0.436201</v>
+        <v>0.438049</v>
       </c>
       <c r="D93" t="n">
-        <v>0.435981</v>
+        <v>0.43687</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.54417</v>
+        <v>0.5451549999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.443917</v>
+        <v>0.446232</v>
       </c>
       <c r="D94" t="n">
-        <v>0.444859</v>
+        <v>0.445019</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.556431</v>
+        <v>0.557077</v>
       </c>
       <c r="C95" t="n">
-        <v>0.454246</v>
+        <v>0.45475</v>
       </c>
       <c r="D95" t="n">
-        <v>0.455282</v>
+        <v>0.454692</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.570796</v>
+        <v>0.572553</v>
       </c>
       <c r="C96" t="n">
-        <v>0.462618</v>
+        <v>0.460883</v>
       </c>
       <c r="D96" t="n">
-        <v>0.46375</v>
+        <v>0.463181</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.584883</v>
+        <v>0.586084</v>
       </c>
       <c r="C97" t="n">
-        <v>0.469485</v>
+        <v>0.470298</v>
       </c>
       <c r="D97" t="n">
-        <v>0.472567</v>
+        <v>0.47096</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.550926</v>
+        <v>0.5489039999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.479339</v>
+        <v>0.479916</v>
       </c>
       <c r="D98" t="n">
-        <v>0.481577</v>
+        <v>0.481592</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5579769999999999</v>
+        <v>0.556148</v>
       </c>
       <c r="C99" t="n">
-        <v>0.487669</v>
+        <v>0.488226</v>
       </c>
       <c r="D99" t="n">
-        <v>0.491113</v>
+        <v>0.491123</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.566936</v>
+        <v>0.566244</v>
       </c>
       <c r="C100" t="n">
-        <v>0.499325</v>
+        <v>0.499384</v>
       </c>
       <c r="D100" t="n">
-        <v>0.500136</v>
+        <v>0.501991</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.575573</v>
+        <v>0.574999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.510665</v>
+        <v>0.509776</v>
       </c>
       <c r="D101" t="n">
-        <v>0.512058</v>
+        <v>0.5123490000000001</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.584134</v>
+        <v>0.584248</v>
       </c>
       <c r="C102" t="n">
-        <v>0.520537</v>
+        <v>0.5215649999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.52584</v>
+        <v>0.524517</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.596619</v>
+        <v>0.595828</v>
       </c>
       <c r="C103" t="n">
-        <v>0.534364</v>
+        <v>0.533871</v>
       </c>
       <c r="D103" t="n">
-        <v>0.537888</v>
+        <v>0.536964</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.608197</v>
+        <v>0.603931</v>
       </c>
       <c r="C104" t="n">
-        <v>0.546397</v>
+        <v>0.544818</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5516219999999999</v>
+        <v>0.550759</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.618892</v>
+        <v>0.616414</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5577530000000001</v>
+        <v>0.5601</v>
       </c>
       <c r="D105" t="n">
-        <v>0.56393</v>
+        <v>0.564573</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.62953</v>
+        <v>0.627328</v>
       </c>
       <c r="C106" t="n">
-        <v>0.573526</v>
+        <v>0.573505</v>
       </c>
       <c r="D106" t="n">
-        <v>0.578238</v>
+        <v>0.577488</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6413219999999999</v>
+        <v>0.637284</v>
       </c>
       <c r="C107" t="n">
-        <v>0.538805</v>
+        <v>0.541362</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5431</v>
+        <v>0.544621</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.650641</v>
+        <v>0.649999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5484329999999999</v>
+        <v>0.548188</v>
       </c>
       <c r="D108" t="n">
-        <v>0.552682</v>
+        <v>0.553241</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.666703</v>
+        <v>0.66343</v>
       </c>
       <c r="C109" t="n">
-        <v>0.55749</v>
+        <v>0.556794</v>
       </c>
       <c r="D109" t="n">
-        <v>0.560914</v>
+        <v>0.561284</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.679084</v>
+        <v>0.677728</v>
       </c>
       <c r="C110" t="n">
-        <v>0.565598</v>
+        <v>0.564933</v>
       </c>
       <c r="D110" t="n">
-        <v>0.56692</v>
+        <v>0.569448</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.693374</v>
+        <v>0.6932120000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.574969</v>
+        <v>0.572962</v>
       </c>
       <c r="D111" t="n">
-        <v>0.577939</v>
+        <v>0.578528</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6138749999999999</v>
+        <v>0.613401</v>
       </c>
       <c r="C112" t="n">
-        <v>0.585136</v>
+        <v>0.58155</v>
       </c>
       <c r="D112" t="n">
-        <v>0.587856</v>
+        <v>0.587089</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.620375</v>
+        <v>0.621858</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5946</v>
+        <v>0.59288</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5995200000000001</v>
+        <v>0.598584</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.631417</v>
+        <v>0.630484</v>
       </c>
       <c r="C114" t="n">
-        <v>0.605935</v>
+        <v>0.6049330000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.607797</v>
+        <v>0.610221</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.640371</v>
+        <v>0.63815</v>
       </c>
       <c r="C115" t="n">
-        <v>0.613877</v>
+        <v>0.61688</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6185079999999999</v>
+        <v>0.620551</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.648512</v>
+        <v>0.64817</v>
       </c>
       <c r="C116" t="n">
-        <v>0.628159</v>
+        <v>0.628815</v>
       </c>
       <c r="D116" t="n">
-        <v>0.632576</v>
+        <v>0.631475</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.656872</v>
+        <v>0.658731</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6409319999999999</v>
+        <v>0.640002</v>
       </c>
       <c r="D117" t="n">
-        <v>0.643914</v>
+        <v>0.644916</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.666374</v>
+        <v>0.667702</v>
       </c>
       <c r="C118" t="n">
-        <v>0.653033</v>
+        <v>0.6533870000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.657085</v>
+        <v>0.658419</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.679963</v>
+        <v>0.6777030000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.663281</v>
+        <v>0.664731</v>
       </c>
       <c r="D119" t="n">
-        <v>0.671425</v>
+        <v>0.670444</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.14123</v>
+        <v>0.141038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.114178</v>
+        <v>0.113696</v>
       </c>
       <c r="D2" t="n">
-        <v>0.114217</v>
+        <v>0.114096</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.14041</v>
+        <v>0.139831</v>
       </c>
       <c r="C3" t="n">
-        <v>0.117538</v>
+        <v>0.117064</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114593</v>
+        <v>0.11434</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.140528</v>
+        <v>0.139941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.119795</v>
+        <v>0.119036</v>
       </c>
       <c r="D4" t="n">
-        <v>0.116967</v>
+        <v>0.116643</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.144281</v>
+        <v>0.144626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.121723</v>
+        <v>0.121292</v>
       </c>
       <c r="D5" t="n">
-        <v>0.117267</v>
+        <v>0.117089</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.145348</v>
+        <v>0.14442</v>
       </c>
       <c r="C6" t="n">
-        <v>0.124977</v>
+        <v>0.125057</v>
       </c>
       <c r="D6" t="n">
-        <v>0.119723</v>
+        <v>0.119382</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.147095</v>
+        <v>0.147268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.113827</v>
+        <v>0.113247</v>
       </c>
       <c r="D7" t="n">
-        <v>0.117353</v>
+        <v>0.117177</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.147388</v>
+        <v>0.147642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116119</v>
+        <v>0.115927</v>
       </c>
       <c r="D8" t="n">
-        <v>0.119795</v>
+        <v>0.119129</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150852</v>
+        <v>0.150861</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119447</v>
+        <v>0.119157</v>
       </c>
       <c r="D9" t="n">
-        <v>0.120203</v>
+        <v>0.120429</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.154653</v>
+        <v>0.155546</v>
       </c>
       <c r="C10" t="n">
-        <v>0.120047</v>
+        <v>0.119832</v>
       </c>
       <c r="D10" t="n">
-        <v>0.120968</v>
+        <v>0.120635</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.15385</v>
+        <v>0.153691</v>
       </c>
       <c r="C11" t="n">
-        <v>0.119527</v>
+        <v>0.118896</v>
       </c>
       <c r="D11" t="n">
-        <v>0.12011</v>
+        <v>0.1199</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.160374</v>
+        <v>0.160397</v>
       </c>
       <c r="C12" t="n">
-        <v>0.124383</v>
+        <v>0.124665</v>
       </c>
       <c r="D12" t="n">
-        <v>0.122167</v>
+        <v>0.122169</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.145462</v>
+        <v>0.145368</v>
       </c>
       <c r="C13" t="n">
-        <v>0.123724</v>
+        <v>0.124585</v>
       </c>
       <c r="D13" t="n">
-        <v>0.123669</v>
+        <v>0.123104</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.14843</v>
+        <v>0.14849</v>
       </c>
       <c r="C14" t="n">
-        <v>0.125607</v>
+        <v>0.12569</v>
       </c>
       <c r="D14" t="n">
-        <v>0.123167</v>
+        <v>0.123493</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.150269</v>
+        <v>0.150118</v>
       </c>
       <c r="C15" t="n">
-        <v>0.128135</v>
+        <v>0.127167</v>
       </c>
       <c r="D15" t="n">
-        <v>0.12474</v>
+        <v>0.124582</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.154868</v>
+        <v>0.154387</v>
       </c>
       <c r="C16" t="n">
-        <v>0.131966</v>
+        <v>0.131763</v>
       </c>
       <c r="D16" t="n">
-        <v>0.125571</v>
+        <v>0.125951</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.15862</v>
+        <v>0.159284</v>
       </c>
       <c r="C17" t="n">
-        <v>0.133306</v>
+        <v>0.133691</v>
       </c>
       <c r="D17" t="n">
-        <v>0.127467</v>
+        <v>0.127741</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.160544</v>
+        <v>0.161033</v>
       </c>
       <c r="C18" t="n">
-        <v>0.139455</v>
+        <v>0.140045</v>
       </c>
       <c r="D18" t="n">
-        <v>0.128962</v>
+        <v>0.129341</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164167</v>
+        <v>0.164475</v>
       </c>
       <c r="C19" t="n">
-        <v>0.141485</v>
+        <v>0.141565</v>
       </c>
       <c r="D19" t="n">
-        <v>0.131665</v>
+        <v>0.131409</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.169884</v>
+        <v>0.169414</v>
       </c>
       <c r="C20" t="n">
-        <v>0.147134</v>
+        <v>0.146671</v>
       </c>
       <c r="D20" t="n">
-        <v>0.132605</v>
+        <v>0.132928</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.171193</v>
+        <v>0.171372</v>
       </c>
       <c r="C21" t="n">
-        <v>0.137449</v>
+        <v>0.137111</v>
       </c>
       <c r="D21" t="n">
-        <v>0.132897</v>
+        <v>0.133126</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.176101</v>
+        <v>0.175677</v>
       </c>
       <c r="C22" t="n">
-        <v>0.140752</v>
+        <v>0.140627</v>
       </c>
       <c r="D22" t="n">
-        <v>0.135148</v>
+        <v>0.134737</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.179465</v>
+        <v>0.180209</v>
       </c>
       <c r="C23" t="n">
-        <v>0.142268</v>
+        <v>0.143306</v>
       </c>
       <c r="D23" t="n">
-        <v>0.136029</v>
+        <v>0.136211</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.182926</v>
+        <v>0.183525</v>
       </c>
       <c r="C24" t="n">
-        <v>0.149258</v>
+        <v>0.14935</v>
       </c>
       <c r="D24" t="n">
-        <v>0.139652</v>
+        <v>0.139752</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.189169</v>
+        <v>0.189588</v>
       </c>
       <c r="C25" t="n">
-        <v>0.156229</v>
+        <v>0.155905</v>
       </c>
       <c r="D25" t="n">
-        <v>0.142365</v>
+        <v>0.142324</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.195926</v>
+        <v>0.196739</v>
       </c>
       <c r="C26" t="n">
-        <v>0.156088</v>
+        <v>0.155758</v>
       </c>
       <c r="D26" t="n">
-        <v>0.143937</v>
+        <v>0.14434</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.166234</v>
+        <v>0.166993</v>
       </c>
       <c r="C27" t="n">
-        <v>0.162565</v>
+        <v>0.162398</v>
       </c>
       <c r="D27" t="n">
-        <v>0.146445</v>
+        <v>0.146483</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.169443</v>
+        <v>0.170101</v>
       </c>
       <c r="C28" t="n">
-        <v>0.163779</v>
+        <v>0.163316</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147595</v>
+        <v>0.14808</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.174021</v>
+        <v>0.173625</v>
       </c>
       <c r="C29" t="n">
-        <v>0.168107</v>
+        <v>0.168</v>
       </c>
       <c r="D29" t="n">
-        <v>0.150246</v>
+        <v>0.150453</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.178177</v>
+        <v>0.177461</v>
       </c>
       <c r="C30" t="n">
-        <v>0.176517</v>
+        <v>0.176607</v>
       </c>
       <c r="D30" t="n">
-        <v>0.153684</v>
+        <v>0.15369</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.180545</v>
+        <v>0.179668</v>
       </c>
       <c r="C31" t="n">
-        <v>0.174772</v>
+        <v>0.173546</v>
       </c>
       <c r="D31" t="n">
-        <v>0.155134</v>
+        <v>0.154817</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.18416</v>
+        <v>0.183324</v>
       </c>
       <c r="C32" t="n">
-        <v>0.181096</v>
+        <v>0.181016</v>
       </c>
       <c r="D32" t="n">
-        <v>0.158202</v>
+        <v>0.158229</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.18929</v>
+        <v>0.187866</v>
       </c>
       <c r="C33" t="n">
-        <v>0.188279</v>
+        <v>0.188632</v>
       </c>
       <c r="D33" t="n">
-        <v>0.160971</v>
+        <v>0.161019</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.188308</v>
+        <v>0.1896</v>
       </c>
       <c r="C34" t="n">
-        <v>0.190872</v>
+        <v>0.190803</v>
       </c>
       <c r="D34" t="n">
-        <v>0.163498</v>
+        <v>0.163704</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193303</v>
+        <v>0.19276</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1503</v>
+        <v>0.150089</v>
       </c>
       <c r="D35" t="n">
-        <v>0.149438</v>
+        <v>0.149264</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.196336</v>
+        <v>0.195636</v>
       </c>
       <c r="C36" t="n">
-        <v>0.153937</v>
+        <v>0.153822</v>
       </c>
       <c r="D36" t="n">
-        <v>0.150583</v>
+        <v>0.150387</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.201058</v>
+        <v>0.199685</v>
       </c>
       <c r="C37" t="n">
-        <v>0.157193</v>
+        <v>0.156957</v>
       </c>
       <c r="D37" t="n">
-        <v>0.152349</v>
+        <v>0.152243</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.205633</v>
+        <v>0.206364</v>
       </c>
       <c r="C38" t="n">
-        <v>0.159306</v>
+        <v>0.158948</v>
       </c>
       <c r="D38" t="n">
-        <v>0.15385</v>
+        <v>0.15408</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.210126</v>
+        <v>0.209692</v>
       </c>
       <c r="C39" t="n">
-        <v>0.162224</v>
+        <v>0.163311</v>
       </c>
       <c r="D39" t="n">
-        <v>0.15662</v>
+        <v>0.156652</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.215214</v>
+        <v>0.2148</v>
       </c>
       <c r="C40" t="n">
-        <v>0.16497</v>
+        <v>0.165761</v>
       </c>
       <c r="D40" t="n">
-        <v>0.157522</v>
+        <v>0.15771</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.183068</v>
+        <v>0.183004</v>
       </c>
       <c r="C41" t="n">
-        <v>0.167695</v>
+        <v>0.168005</v>
       </c>
       <c r="D41" t="n">
-        <v>0.158645</v>
+        <v>0.158595</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.186036</v>
+        <v>0.186264</v>
       </c>
       <c r="C42" t="n">
-        <v>0.169288</v>
+        <v>0.169277</v>
       </c>
       <c r="D42" t="n">
-        <v>0.160009</v>
+        <v>0.160191</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1889</v>
+        <v>0.188977</v>
       </c>
       <c r="C43" t="n">
-        <v>0.171437</v>
+        <v>0.172132</v>
       </c>
       <c r="D43" t="n">
-        <v>0.161694</v>
+        <v>0.161684</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.191775</v>
+        <v>0.191488</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175476</v>
+        <v>0.175835</v>
       </c>
       <c r="D44" t="n">
-        <v>0.162951</v>
+        <v>0.163173</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.194867</v>
+        <v>0.194818</v>
       </c>
       <c r="C45" t="n">
-        <v>0.177205</v>
+        <v>0.17807</v>
       </c>
       <c r="D45" t="n">
-        <v>0.165201</v>
+        <v>0.165156</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.195742</v>
+        <v>0.195485</v>
       </c>
       <c r="C46" t="n">
-        <v>0.178593</v>
+        <v>0.177865</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1663</v>
+        <v>0.166129</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199067</v>
+        <v>0.199628</v>
       </c>
       <c r="C47" t="n">
-        <v>0.182947</v>
+        <v>0.183171</v>
       </c>
       <c r="D47" t="n">
-        <v>0.167881</v>
+        <v>0.16813</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.203198</v>
+        <v>0.20355</v>
       </c>
       <c r="C48" t="n">
-        <v>0.187045</v>
+        <v>0.186908</v>
       </c>
       <c r="D48" t="n">
-        <v>0.16948</v>
+        <v>0.169474</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.20724</v>
+        <v>0.207358</v>
       </c>
       <c r="C49" t="n">
-        <v>0.188997</v>
+        <v>0.189694</v>
       </c>
       <c r="D49" t="n">
-        <v>0.171681</v>
+        <v>0.17196</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.210551</v>
+        <v>0.21044</v>
       </c>
       <c r="C50" t="n">
-        <v>0.167094</v>
+        <v>0.167401</v>
       </c>
       <c r="D50" t="n">
-        <v>0.15739</v>
+        <v>0.157548</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.215239</v>
+        <v>0.215968</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169155</v>
+        <v>0.169253</v>
       </c>
       <c r="D51" t="n">
-        <v>0.158936</v>
+        <v>0.159002</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.217697</v>
+        <v>0.21792</v>
       </c>
       <c r="C52" t="n">
-        <v>0.170723</v>
+        <v>0.17172</v>
       </c>
       <c r="D52" t="n">
-        <v>0.159461</v>
+        <v>0.159733</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.222081</v>
+        <v>0.22187</v>
       </c>
       <c r="C53" t="n">
-        <v>0.17404</v>
+        <v>0.174338</v>
       </c>
       <c r="D53" t="n">
-        <v>0.160933</v>
+        <v>0.161444</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.225711</v>
+        <v>0.225435</v>
       </c>
       <c r="C54" t="n">
-        <v>0.177592</v>
+        <v>0.178022</v>
       </c>
       <c r="D54" t="n">
-        <v>0.163355</v>
+        <v>0.163039</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229787</v>
+        <v>0.228908</v>
       </c>
       <c r="C55" t="n">
-        <v>0.181772</v>
+        <v>0.18226</v>
       </c>
       <c r="D55" t="n">
-        <v>0.164293</v>
+        <v>0.164156</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.196097</v>
+        <v>0.196178</v>
       </c>
       <c r="C56" t="n">
-        <v>0.181844</v>
+        <v>0.181447</v>
       </c>
       <c r="D56" t="n">
-        <v>0.165571</v>
+        <v>0.165809</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.19711</v>
+        <v>0.197336</v>
       </c>
       <c r="C57" t="n">
-        <v>0.186696</v>
+        <v>0.186326</v>
       </c>
       <c r="D57" t="n">
-        <v>0.166863</v>
+        <v>0.166984</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.200572</v>
+        <v>0.200667</v>
       </c>
       <c r="C58" t="n">
-        <v>0.192203</v>
+        <v>0.19277</v>
       </c>
       <c r="D58" t="n">
-        <v>0.169519</v>
+        <v>0.170068</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.202698</v>
+        <v>0.203119</v>
       </c>
       <c r="C59" t="n">
-        <v>0.196386</v>
+        <v>0.197352</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172341</v>
+        <v>0.172846</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2063</v>
+        <v>0.206127</v>
       </c>
       <c r="C60" t="n">
-        <v>0.199656</v>
+        <v>0.200845</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175997</v>
+        <v>0.174848</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.208323</v>
+        <v>0.210287</v>
       </c>
       <c r="C61" t="n">
-        <v>0.204033</v>
+        <v>0.206652</v>
       </c>
       <c r="D61" t="n">
-        <v>0.176006</v>
+        <v>0.177126</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.211505</v>
+        <v>0.214752</v>
       </c>
       <c r="C62" t="n">
-        <v>0.20993</v>
+        <v>0.209198</v>
       </c>
       <c r="D62" t="n">
-        <v>0.179046</v>
+        <v>0.178777</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.216847</v>
+        <v>0.215802</v>
       </c>
       <c r="C63" t="n">
-        <v>0.214973</v>
+        <v>0.21772</v>
       </c>
       <c r="D63" t="n">
-        <v>0.185424</v>
+        <v>0.18153</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.220882</v>
+        <v>0.221515</v>
       </c>
       <c r="C64" t="n">
-        <v>0.184584</v>
+        <v>0.183504</v>
       </c>
       <c r="D64" t="n">
-        <v>0.166839</v>
+        <v>0.167494</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.228547</v>
+        <v>0.229432</v>
       </c>
       <c r="C65" t="n">
-        <v>0.184079</v>
+        <v>0.183471</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168832</v>
+        <v>0.168203</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.233563</v>
+        <v>0.233213</v>
       </c>
       <c r="C66" t="n">
-        <v>0.18829</v>
+        <v>0.186488</v>
       </c>
       <c r="D66" t="n">
-        <v>0.171144</v>
+        <v>0.1694</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.23993</v>
+        <v>0.238533</v>
       </c>
       <c r="C67" t="n">
-        <v>0.194825</v>
+        <v>0.193916</v>
       </c>
       <c r="D67" t="n">
-        <v>0.171686</v>
+        <v>0.171768</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.248236</v>
+        <v>0.246033</v>
       </c>
       <c r="C68" t="n">
-        <v>0.196746</v>
+        <v>0.197286</v>
       </c>
       <c r="D68" t="n">
-        <v>0.175368</v>
+        <v>0.173755</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.257786</v>
+        <v>0.255557</v>
       </c>
       <c r="C69" t="n">
-        <v>0.201608</v>
+        <v>0.201467</v>
       </c>
       <c r="D69" t="n">
-        <v>0.176377</v>
+        <v>0.176165</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219147</v>
+        <v>0.220977</v>
       </c>
       <c r="C70" t="n">
-        <v>0.207331</v>
+        <v>0.207736</v>
       </c>
       <c r="D70" t="n">
-        <v>0.179768</v>
+        <v>0.180356</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223057</v>
+        <v>0.224464</v>
       </c>
       <c r="C71" t="n">
-        <v>0.213646</v>
+        <v>0.21389</v>
       </c>
       <c r="D71" t="n">
-        <v>0.182722</v>
+        <v>0.182399</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.231664</v>
+        <v>0.232742</v>
       </c>
       <c r="C72" t="n">
-        <v>0.220266</v>
+        <v>0.221096</v>
       </c>
       <c r="D72" t="n">
-        <v>0.187263</v>
+        <v>0.185881</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.234119</v>
+        <v>0.236666</v>
       </c>
       <c r="C73" t="n">
-        <v>0.226403</v>
+        <v>0.228042</v>
       </c>
       <c r="D73" t="n">
-        <v>0.190188</v>
+        <v>0.190235</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.243197</v>
+        <v>0.241899</v>
       </c>
       <c r="C74" t="n">
-        <v>0.231288</v>
+        <v>0.233056</v>
       </c>
       <c r="D74" t="n">
-        <v>0.193102</v>
+        <v>0.192803</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.245252</v>
+        <v>0.248269</v>
       </c>
       <c r="C75" t="n">
-        <v>0.237107</v>
+        <v>0.239166</v>
       </c>
       <c r="D75" t="n">
-        <v>0.19571</v>
+        <v>0.196154</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.254966</v>
+        <v>0.255588</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244954</v>
+        <v>0.246913</v>
       </c>
       <c r="D76" t="n">
-        <v>0.200342</v>
+        <v>0.200892</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.261241</v>
+        <v>0.265479</v>
       </c>
       <c r="C77" t="n">
-        <v>0.255453</v>
+        <v>0.256115</v>
       </c>
       <c r="D77" t="n">
-        <v>0.204591</v>
+        <v>0.204736</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.26937</v>
+        <v>0.275877</v>
       </c>
       <c r="C78" t="n">
-        <v>0.208981</v>
+        <v>0.212483</v>
       </c>
       <c r="D78" t="n">
-        <v>0.185964</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.282581</v>
+        <v>0.285839</v>
       </c>
       <c r="C79" t="n">
-        <v>0.217215</v>
+        <v>0.219116</v>
       </c>
       <c r="D79" t="n">
-        <v>0.187391</v>
+        <v>0.189881</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.300159</v>
+        <v>0.306885</v>
       </c>
       <c r="C80" t="n">
-        <v>0.226352</v>
+        <v>0.229754</v>
       </c>
       <c r="D80" t="n">
-        <v>0.19221</v>
+        <v>0.192907</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.31844</v>
+        <v>0.325868</v>
       </c>
       <c r="C81" t="n">
-        <v>0.23519</v>
+        <v>0.239243</v>
       </c>
       <c r="D81" t="n">
-        <v>0.195918</v>
+        <v>0.196497</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343706</v>
+        <v>0.347959</v>
       </c>
       <c r="C82" t="n">
-        <v>0.249197</v>
+        <v>0.253181</v>
       </c>
       <c r="D82" t="n">
-        <v>0.200793</v>
+        <v>0.204729</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.363273</v>
+        <v>0.369661</v>
       </c>
       <c r="C83" t="n">
-        <v>0.264162</v>
+        <v>0.269208</v>
       </c>
       <c r="D83" t="n">
-        <v>0.204714</v>
+        <v>0.20684</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.378287</v>
+        <v>0.386924</v>
       </c>
       <c r="C84" t="n">
-        <v>0.284197</v>
+        <v>0.284444</v>
       </c>
       <c r="D84" t="n">
-        <v>0.210764</v>
+        <v>0.213942</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.406044</v>
+        <v>0.408598</v>
       </c>
       <c r="C85" t="n">
-        <v>0.301907</v>
+        <v>0.30357</v>
       </c>
       <c r="D85" t="n">
-        <v>0.218632</v>
+        <v>0.220493</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.441871</v>
+        <v>0.442222</v>
       </c>
       <c r="C86" t="n">
-        <v>0.318672</v>
+        <v>0.323693</v>
       </c>
       <c r="D86" t="n">
-        <v>0.223898</v>
+        <v>0.227499</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.471403</v>
+        <v>0.471945</v>
       </c>
       <c r="C87" t="n">
-        <v>0.342778</v>
+        <v>0.347406</v>
       </c>
       <c r="D87" t="n">
-        <v>0.235172</v>
+        <v>0.240506</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.50514</v>
+        <v>0.508527</v>
       </c>
       <c r="C88" t="n">
-        <v>0.370201</v>
+        <v>0.373907</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247175</v>
+        <v>0.250401</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.534896</v>
+        <v>0.539339</v>
       </c>
       <c r="C89" t="n">
-        <v>0.399105</v>
+        <v>0.400221</v>
       </c>
       <c r="D89" t="n">
-        <v>0.262376</v>
+        <v>0.266988</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.571885</v>
+        <v>0.567937</v>
       </c>
       <c r="C90" t="n">
-        <v>0.421727</v>
+        <v>0.429737</v>
       </c>
       <c r="D90" t="n">
-        <v>0.280107</v>
+        <v>0.282099</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.601533</v>
+        <v>0.6062340000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.455364</v>
+        <v>0.460804</v>
       </c>
       <c r="D91" t="n">
-        <v>0.301822</v>
+        <v>0.30467</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.633231</v>
+        <v>0.639069</v>
       </c>
       <c r="C92" t="n">
-        <v>0.467872</v>
+        <v>0.471509</v>
       </c>
       <c r="D92" t="n">
-        <v>0.401396</v>
+        <v>0.407956</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.669254</v>
+        <v>0.66797</v>
       </c>
       <c r="C93" t="n">
-        <v>0.492654</v>
+        <v>0.495112</v>
       </c>
       <c r="D93" t="n">
-        <v>0.426865</v>
+        <v>0.431623</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.70228</v>
+        <v>0.705179</v>
       </c>
       <c r="C94" t="n">
-        <v>0.514283</v>
+        <v>0.515724</v>
       </c>
       <c r="D94" t="n">
-        <v>0.448226</v>
+        <v>0.453444</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.737997</v>
+        <v>0.74376</v>
       </c>
       <c r="C95" t="n">
-        <v>0.534263</v>
+        <v>0.539872</v>
       </c>
       <c r="D95" t="n">
-        <v>0.469827</v>
+        <v>0.473455</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.776119</v>
+        <v>0.778668</v>
       </c>
       <c r="C96" t="n">
-        <v>0.562154</v>
+        <v>0.56209</v>
       </c>
       <c r="D96" t="n">
-        <v>0.49073</v>
+        <v>0.493782</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.815114</v>
+        <v>0.820797</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5873930000000001</v>
+        <v>0.591216</v>
       </c>
       <c r="D97" t="n">
-        <v>0.515266</v>
+        <v>0.519146</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.762603</v>
+        <v>0.7664260000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.609749</v>
+        <v>0.614926</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5365</v>
+        <v>0.543702</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.787919</v>
+        <v>0.790587</v>
       </c>
       <c r="C99" t="n">
-        <v>0.63724</v>
+        <v>0.643652</v>
       </c>
       <c r="D99" t="n">
-        <v>0.559398</v>
+        <v>0.56716</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.81274</v>
+        <v>0.818845</v>
       </c>
       <c r="C100" t="n">
-        <v>0.664848</v>
+        <v>0.667031</v>
       </c>
       <c r="D100" t="n">
-        <v>0.585139</v>
+        <v>0.588983</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.840359</v>
+        <v>0.845509</v>
       </c>
       <c r="C101" t="n">
-        <v>0.687392</v>
+        <v>0.6891659999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.606043</v>
+        <v>0.610273</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.869247</v>
+        <v>0.870153</v>
       </c>
       <c r="C102" t="n">
-        <v>0.716987</v>
+        <v>0.7183659999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6335769999999999</v>
+        <v>0.63265</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.899311</v>
+        <v>0.902552</v>
       </c>
       <c r="C103" t="n">
-        <v>0.741864</v>
+        <v>0.741507</v>
       </c>
       <c r="D103" t="n">
-        <v>0.656241</v>
+        <v>0.65869</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.926763</v>
+        <v>0.9306179999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7661559999999999</v>
+        <v>0.768465</v>
       </c>
       <c r="D104" t="n">
-        <v>0.677561</v>
+        <v>0.679758</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.956835</v>
+        <v>0.958418</v>
       </c>
       <c r="C105" t="n">
-        <v>0.792303</v>
+        <v>0.796502</v>
       </c>
       <c r="D105" t="n">
-        <v>0.701591</v>
+        <v>0.705306</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.98816</v>
+        <v>0.988747</v>
       </c>
       <c r="C106" t="n">
-        <v>0.822093</v>
+        <v>0.824323</v>
       </c>
       <c r="D106" t="n">
-        <v>0.723587</v>
+        <v>0.728424</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.01781</v>
+        <v>1.0162</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7347590000000001</v>
+        <v>0.736015</v>
       </c>
       <c r="D107" t="n">
-        <v>0.767279</v>
+        <v>0.766915</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.04488</v>
+        <v>1.05273</v>
       </c>
       <c r="C108" t="n">
-        <v>0.754006</v>
+        <v>0.755566</v>
       </c>
       <c r="D108" t="n">
-        <v>0.784738</v>
+        <v>0.780263</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.07154</v>
+        <v>1.07827</v>
       </c>
       <c r="C109" t="n">
-        <v>0.775141</v>
+        <v>0.772146</v>
       </c>
       <c r="D109" t="n">
-        <v>0.799613</v>
+        <v>0.800565</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.10831</v>
+        <v>1.10955</v>
       </c>
       <c r="C110" t="n">
-        <v>0.793481</v>
+        <v>0.794404</v>
       </c>
       <c r="D110" t="n">
-        <v>0.812985</v>
+        <v>0.818187</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.13567</v>
+        <v>1.1391</v>
       </c>
       <c r="C111" t="n">
-        <v>0.81136</v>
+        <v>0.80915</v>
       </c>
       <c r="D111" t="n">
-        <v>0.830209</v>
+        <v>0.834777</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.00884</v>
+        <v>1.00952</v>
       </c>
       <c r="C112" t="n">
-        <v>0.831912</v>
+        <v>0.8340340000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.847513</v>
+        <v>0.851459</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.03222</v>
+        <v>1.0304</v>
       </c>
       <c r="C113" t="n">
-        <v>0.85401</v>
+        <v>0.856613</v>
       </c>
       <c r="D113" t="n">
-        <v>0.864367</v>
+        <v>0.867795</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.04246</v>
+        <v>1.0512</v>
       </c>
       <c r="C114" t="n">
-        <v>0.871757</v>
+        <v>0.875549</v>
       </c>
       <c r="D114" t="n">
-        <v>0.879709</v>
+        <v>0.881488</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.07021</v>
+        <v>1.07693</v>
       </c>
       <c r="C115" t="n">
-        <v>0.897963</v>
+        <v>0.894957</v>
       </c>
       <c r="D115" t="n">
-        <v>0.898702</v>
+        <v>0.903464</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.09417</v>
+        <v>1.09406</v>
       </c>
       <c r="C116" t="n">
-        <v>0.91881</v>
+        <v>0.918388</v>
       </c>
       <c r="D116" t="n">
-        <v>0.918488</v>
+        <v>0.922142</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11597</v>
+        <v>1.11848</v>
       </c>
       <c r="C117" t="n">
-        <v>0.937765</v>
+        <v>0.939296</v>
       </c>
       <c r="D117" t="n">
-        <v>0.934812</v>
+        <v>0.938277</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14049</v>
+        <v>1.13767</v>
       </c>
       <c r="C118" t="n">
-        <v>0.968877</v>
+        <v>0.970267</v>
       </c>
       <c r="D118" t="n">
-        <v>0.953067</v>
+        <v>0.956078</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1563</v>
+        <v>1.16285</v>
       </c>
       <c r="C119" t="n">
-        <v>0.988689</v>
+        <v>0.992403</v>
       </c>
       <c r="D119" t="n">
-        <v>0.971383</v>
+        <v>0.975232</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.360368</v>
+        <v>0.363221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.195605</v>
+        <v>0.196169</v>
       </c>
       <c r="D2" t="n">
-        <v>0.156646</v>
+        <v>0.156863</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242796</v>
+        <v>0.244665</v>
       </c>
       <c r="C3" t="n">
-        <v>0.200857</v>
+        <v>0.19944</v>
       </c>
       <c r="D3" t="n">
-        <v>0.157245</v>
+        <v>0.157504</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.245421</v>
+        <v>0.250014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.20987</v>
+        <v>0.210884</v>
       </c>
       <c r="D4" t="n">
-        <v>0.163847</v>
+        <v>0.163977</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.253079</v>
+        <v>0.253845</v>
       </c>
       <c r="C5" t="n">
-        <v>0.218477</v>
+        <v>0.217367</v>
       </c>
       <c r="D5" t="n">
-        <v>0.165982</v>
+        <v>0.166214</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.264549</v>
+        <v>0.264333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2186</v>
+        <v>0.217772</v>
       </c>
       <c r="D6" t="n">
-        <v>0.169038</v>
+        <v>0.168679</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.269462</v>
+        <v>0.270824</v>
       </c>
       <c r="C7" t="n">
-        <v>0.232869</v>
+        <v>0.233913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.172747</v>
+        <v>0.173007</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.280251</v>
+        <v>0.279565</v>
       </c>
       <c r="C8" t="n">
-        <v>0.246306</v>
+        <v>0.245701</v>
       </c>
       <c r="D8" t="n">
-        <v>0.180338</v>
+        <v>0.18007</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.294794</v>
+        <v>0.292898</v>
       </c>
       <c r="C9" t="n">
-        <v>0.257364</v>
+        <v>0.254828</v>
       </c>
       <c r="D9" t="n">
-        <v>0.186401</v>
+        <v>0.18629</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.302509</v>
+        <v>0.305913</v>
       </c>
       <c r="C10" t="n">
-        <v>0.269595</v>
+        <v>0.266334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.19454</v>
+        <v>0.194897</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.310607</v>
+        <v>0.31797</v>
       </c>
       <c r="C11" t="n">
-        <v>0.199824</v>
+        <v>0.200447</v>
       </c>
       <c r="D11" t="n">
-        <v>0.156021</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.327978</v>
+        <v>0.330475</v>
       </c>
       <c r="C12" t="n">
-        <v>0.202443</v>
+        <v>0.202694</v>
       </c>
       <c r="D12" t="n">
-        <v>0.157134</v>
+        <v>0.156067</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.351718</v>
+        <v>0.347411</v>
       </c>
       <c r="C13" t="n">
-        <v>0.214154</v>
+        <v>0.210784</v>
       </c>
       <c r="D13" t="n">
-        <v>0.162196</v>
+        <v>0.161708</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.360204</v>
+        <v>0.360134</v>
       </c>
       <c r="C14" t="n">
-        <v>0.223566</v>
+        <v>0.222876</v>
       </c>
       <c r="D14" t="n">
-        <v>0.163254</v>
+        <v>0.163554</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.380715</v>
+        <v>0.374342</v>
       </c>
       <c r="C15" t="n">
-        <v>0.23378</v>
+        <v>0.230884</v>
       </c>
       <c r="D15" t="n">
-        <v>0.169841</v>
+        <v>0.167926</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.39635</v>
+        <v>0.394842</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242469</v>
+        <v>0.243139</v>
       </c>
       <c r="D16" t="n">
-        <v>0.175263</v>
+        <v>0.173249</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.24383</v>
+        <v>0.24385</v>
       </c>
       <c r="C17" t="n">
-        <v>0.257272</v>
+        <v>0.257034</v>
       </c>
       <c r="D17" t="n">
-        <v>0.177524</v>
+        <v>0.177864</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.255494</v>
+        <v>0.256241</v>
       </c>
       <c r="C18" t="n">
-        <v>0.257507</v>
+        <v>0.261287</v>
       </c>
       <c r="D18" t="n">
-        <v>0.179432</v>
+        <v>0.178388</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.267703</v>
+        <v>0.267001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.280128</v>
+        <v>0.28007</v>
       </c>
       <c r="D19" t="n">
-        <v>0.185636</v>
+        <v>0.185572</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.277794</v>
+        <v>0.276437</v>
       </c>
       <c r="C20" t="n">
-        <v>0.29504</v>
+        <v>0.296972</v>
       </c>
       <c r="D20" t="n">
-        <v>0.194158</v>
+        <v>0.194017</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.285477</v>
+        <v>0.284762</v>
       </c>
       <c r="C21" t="n">
-        <v>0.305668</v>
+        <v>0.309464</v>
       </c>
       <c r="D21" t="n">
-        <v>0.202146</v>
+        <v>0.202741</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.300511</v>
+        <v>0.300786</v>
       </c>
       <c r="C22" t="n">
-        <v>0.326893</v>
+        <v>0.326065</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208157</v>
+        <v>0.208583</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.31659</v>
+        <v>0.317027</v>
       </c>
       <c r="C23" t="n">
-        <v>0.346943</v>
+        <v>0.344214</v>
       </c>
       <c r="D23" t="n">
-        <v>0.219233</v>
+        <v>0.217739</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.327337</v>
+        <v>0.327813</v>
       </c>
       <c r="C24" t="n">
-        <v>0.359557</v>
+        <v>0.358544</v>
       </c>
       <c r="D24" t="n">
-        <v>0.226049</v>
+        <v>0.227271</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.347332</v>
+        <v>0.348527</v>
       </c>
       <c r="C25" t="n">
-        <v>0.377855</v>
+        <v>0.377812</v>
       </c>
       <c r="D25" t="n">
-        <v>0.236262</v>
+        <v>0.236524</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.361497</v>
+        <v>0.360076</v>
       </c>
       <c r="C26" t="n">
-        <v>0.229741</v>
+        <v>0.232191</v>
       </c>
       <c r="D26" t="n">
-        <v>0.164828</v>
+        <v>0.164846</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.373541</v>
+        <v>0.375261</v>
       </c>
       <c r="C27" t="n">
-        <v>0.237709</v>
+        <v>0.237147</v>
       </c>
       <c r="D27" t="n">
-        <v>0.167266</v>
+        <v>0.167496</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.390903</v>
+        <v>0.39296</v>
       </c>
       <c r="C28" t="n">
-        <v>0.248168</v>
+        <v>0.248484</v>
       </c>
       <c r="D28" t="n">
-        <v>0.171839</v>
+        <v>0.172313</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.415419</v>
+        <v>0.414077</v>
       </c>
       <c r="C29" t="n">
-        <v>0.254226</v>
+        <v>0.252818</v>
       </c>
       <c r="D29" t="n">
-        <v>0.176265</v>
+        <v>0.176582</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.424866</v>
+        <v>0.424426</v>
       </c>
       <c r="C30" t="n">
-        <v>0.267197</v>
+        <v>0.267397</v>
       </c>
       <c r="D30" t="n">
-        <v>0.181002</v>
+        <v>0.180645</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.447951</v>
+        <v>0.448544</v>
       </c>
       <c r="C31" t="n">
-        <v>0.277368</v>
+        <v>0.277549</v>
       </c>
       <c r="D31" t="n">
-        <v>0.187831</v>
+        <v>0.187546</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.303898</v>
+        <v>0.304432</v>
       </c>
       <c r="C32" t="n">
-        <v>0.292534</v>
+        <v>0.291301</v>
       </c>
       <c r="D32" t="n">
-        <v>0.192007</v>
+        <v>0.192015</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.313285</v>
+        <v>0.314352</v>
       </c>
       <c r="C33" t="n">
-        <v>0.302896</v>
+        <v>0.304762</v>
       </c>
       <c r="D33" t="n">
-        <v>0.199354</v>
+        <v>0.199136</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.321664</v>
+        <v>0.322296</v>
       </c>
       <c r="C34" t="n">
-        <v>0.316342</v>
+        <v>0.318551</v>
       </c>
       <c r="D34" t="n">
-        <v>0.205635</v>
+        <v>0.205679</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.339642</v>
+        <v>0.340658</v>
       </c>
       <c r="C35" t="n">
-        <v>0.334435</v>
+        <v>0.330455</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212941</v>
+        <v>0.214052</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.346144</v>
+        <v>0.346463</v>
       </c>
       <c r="C36" t="n">
-        <v>0.351257</v>
+        <v>0.350656</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222957</v>
+        <v>0.222727</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.36152</v>
+        <v>0.362102</v>
       </c>
       <c r="C37" t="n">
-        <v>0.367755</v>
+        <v>0.370238</v>
       </c>
       <c r="D37" t="n">
-        <v>0.229886</v>
+        <v>0.229979</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.378545</v>
+        <v>0.379846</v>
       </c>
       <c r="C38" t="n">
-        <v>0.381414</v>
+        <v>0.38442</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23971</v>
+        <v>0.2384</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.388652</v>
+        <v>0.391126</v>
       </c>
       <c r="C39" t="n">
-        <v>0.400227</v>
+        <v>0.403755</v>
       </c>
       <c r="D39" t="n">
-        <v>0.247687</v>
+        <v>0.247383</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.403366</v>
+        <v>0.402572</v>
       </c>
       <c r="C40" t="n">
-        <v>0.278148</v>
+        <v>0.278956</v>
       </c>
       <c r="D40" t="n">
-        <v>0.201362</v>
+        <v>0.200736</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.419075</v>
+        <v>0.417831</v>
       </c>
       <c r="C41" t="n">
-        <v>0.288614</v>
+        <v>0.286622</v>
       </c>
       <c r="D41" t="n">
-        <v>0.205516</v>
+        <v>0.205309</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.438471</v>
+        <v>0.440078</v>
       </c>
       <c r="C42" t="n">
-        <v>0.300947</v>
+        <v>0.301256</v>
       </c>
       <c r="D42" t="n">
-        <v>0.211699</v>
+        <v>0.212064</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.454234</v>
+        <v>0.455291</v>
       </c>
       <c r="C43" t="n">
-        <v>0.308353</v>
+        <v>0.309188</v>
       </c>
       <c r="D43" t="n">
-        <v>0.216378</v>
+        <v>0.21639</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.471945</v>
+        <v>0.47147</v>
       </c>
       <c r="C44" t="n">
-        <v>0.322434</v>
+        <v>0.325497</v>
       </c>
       <c r="D44" t="n">
-        <v>0.224243</v>
+        <v>0.224227</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.489987</v>
+        <v>0.491132</v>
       </c>
       <c r="C45" t="n">
-        <v>0.334174</v>
+        <v>0.334822</v>
       </c>
       <c r="D45" t="n">
-        <v>0.229789</v>
+        <v>0.229715</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.333732</v>
+        <v>0.333939</v>
       </c>
       <c r="C46" t="n">
-        <v>0.348915</v>
+        <v>0.349171</v>
       </c>
       <c r="D46" t="n">
-        <v>0.236031</v>
+        <v>0.235828</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.346529</v>
+        <v>0.346227</v>
       </c>
       <c r="C47" t="n">
-        <v>0.358735</v>
+        <v>0.359873</v>
       </c>
       <c r="D47" t="n">
-        <v>0.243379</v>
+        <v>0.243429</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.358903</v>
+        <v>0.358752</v>
       </c>
       <c r="C48" t="n">
-        <v>0.373343</v>
+        <v>0.373342</v>
       </c>
       <c r="D48" t="n">
-        <v>0.250994</v>
+        <v>0.251003</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.368655</v>
+        <v>0.368097</v>
       </c>
       <c r="C49" t="n">
-        <v>0.387419</v>
+        <v>0.387678</v>
       </c>
       <c r="D49" t="n">
-        <v>0.257078</v>
+        <v>0.256598</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.379869</v>
+        <v>0.380482</v>
       </c>
       <c r="C50" t="n">
-        <v>0.403321</v>
+        <v>0.403702</v>
       </c>
       <c r="D50" t="n">
-        <v>0.265255</v>
+        <v>0.265123</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.400845</v>
+        <v>0.400313</v>
       </c>
       <c r="C51" t="n">
-        <v>0.421083</v>
+        <v>0.420308</v>
       </c>
       <c r="D51" t="n">
-        <v>0.274031</v>
+        <v>0.274113</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.413026</v>
+        <v>0.413323</v>
       </c>
       <c r="C52" t="n">
-        <v>0.436098</v>
+        <v>0.438705</v>
       </c>
       <c r="D52" t="n">
-        <v>0.283774</v>
+        <v>0.283257</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.425823</v>
+        <v>0.425826</v>
       </c>
       <c r="C53" t="n">
-        <v>0.455807</v>
+        <v>0.456653</v>
       </c>
       <c r="D53" t="n">
-        <v>0.29386</v>
+        <v>0.294276</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.442365</v>
+        <v>0.443352</v>
       </c>
       <c r="C54" t="n">
-        <v>0.317339</v>
+        <v>0.319585</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229329</v>
+        <v>0.228914</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.460268</v>
+        <v>0.458449</v>
       </c>
       <c r="C55" t="n">
-        <v>0.326222</v>
+        <v>0.324851</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234739</v>
+        <v>0.233604</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4795</v>
+        <v>0.476341</v>
       </c>
       <c r="C56" t="n">
-        <v>0.33688</v>
+        <v>0.338495</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23952</v>
+        <v>0.238939</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.493438</v>
+        <v>0.493006</v>
       </c>
       <c r="C57" t="n">
-        <v>0.346524</v>
+        <v>0.347573</v>
       </c>
       <c r="D57" t="n">
-        <v>0.244462</v>
+        <v>0.244393</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.513338</v>
+        <v>0.515238</v>
       </c>
       <c r="C58" t="n">
-        <v>0.355863</v>
+        <v>0.355625</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249915</v>
+        <v>0.249456</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5334410000000001</v>
+        <v>0.532415</v>
       </c>
       <c r="C59" t="n">
-        <v>0.365688</v>
+        <v>0.369514</v>
       </c>
       <c r="D59" t="n">
-        <v>0.256365</v>
+        <v>0.256934</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.354403</v>
+        <v>0.352408</v>
       </c>
       <c r="C60" t="n">
-        <v>0.382479</v>
+        <v>0.382327</v>
       </c>
       <c r="D60" t="n">
-        <v>0.26213</v>
+        <v>0.260997</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.370648</v>
+        <v>0.368216</v>
       </c>
       <c r="C61" t="n">
-        <v>0.397614</v>
+        <v>0.397756</v>
       </c>
       <c r="D61" t="n">
-        <v>0.269032</v>
+        <v>0.26881</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.379287</v>
+        <v>0.378213</v>
       </c>
       <c r="C62" t="n">
-        <v>0.408332</v>
+        <v>0.411532</v>
       </c>
       <c r="D62" t="n">
-        <v>0.275269</v>
+        <v>0.275715</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.392457</v>
+        <v>0.394586</v>
       </c>
       <c r="C63" t="n">
-        <v>0.432727</v>
+        <v>0.431008</v>
       </c>
       <c r="D63" t="n">
-        <v>0.28497</v>
+        <v>0.285869</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.405824</v>
+        <v>0.406113</v>
       </c>
       <c r="C64" t="n">
-        <v>0.448555</v>
+        <v>0.448066</v>
       </c>
       <c r="D64" t="n">
-        <v>0.294808</v>
+        <v>0.295068</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.429023</v>
+        <v>0.428119</v>
       </c>
       <c r="C65" t="n">
-        <v>0.481926</v>
+        <v>0.473926</v>
       </c>
       <c r="D65" t="n">
-        <v>0.307458</v>
+        <v>0.306545</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.447523</v>
+        <v>0.446556</v>
       </c>
       <c r="C66" t="n">
-        <v>0.496724</v>
+        <v>0.498656</v>
       </c>
       <c r="D66" t="n">
-        <v>0.318373</v>
+        <v>0.316681</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.467913</v>
+        <v>0.469499</v>
       </c>
       <c r="C67" t="n">
-        <v>0.531694</v>
+        <v>0.530816</v>
       </c>
       <c r="D67" t="n">
-        <v>0.333245</v>
+        <v>0.332892</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.490877</v>
+        <v>0.491176</v>
       </c>
       <c r="C68" t="n">
-        <v>0.338859</v>
+        <v>0.344008</v>
       </c>
       <c r="D68" t="n">
-        <v>0.246777</v>
+        <v>0.249835</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.522587</v>
+        <v>0.520927</v>
       </c>
       <c r="C69" t="n">
-        <v>0.353764</v>
+        <v>0.358519</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253106</v>
+        <v>0.255309</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.546356</v>
+        <v>0.5482860000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.371124</v>
+        <v>0.37329</v>
       </c>
       <c r="D70" t="n">
-        <v>0.262408</v>
+        <v>0.263722</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.58305</v>
+        <v>0.580811</v>
       </c>
       <c r="C71" t="n">
-        <v>0.387717</v>
+        <v>0.393035</v>
       </c>
       <c r="D71" t="n">
-        <v>0.270437</v>
+        <v>0.273679</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.609058</v>
+        <v>0.612722</v>
       </c>
       <c r="C72" t="n">
-        <v>0.407136</v>
+        <v>0.411313</v>
       </c>
       <c r="D72" t="n">
-        <v>0.278893</v>
+        <v>0.282513</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6423759999999999</v>
+        <v>0.642712</v>
       </c>
       <c r="C73" t="n">
-        <v>0.427518</v>
+        <v>0.43127</v>
       </c>
       <c r="D73" t="n">
-        <v>0.288905</v>
+        <v>0.292294</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.423043</v>
+        <v>0.419686</v>
       </c>
       <c r="C74" t="n">
-        <v>0.444029</v>
+        <v>0.447527</v>
       </c>
       <c r="D74" t="n">
-        <v>0.300324</v>
+        <v>0.301056</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.442222</v>
+        <v>0.436438</v>
       </c>
       <c r="C75" t="n">
-        <v>0.472159</v>
+        <v>0.47338</v>
       </c>
       <c r="D75" t="n">
-        <v>0.310119</v>
+        <v>0.311718</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.460548</v>
+        <v>0.45767</v>
       </c>
       <c r="C76" t="n">
-        <v>0.495638</v>
+        <v>0.495818</v>
       </c>
       <c r="D76" t="n">
-        <v>0.321834</v>
+        <v>0.322271</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.479155</v>
+        <v>0.472738</v>
       </c>
       <c r="C77" t="n">
-        <v>0.525909</v>
+        <v>0.52399</v>
       </c>
       <c r="D77" t="n">
-        <v>0.334727</v>
+        <v>0.335494</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.513641</v>
+        <v>0.493982</v>
       </c>
       <c r="C78" t="n">
-        <v>0.553819</v>
+        <v>0.546234</v>
       </c>
       <c r="D78" t="n">
-        <v>0.345695</v>
+        <v>0.34631</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.545091</v>
+        <v>0.513513</v>
       </c>
       <c r="C79" t="n">
-        <v>0.578812</v>
+        <v>0.569894</v>
       </c>
       <c r="D79" t="n">
-        <v>0.359122</v>
+        <v>0.359102</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.573842</v>
+        <v>0.544575</v>
       </c>
       <c r="C80" t="n">
-        <v>0.619872</v>
+        <v>0.603255</v>
       </c>
       <c r="D80" t="n">
-        <v>0.375705</v>
+        <v>0.37399</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6125890000000001</v>
+        <v>0.581719</v>
       </c>
       <c r="C81" t="n">
-        <v>0.669858</v>
+        <v>0.644909</v>
       </c>
       <c r="D81" t="n">
-        <v>0.396701</v>
+        <v>0.391605</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.678741</v>
+        <v>0.63936</v>
       </c>
       <c r="C82" t="n">
-        <v>0.736437</v>
+        <v>0.693997</v>
       </c>
       <c r="D82" t="n">
-        <v>0.412424</v>
+        <v>0.408703</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.753405</v>
+        <v>0.692389</v>
       </c>
       <c r="C83" t="n">
-        <v>0.514343</v>
+        <v>0.475194</v>
       </c>
       <c r="D83" t="n">
-        <v>0.305099</v>
+        <v>0.304496</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.801546</v>
+        <v>0.766522</v>
       </c>
       <c r="C84" t="n">
-        <v>0.564963</v>
+        <v>0.5179049999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.322447</v>
+        <v>0.313539</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.885329</v>
+        <v>0.834211</v>
       </c>
       <c r="C85" t="n">
-        <v>0.601922</v>
+        <v>0.561584</v>
       </c>
       <c r="D85" t="n">
-        <v>0.330658</v>
+        <v>0.327863</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.976788</v>
+        <v>0.942073</v>
       </c>
       <c r="C86" t="n">
-        <v>0.655353</v>
+        <v>0.631856</v>
       </c>
       <c r="D86" t="n">
-        <v>0.349114</v>
+        <v>0.342247</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.07866</v>
+        <v>1.0507</v>
       </c>
       <c r="C87" t="n">
-        <v>0.703753</v>
+        <v>0.685362</v>
       </c>
       <c r="D87" t="n">
-        <v>0.364555</v>
+        <v>0.360438</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.17359</v>
+        <v>1.16029</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7765339999999999</v>
+        <v>0.776543</v>
       </c>
       <c r="D88" t="n">
-        <v>0.386387</v>
+        <v>0.388422</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.820367</v>
+        <v>0.818805</v>
       </c>
       <c r="C89" t="n">
-        <v>0.861451</v>
+        <v>0.855209</v>
       </c>
       <c r="D89" t="n">
-        <v>0.407501</v>
+        <v>0.415611</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.892952</v>
+        <v>0.88667</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9482080000000001</v>
+        <v>0.945217</v>
       </c>
       <c r="D90" t="n">
-        <v>0.441624</v>
+        <v>0.455584</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.967341</v>
+        <v>0.966981</v>
       </c>
       <c r="C91" t="n">
-        <v>1.03871</v>
+        <v>1.03576</v>
       </c>
       <c r="D91" t="n">
-        <v>0.480648</v>
+        <v>0.482234</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.05162</v>
+        <v>1.05091</v>
       </c>
       <c r="C92" t="n">
-        <v>1.14935</v>
+        <v>1.14042</v>
       </c>
       <c r="D92" t="n">
-        <v>0.522501</v>
+        <v>0.522232</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.13717</v>
+        <v>1.13349</v>
       </c>
       <c r="C93" t="n">
-        <v>1.25646</v>
+        <v>1.25582</v>
       </c>
       <c r="D93" t="n">
-        <v>0.562215</v>
+        <v>0.5671040000000001</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.23252</v>
+        <v>1.22528</v>
       </c>
       <c r="C94" t="n">
-        <v>1.37348</v>
+        <v>1.3771</v>
       </c>
       <c r="D94" t="n">
-        <v>0.621898</v>
+        <v>0.634008</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.33059</v>
+        <v>1.31876</v>
       </c>
       <c r="C95" t="n">
-        <v>1.48578</v>
+        <v>1.48986</v>
       </c>
       <c r="D95" t="n">
-        <v>0.675389</v>
+        <v>0.685982</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.41978</v>
+        <v>1.43213</v>
       </c>
       <c r="C96" t="n">
-        <v>1.62539</v>
+        <v>1.6329</v>
       </c>
       <c r="D96" t="n">
-        <v>0.751441</v>
+        <v>0.752533</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.53291</v>
+        <v>1.52678</v>
       </c>
       <c r="C97" t="n">
-        <v>0.976214</v>
+        <v>0.972928</v>
       </c>
       <c r="D97" t="n">
-        <v>0.539409</v>
+        <v>0.540324</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.64168</v>
+        <v>1.6455</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04247</v>
+        <v>1.04196</v>
       </c>
       <c r="D98" t="n">
-        <v>0.584172</v>
+        <v>0.580641</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.76058</v>
+        <v>1.7634</v>
       </c>
       <c r="C99" t="n">
-        <v>1.10946</v>
+        <v>1.11581</v>
       </c>
       <c r="D99" t="n">
-        <v>0.62364</v>
+        <v>0.619401</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.88203</v>
+        <v>1.88431</v>
       </c>
       <c r="C100" t="n">
-        <v>1.19655</v>
+        <v>1.19143</v>
       </c>
       <c r="D100" t="n">
-        <v>0.67222</v>
+        <v>0.6670739999999999</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.00168</v>
+        <v>2.0076</v>
       </c>
       <c r="C101" t="n">
-        <v>1.26309</v>
+        <v>1.26714</v>
       </c>
       <c r="D101" t="n">
-        <v>0.712284</v>
+        <v>0.710136</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.15436</v>
+        <v>2.15201</v>
       </c>
       <c r="C102" t="n">
-        <v>1.35386</v>
+        <v>1.34943</v>
       </c>
       <c r="D102" t="n">
-        <v>0.76328</v>
+        <v>0.754702</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.43462</v>
+        <v>1.43975</v>
       </c>
       <c r="C103" t="n">
-        <v>1.43919</v>
+        <v>1.44256</v>
       </c>
       <c r="D103" t="n">
-        <v>0.810041</v>
+        <v>0.808859</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.50876</v>
+        <v>1.52369</v>
       </c>
       <c r="C104" t="n">
-        <v>1.53803</v>
+        <v>1.53628</v>
       </c>
       <c r="D104" t="n">
-        <v>0.854801</v>
+        <v>0.858496</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.59499</v>
+        <v>1.59333</v>
       </c>
       <c r="C105" t="n">
-        <v>1.63868</v>
+        <v>1.64041</v>
       </c>
       <c r="D105" t="n">
-        <v>0.909381</v>
+        <v>0.90991</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.67508</v>
+        <v>1.67907</v>
       </c>
       <c r="C106" t="n">
-        <v>1.73182</v>
+        <v>1.73848</v>
       </c>
       <c r="D106" t="n">
-        <v>0.965363</v>
+        <v>0.962727</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.7692</v>
+        <v>1.77536</v>
       </c>
       <c r="C107" t="n">
-        <v>1.84016</v>
+        <v>1.84071</v>
       </c>
       <c r="D107" t="n">
-        <v>1.02157</v>
+        <v>1.0283</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.86635</v>
+        <v>1.86394</v>
       </c>
       <c r="C108" t="n">
-        <v>1.96521</v>
+        <v>1.9758</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08019</v>
+        <v>1.08227</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.95149</v>
+        <v>1.95391</v>
       </c>
       <c r="C109" t="n">
-        <v>2.0965</v>
+        <v>2.10181</v>
       </c>
       <c r="D109" t="n">
-        <v>1.13802</v>
+        <v>1.1416</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.03548</v>
+        <v>2.05175</v>
       </c>
       <c r="C110" t="n">
-        <v>2.22115</v>
+        <v>2.2216</v>
       </c>
       <c r="D110" t="n">
-        <v>1.20566</v>
+        <v>1.21549</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.15051</v>
+        <v>2.15737</v>
       </c>
       <c r="C111" t="n">
-        <v>1.3853</v>
+        <v>1.39069</v>
       </c>
       <c r="D111" t="n">
-        <v>0.946308</v>
+        <v>0.946701</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.27115</v>
+        <v>2.26799</v>
       </c>
       <c r="C112" t="n">
-        <v>1.45362</v>
+        <v>1.45862</v>
       </c>
       <c r="D112" t="n">
-        <v>0.986918</v>
+        <v>0.990686</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.3732</v>
+        <v>2.38427</v>
       </c>
       <c r="C113" t="n">
-        <v>1.53516</v>
+        <v>1.5318</v>
       </c>
       <c r="D113" t="n">
-        <v>1.02717</v>
+        <v>1.03286</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.48446</v>
+        <v>2.50566</v>
       </c>
       <c r="C114" t="n">
-        <v>1.61049</v>
+        <v>1.60747</v>
       </c>
       <c r="D114" t="n">
-        <v>1.06804</v>
+        <v>1.06632</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.60367</v>
+        <v>2.6238</v>
       </c>
       <c r="C115" t="n">
-        <v>1.68158</v>
+        <v>1.68575</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10699</v>
+        <v>1.11301</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.71697</v>
+        <v>2.74833</v>
       </c>
       <c r="C116" t="n">
-        <v>1.75926</v>
+        <v>1.76238</v>
       </c>
       <c r="D116" t="n">
-        <v>1.1503</v>
+        <v>1.15865</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.82764</v>
+        <v>1.84161</v>
       </c>
       <c r="C117" t="n">
-        <v>1.84785</v>
+        <v>1.85552</v>
       </c>
       <c r="D117" t="n">
-        <v>1.2048</v>
+        <v>1.20466</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.90612</v>
+        <v>1.91217</v>
       </c>
       <c r="C118" t="n">
-        <v>1.95834</v>
+        <v>1.95859</v>
       </c>
       <c r="D118" t="n">
-        <v>1.24819</v>
+        <v>1.25982</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.98288</v>
+        <v>1.9826</v>
       </c>
       <c r="C119" t="n">
-        <v>2.05265</v>
+        <v>2.05395</v>
       </c>
       <c r="D119" t="n">
-        <v>1.30012</v>
+        <v>1.30892</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -7673,13 +7673,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>13.6152</v>
+        <v>13.6568</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8341</v>
+        <v>12.7695</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7709</v>
+        <v>13.5298</v>
       </c>
     </row>
     <row r="3">
@@ -7687,13 +7687,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>13.9404</v>
+        <v>14.0039</v>
       </c>
       <c r="C3" t="n">
-        <v>12.9615</v>
+        <v>12.9775</v>
       </c>
       <c r="D3" t="n">
-        <v>13.9718</v>
+        <v>13.7069</v>
       </c>
     </row>
     <row r="4">
@@ -7701,13 +7701,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2678</v>
+        <v>14.3981</v>
       </c>
       <c r="C4" t="n">
-        <v>13.4027</v>
+        <v>13.3824</v>
       </c>
       <c r="D4" t="n">
-        <v>14.3665</v>
+        <v>14.0394</v>
       </c>
     </row>
     <row r="5">
@@ -7715,13 +7715,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6744</v>
+        <v>14.7708</v>
       </c>
       <c r="C5" t="n">
-        <v>13.6877</v>
+        <v>13.6829</v>
       </c>
       <c r="D5" t="n">
-        <v>14.6738</v>
+        <v>14.2536</v>
       </c>
     </row>
     <row r="6">
@@ -7729,13 +7729,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1491</v>
+        <v>15.1567</v>
       </c>
       <c r="C6" t="n">
-        <v>14.0456</v>
+        <v>13.9757</v>
       </c>
       <c r="D6" t="n">
-        <v>14.9947</v>
+        <v>14.677</v>
       </c>
     </row>
     <row r="7">
@@ -7743,13 +7743,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6026</v>
+        <v>15.6105</v>
       </c>
       <c r="C7" t="n">
-        <v>11.6016</v>
+        <v>11.5809</v>
       </c>
       <c r="D7" t="n">
-        <v>12.7645</v>
+        <v>12.5633</v>
       </c>
     </row>
     <row r="8">
@@ -7757,13 +7757,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0514</v>
+        <v>16.0319</v>
       </c>
       <c r="C8" t="n">
-        <v>11.8089</v>
+        <v>11.8045</v>
       </c>
       <c r="D8" t="n">
-        <v>12.9413</v>
+        <v>12.8632</v>
       </c>
     </row>
     <row r="9">
@@ -7771,13 +7771,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4711</v>
+        <v>16.49</v>
       </c>
       <c r="C9" t="n">
-        <v>12.0627</v>
+        <v>12.0657</v>
       </c>
       <c r="D9" t="n">
-        <v>13.2417</v>
+        <v>13.1483</v>
       </c>
     </row>
     <row r="10">
@@ -7785,13 +7785,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>16.8799</v>
+        <v>16.8303</v>
       </c>
       <c r="C10" t="n">
-        <v>12.3786</v>
+        <v>12.3845</v>
       </c>
       <c r="D10" t="n">
-        <v>13.569</v>
+        <v>13.3955</v>
       </c>
     </row>
     <row r="11">
@@ -7799,13 +7799,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>17.3425</v>
+        <v>17.2536</v>
       </c>
       <c r="C11" t="n">
-        <v>12.6548</v>
+        <v>12.6196</v>
       </c>
       <c r="D11" t="n">
-        <v>13.8105</v>
+        <v>13.6794</v>
       </c>
     </row>
     <row r="12">
@@ -7813,13 +7813,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7639</v>
+        <v>17.6945</v>
       </c>
       <c r="C12" t="n">
-        <v>12.9447</v>
+        <v>12.925</v>
       </c>
       <c r="D12" t="n">
-        <v>14.0713</v>
+        <v>13.9366</v>
       </c>
     </row>
     <row r="13">
@@ -7827,13 +7827,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1544</v>
+        <v>15.1832</v>
       </c>
       <c r="C13" t="n">
-        <v>13.2723</v>
+        <v>13.2497</v>
       </c>
       <c r="D13" t="n">
-        <v>14.4483</v>
+        <v>14.277</v>
       </c>
     </row>
     <row r="14">
@@ -7841,13 +7841,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>15.4534</v>
+        <v>15.4985</v>
       </c>
       <c r="C14" t="n">
-        <v>13.5881</v>
+        <v>13.5017</v>
       </c>
       <c r="D14" t="n">
-        <v>14.7722</v>
+        <v>14.6188</v>
       </c>
     </row>
     <row r="15">
@@ -7855,13 +7855,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>15.8374</v>
+        <v>15.8177</v>
       </c>
       <c r="C15" t="n">
-        <v>13.9514</v>
+        <v>13.8857</v>
       </c>
       <c r="D15" t="n">
-        <v>15.2151</v>
+        <v>14.9769</v>
       </c>
     </row>
     <row r="16">
@@ -7869,13 +7869,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>16.127</v>
+        <v>16.0893</v>
       </c>
       <c r="C16" t="n">
-        <v>14.2372</v>
+        <v>14.2573</v>
       </c>
       <c r="D16" t="n">
-        <v>15.48</v>
+        <v>15.2254</v>
       </c>
     </row>
     <row r="17">
@@ -7883,13 +7883,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>16.4868</v>
+        <v>16.4561</v>
       </c>
       <c r="C17" t="n">
-        <v>14.6479</v>
+        <v>14.606</v>
       </c>
       <c r="D17" t="n">
-        <v>15.8519</v>
+        <v>15.6012</v>
       </c>
     </row>
     <row r="18">
@@ -7897,13 +7897,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>16.7534</v>
+        <v>16.7466</v>
       </c>
       <c r="C18" t="n">
-        <v>14.9159</v>
+        <v>14.8673</v>
       </c>
       <c r="D18" t="n">
-        <v>16.1401</v>
+        <v>15.8905</v>
       </c>
     </row>
     <row r="19">
@@ -7911,13 +7911,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>17.156</v>
+        <v>17.1316</v>
       </c>
       <c r="C19" t="n">
-        <v>15.2088</v>
+        <v>15.1759</v>
       </c>
       <c r="D19" t="n">
-        <v>16.523</v>
+        <v>16.2274</v>
       </c>
     </row>
     <row r="20">
@@ -7925,13 +7925,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>17.5612</v>
+        <v>17.517</v>
       </c>
       <c r="C20" t="n">
-        <v>15.5794</v>
+        <v>15.5275</v>
       </c>
       <c r="D20" t="n">
-        <v>16.7469</v>
+        <v>16.5656</v>
       </c>
     </row>
     <row r="21">
@@ -7939,13 +7939,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>17.9085</v>
+        <v>17.8284</v>
       </c>
       <c r="C21" t="n">
-        <v>12.9574</v>
+        <v>12.9381</v>
       </c>
       <c r="D21" t="n">
-        <v>14.1654</v>
+        <v>14.0537</v>
       </c>
     </row>
     <row r="22">
@@ -7953,13 +7953,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>18.2342</v>
+        <v>18.2082</v>
       </c>
       <c r="C22" t="n">
-        <v>13.26</v>
+        <v>13.2328</v>
       </c>
       <c r="D22" t="n">
-        <v>14.4042</v>
+        <v>14.3696</v>
       </c>
     </row>
     <row r="23">
@@ -7967,13 +7967,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>18.6027</v>
+        <v>18.5886</v>
       </c>
       <c r="C23" t="n">
-        <v>13.5194</v>
+        <v>13.5012</v>
       </c>
       <c r="D23" t="n">
-        <v>14.8045</v>
+        <v>14.6153</v>
       </c>
     </row>
     <row r="24">
@@ -7981,13 +7981,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>18.9473</v>
+        <v>18.9493</v>
       </c>
       <c r="C24" t="n">
-        <v>13.785</v>
+        <v>13.7487</v>
       </c>
       <c r="D24" t="n">
-        <v>15.0082</v>
+        <v>14.8638</v>
       </c>
     </row>
     <row r="25">
@@ -7995,13 +7995,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>19.2571</v>
+        <v>19.2719</v>
       </c>
       <c r="C25" t="n">
-        <v>14.0453</v>
+        <v>14.0013</v>
       </c>
       <c r="D25" t="n">
-        <v>15.3347</v>
+        <v>15.1324</v>
       </c>
     </row>
     <row r="26">
@@ -8009,13 +8009,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>19.6074</v>
+        <v>19.5815</v>
       </c>
       <c r="C26" t="n">
-        <v>14.3664</v>
+        <v>14.3063</v>
       </c>
       <c r="D26" t="n">
-        <v>15.5899</v>
+        <v>15.3964</v>
       </c>
     </row>
     <row r="27">
@@ -8023,13 +8023,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>16.1016</v>
+        <v>15.9984</v>
       </c>
       <c r="C27" t="n">
-        <v>14.6986</v>
+        <v>14.6367</v>
       </c>
       <c r="D27" t="n">
-        <v>15.8983</v>
+        <v>15.7571</v>
       </c>
     </row>
     <row r="28">
@@ -8037,13 +8037,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>16.4591</v>
+        <v>16.4333</v>
       </c>
       <c r="C28" t="n">
-        <v>15.047</v>
+        <v>15.0061</v>
       </c>
       <c r="D28" t="n">
-        <v>16.2897</v>
+        <v>16.1168</v>
       </c>
     </row>
     <row r="29">
@@ -8051,13 +8051,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>16.5847</v>
+        <v>16.6502</v>
       </c>
       <c r="C29" t="n">
-        <v>15.3979</v>
+        <v>15.3526</v>
       </c>
       <c r="D29" t="n">
-        <v>16.626</v>
+        <v>16.4981</v>
       </c>
     </row>
     <row r="30">
@@ -8065,13 +8065,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>16.9823</v>
+        <v>17.1696</v>
       </c>
       <c r="C30" t="n">
-        <v>15.7289</v>
+        <v>15.6715</v>
       </c>
       <c r="D30" t="n">
-        <v>16.9634</v>
+        <v>16.8377</v>
       </c>
     </row>
     <row r="31">
@@ -8079,13 +8079,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>17.4477</v>
+        <v>17.2594</v>
       </c>
       <c r="C31" t="n">
-        <v>16.0385</v>
+        <v>16.01</v>
       </c>
       <c r="D31" t="n">
-        <v>17.377</v>
+        <v>17.2167</v>
       </c>
     </row>
     <row r="32">
@@ -8093,13 +8093,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>17.7217</v>
+        <v>17.6441</v>
       </c>
       <c r="C32" t="n">
-        <v>16.3848</v>
+        <v>16.3188</v>
       </c>
       <c r="D32" t="n">
-        <v>17.6098</v>
+        <v>17.477</v>
       </c>
     </row>
     <row r="33">
@@ -8107,13 +8107,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>17.9175</v>
+        <v>17.9301</v>
       </c>
       <c r="C33" t="n">
-        <v>16.7737</v>
+        <v>16.7361</v>
       </c>
       <c r="D33" t="n">
-        <v>18.1114</v>
+        <v>17.8671</v>
       </c>
     </row>
     <row r="34">
@@ -8121,13 +8121,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>18.215</v>
+        <v>18.4492</v>
       </c>
       <c r="C34" t="n">
-        <v>17.0565</v>
+        <v>17.0314</v>
       </c>
       <c r="D34" t="n">
-        <v>18.3544</v>
+        <v>18.2779</v>
       </c>
     </row>
     <row r="35">
@@ -8135,13 +8135,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>18.5711</v>
+        <v>18.7306</v>
       </c>
       <c r="C35" t="n">
-        <v>13.7008</v>
+        <v>13.6471</v>
       </c>
       <c r="D35" t="n">
-        <v>15.1076</v>
+        <v>14.8695</v>
       </c>
     </row>
     <row r="36">
@@ -8149,13 +8149,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>18.9439</v>
+        <v>18.9348</v>
       </c>
       <c r="C36" t="n">
-        <v>13.9316</v>
+        <v>13.8688</v>
       </c>
       <c r="D36" t="n">
-        <v>15.3182</v>
+        <v>15.0995</v>
       </c>
     </row>
     <row r="37">
@@ -8163,13 +8163,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>19.1971</v>
+        <v>19.3484</v>
       </c>
       <c r="C37" t="n">
-        <v>14.1819</v>
+        <v>14.1339</v>
       </c>
       <c r="D37" t="n">
-        <v>15.5846</v>
+        <v>15.3584</v>
       </c>
     </row>
     <row r="38">
@@ -8177,13 +8177,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>19.7454</v>
+        <v>19.7467</v>
       </c>
       <c r="C38" t="n">
-        <v>14.4631</v>
+        <v>14.4026</v>
       </c>
       <c r="D38" t="n">
-        <v>15.9164</v>
+        <v>15.681</v>
       </c>
     </row>
     <row r="39">
@@ -8191,13 +8191,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>19.9063</v>
+        <v>19.9262</v>
       </c>
       <c r="C39" t="n">
-        <v>14.7823</v>
+        <v>14.7093</v>
       </c>
       <c r="D39" t="n">
-        <v>16.2118</v>
+        <v>16.0036</v>
       </c>
     </row>
     <row r="40">
@@ -8205,13 +8205,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>20.2298</v>
+        <v>20.2626</v>
       </c>
       <c r="C40" t="n">
-        <v>15.0812</v>
+        <v>15.0244</v>
       </c>
       <c r="D40" t="n">
-        <v>16.6306</v>
+        <v>16.3413</v>
       </c>
     </row>
     <row r="41">
@@ -8219,13 +8219,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>16.748</v>
+        <v>16.7022</v>
       </c>
       <c r="C41" t="n">
-        <v>15.4203</v>
+        <v>15.3326</v>
       </c>
       <c r="D41" t="n">
-        <v>16.9611</v>
+        <v>16.6688</v>
       </c>
     </row>
     <row r="42">
@@ -8233,13 +8233,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>16.9189</v>
+        <v>16.9232</v>
       </c>
       <c r="C42" t="n">
-        <v>15.6881</v>
+        <v>15.6437</v>
       </c>
       <c r="D42" t="n">
-        <v>17.1831</v>
+        <v>16.9698</v>
       </c>
     </row>
     <row r="43">
@@ -8247,13 +8247,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>17.2228</v>
+        <v>17.2608</v>
       </c>
       <c r="C43" t="n">
-        <v>16.0514</v>
+        <v>15.9998</v>
       </c>
       <c r="D43" t="n">
-        <v>17.5239</v>
+        <v>17.3154</v>
       </c>
     </row>
     <row r="44">
@@ -8261,13 +8261,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>17.4954</v>
+        <v>17.5516</v>
       </c>
       <c r="C44" t="n">
-        <v>16.387</v>
+        <v>16.354</v>
       </c>
       <c r="D44" t="n">
-        <v>17.9363</v>
+        <v>17.6591</v>
       </c>
     </row>
     <row r="45">
@@ -8275,13 +8275,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>17.7705</v>
+        <v>17.8582</v>
       </c>
       <c r="C45" t="n">
-        <v>16.7417</v>
+        <v>16.73</v>
       </c>
       <c r="D45" t="n">
-        <v>18.277</v>
+        <v>18.0567</v>
       </c>
     </row>
     <row r="46">
@@ -8289,13 +8289,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>18.0277</v>
+        <v>18.0787</v>
       </c>
       <c r="C46" t="n">
-        <v>17.0694</v>
+        <v>17.0337</v>
       </c>
       <c r="D46" t="n">
-        <v>18.6742</v>
+        <v>18.2953</v>
       </c>
     </row>
     <row r="47">
@@ -8303,13 +8303,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>18.3331</v>
+        <v>18.4589</v>
       </c>
       <c r="C47" t="n">
-        <v>17.4314</v>
+        <v>17.4196</v>
       </c>
       <c r="D47" t="n">
-        <v>18.9572</v>
+        <v>18.7003</v>
       </c>
     </row>
     <row r="48">
@@ -8317,13 +8317,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>18.683</v>
+        <v>18.7859</v>
       </c>
       <c r="C48" t="n">
-        <v>17.7462</v>
+        <v>17.7232</v>
       </c>
       <c r="D48" t="n">
-        <v>19.3358</v>
+        <v>18.9993</v>
       </c>
     </row>
     <row r="49">
@@ -8331,13 +8331,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>19.0065</v>
+        <v>19.0451</v>
       </c>
       <c r="C49" t="n">
-        <v>18.0386</v>
+        <v>18.026</v>
       </c>
       <c r="D49" t="n">
-        <v>19.6917</v>
+        <v>19.4005</v>
       </c>
     </row>
     <row r="50">
@@ -8345,13 +8345,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>19.3382</v>
+        <v>19.358</v>
       </c>
       <c r="C50" t="n">
-        <v>14.1966</v>
+        <v>14.1367</v>
       </c>
       <c r="D50" t="n">
-        <v>15.04</v>
+        <v>14.8425</v>
       </c>
     </row>
     <row r="51">
@@ -8359,13 +8359,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>19.7219</v>
+        <v>19.6982</v>
       </c>
       <c r="C51" t="n">
-        <v>14.4338</v>
+        <v>14.3903</v>
       </c>
       <c r="D51" t="n">
-        <v>15.3069</v>
+        <v>15.0706</v>
       </c>
     </row>
     <row r="52">
@@ -8373,13 +8373,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>19.9824</v>
+        <v>20.0242</v>
       </c>
       <c r="C52" t="n">
-        <v>14.7189</v>
+        <v>14.6292</v>
       </c>
       <c r="D52" t="n">
-        <v>15.5517</v>
+        <v>15.3128</v>
       </c>
     </row>
     <row r="53">
@@ -8387,13 +8387,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>20.3296</v>
+        <v>20.3503</v>
       </c>
       <c r="C53" t="n">
-        <v>15.0565</v>
+        <v>14.9169</v>
       </c>
       <c r="D53" t="n">
-        <v>15.8548</v>
+        <v>15.6045</v>
       </c>
     </row>
     <row r="54">
@@ -8401,13 +8401,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>20.611</v>
+        <v>20.6518</v>
       </c>
       <c r="C54" t="n">
-        <v>15.3008</v>
+        <v>15.2074</v>
       </c>
       <c r="D54" t="n">
-        <v>16.2048</v>
+        <v>15.9262</v>
       </c>
     </row>
     <row r="55">
@@ -8415,13 +8415,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>20.9432</v>
+        <v>21.0137</v>
       </c>
       <c r="C55" t="n">
-        <v>15.6143</v>
+        <v>15.5225</v>
       </c>
       <c r="D55" t="n">
-        <v>16.527</v>
+        <v>16.2233</v>
       </c>
     </row>
     <row r="56">
@@ -8429,13 +8429,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>17.1302</v>
+        <v>17.125</v>
       </c>
       <c r="C56" t="n">
-        <v>15.9055</v>
+        <v>15.9038</v>
       </c>
       <c r="D56" t="n">
-        <v>16.7602</v>
+        <v>16.5162</v>
       </c>
     </row>
     <row r="57">
@@ -8443,13 +8443,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>17.3836</v>
+        <v>17.4015</v>
       </c>
       <c r="C57" t="n">
-        <v>16.2541</v>
+        <v>16.1976</v>
       </c>
       <c r="D57" t="n">
-        <v>17.1493</v>
+        <v>16.8764</v>
       </c>
     </row>
     <row r="58">
@@ -8457,13 +8457,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>17.6576</v>
+        <v>17.6754</v>
       </c>
       <c r="C58" t="n">
-        <v>16.5614</v>
+        <v>16.5299</v>
       </c>
       <c r="D58" t="n">
-        <v>17.547</v>
+        <v>17.2214</v>
       </c>
     </row>
     <row r="59">
@@ -8471,13 +8471,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>17.9372</v>
+        <v>18.0006</v>
       </c>
       <c r="C59" t="n">
-        <v>16.9676</v>
+        <v>16.939</v>
       </c>
       <c r="D59" t="n">
-        <v>17.8005</v>
+        <v>17.6323</v>
       </c>
     </row>
     <row r="60">
@@ -8485,13 +8485,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>18.2441</v>
+        <v>18.2948</v>
       </c>
       <c r="C60" t="n">
-        <v>17.3139</v>
+        <v>17.2721</v>
       </c>
       <c r="D60" t="n">
-        <v>18.2616</v>
+        <v>17.9074</v>
       </c>
     </row>
     <row r="61">
@@ -8499,13 +8499,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>18.5734</v>
+        <v>18.5924</v>
       </c>
       <c r="C61" t="n">
-        <v>17.6905</v>
+        <v>17.6232</v>
       </c>
       <c r="D61" t="n">
-        <v>18.5342</v>
+        <v>18.3088</v>
       </c>
     </row>
     <row r="62">
@@ -8513,13 +8513,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>18.9172</v>
+        <v>18.9651</v>
       </c>
       <c r="C62" t="n">
-        <v>18.0142</v>
+        <v>17.9759</v>
       </c>
       <c r="D62" t="n">
-        <v>18.9783</v>
+        <v>18.6245</v>
       </c>
     </row>
     <row r="63">
@@ -8527,13 +8527,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>19.2812</v>
+        <v>19.3558</v>
       </c>
       <c r="C63" t="n">
-        <v>18.3135</v>
+        <v>18.3027</v>
       </c>
       <c r="D63" t="n">
-        <v>19.2482</v>
+        <v>18.9919</v>
       </c>
     </row>
     <row r="64">
@@ -8541,13 +8541,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>19.6422</v>
+        <v>19.8036</v>
       </c>
       <c r="C64" t="n">
-        <v>14.5022</v>
+        <v>14.5164</v>
       </c>
       <c r="D64" t="n">
-        <v>15.4626</v>
+        <v>15.2429</v>
       </c>
     </row>
     <row r="65">
@@ -8555,13 +8555,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>19.9333</v>
+        <v>20.1654</v>
       </c>
       <c r="C65" t="n">
-        <v>14.7702</v>
+        <v>14.8592</v>
       </c>
       <c r="D65" t="n">
-        <v>15.8359</v>
+        <v>15.6335</v>
       </c>
     </row>
     <row r="66">
@@ -8569,13 +8569,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>20.3457</v>
+        <v>20.49</v>
       </c>
       <c r="C66" t="n">
-        <v>15.0841</v>
+        <v>15.174</v>
       </c>
       <c r="D66" t="n">
-        <v>16.1184</v>
+        <v>15.8918</v>
       </c>
     </row>
     <row r="67">
@@ -8583,13 +8583,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>20.7194</v>
+        <v>20.8138</v>
       </c>
       <c r="C67" t="n">
-        <v>15.51</v>
+        <v>15.542</v>
       </c>
       <c r="D67" t="n">
-        <v>16.4309</v>
+        <v>16.2452</v>
       </c>
     </row>
     <row r="68">
@@ -8597,13 +8597,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>21.1062</v>
+        <v>21.2255</v>
       </c>
       <c r="C68" t="n">
-        <v>15.8427</v>
+        <v>15.9209</v>
       </c>
       <c r="D68" t="n">
-        <v>16.8199</v>
+        <v>16.7271</v>
       </c>
     </row>
     <row r="69">
@@ -8611,13 +8611,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>21.5586</v>
+        <v>21.7202</v>
       </c>
       <c r="C69" t="n">
-        <v>16.2558</v>
+        <v>16.2756</v>
       </c>
       <c r="D69" t="n">
-        <v>17.2091</v>
+        <v>17.0864</v>
       </c>
     </row>
     <row r="70">
@@ -8625,13 +8625,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>21.1599</v>
+        <v>20.6943</v>
       </c>
       <c r="C70" t="n">
-        <v>16.6701</v>
+        <v>16.7455</v>
       </c>
       <c r="D70" t="n">
-        <v>17.618</v>
+        <v>17.5102</v>
       </c>
     </row>
     <row r="71">
@@ -8639,13 +8639,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>22.3411</v>
+        <v>22.2634</v>
       </c>
       <c r="C71" t="n">
-        <v>17.0919</v>
+        <v>17.2108</v>
       </c>
       <c r="D71" t="n">
-        <v>18.0447</v>
+        <v>17.9817</v>
       </c>
     </row>
     <row r="72">
@@ -8653,13 +8653,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>23.4084</v>
+        <v>22.8166</v>
       </c>
       <c r="C72" t="n">
-        <v>17.5306</v>
+        <v>17.5915</v>
       </c>
       <c r="D72" t="n">
-        <v>18.5594</v>
+        <v>18.337</v>
       </c>
     </row>
     <row r="73">
@@ -8667,13 +8667,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>23.9509</v>
+        <v>24.7292</v>
       </c>
       <c r="C73" t="n">
-        <v>17.9762</v>
+        <v>18.1017</v>
       </c>
       <c r="D73" t="n">
-        <v>18.9565</v>
+        <v>18.7996</v>
       </c>
     </row>
     <row r="74">
@@ -8681,13 +8681,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>26.2288</v>
+        <v>26.2613</v>
       </c>
       <c r="C74" t="n">
-        <v>18.4742</v>
+        <v>18.5862</v>
       </c>
       <c r="D74" t="n">
-        <v>19.3743</v>
+        <v>19.3061</v>
       </c>
     </row>
     <row r="75">
@@ -8695,13 +8695,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>27.4396</v>
+        <v>27.7573</v>
       </c>
       <c r="C75" t="n">
-        <v>18.8865</v>
+        <v>18.9238</v>
       </c>
       <c r="D75" t="n">
-        <v>19.8767</v>
+        <v>19.7127</v>
       </c>
     </row>
     <row r="76">
@@ -8709,13 +8709,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>28.7186</v>
+        <v>29.0011</v>
       </c>
       <c r="C76" t="n">
-        <v>19.3113</v>
+        <v>19.6906</v>
       </c>
       <c r="D76" t="n">
-        <v>20.4319</v>
+        <v>20.3986</v>
       </c>
     </row>
     <row r="77">
@@ -8723,13 +8723,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>30.3279</v>
+        <v>30.3516</v>
       </c>
       <c r="C77" t="n">
-        <v>19.9995</v>
+        <v>20.0909</v>
       </c>
       <c r="D77" t="n">
-        <v>21.1652</v>
+        <v>20.8983</v>
       </c>
     </row>
     <row r="78">
@@ -8737,13 +8737,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>31.6188</v>
+        <v>31.6934</v>
       </c>
       <c r="C78" t="n">
-        <v>22.3688</v>
+        <v>22.4898</v>
       </c>
       <c r="D78" t="n">
-        <v>22.8029</v>
+        <v>22.6223</v>
       </c>
     </row>
     <row r="79">
@@ -8751,13 +8751,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>32.9831</v>
+        <v>33.0367</v>
       </c>
       <c r="C79" t="n">
-        <v>23.7549</v>
+        <v>23.8541</v>
       </c>
       <c r="D79" t="n">
-        <v>24.0022</v>
+        <v>23.915</v>
       </c>
     </row>
     <row r="80">
@@ -8765,13 +8765,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>34.2818</v>
+        <v>34.5557</v>
       </c>
       <c r="C80" t="n">
-        <v>25.0606</v>
+        <v>25.1834</v>
       </c>
       <c r="D80" t="n">
-        <v>25.3673</v>
+        <v>25.3307</v>
       </c>
     </row>
     <row r="81">
@@ -8779,13 +8779,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>35.6717</v>
+        <v>35.7872</v>
       </c>
       <c r="C81" t="n">
-        <v>26.3139</v>
+        <v>26.4879</v>
       </c>
       <c r="D81" t="n">
-        <v>26.5602</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="82">
@@ -8793,13 +8793,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>37.1862</v>
+        <v>37.3128</v>
       </c>
       <c r="C82" t="n">
-        <v>27.7143</v>
+        <v>27.668</v>
       </c>
       <c r="D82" t="n">
-        <v>27.7529</v>
+        <v>27.6987</v>
       </c>
     </row>
     <row r="83">
@@ -8807,13 +8807,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>38.5706</v>
+        <v>38.7953</v>
       </c>
       <c r="C83" t="n">
-        <v>28.7482</v>
+        <v>28.5981</v>
       </c>
       <c r="D83" t="n">
-        <v>29.1356</v>
+        <v>28.5903</v>
       </c>
     </row>
     <row r="84">
@@ -8821,13 +8821,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>43.7395</v>
+        <v>43.8416</v>
       </c>
       <c r="C84" t="n">
-        <v>30.1325</v>
+        <v>30.0614</v>
       </c>
       <c r="D84" t="n">
-        <v>30.1574</v>
+        <v>30.2427</v>
       </c>
     </row>
     <row r="85">
@@ -8835,13 +8835,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>44.6829</v>
+        <v>44.8428</v>
       </c>
       <c r="C85" t="n">
-        <v>31.2399</v>
+        <v>31.2061</v>
       </c>
       <c r="D85" t="n">
-        <v>31.5073</v>
+        <v>31.2885</v>
       </c>
     </row>
     <row r="86">
@@ -8849,13 +8849,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>45.8055</v>
+        <v>45.8306</v>
       </c>
       <c r="C86" t="n">
-        <v>32.3846</v>
+        <v>32.4278</v>
       </c>
       <c r="D86" t="n">
-        <v>32.7343</v>
+        <v>32.3982</v>
       </c>
     </row>
     <row r="87">
@@ -8863,13 +8863,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>46.6078</v>
+        <v>46.6476</v>
       </c>
       <c r="C87" t="n">
-        <v>33.4882</v>
+        <v>33.5229</v>
       </c>
       <c r="D87" t="n">
-        <v>33.9517</v>
+        <v>33.8859</v>
       </c>
     </row>
     <row r="88">
@@ -8877,13 +8877,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>47.5158</v>
+        <v>47.7146</v>
       </c>
       <c r="C88" t="n">
-        <v>34.6257</v>
+        <v>34.7164</v>
       </c>
       <c r="D88" t="n">
-        <v>34.9633</v>
+        <v>35.0144</v>
       </c>
     </row>
     <row r="89">
@@ -8891,13 +8891,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>48.69</v>
+        <v>48.6964</v>
       </c>
       <c r="C89" t="n">
-        <v>35.772</v>
+        <v>36.0242</v>
       </c>
       <c r="D89" t="n">
-        <v>36.3299</v>
+        <v>36.1022</v>
       </c>
     </row>
     <row r="90">
@@ -8905,13 +8905,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>49.6856</v>
+        <v>49.7127</v>
       </c>
       <c r="C90" t="n">
-        <v>37.03</v>
+        <v>37.0664</v>
       </c>
       <c r="D90" t="n">
-        <v>37.5526</v>
+        <v>37.2689</v>
       </c>
     </row>
     <row r="91">
@@ -8919,13 +8919,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>50.5775</v>
+        <v>50.9611</v>
       </c>
       <c r="C91" t="n">
-        <v>38.2808</v>
+        <v>38.4125</v>
       </c>
       <c r="D91" t="n">
-        <v>38.9574</v>
+        <v>38.813</v>
       </c>
     </row>
     <row r="92">
@@ -8933,13 +8933,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>51.7316</v>
+        <v>52.1317</v>
       </c>
       <c r="C92" t="n">
-        <v>42.4454</v>
+        <v>42.6381</v>
       </c>
       <c r="D92" t="n">
-        <v>42.6427</v>
+        <v>42.4037</v>
       </c>
     </row>
     <row r="93">
@@ -8947,13 +8947,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>53.0854</v>
+        <v>53.0872</v>
       </c>
       <c r="C93" t="n">
-        <v>43.4256</v>
+        <v>43.2598</v>
       </c>
       <c r="D93" t="n">
-        <v>43.5137</v>
+        <v>43.3586</v>
       </c>
     </row>
     <row r="94">
@@ -8961,13 +8961,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>54.1283</v>
+        <v>54.2971</v>
       </c>
       <c r="C94" t="n">
-        <v>44.173</v>
+        <v>44.1959</v>
       </c>
       <c r="D94" t="n">
-        <v>44.3877</v>
+        <v>44.4075</v>
       </c>
     </row>
     <row r="95">
@@ -8975,13 +8975,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>55.3346</v>
+        <v>55.633</v>
       </c>
       <c r="C95" t="n">
-        <v>44.9322</v>
+        <v>44.9707</v>
       </c>
       <c r="D95" t="n">
-        <v>45.2589</v>
+        <v>45.2249</v>
       </c>
     </row>
     <row r="96">
@@ -8989,13 +8989,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>56.8596</v>
+        <v>57.0282</v>
       </c>
       <c r="C96" t="n">
-        <v>45.6783</v>
+        <v>45.5853</v>
       </c>
       <c r="D96" t="n">
-        <v>46.1346</v>
+        <v>45.995</v>
       </c>
     </row>
     <row r="97">
@@ -9003,13 +9003,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>58.2273</v>
+        <v>58.5257</v>
       </c>
       <c r="C97" t="n">
-        <v>46.5874</v>
+        <v>46.6028</v>
       </c>
       <c r="D97" t="n">
-        <v>46.831</v>
+        <v>46.7542</v>
       </c>
     </row>
     <row r="98">
@@ -9017,13 +9017,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>54.4708</v>
+        <v>54.5197</v>
       </c>
       <c r="C98" t="n">
-        <v>47.6598</v>
+        <v>47.2935</v>
       </c>
       <c r="D98" t="n">
-        <v>47.8462</v>
+        <v>47.5596</v>
       </c>
     </row>
     <row r="99">
@@ -9031,13 +9031,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>55.2356</v>
+        <v>55.4238</v>
       </c>
       <c r="C99" t="n">
-        <v>48.3894</v>
+        <v>48.2434</v>
       </c>
       <c r="D99" t="n">
-        <v>48.9617</v>
+        <v>48.6833</v>
       </c>
     </row>
     <row r="100">
@@ -9045,13 +9045,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>56.2393</v>
+        <v>56.3855</v>
       </c>
       <c r="C100" t="n">
-        <v>49.3768</v>
+        <v>49.2814</v>
       </c>
       <c r="D100" t="n">
-        <v>49.9219</v>
+        <v>49.8104</v>
       </c>
     </row>
     <row r="101">
@@ -9059,13 +9059,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>57.1682</v>
+        <v>57.3419</v>
       </c>
       <c r="C101" t="n">
-        <v>50.5171</v>
+        <v>50.5418</v>
       </c>
       <c r="D101" t="n">
-        <v>51.0381</v>
+        <v>50.8896</v>
       </c>
     </row>
     <row r="102">
@@ -9073,13 +9073,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>58.1769</v>
+        <v>58.0395</v>
       </c>
       <c r="C102" t="n">
-        <v>51.6439</v>
+        <v>51.6868</v>
       </c>
       <c r="D102" t="n">
-        <v>52.1072</v>
+        <v>52.0052</v>
       </c>
     </row>
     <row r="103">
@@ -9087,13 +9087,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>59.0754</v>
+        <v>59.193</v>
       </c>
       <c r="C103" t="n">
-        <v>52.838</v>
+        <v>53.0072</v>
       </c>
       <c r="D103" t="n">
-        <v>53.3881</v>
+        <v>53.3223</v>
       </c>
     </row>
     <row r="104">
@@ -9101,13 +9101,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>60.0916</v>
+        <v>60.4197</v>
       </c>
       <c r="C104" t="n">
-        <v>54.0929</v>
+        <v>54.1347</v>
       </c>
       <c r="D104" t="n">
-        <v>54.6466</v>
+        <v>54.6456</v>
       </c>
     </row>
     <row r="105">
@@ -9115,13 +9115,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>61.0589</v>
+        <v>61.3028</v>
       </c>
       <c r="C105" t="n">
-        <v>55.2958</v>
+        <v>55.445</v>
       </c>
       <c r="D105" t="n">
-        <v>56.1438</v>
+        <v>56.0624</v>
       </c>
     </row>
     <row r="106">
@@ -9129,13 +9129,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>62.3439</v>
+        <v>62.5036</v>
       </c>
       <c r="C106" t="n">
-        <v>56.6881</v>
+        <v>56.8083</v>
       </c>
       <c r="D106" t="n">
-        <v>57.5479</v>
+        <v>57.3938</v>
       </c>
     </row>
     <row r="107">
@@ -9143,13 +9143,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>63.386</v>
+        <v>63.8484</v>
       </c>
       <c r="C107" t="n">
-        <v>53.4219</v>
+        <v>53.3867</v>
       </c>
       <c r="D107" t="n">
-        <v>53.8795</v>
+        <v>53.889</v>
       </c>
     </row>
     <row r="108">
@@ -9157,13 +9157,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>64.6403</v>
+        <v>64.7611</v>
       </c>
       <c r="C108" t="n">
-        <v>54.1028</v>
+        <v>54.1204</v>
       </c>
       <c r="D108" t="n">
-        <v>54.8005</v>
+        <v>54.553</v>
       </c>
     </row>
     <row r="109">
@@ -9171,13 +9171,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>66.01949999999999</v>
+        <v>66.4144</v>
       </c>
       <c r="C109" t="n">
-        <v>54.9429</v>
+        <v>54.9528</v>
       </c>
       <c r="D109" t="n">
-        <v>55.5651</v>
+        <v>55.4748</v>
       </c>
     </row>
     <row r="110">
@@ -9185,13 +9185,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>67.33499999999999</v>
+        <v>67.5522</v>
       </c>
       <c r="C110" t="n">
-        <v>55.6897</v>
+        <v>55.8592</v>
       </c>
       <c r="D110" t="n">
-        <v>56.3001</v>
+        <v>56.3363</v>
       </c>
     </row>
     <row r="111">
@@ -9199,13 +9199,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>68.84820000000001</v>
+        <v>69.0836</v>
       </c>
       <c r="C111" t="n">
-        <v>56.6775</v>
+        <v>56.9391</v>
       </c>
       <c r="D111" t="n">
-        <v>57.3733</v>
+        <v>57.2169</v>
       </c>
     </row>
     <row r="112">
@@ -9213,13 +9213,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>60.8861</v>
+        <v>60.7545</v>
       </c>
       <c r="C112" t="n">
-        <v>57.6055</v>
+        <v>57.6518</v>
       </c>
       <c r="D112" t="n">
-        <v>58.1642</v>
+        <v>58.0605</v>
       </c>
     </row>
     <row r="113">
@@ -9227,13 +9227,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>61.7219</v>
+        <v>61.8334</v>
       </c>
       <c r="C113" t="n">
-        <v>58.6446</v>
+        <v>58.62</v>
       </c>
       <c r="D113" t="n">
-        <v>59.1775</v>
+        <v>59.3916</v>
       </c>
     </row>
     <row r="114">
@@ -9241,13 +9241,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>62.6154</v>
+        <v>62.8235</v>
       </c>
       <c r="C114" t="n">
-        <v>59.7809</v>
+        <v>59.9053</v>
       </c>
       <c r="D114" t="n">
-        <v>60.4295</v>
+        <v>60.444</v>
       </c>
     </row>
     <row r="115">
@@ -9255,13 +9255,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>63.4238</v>
+        <v>63.8657</v>
       </c>
       <c r="C115" t="n">
-        <v>60.7472</v>
+        <v>61.0401</v>
       </c>
       <c r="D115" t="n">
-        <v>61.6222</v>
+        <v>61.5852</v>
       </c>
     </row>
     <row r="116">
@@ -9269,13 +9269,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>64.2568</v>
+        <v>64.6061</v>
       </c>
       <c r="C116" t="n">
-        <v>62.1447</v>
+        <v>62.2935</v>
       </c>
       <c r="D116" t="n">
-        <v>62.6721</v>
+        <v>62.464</v>
       </c>
     </row>
     <row r="117">
@@ -9283,13 +9283,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>65.3459</v>
+        <v>65.5646</v>
       </c>
       <c r="C117" t="n">
-        <v>63.245</v>
+        <v>63.3863</v>
       </c>
       <c r="D117" t="n">
-        <v>63.8266</v>
+        <v>63.6894</v>
       </c>
     </row>
     <row r="118">
@@ -9297,13 +9297,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>66.4739</v>
+        <v>66.7011</v>
       </c>
       <c r="C118" t="n">
-        <v>64.42919999999999</v>
+        <v>64.5258</v>
       </c>
       <c r="D118" t="n">
-        <v>65.202</v>
+        <v>65.2428</v>
       </c>
     </row>
     <row r="119">
@@ -9311,13 +9311,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>67.41800000000001</v>
+        <v>67.7353</v>
       </c>
       <c r="C119" t="n">
-        <v>65.77930000000001</v>
+        <v>65.98520000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>66.33459999999999</v>
+        <v>66.4712</v>
       </c>
     </row>
   </sheetData>
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>14.121</v>
+        <v>14.1259</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3334</v>
+        <v>11.2737</v>
       </c>
       <c r="D2" t="n">
-        <v>11.4216</v>
+        <v>11.4531</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>13.9737</v>
+        <v>13.9673</v>
       </c>
       <c r="C3" t="n">
-        <v>11.6518</v>
+        <v>11.6071</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4306</v>
+        <v>11.4637</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0145</v>
+        <v>14.0314</v>
       </c>
       <c r="C4" t="n">
-        <v>11.8044</v>
+        <v>11.8121</v>
       </c>
       <c r="D4" t="n">
-        <v>11.651</v>
+        <v>11.6906</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>14.3842</v>
+        <v>14.4243</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0062</v>
+        <v>12.0003</v>
       </c>
       <c r="D5" t="n">
-        <v>11.7148</v>
+        <v>11.7356</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5467</v>
+        <v>14.5049</v>
       </c>
       <c r="C6" t="n">
-        <v>12.3755</v>
+        <v>12.3859</v>
       </c>
       <c r="D6" t="n">
-        <v>11.9495</v>
+        <v>11.9834</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>14.7097</v>
+        <v>14.684</v>
       </c>
       <c r="C7" t="n">
-        <v>11.3195</v>
+        <v>11.2235</v>
       </c>
       <c r="D7" t="n">
-        <v>11.7275</v>
+        <v>11.7549</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>14.7929</v>
+        <v>14.7497</v>
       </c>
       <c r="C8" t="n">
-        <v>11.5411</v>
+        <v>11.4798</v>
       </c>
       <c r="D8" t="n">
-        <v>11.9314</v>
+        <v>11.9639</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>15.1129</v>
+        <v>15.0978</v>
       </c>
       <c r="C9" t="n">
-        <v>11.802</v>
+        <v>11.7659</v>
       </c>
       <c r="D9" t="n">
-        <v>12.0223</v>
+        <v>12.0498</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>15.5829</v>
+        <v>15.4129</v>
       </c>
       <c r="C10" t="n">
-        <v>11.9248</v>
+        <v>11.8965</v>
       </c>
       <c r="D10" t="n">
-        <v>12.0764</v>
+        <v>12.0752</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>15.4297</v>
+        <v>15.3768</v>
       </c>
       <c r="C11" t="n">
-        <v>11.7699</v>
+        <v>11.7518</v>
       </c>
       <c r="D11" t="n">
-        <v>12.001</v>
+        <v>12.0312</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>16.0364</v>
+        <v>15.9623</v>
       </c>
       <c r="C12" t="n">
-        <v>12.4028</v>
+        <v>12.3092</v>
       </c>
       <c r="D12" t="n">
-        <v>12.2338</v>
+        <v>12.2412</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5368</v>
+        <v>14.5459</v>
       </c>
       <c r="C13" t="n">
-        <v>12.3144</v>
+        <v>12.256</v>
       </c>
       <c r="D13" t="n">
-        <v>12.315</v>
+        <v>12.3134</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>14.8903</v>
+        <v>14.8102</v>
       </c>
       <c r="C14" t="n">
-        <v>12.4951</v>
+        <v>12.4798</v>
       </c>
       <c r="D14" t="n">
-        <v>12.3217</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>15.0198</v>
+        <v>15.0507</v>
       </c>
       <c r="C15" t="n">
-        <v>12.717</v>
+        <v>12.6314</v>
       </c>
       <c r="D15" t="n">
-        <v>12.4275</v>
+        <v>12.4499</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4635</v>
+        <v>15.4666</v>
       </c>
       <c r="C16" t="n">
-        <v>13.0537</v>
+        <v>13.0193</v>
       </c>
       <c r="D16" t="n">
-        <v>12.5376</v>
+        <v>12.5864</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>15.8151</v>
+        <v>15.7982</v>
       </c>
       <c r="C17" t="n">
-        <v>13.3152</v>
+        <v>13.2229</v>
       </c>
       <c r="D17" t="n">
-        <v>12.752</v>
+        <v>12.7638</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>16.0444</v>
+        <v>16.0415</v>
       </c>
       <c r="C18" t="n">
-        <v>13.8512</v>
+        <v>13.808</v>
       </c>
       <c r="D18" t="n">
-        <v>12.8768</v>
+        <v>12.8984</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>16.3719</v>
+        <v>16.4332</v>
       </c>
       <c r="C19" t="n">
-        <v>14.0795</v>
+        <v>14.0208</v>
       </c>
       <c r="D19" t="n">
-        <v>13.1432</v>
+        <v>13.1657</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>16.9296</v>
+        <v>16.9107</v>
       </c>
       <c r="C20" t="n">
-        <v>14.6141</v>
+        <v>14.5724</v>
       </c>
       <c r="D20" t="n">
-        <v>13.2403</v>
+        <v>13.2691</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>17.0733</v>
+        <v>17.0663</v>
       </c>
       <c r="C21" t="n">
-        <v>13.6316</v>
+        <v>13.577</v>
       </c>
       <c r="D21" t="n">
-        <v>13.2975</v>
+        <v>13.3276</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>17.5754</v>
+        <v>17.5366</v>
       </c>
       <c r="C22" t="n">
-        <v>14.0159</v>
+        <v>13.9913</v>
       </c>
       <c r="D22" t="n">
-        <v>13.4758</v>
+        <v>13.571</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>18.0335</v>
+        <v>18.0273</v>
       </c>
       <c r="C23" t="n">
-        <v>14.265</v>
+        <v>14.201</v>
       </c>
       <c r="D23" t="n">
-        <v>13.6167</v>
+        <v>13.6633</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>18.3432</v>
+        <v>18.2788</v>
       </c>
       <c r="C24" t="n">
-        <v>14.8838</v>
+        <v>14.8235</v>
       </c>
       <c r="D24" t="n">
-        <v>13.9529</v>
+        <v>13.9712</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>18.8763</v>
+        <v>18.9312</v>
       </c>
       <c r="C25" t="n">
-        <v>15.4502</v>
+        <v>15.417</v>
       </c>
       <c r="D25" t="n">
-        <v>14.2001</v>
+        <v>14.2418</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>19.6712</v>
+        <v>19.6065</v>
       </c>
       <c r="C26" t="n">
-        <v>15.4557</v>
+        <v>15.4224</v>
       </c>
       <c r="D26" t="n">
-        <v>14.4331</v>
+        <v>14.4303</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>16.7375</v>
+        <v>16.5779</v>
       </c>
       <c r="C27" t="n">
-        <v>16.1147</v>
+        <v>16.0427</v>
       </c>
       <c r="D27" t="n">
-        <v>14.6179</v>
+        <v>14.6776</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>17.0687</v>
+        <v>16.9733</v>
       </c>
       <c r="C28" t="n">
-        <v>16.2328</v>
+        <v>16.197</v>
       </c>
       <c r="D28" t="n">
-        <v>14.7865</v>
+        <v>14.8346</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>17.336</v>
+        <v>17.3371</v>
       </c>
       <c r="C29" t="n">
-        <v>16.6226</v>
+        <v>16.5661</v>
       </c>
       <c r="D29" t="n">
-        <v>15.0091</v>
+        <v>15.0468</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>17.8564</v>
+        <v>17.767</v>
       </c>
       <c r="C30" t="n">
-        <v>17.441</v>
+        <v>17.3851</v>
       </c>
       <c r="D30" t="n">
-        <v>15.343</v>
+        <v>15.3879</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>18.0544</v>
+        <v>17.9655</v>
       </c>
       <c r="C31" t="n">
-        <v>17.3126</v>
+        <v>17.2131</v>
       </c>
       <c r="D31" t="n">
-        <v>15.483</v>
+        <v>15.5247</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>18.4001</v>
+        <v>18.3666</v>
       </c>
       <c r="C32" t="n">
-        <v>17.943</v>
+        <v>17.855</v>
       </c>
       <c r="D32" t="n">
-        <v>15.7992</v>
+        <v>15.8423</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>18.7773</v>
+        <v>18.7244</v>
       </c>
       <c r="C33" t="n">
-        <v>18.6108</v>
+        <v>18.5557</v>
       </c>
       <c r="D33" t="n">
-        <v>16.0871</v>
+        <v>16.1156</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>18.9838</v>
+        <v>18.8419</v>
       </c>
       <c r="C34" t="n">
-        <v>18.8512</v>
+        <v>18.804</v>
       </c>
       <c r="D34" t="n">
-        <v>16.3459</v>
+        <v>16.3716</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>19.337</v>
+        <v>19.235</v>
       </c>
       <c r="C35" t="n">
-        <v>14.9397</v>
+        <v>14.9055</v>
       </c>
       <c r="D35" t="n">
-        <v>14.9715</v>
+        <v>14.9635</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>19.5481</v>
+        <v>19.4794</v>
       </c>
       <c r="C36" t="n">
-        <v>15.2973</v>
+        <v>15.2579</v>
       </c>
       <c r="D36" t="n">
-        <v>15.0576</v>
+        <v>15.0809</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>20.0981</v>
+        <v>20.064</v>
       </c>
       <c r="C37" t="n">
-        <v>15.604</v>
+        <v>15.5784</v>
       </c>
       <c r="D37" t="n">
-        <v>15.2353</v>
+        <v>15.231</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>20.7149</v>
+        <v>20.5454</v>
       </c>
       <c r="C38" t="n">
-        <v>15.8354</v>
+        <v>15.7857</v>
       </c>
       <c r="D38" t="n">
-        <v>15.412</v>
+        <v>15.4456</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>20.923</v>
+        <v>20.8997</v>
       </c>
       <c r="C39" t="n">
-        <v>16.2004</v>
+        <v>16.1752</v>
       </c>
       <c r="D39" t="n">
-        <v>15.6435</v>
+        <v>15.6536</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>21.542</v>
+        <v>21.3875</v>
       </c>
       <c r="C40" t="n">
-        <v>16.4433</v>
+        <v>16.4065</v>
       </c>
       <c r="D40" t="n">
-        <v>15.7659</v>
+        <v>15.7646</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>18.3227</v>
+        <v>18.2802</v>
       </c>
       <c r="C41" t="n">
-        <v>16.732</v>
+        <v>16.6844</v>
       </c>
       <c r="D41" t="n">
-        <v>15.8524</v>
+        <v>15.9013</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>18.6503</v>
+        <v>18.5718</v>
       </c>
       <c r="C42" t="n">
-        <v>16.79</v>
+        <v>16.758</v>
       </c>
       <c r="D42" t="n">
-        <v>15.9828</v>
+        <v>16.021</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>18.8948</v>
+        <v>18.8836</v>
       </c>
       <c r="C43" t="n">
-        <v>17.1008</v>
+        <v>17.0787</v>
       </c>
       <c r="D43" t="n">
-        <v>16.1535</v>
+        <v>16.191</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>19.1635</v>
+        <v>19.1624</v>
       </c>
       <c r="C44" t="n">
-        <v>17.4294</v>
+        <v>17.3665</v>
       </c>
       <c r="D44" t="n">
-        <v>16.3076</v>
+        <v>16.3108</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>19.546</v>
+        <v>19.4655</v>
       </c>
       <c r="C45" t="n">
-        <v>17.6875</v>
+        <v>17.6525</v>
       </c>
       <c r="D45" t="n">
-        <v>16.5222</v>
+        <v>16.5355</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>19.6411</v>
+        <v>19.5228</v>
       </c>
       <c r="C46" t="n">
-        <v>17.7436</v>
+        <v>17.6499</v>
       </c>
       <c r="D46" t="n">
-        <v>16.5994</v>
+        <v>16.6327</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>20.0723</v>
+        <v>19.9493</v>
       </c>
       <c r="C47" t="n">
-        <v>18.1754</v>
+        <v>18.0949</v>
       </c>
       <c r="D47" t="n">
-        <v>16.7719</v>
+        <v>16.7946</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>20.3971</v>
+        <v>20.3013</v>
       </c>
       <c r="C48" t="n">
-        <v>18.5533</v>
+        <v>18.4635</v>
       </c>
       <c r="D48" t="n">
-        <v>16.9331</v>
+        <v>16.9437</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>20.7811</v>
+        <v>20.695</v>
       </c>
       <c r="C49" t="n">
-        <v>18.8189</v>
+        <v>18.7675</v>
       </c>
       <c r="D49" t="n">
-        <v>17.1721</v>
+        <v>17.1771</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>21.1253</v>
+        <v>21.0186</v>
       </c>
       <c r="C50" t="n">
-        <v>16.6643</v>
+        <v>16.5808</v>
       </c>
       <c r="D50" t="n">
-        <v>15.7049</v>
+        <v>15.7315</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>21.5836</v>
+        <v>21.5437</v>
       </c>
       <c r="C51" t="n">
-        <v>16.8595</v>
+        <v>16.8052</v>
       </c>
       <c r="D51" t="n">
-        <v>15.9028</v>
+        <v>15.9024</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>21.8446</v>
+        <v>21.7904</v>
       </c>
       <c r="C52" t="n">
-        <v>17.0515</v>
+        <v>17.0101</v>
       </c>
       <c r="D52" t="n">
-        <v>15.9335</v>
+        <v>15.9791</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>22.2217</v>
+        <v>22.2214</v>
       </c>
       <c r="C53" t="n">
-        <v>17.3674</v>
+        <v>17.3376</v>
       </c>
       <c r="D53" t="n">
-        <v>16.1031</v>
+        <v>16.1252</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>22.6123</v>
+        <v>22.5762</v>
       </c>
       <c r="C54" t="n">
-        <v>17.7077</v>
+        <v>17.6412</v>
       </c>
       <c r="D54" t="n">
-        <v>16.2982</v>
+        <v>16.3251</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>23.0072</v>
+        <v>22.9436</v>
       </c>
       <c r="C55" t="n">
-        <v>18.0476</v>
+        <v>18.0368</v>
       </c>
       <c r="D55" t="n">
-        <v>16.3936</v>
+        <v>16.4351</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>19.6548</v>
+        <v>19.6744</v>
       </c>
       <c r="C56" t="n">
-        <v>18.0589</v>
+        <v>18.0578</v>
       </c>
       <c r="D56" t="n">
-        <v>16.5617</v>
+        <v>16.5602</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>19.7513</v>
+        <v>19.7427</v>
       </c>
       <c r="C57" t="n">
-        <v>18.5518</v>
+        <v>18.5695</v>
       </c>
       <c r="D57" t="n">
-        <v>16.71</v>
+        <v>16.7112</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>20.0789</v>
+        <v>20.0833</v>
       </c>
       <c r="C58" t="n">
-        <v>19.1105</v>
+        <v>19.055</v>
       </c>
       <c r="D58" t="n">
-        <v>16.9448</v>
+        <v>17.0169</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>20.2758</v>
+        <v>20.2845</v>
       </c>
       <c r="C59" t="n">
-        <v>19.6023</v>
+        <v>19.5423</v>
       </c>
       <c r="D59" t="n">
-        <v>17.2177</v>
+        <v>17.307</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>20.6218</v>
+        <v>20.5964</v>
       </c>
       <c r="C60" t="n">
-        <v>19.9175</v>
+        <v>19.8511</v>
       </c>
       <c r="D60" t="n">
-        <v>17.4283</v>
+        <v>17.5369</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>20.8271</v>
+        <v>20.8935</v>
       </c>
       <c r="C61" t="n">
-        <v>20.2426</v>
+        <v>20.2879</v>
       </c>
       <c r="D61" t="n">
-        <v>17.5961</v>
+        <v>17.6576</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>21.4255</v>
+        <v>21.1464</v>
       </c>
       <c r="C62" t="n">
-        <v>20.7671</v>
+        <v>20.5487</v>
       </c>
       <c r="D62" t="n">
-        <v>17.7269</v>
+        <v>18.0208</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>21.9064</v>
+        <v>21.6587</v>
       </c>
       <c r="C63" t="n">
-        <v>21.0844</v>
+        <v>21.3292</v>
       </c>
       <c r="D63" t="n">
-        <v>17.978</v>
+        <v>17.9923</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>21.8851</v>
+        <v>22.0184</v>
       </c>
       <c r="C64" t="n">
-        <v>18.0448</v>
+        <v>17.9288</v>
       </c>
       <c r="D64" t="n">
-        <v>16.5995</v>
+        <v>16.6716</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>22.6129</v>
+        <v>22.3854</v>
       </c>
       <c r="C65" t="n">
-        <v>18.0885</v>
+        <v>18.0513</v>
       </c>
       <c r="D65" t="n">
-        <v>16.8035</v>
+        <v>16.8531</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>22.9377</v>
+        <v>23.0069</v>
       </c>
       <c r="C66" t="n">
-        <v>18.394</v>
+        <v>18.5228</v>
       </c>
       <c r="D66" t="n">
-        <v>16.9339</v>
+        <v>16.9494</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>23.39</v>
+        <v>23.616</v>
       </c>
       <c r="C67" t="n">
-        <v>18.8409</v>
+        <v>18.9472</v>
       </c>
       <c r="D67" t="n">
-        <v>16.9742</v>
+        <v>17.1478</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>24.1299</v>
+        <v>24.2719</v>
       </c>
       <c r="C68" t="n">
-        <v>19.1172</v>
+        <v>19.2915</v>
       </c>
       <c r="D68" t="n">
-        <v>17.4024</v>
+        <v>17.4608</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>25.0555</v>
+        <v>25.214</v>
       </c>
       <c r="C69" t="n">
-        <v>19.5007</v>
+        <v>19.7651</v>
       </c>
       <c r="D69" t="n">
-        <v>17.6414</v>
+        <v>17.5412</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>21.5474</v>
+        <v>21.6185</v>
       </c>
       <c r="C70" t="n">
-        <v>20.1619</v>
+        <v>20.3725</v>
       </c>
       <c r="D70" t="n">
-        <v>17.775</v>
+        <v>17.8565</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>21.9176</v>
+        <v>22.0129</v>
       </c>
       <c r="C71" t="n">
-        <v>20.7801</v>
+        <v>20.8983</v>
       </c>
       <c r="D71" t="n">
-        <v>18.1773</v>
+        <v>18.1697</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>22.701</v>
+        <v>22.6137</v>
       </c>
       <c r="C72" t="n">
-        <v>21.486</v>
+        <v>21.5519</v>
       </c>
       <c r="D72" t="n">
-        <v>18.4748</v>
+        <v>18.4958</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>23.1885</v>
+        <v>23.1823</v>
       </c>
       <c r="C73" t="n">
-        <v>22.2149</v>
+        <v>22.1814</v>
       </c>
       <c r="D73" t="n">
-        <v>18.7103</v>
+        <v>18.9871</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>23.7942</v>
+        <v>23.6731</v>
       </c>
       <c r="C74" t="n">
-        <v>22.6307</v>
+        <v>22.6725</v>
       </c>
       <c r="D74" t="n">
-        <v>18.9301</v>
+        <v>19.1374</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>24.1931</v>
+        <v>24.1456</v>
       </c>
       <c r="C75" t="n">
-        <v>23.0983</v>
+        <v>23.1918</v>
       </c>
       <c r="D75" t="n">
-        <v>19.4497</v>
+        <v>19.4824</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>24.9625</v>
+        <v>25.0343</v>
       </c>
       <c r="C76" t="n">
-        <v>23.8985</v>
+        <v>24.0627</v>
       </c>
       <c r="D76" t="n">
-        <v>19.6895</v>
+        <v>19.8677</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>25.6122</v>
+        <v>25.8198</v>
       </c>
       <c r="C77" t="n">
-        <v>24.6844</v>
+        <v>24.8678</v>
       </c>
       <c r="D77" t="n">
-        <v>20.205</v>
+        <v>20.4605</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>26.6999</v>
+        <v>26.6592</v>
       </c>
       <c r="C78" t="n">
-        <v>20.3635</v>
+        <v>20.7337</v>
       </c>
       <c r="D78" t="n">
-        <v>18.1404</v>
+        <v>18.3464</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>28.003</v>
+        <v>27.9574</v>
       </c>
       <c r="C79" t="n">
-        <v>21.3179</v>
+        <v>21.3877</v>
       </c>
       <c r="D79" t="n">
-        <v>18.3737</v>
+        <v>18.6264</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>29.5406</v>
+        <v>30.3634</v>
       </c>
       <c r="C80" t="n">
-        <v>22.2713</v>
+        <v>22.3431</v>
       </c>
       <c r="D80" t="n">
-        <v>18.7507</v>
+        <v>19.1404</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>31.7577</v>
+        <v>31.5902</v>
       </c>
       <c r="C81" t="n">
-        <v>23.083</v>
+        <v>23.1777</v>
       </c>
       <c r="D81" t="n">
-        <v>19.0227</v>
+        <v>19.3421</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>34.1363</v>
+        <v>34.0448</v>
       </c>
       <c r="C82" t="n">
-        <v>24.4143</v>
+        <v>24.815</v>
       </c>
       <c r="D82" t="n">
-        <v>19.5555</v>
+        <v>19.8286</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>36.127</v>
+        <v>36.9026</v>
       </c>
       <c r="C83" t="n">
-        <v>25.6647</v>
+        <v>26.4327</v>
       </c>
       <c r="D83" t="n">
-        <v>19.9442</v>
+        <v>20.3751</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>37.4008</v>
+        <v>37.9856</v>
       </c>
       <c r="C84" t="n">
-        <v>28.1769</v>
+        <v>28.4089</v>
       </c>
       <c r="D84" t="n">
-        <v>20.7101</v>
+        <v>21.0473</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>40.2735</v>
+        <v>40.3138</v>
       </c>
       <c r="C85" t="n">
-        <v>29.7402</v>
+        <v>29.8618</v>
       </c>
       <c r="D85" t="n">
-        <v>21.276</v>
+        <v>21.6188</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>43.0895</v>
+        <v>44.1083</v>
       </c>
       <c r="C86" t="n">
-        <v>31.5498</v>
+        <v>31.5762</v>
       </c>
       <c r="D86" t="n">
-        <v>22.378</v>
+        <v>22.4227</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>46.4923</v>
+        <v>46.7934</v>
       </c>
       <c r="C87" t="n">
-        <v>33.9716</v>
+        <v>34.1038</v>
       </c>
       <c r="D87" t="n">
-        <v>22.9955</v>
+        <v>23.4769</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>49.9001</v>
+        <v>50.1478</v>
       </c>
       <c r="C88" t="n">
-        <v>36.3908</v>
+        <v>36.8031</v>
       </c>
       <c r="D88" t="n">
-        <v>24.2668</v>
+        <v>24.6509</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>52.1633</v>
+        <v>53.4708</v>
       </c>
       <c r="C89" t="n">
-        <v>39.3717</v>
+        <v>39.339</v>
       </c>
       <c r="D89" t="n">
-        <v>25.7634</v>
+        <v>26.2073</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>55.7223</v>
+        <v>56.2855</v>
       </c>
       <c r="C90" t="n">
-        <v>41.7723</v>
+        <v>42.2598</v>
       </c>
       <c r="D90" t="n">
-        <v>27.7126</v>
+        <v>27.9896</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>59.4572</v>
+        <v>59.7667</v>
       </c>
       <c r="C91" t="n">
-        <v>45.0468</v>
+        <v>45.4668</v>
       </c>
       <c r="D91" t="n">
-        <v>29.7718</v>
+        <v>30.279</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>62.5028</v>
+        <v>63.7617</v>
       </c>
       <c r="C92" t="n">
-        <v>46.4747</v>
+        <v>46.6263</v>
       </c>
       <c r="D92" t="n">
-        <v>40.0509</v>
+        <v>40.4555</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>65.83920000000001</v>
+        <v>66.6387</v>
       </c>
       <c r="C93" t="n">
-        <v>48.8912</v>
+        <v>48.8744</v>
       </c>
       <c r="D93" t="n">
-        <v>42.495</v>
+        <v>42.5485</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>69.7221</v>
+        <v>69.6131</v>
       </c>
       <c r="C94" t="n">
-        <v>50.9374</v>
+        <v>51.2755</v>
       </c>
       <c r="D94" t="n">
-        <v>44.4365</v>
+        <v>45.4412</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>73.49460000000001</v>
+        <v>73.9734</v>
       </c>
       <c r="C95" t="n">
-        <v>53.2421</v>
+        <v>53.6169</v>
       </c>
       <c r="D95" t="n">
-        <v>46.5846</v>
+        <v>47.3304</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>77.4817</v>
+        <v>77.8259</v>
       </c>
       <c r="C96" t="n">
-        <v>55.7366</v>
+        <v>55.7655</v>
       </c>
       <c r="D96" t="n">
-        <v>48.8949</v>
+        <v>49.3151</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>80.72020000000001</v>
+        <v>81.3083</v>
       </c>
       <c r="C97" t="n">
-        <v>58.1203</v>
+        <v>58.3176</v>
       </c>
       <c r="D97" t="n">
-        <v>51.2442</v>
+        <v>51.4731</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>75.47199999999999</v>
+        <v>75.85169999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>60.5504</v>
+        <v>60.703</v>
       </c>
       <c r="D98" t="n">
-        <v>53.5892</v>
+        <v>53.6733</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>78.07429999999999</v>
+        <v>78.5651</v>
       </c>
       <c r="C99" t="n">
-        <v>63.2254</v>
+        <v>63.8685</v>
       </c>
       <c r="D99" t="n">
-        <v>55.9147</v>
+        <v>56.2639</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>80.5821</v>
+        <v>81.1339</v>
       </c>
       <c r="C100" t="n">
-        <v>66.03700000000001</v>
+        <v>66.2671</v>
       </c>
       <c r="D100" t="n">
-        <v>58.1568</v>
+        <v>58.5442</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>83.4761</v>
+        <v>83.8386</v>
       </c>
       <c r="C101" t="n">
-        <v>68.1656</v>
+        <v>68.24590000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>60.2805</v>
+        <v>60.9078</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>86.5331</v>
+        <v>86.5333</v>
       </c>
       <c r="C102" t="n">
-        <v>71.0121</v>
+        <v>71.2717</v>
       </c>
       <c r="D102" t="n">
-        <v>62.1212</v>
+        <v>63.008</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>88.8963</v>
+        <v>89.0067</v>
       </c>
       <c r="C103" t="n">
-        <v>73.3647</v>
+        <v>73.3631</v>
       </c>
       <c r="D103" t="n">
-        <v>64.7658</v>
+        <v>65.26649999999999</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>91.5989</v>
+        <v>91.8291</v>
       </c>
       <c r="C104" t="n">
-        <v>75.9966</v>
+        <v>76.0026</v>
       </c>
       <c r="D104" t="n">
-        <v>66.8408</v>
+        <v>67.6523</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>95.2516</v>
+        <v>95.37479999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>78.8505</v>
+        <v>79.1005</v>
       </c>
       <c r="D105" t="n">
-        <v>69.4723</v>
+        <v>69.59610000000001</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>98.0147</v>
+        <v>97.8531</v>
       </c>
       <c r="C106" t="n">
-        <v>81.4234</v>
+        <v>81.6557</v>
       </c>
       <c r="D106" t="n">
-        <v>71.48180000000001</v>
+        <v>72.28319999999999</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>100.399</v>
+        <v>100.86</v>
       </c>
       <c r="C107" t="n">
-        <v>72.86490000000001</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>75.78019999999999</v>
+        <v>75.8867</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>103.968</v>
+        <v>104.045</v>
       </c>
       <c r="C108" t="n">
-        <v>74.5509</v>
+        <v>74.6707</v>
       </c>
       <c r="D108" t="n">
-        <v>77.02930000000001</v>
+        <v>77.6277</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>106.644</v>
+        <v>106.635</v>
       </c>
       <c r="C109" t="n">
-        <v>76.7255</v>
+        <v>76.794</v>
       </c>
       <c r="D109" t="n">
-        <v>78.60680000000001</v>
+        <v>79.1392</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>109.155</v>
+        <v>110.365</v>
       </c>
       <c r="C110" t="n">
-        <v>78.05070000000001</v>
+        <v>78.5157</v>
       </c>
       <c r="D110" t="n">
-        <v>80.6143</v>
+        <v>80.60509999999999</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>112.621</v>
+        <v>113.587</v>
       </c>
       <c r="C111" t="n">
-        <v>79.81829999999999</v>
+        <v>80.3023</v>
       </c>
       <c r="D111" t="n">
-        <v>82.11709999999999</v>
+        <v>82.2548</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>100.071</v>
+        <v>100.159</v>
       </c>
       <c r="C112" t="n">
-        <v>82.3407</v>
+        <v>82.3672</v>
       </c>
       <c r="D112" t="n">
-        <v>83.922</v>
+        <v>84.19329999999999</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>101.677</v>
+        <v>102.367</v>
       </c>
       <c r="C113" t="n">
-        <v>84.20610000000001</v>
+        <v>84.5078</v>
       </c>
       <c r="D113" t="n">
-        <v>85.5652</v>
+        <v>85.87130000000001</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>103.721</v>
+        <v>103.973</v>
       </c>
       <c r="C114" t="n">
-        <v>86.3164</v>
+        <v>86.4282</v>
       </c>
       <c r="D114" t="n">
-        <v>87.2877</v>
+        <v>87.6735</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>106.448</v>
+        <v>106.318</v>
       </c>
       <c r="C115" t="n">
-        <v>88.58839999999999</v>
+        <v>88.977</v>
       </c>
       <c r="D115" t="n">
-        <v>88.76309999999999</v>
+        <v>89.2183</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>108.115</v>
+        <v>108.988</v>
       </c>
       <c r="C116" t="n">
-        <v>90.95569999999999</v>
+        <v>91.2675</v>
       </c>
       <c r="D116" t="n">
-        <v>90.5226</v>
+        <v>92.3284</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>110.352</v>
+        <v>111.007</v>
       </c>
       <c r="C117" t="n">
-        <v>92.9833</v>
+        <v>93.18770000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>92.3184</v>
+        <v>92.42659999999999</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>113.205</v>
+        <v>113.334</v>
       </c>
       <c r="C118" t="n">
-        <v>95.8917</v>
+        <v>95.7893</v>
       </c>
       <c r="D118" t="n">
-        <v>94.2741</v>
+        <v>94.64109999999999</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>114.955</v>
+        <v>115.206</v>
       </c>
       <c r="C119" t="n">
-        <v>98.2745</v>
+        <v>98.3541</v>
       </c>
       <c r="D119" t="n">
-        <v>95.8417</v>
+        <v>96.5973</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>36.41</v>
+        <v>35.8095</v>
       </c>
       <c r="C2" t="n">
-        <v>19.1975</v>
+        <v>19.1281</v>
       </c>
       <c r="D2" t="n">
-        <v>15.7048</v>
+        <v>15.8385</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>24.6119</v>
+        <v>24.3765</v>
       </c>
       <c r="C3" t="n">
-        <v>19.83</v>
+        <v>19.6154</v>
       </c>
       <c r="D3" t="n">
-        <v>15.83</v>
+        <v>15.8701</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>25.1243</v>
+        <v>24.7395</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8208</v>
+        <v>20.7231</v>
       </c>
       <c r="D4" t="n">
-        <v>16.4098</v>
+        <v>16.6335</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>25.7008</v>
+        <v>25.2035</v>
       </c>
       <c r="C5" t="n">
-        <v>21.4526</v>
+        <v>21.207</v>
       </c>
       <c r="D5" t="n">
-        <v>16.7056</v>
+        <v>16.7872</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>26.6491</v>
+        <v>26.0459</v>
       </c>
       <c r="C6" t="n">
-        <v>21.5756</v>
+        <v>21.3509</v>
       </c>
       <c r="D6" t="n">
-        <v>16.9075</v>
+        <v>17.065</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>27.4458</v>
+        <v>26.8128</v>
       </c>
       <c r="C7" t="n">
-        <v>23.0342</v>
+        <v>23.0029</v>
       </c>
       <c r="D7" t="n">
-        <v>17.3484</v>
+        <v>17.5512</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>27.7554</v>
+        <v>27.3296</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3598</v>
+        <v>24.021</v>
       </c>
       <c r="D8" t="n">
-        <v>18.0363</v>
+        <v>18.1354</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>29.4955</v>
+        <v>29.2313</v>
       </c>
       <c r="C9" t="n">
-        <v>25.4306</v>
+        <v>25.2714</v>
       </c>
       <c r="D9" t="n">
-        <v>18.7855</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>30.7325</v>
+        <v>30.285</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4267</v>
+        <v>26.3758</v>
       </c>
       <c r="D10" t="n">
-        <v>19.5421</v>
+        <v>19.6947</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>31.4381</v>
+        <v>30.4547</v>
       </c>
       <c r="C11" t="n">
-        <v>19.9301</v>
+        <v>19.5807</v>
       </c>
       <c r="D11" t="n">
-        <v>15.6145</v>
+        <v>15.6601</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>33.3179</v>
+        <v>32.6254</v>
       </c>
       <c r="C12" t="n">
-        <v>20.3474</v>
+        <v>19.8791</v>
       </c>
       <c r="D12" t="n">
-        <v>15.6732</v>
+        <v>15.6758</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>34.8662</v>
+        <v>34.5021</v>
       </c>
       <c r="C13" t="n">
-        <v>20.7483</v>
+        <v>20.7805</v>
       </c>
       <c r="D13" t="n">
-        <v>16.2553</v>
+        <v>16.2562</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>36.2629</v>
+        <v>35.7206</v>
       </c>
       <c r="C14" t="n">
-        <v>22.029</v>
+        <v>21.6402</v>
       </c>
       <c r="D14" t="n">
-        <v>16.4351</v>
+        <v>16.4003</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>37.9836</v>
+        <v>37.0461</v>
       </c>
       <c r="C15" t="n">
-        <v>23.1793</v>
+        <v>22.9676</v>
       </c>
       <c r="D15" t="n">
-        <v>16.8005</v>
+        <v>16.9031</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>39.5798</v>
+        <v>39.1735</v>
       </c>
       <c r="C16" t="n">
-        <v>24.214</v>
+        <v>23.9432</v>
       </c>
       <c r="D16" t="n">
-        <v>17.377</v>
+        <v>17.3586</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>24.5602</v>
+        <v>24.14</v>
       </c>
       <c r="C17" t="n">
-        <v>25.5373</v>
+        <v>25.0247</v>
       </c>
       <c r="D17" t="n">
-        <v>17.7814</v>
+        <v>17.9269</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>25.5455</v>
+        <v>25.2638</v>
       </c>
       <c r="C18" t="n">
-        <v>25.9146</v>
+        <v>25.7123</v>
       </c>
       <c r="D18" t="n">
-        <v>17.888</v>
+        <v>17.8747</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>26.9273</v>
+        <v>26.4422</v>
       </c>
       <c r="C19" t="n">
-        <v>27.713</v>
+        <v>27.4826</v>
       </c>
       <c r="D19" t="n">
-        <v>18.6995</v>
+        <v>18.4984</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>27.8598</v>
+        <v>27.5925</v>
       </c>
       <c r="C20" t="n">
-        <v>29.2758</v>
+        <v>29.0086</v>
       </c>
       <c r="D20" t="n">
-        <v>19.4195</v>
+        <v>19.5097</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>28.455</v>
+        <v>28.1383</v>
       </c>
       <c r="C21" t="n">
-        <v>30.7375</v>
+        <v>30.2383</v>
       </c>
       <c r="D21" t="n">
-        <v>20.1636</v>
+        <v>20.33</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>30.1373</v>
+        <v>29.8264</v>
       </c>
       <c r="C22" t="n">
-        <v>32.2336</v>
+        <v>31.8909</v>
       </c>
       <c r="D22" t="n">
-        <v>20.8247</v>
+        <v>21.034</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>31.8379</v>
+        <v>31.5297</v>
       </c>
       <c r="C23" t="n">
-        <v>34.1886</v>
+        <v>34.0262</v>
       </c>
       <c r="D23" t="n">
-        <v>21.7304</v>
+        <v>22.0624</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>32.8362</v>
+        <v>32.6439</v>
       </c>
       <c r="C24" t="n">
-        <v>35.572</v>
+        <v>35.3024</v>
       </c>
       <c r="D24" t="n">
-        <v>22.495</v>
+        <v>22.7988</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>34.6624</v>
+        <v>34.5141</v>
       </c>
       <c r="C25" t="n">
-        <v>37.4273</v>
+        <v>37.2201</v>
       </c>
       <c r="D25" t="n">
-        <v>23.4639</v>
+        <v>23.6237</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>36.0167</v>
+        <v>35.7746</v>
       </c>
       <c r="C26" t="n">
-        <v>22.8848</v>
+        <v>22.7479</v>
       </c>
       <c r="D26" t="n">
-        <v>16.4789</v>
+        <v>16.5516</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>37.3834</v>
+        <v>37.0427</v>
       </c>
       <c r="C27" t="n">
-        <v>23.4654</v>
+        <v>23.4153</v>
       </c>
       <c r="D27" t="n">
-        <v>16.6964</v>
+        <v>16.802</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>39.104</v>
+        <v>38.7849</v>
       </c>
       <c r="C28" t="n">
-        <v>24.4329</v>
+        <v>24.3437</v>
       </c>
       <c r="D28" t="n">
-        <v>17.2652</v>
+        <v>17.302</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>41.4952</v>
+        <v>41.2089</v>
       </c>
       <c r="C29" t="n">
-        <v>24.9715</v>
+        <v>24.8321</v>
       </c>
       <c r="D29" t="n">
-        <v>17.5677</v>
+        <v>17.6171</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>42.2694</v>
+        <v>42.1102</v>
       </c>
       <c r="C30" t="n">
-        <v>26.4278</v>
+        <v>26.2353</v>
       </c>
       <c r="D30" t="n">
-        <v>18.0683</v>
+        <v>18.137</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>44.8685</v>
+        <v>44.5189</v>
       </c>
       <c r="C31" t="n">
-        <v>27.5135</v>
+        <v>27.3524</v>
       </c>
       <c r="D31" t="n">
-        <v>18.7383</v>
+        <v>18.8893</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>30.3476</v>
+        <v>30.3292</v>
       </c>
       <c r="C32" t="n">
-        <v>28.8315</v>
+        <v>28.5734</v>
       </c>
       <c r="D32" t="n">
-        <v>19.1664</v>
+        <v>19.254</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>31.4848</v>
+        <v>31.2945</v>
       </c>
       <c r="C33" t="n">
-        <v>30.1688</v>
+        <v>29.905</v>
       </c>
       <c r="D33" t="n">
-        <v>19.8183</v>
+        <v>20.0444</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>32.1862</v>
+        <v>32.0707</v>
       </c>
       <c r="C34" t="n">
-        <v>31.4657</v>
+        <v>31.3059</v>
       </c>
       <c r="D34" t="n">
-        <v>20.5101</v>
+        <v>20.6993</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>34.0793</v>
+        <v>33.9863</v>
       </c>
       <c r="C35" t="n">
-        <v>33.1716</v>
+        <v>32.9431</v>
       </c>
       <c r="D35" t="n">
-        <v>21.3507</v>
+        <v>21.5798</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>34.7206</v>
+        <v>34.5832</v>
       </c>
       <c r="C36" t="n">
-        <v>34.852</v>
+        <v>34.5365</v>
       </c>
       <c r="D36" t="n">
-        <v>22.1896</v>
+        <v>22.4539</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>36.1706</v>
+        <v>35.9472</v>
       </c>
       <c r="C37" t="n">
-        <v>36.5436</v>
+        <v>36.3483</v>
       </c>
       <c r="D37" t="n">
-        <v>22.8738</v>
+        <v>23.1504</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>37.7891</v>
+        <v>37.7778</v>
       </c>
       <c r="C38" t="n">
-        <v>38.0166</v>
+        <v>37.8275</v>
       </c>
       <c r="D38" t="n">
-        <v>23.8092</v>
+        <v>24.0651</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>38.8894</v>
+        <v>38.7243</v>
       </c>
       <c r="C39" t="n">
-        <v>40.0576</v>
+        <v>39.761</v>
       </c>
       <c r="D39" t="n">
-        <v>24.6272</v>
+        <v>24.8847</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>40.4082</v>
+        <v>40.19</v>
       </c>
       <c r="C40" t="n">
-        <v>27.6164</v>
+        <v>27.4785</v>
       </c>
       <c r="D40" t="n">
-        <v>20.1047</v>
+        <v>20.1265</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>41.8242</v>
+        <v>41.633</v>
       </c>
       <c r="C41" t="n">
-        <v>28.5013</v>
+        <v>28.3824</v>
       </c>
       <c r="D41" t="n">
-        <v>20.5084</v>
+        <v>20.5737</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>43.9035</v>
+        <v>43.6757</v>
       </c>
       <c r="C42" t="n">
-        <v>29.6899</v>
+        <v>29.665</v>
       </c>
       <c r="D42" t="n">
-        <v>21.1469</v>
+        <v>21.2245</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>45.5547</v>
+        <v>45.3714</v>
       </c>
       <c r="C43" t="n">
-        <v>30.545</v>
+        <v>30.4202</v>
       </c>
       <c r="D43" t="n">
-        <v>21.5977</v>
+        <v>21.7082</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>47.2439</v>
+        <v>46.9845</v>
       </c>
       <c r="C44" t="n">
-        <v>32.2463</v>
+        <v>32.0202</v>
       </c>
       <c r="D44" t="n">
-        <v>22.396</v>
+        <v>22.4516</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>49.1841</v>
+        <v>49.0317</v>
       </c>
       <c r="C45" t="n">
-        <v>33.0961</v>
+        <v>32.9272</v>
       </c>
       <c r="D45" t="n">
-        <v>22.9581</v>
+        <v>22.992</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>33.5631</v>
+        <v>33.3841</v>
       </c>
       <c r="C46" t="n">
-        <v>34.5469</v>
+        <v>34.3156</v>
       </c>
       <c r="D46" t="n">
-        <v>23.5469</v>
+        <v>23.6181</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>34.655</v>
+        <v>34.5111</v>
       </c>
       <c r="C47" t="n">
-        <v>35.6721</v>
+        <v>35.4725</v>
       </c>
       <c r="D47" t="n">
-        <v>24.2314</v>
+        <v>24.3648</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>35.9492</v>
+        <v>35.8244</v>
       </c>
       <c r="C48" t="n">
-        <v>36.9984</v>
+        <v>36.6739</v>
       </c>
       <c r="D48" t="n">
-        <v>25.0074</v>
+        <v>25.0891</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>36.9751</v>
+        <v>36.8163</v>
       </c>
       <c r="C49" t="n">
-        <v>38.5022</v>
+        <v>38.2991</v>
       </c>
       <c r="D49" t="n">
-        <v>25.5872</v>
+        <v>25.6973</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>38.1888</v>
+        <v>38.0294</v>
       </c>
       <c r="C50" t="n">
-        <v>39.9544</v>
+        <v>39.7201</v>
       </c>
       <c r="D50" t="n">
-        <v>26.4763</v>
+        <v>26.5181</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>40.1955</v>
+        <v>39.9847</v>
       </c>
       <c r="C51" t="n">
-        <v>41.6173</v>
+        <v>41.4846</v>
       </c>
       <c r="D51" t="n">
-        <v>27.4087</v>
+        <v>27.5242</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>41.4392</v>
+        <v>41.2923</v>
       </c>
       <c r="C52" t="n">
-        <v>43.5459</v>
+        <v>43.2359</v>
       </c>
       <c r="D52" t="n">
-        <v>28.265</v>
+        <v>28.4287</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>42.7392</v>
+        <v>42.4319</v>
       </c>
       <c r="C53" t="n">
-        <v>45.4959</v>
+        <v>44.9661</v>
       </c>
       <c r="D53" t="n">
-        <v>29.4262</v>
+        <v>29.4152</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>44.42</v>
+        <v>44.1669</v>
       </c>
       <c r="C54" t="n">
-        <v>31.6967</v>
+        <v>31.3205</v>
       </c>
       <c r="D54" t="n">
-        <v>22.9168</v>
+        <v>22.9353</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>46.3141</v>
+        <v>45.8837</v>
       </c>
       <c r="C55" t="n">
-        <v>32.4503</v>
+        <v>31.9952</v>
       </c>
       <c r="D55" t="n">
-        <v>23.5312</v>
+        <v>23.413</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>48.065</v>
+        <v>47.4785</v>
       </c>
       <c r="C56" t="n">
-        <v>33.7067</v>
+        <v>33.3003</v>
       </c>
       <c r="D56" t="n">
-        <v>24.0909</v>
+        <v>23.9956</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>49.7385</v>
+        <v>49.1219</v>
       </c>
       <c r="C57" t="n">
-        <v>34.9619</v>
+        <v>34.2718</v>
       </c>
       <c r="D57" t="n">
-        <v>24.5701</v>
+        <v>24.5433</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>52.0298</v>
+        <v>51.0492</v>
       </c>
       <c r="C58" t="n">
-        <v>35.9299</v>
+        <v>35.5468</v>
       </c>
       <c r="D58" t="n">
-        <v>25.3395</v>
+        <v>25.0024</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>53.712</v>
+        <v>52.9894</v>
       </c>
       <c r="C59" t="n">
-        <v>37.2584</v>
+        <v>36.4392</v>
       </c>
       <c r="D59" t="n">
-        <v>26.0175</v>
+        <v>25.838</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>36.1231</v>
+        <v>35.2429</v>
       </c>
       <c r="C60" t="n">
-        <v>38.6405</v>
+        <v>38.369</v>
       </c>
       <c r="D60" t="n">
-        <v>26.5236</v>
+        <v>26.2757</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>37.5918</v>
+        <v>37.4037</v>
       </c>
       <c r="C61" t="n">
-        <v>40.0166</v>
+        <v>39.6813</v>
       </c>
       <c r="D61" t="n">
-        <v>27.4384</v>
+        <v>27.4962</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>38.8042</v>
+        <v>38.2608</v>
       </c>
       <c r="C62" t="n">
-        <v>42.6869</v>
+        <v>41.1245</v>
       </c>
       <c r="D62" t="n">
-        <v>28.0926</v>
+        <v>28.0556</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>40.4477</v>
+        <v>39.6499</v>
       </c>
       <c r="C63" t="n">
-        <v>43.9044</v>
+        <v>43.2588</v>
       </c>
       <c r="D63" t="n">
-        <v>29.1501</v>
+        <v>28.9744</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>41.2626</v>
+        <v>40.6909</v>
       </c>
       <c r="C64" t="n">
-        <v>45.399</v>
+        <v>44.8199</v>
       </c>
       <c r="D64" t="n">
-        <v>30.0419</v>
+        <v>29.7358</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>43.2451</v>
+        <v>42.6867</v>
       </c>
       <c r="C65" t="n">
-        <v>47.6792</v>
+        <v>46.9273</v>
       </c>
       <c r="D65" t="n">
-        <v>30.8233</v>
+        <v>30.7646</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>44.7405</v>
+        <v>44.3168</v>
       </c>
       <c r="C66" t="n">
-        <v>49.3222</v>
+        <v>48.5555</v>
       </c>
       <c r="D66" t="n">
-        <v>31.6759</v>
+        <v>31.8268</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>46.4356</v>
+        <v>45.8745</v>
       </c>
       <c r="C67" t="n">
-        <v>52.0063</v>
+        <v>51.2844</v>
       </c>
       <c r="D67" t="n">
-        <v>32.9457</v>
+        <v>32.9675</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>48.5867</v>
+        <v>48.3487</v>
       </c>
       <c r="C68" t="n">
-        <v>33.2406</v>
+        <v>33.3845</v>
       </c>
       <c r="D68" t="n">
-        <v>24.3568</v>
+        <v>24.4403</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>51.1635</v>
+        <v>51.3299</v>
       </c>
       <c r="C69" t="n">
-        <v>34.6455</v>
+        <v>34.9005</v>
       </c>
       <c r="D69" t="n">
-        <v>24.8062</v>
+        <v>25.1333</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>53.4577</v>
+        <v>53.6689</v>
       </c>
       <c r="C70" t="n">
-        <v>35.8649</v>
+        <v>36.2154</v>
       </c>
       <c r="D70" t="n">
-        <v>25.5801</v>
+        <v>25.9998</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>57.0538</v>
+        <v>56.8284</v>
       </c>
       <c r="C71" t="n">
-        <v>37.6087</v>
+        <v>37.7773</v>
       </c>
       <c r="D71" t="n">
-        <v>26.4405</v>
+        <v>26.8494</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>59.8932</v>
+        <v>59.8337</v>
       </c>
       <c r="C72" t="n">
-        <v>39.2995</v>
+        <v>39.6894</v>
       </c>
       <c r="D72" t="n">
-        <v>27.2392</v>
+        <v>27.5692</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>63.0946</v>
+        <v>62.9513</v>
       </c>
       <c r="C73" t="n">
-        <v>41.2119</v>
+        <v>41.628</v>
       </c>
       <c r="D73" t="n">
-        <v>28.2682</v>
+        <v>28.5001</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>40.9108</v>
+        <v>41.0818</v>
       </c>
       <c r="C74" t="n">
-        <v>42.9949</v>
+        <v>43.439</v>
       </c>
       <c r="D74" t="n">
-        <v>29.237</v>
+        <v>29.349</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>42.2469</v>
+        <v>42.7525</v>
       </c>
       <c r="C75" t="n">
-        <v>45.3782</v>
+        <v>45.6865</v>
       </c>
       <c r="D75" t="n">
-        <v>30.0219</v>
+        <v>30.4104</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>44.1065</v>
+        <v>44.5531</v>
       </c>
       <c r="C76" t="n">
-        <v>47.6166</v>
+        <v>48.1694</v>
       </c>
       <c r="D76" t="n">
-        <v>31.1957</v>
+        <v>31.5478</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>45.8834</v>
+        <v>46.6105</v>
       </c>
       <c r="C77" t="n">
-        <v>50.2408</v>
+        <v>51.2113</v>
       </c>
       <c r="D77" t="n">
-        <v>32.5482</v>
+        <v>32.8943</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>48.1876</v>
+        <v>49.5975</v>
       </c>
       <c r="C78" t="n">
-        <v>52.686</v>
+        <v>53.6811</v>
       </c>
       <c r="D78" t="n">
-        <v>33.5929</v>
+        <v>34.1529</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>50.1241</v>
+        <v>51.1601</v>
       </c>
       <c r="C79" t="n">
-        <v>55.1357</v>
+        <v>57.0703</v>
       </c>
       <c r="D79" t="n">
-        <v>34.8343</v>
+        <v>35.5907</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>53.5512</v>
+        <v>55.8359</v>
       </c>
       <c r="C80" t="n">
-        <v>58.665</v>
+        <v>61.8776</v>
       </c>
       <c r="D80" t="n">
-        <v>36.2634</v>
+        <v>37.2749</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>57.2887</v>
+        <v>60.1161</v>
       </c>
       <c r="C81" t="n">
-        <v>62.7631</v>
+        <v>66.85080000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>38.0145</v>
+        <v>38.9268</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>61.7525</v>
+        <v>65.7252</v>
       </c>
       <c r="C82" t="n">
-        <v>67.1091</v>
+        <v>72.80800000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>39.6629</v>
+        <v>40.94</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>67.37439999999999</v>
+        <v>71.864</v>
       </c>
       <c r="C83" t="n">
-        <v>46.8027</v>
+        <v>50.5569</v>
       </c>
       <c r="D83" t="n">
-        <v>29.6824</v>
+        <v>30.5448</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>74.0437</v>
+        <v>77.9472</v>
       </c>
       <c r="C84" t="n">
-        <v>50.6632</v>
+        <v>52.4025</v>
       </c>
       <c r="D84" t="n">
-        <v>30.8305</v>
+        <v>31.6306</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>82.104</v>
+        <v>87.81570000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>54.283</v>
+        <v>56.8749</v>
       </c>
       <c r="D85" t="n">
-        <v>32.0032</v>
+        <v>33.4127</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>92.3411</v>
+        <v>94.81140000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>61.0668</v>
+        <v>64.0153</v>
       </c>
       <c r="D86" t="n">
-        <v>33.7783</v>
+        <v>34.5577</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>103.157</v>
+        <v>106.167</v>
       </c>
       <c r="C87" t="n">
-        <v>67.0585</v>
+        <v>69.705</v>
       </c>
       <c r="D87" t="n">
-        <v>35.175</v>
+        <v>35.7455</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>113.858</v>
+        <v>116.831</v>
       </c>
       <c r="C88" t="n">
-        <v>75.8365</v>
+        <v>77.64870000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>38.1287</v>
+        <v>38.7295</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>80.4864</v>
+        <v>80.8459</v>
       </c>
       <c r="C89" t="n">
-        <v>83.70359999999999</v>
+        <v>85.4072</v>
       </c>
       <c r="D89" t="n">
-        <v>40.2927</v>
+        <v>41.2166</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>87.4376</v>
+        <v>87.9931</v>
       </c>
       <c r="C90" t="n">
-        <v>92.09220000000001</v>
+        <v>92.8797</v>
       </c>
       <c r="D90" t="n">
-        <v>43.6249</v>
+        <v>43.5618</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>95.27679999999999</v>
+        <v>95.8567</v>
       </c>
       <c r="C91" t="n">
-        <v>101.742</v>
+        <v>103.387</v>
       </c>
       <c r="D91" t="n">
-        <v>47.0312</v>
+        <v>47.384</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>103.643</v>
+        <v>104.623</v>
       </c>
       <c r="C92" t="n">
-        <v>112.136</v>
+        <v>113.425</v>
       </c>
       <c r="D92" t="n">
-        <v>51.1944</v>
+        <v>51.3921</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>111.876</v>
+        <v>112.281</v>
       </c>
       <c r="C93" t="n">
-        <v>123.39</v>
+        <v>123.317</v>
       </c>
       <c r="D93" t="n">
-        <v>56.2273</v>
+        <v>56.1338</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>120.784</v>
+        <v>122.104</v>
       </c>
       <c r="C94" t="n">
-        <v>134.795</v>
+        <v>135.811</v>
       </c>
       <c r="D94" t="n">
-        <v>61.4782</v>
+        <v>61.8578</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>131.076</v>
+        <v>130.997</v>
       </c>
       <c r="C95" t="n">
-        <v>147.408</v>
+        <v>148.017</v>
       </c>
       <c r="D95" t="n">
-        <v>66.9602</v>
+        <v>67.61579999999999</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>141.319</v>
+        <v>141.063</v>
       </c>
       <c r="C96" t="n">
-        <v>161.197</v>
+        <v>161.367</v>
       </c>
       <c r="D96" t="n">
-        <v>73.6495</v>
+        <v>74.0294</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>151.717</v>
+        <v>151.971</v>
       </c>
       <c r="C97" t="n">
-        <v>96.4791</v>
+        <v>96.52719999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>53.1819</v>
+        <v>53.3813</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>163.221</v>
+        <v>163.167</v>
       </c>
       <c r="C98" t="n">
-        <v>102.912</v>
+        <v>103.228</v>
       </c>
       <c r="D98" t="n">
-        <v>56.8471</v>
+        <v>57.5188</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>174.741</v>
+        <v>174.867</v>
       </c>
       <c r="C99" t="n">
-        <v>109.85</v>
+        <v>110.102</v>
       </c>
       <c r="D99" t="n">
-        <v>61.3241</v>
+        <v>61.2818</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>186.86</v>
+        <v>186.798</v>
       </c>
       <c r="C100" t="n">
-        <v>117.915</v>
+        <v>117.821</v>
       </c>
       <c r="D100" t="n">
-        <v>66.02419999999999</v>
+        <v>65.57389999999999</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>200.034</v>
+        <v>199.679</v>
       </c>
       <c r="C101" t="n">
-        <v>125.788</v>
+        <v>125.437</v>
       </c>
       <c r="D101" t="n">
-        <v>70.0873</v>
+        <v>70.446</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>213.822</v>
+        <v>213.388</v>
       </c>
       <c r="C102" t="n">
-        <v>134.146</v>
+        <v>133.937</v>
       </c>
       <c r="D102" t="n">
-        <v>75.0599</v>
+        <v>74.8793</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>142.992</v>
+        <v>142.459</v>
       </c>
       <c r="C103" t="n">
-        <v>143.045</v>
+        <v>142.869</v>
       </c>
       <c r="D103" t="n">
-        <v>80.0509</v>
+        <v>79.7186</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>149.669</v>
+        <v>150.076</v>
       </c>
       <c r="C104" t="n">
-        <v>152.552</v>
+        <v>151.59</v>
       </c>
       <c r="D104" t="n">
-        <v>84.9645</v>
+        <v>85.105</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>157.853</v>
+        <v>157.888</v>
       </c>
       <c r="C105" t="n">
-        <v>162.523</v>
+        <v>162.617</v>
       </c>
       <c r="D105" t="n">
-        <v>89.962</v>
+        <v>90.4362</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>166.26</v>
+        <v>166.734</v>
       </c>
       <c r="C106" t="n">
-        <v>172.194</v>
+        <v>172.242</v>
       </c>
       <c r="D106" t="n">
-        <v>94.82170000000001</v>
+        <v>95.6189</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>175.613</v>
+        <v>175.286</v>
       </c>
       <c r="C107" t="n">
-        <v>182.382</v>
+        <v>182.917</v>
       </c>
       <c r="D107" t="n">
-        <v>101.067</v>
+        <v>101.023</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>184.638</v>
+        <v>184.851</v>
       </c>
       <c r="C108" t="n">
-        <v>195.586</v>
+        <v>195.311</v>
       </c>
       <c r="D108" t="n">
-        <v>106.902</v>
+        <v>107.244</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>193.976</v>
+        <v>194.503</v>
       </c>
       <c r="C109" t="n">
-        <v>208.623</v>
+        <v>208.783</v>
       </c>
       <c r="D109" t="n">
-        <v>113.413</v>
+        <v>113.814</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>203.747</v>
+        <v>203.416</v>
       </c>
       <c r="C110" t="n">
-        <v>220.795</v>
+        <v>220.651</v>
       </c>
       <c r="D110" t="n">
-        <v>119.462</v>
+        <v>119.999</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>213.993</v>
+        <v>214.45</v>
       </c>
       <c r="C111" t="n">
-        <v>137.07</v>
+        <v>137.141</v>
       </c>
       <c r="D111" t="n">
-        <v>93.4194</v>
+        <v>94.0244</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>225.032</v>
+        <v>224.945</v>
       </c>
       <c r="C112" t="n">
-        <v>144.326</v>
+        <v>144.039</v>
       </c>
       <c r="D112" t="n">
-        <v>97.3904</v>
+        <v>97.85769999999999</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>236.07</v>
+        <v>235.51</v>
       </c>
       <c r="C113" t="n">
-        <v>151.655</v>
+        <v>152.321</v>
       </c>
       <c r="D113" t="n">
-        <v>101.787</v>
+        <v>102.002</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>247.575</v>
+        <v>247.363</v>
       </c>
       <c r="C114" t="n">
-        <v>159.58</v>
+        <v>158.614</v>
       </c>
       <c r="D114" t="n">
-        <v>105.605</v>
+        <v>106.115</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>260.637</v>
+        <v>259.166</v>
       </c>
       <c r="C115" t="n">
-        <v>167.168</v>
+        <v>167.152</v>
       </c>
       <c r="D115" t="n">
-        <v>110.217</v>
+        <v>110.254</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>274.19</v>
+        <v>272.462</v>
       </c>
       <c r="C116" t="n">
-        <v>175.24</v>
+        <v>175.431</v>
       </c>
       <c r="D116" t="n">
-        <v>114.792</v>
+        <v>114.564</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>182.31</v>
+        <v>182.694</v>
       </c>
       <c r="C117" t="n">
-        <v>184.718</v>
+        <v>184.059</v>
       </c>
       <c r="D117" t="n">
-        <v>119.355</v>
+        <v>119.495</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>189.651</v>
+        <v>190.173</v>
       </c>
       <c r="C118" t="n">
-        <v>194.791</v>
+        <v>194.157</v>
       </c>
       <c r="D118" t="n">
-        <v>124.181</v>
+        <v>124.456</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>196.308</v>
+        <v>196.624</v>
       </c>
       <c r="C119" t="n">
-        <v>204.231</v>
+        <v>204.038</v>
       </c>
       <c r="D119" t="n">
-        <v>129.167</v>
+        <v>129.374</v>
       </c>
     </row>
   </sheetData>
